--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="1913">
   <si>
     <t>№</t>
   </si>
@@ -463,6 +463,9 @@
     <t>79</t>
   </si>
   <si>
+    <t>8-</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -3089,9 +3092,6 @@
   </si>
   <si>
     <t>940</t>
-  </si>
-  <si>
-    <t>8-</t>
   </si>
   <si>
     <t>941</t>
@@ -6250,55 +6250,55 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
-        <v>4528</v>
+        <v>4532</v>
       </c>
       <c r="D3">
-        <v>15290</v>
+        <v>15309</v>
       </c>
       <c r="E3">
-        <v>33319</v>
+        <v>33410</v>
       </c>
       <c r="F3">
-        <v>39661</v>
+        <v>35017</v>
       </c>
       <c r="G3">
-        <v>53103</v>
+        <v>53232</v>
       </c>
       <c r="H3">
-        <v>74845</v>
+        <v>58461</v>
       </c>
       <c r="I3">
-        <v>76452</v>
+        <v>72228</v>
       </c>
       <c r="J3">
-        <v>87027</v>
+        <v>87426</v>
       </c>
       <c r="K3">
-        <v>96421</v>
+        <v>96867</v>
       </c>
       <c r="L3">
-        <v>99043</v>
+        <v>99479</v>
       </c>
       <c r="M3">
-        <v>106546</v>
+        <v>106944</v>
       </c>
       <c r="N3">
-        <v>108265</v>
+        <v>108661</v>
       </c>
       <c r="O3">
-        <v>109277</v>
+        <v>109678</v>
       </c>
       <c r="P3">
-        <v>115842</v>
+        <v>116274</v>
       </c>
       <c r="Q3">
-        <v>116868</v>
+        <v>117300</v>
       </c>
       <c r="R3">
-        <v>207526</v>
+        <v>208394</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6306,7 +6306,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>23942</v>
+        <v>23967</v>
       </c>
       <c r="C4">
         <v>3534</v>
@@ -6318,16 +6318,16 @@
         <v>452</v>
       </c>
       <c r="F4">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="G4">
         <v>213</v>
       </c>
       <c r="H4">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="I4">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="J4">
         <v>75</v>
@@ -6362,7 +6362,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C5">
         <v>605</v>
@@ -6374,16 +6374,16 @@
         <v>129</v>
       </c>
       <c r="F5">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>27</v>
       </c>
       <c r="H5">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>20</v>
@@ -6418,7 +6418,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C6">
         <v>190</v>
@@ -6430,16 +6430,16 @@
         <v>44</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
         <v>12</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -6474,7 +6474,7 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -6492,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C8">
         <v>215</v>
@@ -6542,16 +6542,16 @@
         <v>47</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
         <v>12</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -6586,7 +6586,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -6604,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -6923,7 +6923,10 @@
         <v>47</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7022,6 +7025,12 @@
       <c r="D31" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="F31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
@@ -7583,7 +7592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
         <v>139</v>
       </c>
@@ -7591,7 +7600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
         <v>140</v>
       </c>
@@ -7599,7 +7608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
         <v>141</v>
       </c>
@@ -7607,7 +7616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
         <v>142</v>
       </c>
@@ -7615,7 +7624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
         <v>143</v>
       </c>
@@ -7623,7 +7632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
         <v>144</v>
       </c>
@@ -7631,7 +7640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
         <v>146</v>
       </c>
@@ -7639,7 +7648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
         <v>147</v>
       </c>
@@ -7655,18 +7664,24 @@
       <c r="E88" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="F88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>47</v>
@@ -7678,9 +7693,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>64</v>
@@ -7692,22 +7707,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>47</v>
@@ -7716,9 +7731,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>47</v>
@@ -7730,9 +7745,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>62</v>
@@ -7740,7 +7755,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>47</v>
@@ -7748,7 +7763,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>47</v>
@@ -7756,7 +7771,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>47</v>
@@ -7764,7 +7779,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>47</v>
@@ -7772,7 +7787,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>47</v>
@@ -7789,7 +7804,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>47</v>
@@ -7797,7 +7812,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>49</v>
@@ -7808,7 +7823,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>47</v>
@@ -7819,7 +7834,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>49</v>
@@ -7827,7 +7842,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>48</v>
@@ -7835,7 +7850,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>47</v>
@@ -7846,7 +7861,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>49</v>
@@ -7854,17 +7869,17 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>47</v>
@@ -7872,10 +7887,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>47</v>
@@ -7883,17 +7898,17 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>47</v>
@@ -7910,7 +7925,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>47</v>
@@ -7918,7 +7933,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>56</v>
@@ -7927,7 +7942,7 @@
         <v>47</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>47</v>
@@ -7971,7 +7986,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>47</v>
@@ -7979,12 +7994,12 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>47</v>
@@ -7992,15 +8007,15 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>49</v>
@@ -8008,7 +8023,7 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>47</v>
@@ -8016,7 +8031,7 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>49</v>
@@ -8024,7 +8039,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>47</v>
@@ -8032,7 +8047,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>47</v>
@@ -8040,7 +8055,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>47</v>
@@ -8048,7 +8063,7 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>47</v>
@@ -8059,7 +8074,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>47</v>
@@ -8067,7 +8082,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>49</v>
@@ -8075,7 +8090,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>49</v>
@@ -8083,12 +8098,12 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>47</v>
@@ -8099,7 +8114,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>47</v>
@@ -8107,7 +8122,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>47</v>
@@ -8115,7 +8130,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>52</v>
@@ -8123,7 +8138,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>47</v>
@@ -8131,7 +8146,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>47</v>
@@ -8139,7 +8154,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>47</v>
@@ -8147,7 +8162,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>47</v>
@@ -8161,7 +8176,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>49</v>
@@ -8169,7 +8184,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>47</v>
@@ -8177,7 +8192,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>47</v>
@@ -8185,7 +8200,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>48</v>
@@ -8193,7 +8208,7 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>47</v>
@@ -8201,7 +8216,7 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>48</v>
@@ -8209,7 +8224,7 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>47</v>
@@ -8217,12 +8232,12 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>47</v>
@@ -8230,7 +8245,7 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>48</v>
@@ -8238,7 +8253,7 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>49</v>
@@ -8246,7 +8261,7 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>103</v>
@@ -8254,7 +8269,7 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>79</v>
@@ -8262,7 +8277,7 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>44</v>
@@ -8270,12 +8285,12 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>48</v>
@@ -8293,7 +8308,7 @@
         <v>47</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>48</v>
@@ -8310,7 +8325,7 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>57</v>
@@ -8321,13 +8336,22 @@
       <c r="D157" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="F157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Q157" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>47</v>
@@ -8341,7 +8365,7 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>49</v>
@@ -8349,7 +8373,7 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>47</v>
@@ -8357,7 +8381,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>47</v>
@@ -8365,7 +8389,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>49</v>
@@ -8373,7 +8397,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>47</v>
@@ -8381,12 +8405,12 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>49</v>
@@ -8394,7 +8418,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>47</v>
@@ -8402,12 +8426,12 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>47</v>
@@ -8415,7 +8439,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>47</v>
@@ -8423,7 +8447,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>47</v>
@@ -8431,7 +8455,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>47</v>
@@ -8439,7 +8463,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>47</v>
@@ -8459,10 +8483,10 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>145</v>
@@ -8470,7 +8494,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>47</v>
@@ -8478,7 +8502,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>66</v>
@@ -8486,7 +8510,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>47</v>
@@ -8494,7 +8518,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>47</v>
@@ -8502,7 +8526,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>47</v>
@@ -8510,7 +8534,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>47</v>
@@ -8518,7 +8542,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>47</v>
@@ -8526,7 +8550,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>56</v>
@@ -8534,7 +8558,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>47</v>
@@ -8545,7 +8569,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>49</v>
@@ -8553,7 +8577,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>47</v>
@@ -8561,17 +8585,17 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>47</v>
@@ -8579,7 +8603,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>47</v>
@@ -8587,7 +8611,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>47</v>
@@ -8595,7 +8619,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>47</v>
@@ -8603,7 +8627,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>47</v>
@@ -8611,7 +8635,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>47</v>
@@ -8619,7 +8643,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>47</v>
@@ -8627,7 +8651,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>47</v>
@@ -8635,7 +8659,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>47</v>
@@ -8643,17 +8667,17 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>47</v>
@@ -8661,17 +8685,17 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>47</v>
@@ -8679,7 +8703,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>49</v>
@@ -8687,12 +8711,12 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>47</v>
@@ -8709,7 +8733,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>47</v>
@@ -8717,7 +8741,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>57</v>
@@ -8725,12 +8749,12 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>48</v>
@@ -8738,17 +8762,17 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>47</v>
@@ -8760,7 +8784,7 @@
         <v>109</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>137</v>
@@ -8768,7 +8792,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>47</v>
@@ -8776,12 +8800,12 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>48</v>
@@ -8789,7 +8813,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>47</v>
@@ -8797,7 +8821,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>47</v>
@@ -8805,7 +8829,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>47</v>
@@ -8813,7 +8837,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>47</v>
@@ -8821,7 +8845,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>59</v>
@@ -8829,7 +8853,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>47</v>
@@ -8837,12 +8861,12 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>47</v>
@@ -8850,12 +8874,12 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>47</v>
@@ -8863,7 +8887,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>47</v>
@@ -8871,7 +8895,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>48</v>
@@ -8879,7 +8903,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>47</v>
@@ -8887,32 +8911,32 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>47</v>
@@ -8920,7 +8944,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>47</v>
@@ -8928,17 +8952,17 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>47</v>
@@ -8946,17 +8970,17 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>47</v>
@@ -8967,12 +8991,12 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>47</v>
@@ -8986,7 +9010,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>47</v>
@@ -8994,7 +9018,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>48</v>
@@ -9002,7 +9026,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>49</v>
@@ -9010,7 +9034,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>47</v>
@@ -9018,7 +9042,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>53</v>
@@ -9026,17 +9050,17 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>47</v>
@@ -9044,17 +9068,17 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>53</v>
@@ -9062,7 +9086,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>49</v>
@@ -9070,7 +9094,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>47</v>
@@ -9081,7 +9105,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>53</v>
@@ -9089,12 +9113,12 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>145</v>
@@ -9102,7 +9126,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>47</v>
@@ -9110,12 +9134,12 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>47</v>
@@ -9123,7 +9147,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>53</v>
@@ -9131,7 +9155,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>47</v>
@@ -9142,7 +9166,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>47</v>
@@ -9150,7 +9174,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>49</v>
@@ -9158,15 +9182,15 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>52</v>
@@ -9174,12 +9198,12 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>47</v>
@@ -9187,12 +9211,12 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>49</v>
@@ -9200,7 +9224,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>47</v>
@@ -9211,7 +9235,7 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>48</v>
@@ -9225,7 +9249,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>47</v>
@@ -9233,7 +9257,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>49</v>
@@ -9241,7 +9265,7 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>52</v>
@@ -9252,7 +9276,7 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>49</v>
@@ -9260,7 +9284,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>47</v>
@@ -9268,7 +9292,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>48</v>
@@ -9276,7 +9300,7 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>47</v>
@@ -9287,7 +9311,7 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>66</v>
@@ -9298,7 +9322,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>47</v>
@@ -9306,7 +9330,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>48</v>
@@ -9317,7 +9341,7 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>49</v>
@@ -9328,7 +9352,7 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>47</v>
@@ -9339,7 +9363,7 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>49</v>
@@ -9347,7 +9371,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>47</v>
@@ -9361,7 +9385,7 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>47</v>
@@ -9369,7 +9393,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>47</v>
@@ -9377,7 +9401,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>47</v>
@@ -9385,7 +9409,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>48</v>
@@ -9393,7 +9417,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>48</v>
@@ -9401,7 +9425,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>48</v>
@@ -9412,7 +9436,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>49</v>
@@ -9420,7 +9444,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>48</v>
@@ -9428,7 +9452,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>47</v>
@@ -9439,7 +9463,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>48</v>
@@ -9447,12 +9471,12 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>47</v>
@@ -9460,7 +9484,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>47</v>
@@ -9471,7 +9495,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>48</v>
@@ -9479,7 +9503,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>48</v>
@@ -9490,7 +9514,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>47</v>
@@ -9501,7 +9525,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>48</v>
@@ -9509,7 +9533,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>47</v>
@@ -9523,7 +9547,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>47</v>
@@ -9534,7 +9558,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -9542,7 +9566,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>48</v>
@@ -9550,7 +9574,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>48</v>
@@ -9558,7 +9582,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>47</v>
@@ -9566,7 +9590,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>49</v>
@@ -9574,7 +9598,7 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>49</v>
@@ -9582,17 +9606,17 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>49</v>
@@ -9600,12 +9624,12 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>47</v>
@@ -9613,7 +9637,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>47</v>
@@ -9621,7 +9645,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>47</v>
@@ -9629,7 +9653,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>47</v>
@@ -9637,7 +9661,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>47</v>
@@ -9651,7 +9675,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>49</v>
@@ -9659,7 +9683,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>47</v>
@@ -9667,7 +9691,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>48</v>
@@ -9681,7 +9705,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>47</v>
@@ -9689,7 +9713,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>47</v>
@@ -9697,7 +9721,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>49</v>
@@ -9705,7 +9729,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>47</v>
@@ -9713,7 +9737,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>47</v>
@@ -9721,7 +9745,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>47</v>
@@ -9729,7 +9753,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>47</v>
@@ -9746,7 +9770,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>47</v>
@@ -9754,7 +9778,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>47</v>
@@ -9768,7 +9792,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>48</v>
@@ -9776,7 +9800,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>47</v>
@@ -9784,7 +9808,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>47</v>
@@ -9801,7 +9825,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>47</v>
@@ -9812,7 +9836,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>47</v>
@@ -9820,7 +9844,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>49</v>
@@ -9828,7 +9852,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>47</v>
@@ -9842,7 +9866,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>47</v>
@@ -9850,7 +9874,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>47</v>
@@ -9861,7 +9885,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>47</v>
@@ -9869,7 +9893,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>47</v>
@@ -9877,7 +9901,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>47</v>
@@ -9888,12 +9912,12 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>47</v>
@@ -9901,7 +9925,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>47</v>
@@ -9912,7 +9936,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>47</v>
@@ -9926,7 +9950,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>47</v>
@@ -9934,121 +9958,121 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:8">
       <c r="A353" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:8">
       <c r="A354" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:8">
       <c r="A355" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:8">
       <c r="A356" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:8">
       <c r="A357" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:8">
       <c r="A358" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:8">
       <c r="A359" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:8">
       <c r="A360" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:8">
       <c r="A361" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:8">
       <c r="A362" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:8">
       <c r="A363" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:8">
       <c r="A364" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:8">
       <c r="A365" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>47</v>
@@ -10059,18 +10083,24 @@
       <c r="D366" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="F366" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:8">
       <c r="A368" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>47</v>
@@ -10078,7 +10108,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>46</v>
@@ -10086,7 +10116,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>47</v>
@@ -10094,12 +10124,12 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>57</v>
@@ -10107,7 +10137,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>49</v>
@@ -10115,7 +10145,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>47</v>
@@ -10123,7 +10153,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>53</v>
@@ -10131,7 +10161,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>56</v>
@@ -10139,7 +10169,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>47</v>
@@ -10147,7 +10177,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>48</v>
@@ -10155,7 +10185,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>48</v>
@@ -10163,12 +10193,12 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>47</v>
@@ -10176,7 +10206,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>47</v>
@@ -10184,7 +10214,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>47</v>
@@ -10192,12 +10222,12 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>47</v>
@@ -10205,7 +10235,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>47</v>
@@ -10213,7 +10243,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>47</v>
@@ -10221,17 +10251,17 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>47</v>
@@ -10239,7 +10269,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>47</v>
@@ -10247,7 +10277,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>47</v>
@@ -10255,7 +10285,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>47</v>
@@ -10263,7 +10293,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>47</v>
@@ -10271,7 +10301,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>47</v>
@@ -10279,7 +10309,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>47</v>
@@ -10290,7 +10320,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>49</v>
@@ -10298,12 +10328,12 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>47</v>
@@ -10311,7 +10341,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>48</v>
@@ -10319,7 +10349,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>47</v>
@@ -10327,7 +10357,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>47</v>
@@ -10335,7 +10365,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>47</v>
@@ -10343,7 +10373,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>47</v>
@@ -10354,7 +10384,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>53</v>
@@ -10362,12 +10392,12 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>47</v>
@@ -10375,7 +10405,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>47</v>
@@ -10383,7 +10413,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>47</v>
@@ -10391,7 +10421,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>47</v>
@@ -10399,27 +10429,27 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>49</v>
@@ -10427,7 +10457,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>49</v>
@@ -10435,7 +10465,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>52</v>
@@ -10443,7 +10473,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>49</v>
@@ -10454,12 +10484,12 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>48</v>
@@ -10467,7 +10497,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>62</v>
@@ -10475,7 +10505,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>47</v>
@@ -10483,7 +10513,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>47</v>
@@ -10491,7 +10521,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>53</v>
@@ -10499,7 +10529,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>47</v>
@@ -10507,7 +10537,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>47</v>
@@ -10515,7 +10545,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>49</v>
@@ -10523,7 +10553,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>49</v>
@@ -10531,7 +10561,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>49</v>
@@ -10539,7 +10569,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>49</v>
@@ -10547,7 +10577,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>47</v>
@@ -10555,7 +10585,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>49</v>
@@ -10563,18 +10593,18 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>47</v>
@@ -10582,7 +10612,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>47</v>
@@ -10590,17 +10620,17 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>47</v>
@@ -10608,12 +10638,12 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>47</v>
@@ -10621,7 +10651,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>59</v>
@@ -10629,37 +10659,37 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>47</v>
@@ -10670,7 +10700,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>47</v>
@@ -10681,12 +10711,12 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>47</v>
@@ -10694,7 +10724,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>53</v>
@@ -10702,7 +10732,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>59</v>
@@ -10710,12 +10740,12 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>47</v>
@@ -10726,7 +10756,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>48</v>
@@ -10734,12 +10764,12 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>47</v>
@@ -10747,7 +10777,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>48</v>
@@ -10755,20 +10785,20 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>47</v>
@@ -10776,7 +10806,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>47</v>
@@ -10784,20 +10814,20 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>47</v>
@@ -10811,7 +10841,7 @@
     </row>
     <row r="467" spans="1:6">
       <c r="A467" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>53</v>
@@ -10819,7 +10849,7 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>47</v>
@@ -10827,12 +10857,12 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>47</v>
@@ -10843,7 +10873,7 @@
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>47</v>
@@ -10851,7 +10881,7 @@
     </row>
     <row r="472" spans="1:6">
       <c r="A472" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>49</v>
@@ -10859,7 +10889,7 @@
     </row>
     <row r="473" spans="1:6">
       <c r="A473" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>49</v>
@@ -10867,7 +10897,7 @@
     </row>
     <row r="474" spans="1:6">
       <c r="A474" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>47</v>
@@ -10875,7 +10905,7 @@
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>47</v>
@@ -10883,17 +10913,17 @@
     </row>
     <row r="476" spans="1:6">
       <c r="A476" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="477" spans="1:6">
       <c r="A477" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="478" spans="1:6">
       <c r="A478" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>47</v>
@@ -10901,7 +10931,7 @@
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>47</v>
@@ -10909,7 +10939,7 @@
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>49</v>
@@ -10917,7 +10947,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>47</v>
@@ -10925,7 +10955,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>66</v>
@@ -10933,12 +10963,12 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>47</v>
@@ -10946,7 +10976,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>48</v>
@@ -10954,7 +10984,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>47</v>
@@ -10962,17 +10992,17 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>57</v>
@@ -10980,12 +11010,12 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>47</v>
@@ -10993,7 +11023,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>47</v>
@@ -11001,12 +11031,12 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>48</v>
@@ -11014,12 +11044,12 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>47</v>
@@ -11027,12 +11057,12 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>48</v>
@@ -11040,7 +11070,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>47</v>
@@ -11051,7 +11081,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>47</v>
@@ -11062,7 +11092,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>52</v>
@@ -11070,7 +11100,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>49</v>
@@ -11081,7 +11111,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>48</v>
@@ -11089,7 +11119,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>47</v>
@@ -11097,7 +11127,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>47</v>
@@ -11108,12 +11138,12 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>47</v>
@@ -11121,7 +11151,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>47</v>
@@ -11132,7 +11162,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>47</v>
@@ -11140,7 +11170,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>48</v>
@@ -11148,7 +11178,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>47</v>
@@ -11156,12 +11186,12 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="513" spans="1:17">
       <c r="A513" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>47</v>
@@ -11178,7 +11208,7 @@
     </row>
     <row r="514" spans="1:17">
       <c r="A514" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>49</v>
@@ -11186,17 +11216,17 @@
     </row>
     <row r="515" spans="1:17">
       <c r="A515" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="516" spans="1:17">
       <c r="A516" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="517" spans="1:17">
       <c r="A517" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>49</v>
@@ -11204,7 +11234,7 @@
     </row>
     <row r="518" spans="1:17">
       <c r="A518" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>47</v>
@@ -11212,7 +11242,7 @@
     </row>
     <row r="519" spans="1:17">
       <c r="A519" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>47</v>
@@ -11220,7 +11250,7 @@
     </row>
     <row r="520" spans="1:17">
       <c r="A520" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>47</v>
@@ -11231,12 +11261,12 @@
     </row>
     <row r="521" spans="1:17">
       <c r="A521" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="522" spans="1:17">
       <c r="A522" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>57</v>
@@ -11250,7 +11280,7 @@
     </row>
     <row r="523" spans="1:17">
       <c r="A523" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>47</v>
@@ -11268,7 +11298,7 @@
         <v>47</v>
       </c>
       <c r="H523" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I523" s="3" t="s">
         <v>47</v>
@@ -11285,7 +11315,7 @@
     </row>
     <row r="524" spans="1:17">
       <c r="A524" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>47</v>
@@ -11293,7 +11323,7 @@
     </row>
     <row r="525" spans="1:17">
       <c r="A525" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>49</v>
@@ -11301,7 +11331,7 @@
     </row>
     <row r="526" spans="1:17">
       <c r="A526" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>48</v>
@@ -11309,7 +11339,7 @@
     </row>
     <row r="527" spans="1:17">
       <c r="A527" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>47</v>
@@ -11317,7 +11347,7 @@
     </row>
     <row r="528" spans="1:17">
       <c r="A528" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>47</v>
@@ -11328,7 +11358,7 @@
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>48</v>
@@ -11336,7 +11366,7 @@
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>49</v>
@@ -11344,7 +11374,7 @@
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>49</v>
@@ -11355,7 +11385,7 @@
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>59</v>
@@ -11363,7 +11393,7 @@
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>47</v>
@@ -11371,7 +11401,7 @@
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>47</v>
@@ -11379,7 +11409,7 @@
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>47</v>
@@ -11387,7 +11417,7 @@
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>47</v>
@@ -11395,7 +11425,7 @@
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>48</v>
@@ -11406,7 +11436,7 @@
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>57</v>
@@ -11423,7 +11453,7 @@
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>47</v>
@@ -11431,7 +11461,7 @@
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>47</v>
@@ -11439,17 +11469,17 @@
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>47</v>
@@ -11460,7 +11490,7 @@
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>53</v>
@@ -11468,7 +11498,7 @@
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>47</v>
@@ -11476,17 +11506,17 @@
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>49</v>
@@ -11503,7 +11533,7 @@
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>47</v>
@@ -11511,7 +11541,7 @@
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>48</v>
@@ -11519,7 +11549,7 @@
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>47</v>
@@ -11530,7 +11560,7 @@
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>47</v>
@@ -11541,7 +11571,7 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>47</v>
@@ -11549,12 +11579,12 @@
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>49</v>
@@ -11562,7 +11592,7 @@
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>49</v>
@@ -11570,7 +11600,7 @@
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>49</v>
@@ -11578,12 +11608,12 @@
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>48</v>
@@ -11597,15 +11627,15 @@
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>47</v>
@@ -11613,7 +11643,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>49</v>
@@ -11621,7 +11651,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>47</v>
@@ -11635,12 +11665,12 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>47</v>
@@ -11648,7 +11678,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>47</v>
@@ -11656,12 +11686,12 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>49</v>
@@ -11669,17 +11699,17 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>47</v>
@@ -11687,12 +11717,12 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>49</v>
@@ -11700,22 +11730,22 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>56</v>
@@ -11723,7 +11753,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>47</v>
@@ -11731,7 +11761,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>49</v>
@@ -11739,22 +11769,22 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>47</v>
@@ -11765,7 +11795,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>47</v>
@@ -11773,7 +11803,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>47</v>
@@ -11781,7 +11811,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>47</v>
@@ -11789,7 +11819,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>49</v>
@@ -11797,7 +11827,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>49</v>
@@ -11805,7 +11835,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>47</v>
@@ -11813,7 +11843,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>48</v>
@@ -11821,7 +11851,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>47</v>
@@ -11829,12 +11859,12 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>47</v>
@@ -11842,22 +11872,22 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>47</v>
@@ -11865,12 +11895,12 @@
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>47</v>
@@ -11878,17 +11908,17 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>48</v>
@@ -11896,7 +11926,7 @@
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>62</v>
@@ -11904,7 +11934,7 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>48</v>
@@ -11912,7 +11942,7 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>48</v>
@@ -11920,7 +11950,7 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>47</v>
@@ -11937,17 +11967,17 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="609" spans="1:16">
       <c r="A609" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>49</v>
@@ -11958,7 +11988,7 @@
     </row>
     <row r="610" spans="1:16">
       <c r="A610" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>47</v>
@@ -11966,7 +11996,7 @@
     </row>
     <row r="611" spans="1:16">
       <c r="A611" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>47</v>
@@ -11974,7 +12004,7 @@
     </row>
     <row r="612" spans="1:16">
       <c r="A612" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>47</v>
@@ -11982,12 +12012,12 @@
     </row>
     <row r="613" spans="1:16">
       <c r="A613" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="614" spans="1:16">
       <c r="A614" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>47</v>
@@ -11995,7 +12025,7 @@
     </row>
     <row r="615" spans="1:16">
       <c r="A615" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>47</v>
@@ -12004,7 +12034,7 @@
         <v>47</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>49</v>
@@ -12039,90 +12069,90 @@
     </row>
     <row r="616" spans="1:16">
       <c r="A616" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="617" spans="1:16">
       <c r="A617" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="618" spans="1:16">
       <c r="A618" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="619" spans="1:16">
       <c r="A619" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="620" spans="1:16">
       <c r="A620" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="621" spans="1:16">
       <c r="A621" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="622" spans="1:16">
       <c r="A622" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="623" spans="1:16">
       <c r="A623" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="624" spans="1:16">
       <c r="A624" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
       <c r="A625" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
       <c r="A626" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
       <c r="A627" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
       <c r="A628" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:8">
       <c r="A629" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
       <c r="A630" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
       <c r="A631" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
       <c r="A632" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>53</v>
@@ -12133,61 +12163,64 @@
       <c r="F632" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="633" spans="1:6">
+      <c r="H632" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
       <c r="A633" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
       <c r="A634" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
       <c r="A635" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
       <c r="A636" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
       <c r="A637" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:8">
       <c r="A638" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
       <c r="A639" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:8">
       <c r="A640" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>47</v>
@@ -12198,12 +12231,12 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>53</v>
@@ -12211,12 +12244,12 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>47</v>
@@ -12227,7 +12260,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>49</v>
@@ -12235,7 +12268,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>47</v>
@@ -12246,7 +12279,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>47</v>
@@ -12254,7 +12287,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>49</v>
@@ -12265,7 +12298,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>47</v>
@@ -12276,7 +12309,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>47</v>
@@ -12290,30 +12323,30 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="B654" s="4" t="s">
-        <v>50</v>
+        <v>724</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>47</v>
@@ -12324,7 +12357,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>47</v>
@@ -12332,12 +12365,12 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>48</v>
@@ -12345,17 +12378,17 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>47</v>
@@ -12363,52 +12396,52 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="673" spans="1:8">
       <c r="A673" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>47</v>
@@ -12416,7 +12449,7 @@
     </row>
     <row r="674" spans="1:8">
       <c r="A674" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>47</v>
@@ -12424,7 +12457,7 @@
     </row>
     <row r="675" spans="1:8">
       <c r="A675" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>47</v>
@@ -12432,7 +12465,7 @@
     </row>
     <row r="676" spans="1:8">
       <c r="A676" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>49</v>
@@ -12443,7 +12476,7 @@
     </row>
     <row r="677" spans="1:8">
       <c r="A677" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>47</v>
@@ -12451,7 +12484,7 @@
     </row>
     <row r="678" spans="1:8">
       <c r="A678" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>47</v>
@@ -12459,7 +12492,7 @@
     </row>
     <row r="679" spans="1:8">
       <c r="A679" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>47</v>
@@ -12470,7 +12503,7 @@
     </row>
     <row r="680" spans="1:8">
       <c r="A680" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>47</v>
@@ -12478,7 +12511,7 @@
     </row>
     <row r="681" spans="1:8">
       <c r="A681" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>47</v>
@@ -12486,7 +12519,7 @@
     </row>
     <row r="682" spans="1:8">
       <c r="A682" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>47</v>
@@ -12494,7 +12527,7 @@
     </row>
     <row r="683" spans="1:8">
       <c r="A683" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>47</v>
@@ -12502,7 +12535,7 @@
     </row>
     <row r="684" spans="1:8">
       <c r="A684" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>48</v>
@@ -12513,7 +12546,7 @@
     </row>
     <row r="685" spans="1:8">
       <c r="A685" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>47</v>
@@ -12521,7 +12554,7 @@
     </row>
     <row r="686" spans="1:8">
       <c r="A686" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>48</v>
@@ -12529,7 +12562,7 @@
     </row>
     <row r="687" spans="1:8">
       <c r="A687" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>47</v>
@@ -12552,7 +12585,7 @@
     </row>
     <row r="688" spans="1:8">
       <c r="A688" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>47</v>
@@ -12560,7 +12593,7 @@
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>47</v>
@@ -12571,7 +12604,7 @@
     </row>
     <row r="690" spans="1:6">
       <c r="A690" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>47</v>
@@ -12579,7 +12612,7 @@
     </row>
     <row r="691" spans="1:6">
       <c r="A691" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>56</v>
@@ -12590,7 +12623,7 @@
     </row>
     <row r="692" spans="1:6">
       <c r="A692" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>47</v>
@@ -12598,7 +12631,7 @@
     </row>
     <row r="693" spans="1:6">
       <c r="A693" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>47</v>
@@ -12606,7 +12639,7 @@
     </row>
     <row r="694" spans="1:6">
       <c r="A694" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>47</v>
@@ -12623,7 +12656,7 @@
     </row>
     <row r="695" spans="1:6">
       <c r="A695" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>47</v>
@@ -12631,7 +12664,7 @@
     </row>
     <row r="696" spans="1:6">
       <c r="A696" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>49</v>
@@ -12639,7 +12672,7 @@
     </row>
     <row r="697" spans="1:6">
       <c r="A697" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>46</v>
@@ -12650,7 +12683,7 @@
     </row>
     <row r="698" spans="1:6">
       <c r="A698" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>48</v>
@@ -12658,12 +12691,12 @@
     </row>
     <row r="699" spans="1:6">
       <c r="A699" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="700" spans="1:6">
       <c r="A700" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>47</v>
@@ -12680,7 +12713,7 @@
     </row>
     <row r="701" spans="1:6">
       <c r="A701" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>49</v>
@@ -12697,7 +12730,7 @@
     </row>
     <row r="702" spans="1:6">
       <c r="A702" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>47</v>
@@ -12708,7 +12741,7 @@
     </row>
     <row r="703" spans="1:6">
       <c r="A703" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>47</v>
@@ -12719,7 +12752,7 @@
     </row>
     <row r="704" spans="1:6">
       <c r="A704" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>47</v>
@@ -12727,7 +12760,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>47</v>
@@ -12735,7 +12768,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>47</v>
@@ -12749,7 +12782,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>49</v>
@@ -12757,7 +12790,7 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>47</v>
@@ -12765,7 +12798,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>49</v>
@@ -12776,7 +12809,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>49</v>
@@ -12787,7 +12820,7 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>47</v>
@@ -12795,7 +12828,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>47</v>
@@ -12803,7 +12836,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>49</v>
@@ -12811,12 +12844,12 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>47</v>
@@ -12827,17 +12860,17 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>47</v>
@@ -12845,12 +12878,12 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>48</v>
@@ -12861,7 +12894,7 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>46</v>
@@ -12869,7 +12902,7 @@
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>49</v>
@@ -12877,12 +12910,12 @@
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>47</v>
@@ -12893,7 +12926,7 @@
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>53</v>
@@ -12901,7 +12934,7 @@
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>47</v>
@@ -12909,12 +12942,12 @@
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>62</v>
@@ -12922,7 +12955,7 @@
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>66</v>
@@ -12930,22 +12963,22 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>59</v>
@@ -12953,22 +12986,22 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>47</v>
@@ -12976,7 +13009,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>53</v>
@@ -12984,7 +13017,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>48</v>
@@ -12992,7 +13025,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>53</v>
@@ -13000,7 +13033,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>47</v>
@@ -13008,7 +13041,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>47</v>
@@ -13016,32 +13049,32 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>47</v>
@@ -13049,20 +13082,20 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C751" s="3" t="s">
         <v>47</v>
@@ -13070,7 +13103,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>47</v>
@@ -13078,7 +13111,7 @@
     </row>
     <row r="753" spans="1:5">
       <c r="A753" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>47</v>
@@ -13086,7 +13119,7 @@
     </row>
     <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>47</v>
@@ -13094,32 +13127,32 @@
     </row>
     <row r="755" spans="1:5">
       <c r="A755" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="756" spans="1:5">
       <c r="A756" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="758" spans="1:5">
       <c r="A758" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="760" spans="1:5">
       <c r="A760" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>48</v>
@@ -13127,17 +13160,17 @@
     </row>
     <row r="761" spans="1:5">
       <c r="A761" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>47</v>
@@ -13154,7 +13187,7 @@
     </row>
     <row r="764" spans="1:5">
       <c r="A764" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>47</v>
@@ -13171,7 +13204,7 @@
     </row>
     <row r="765" spans="1:5">
       <c r="A765" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>49</v>
@@ -13185,13 +13218,13 @@
     </row>
     <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D766" s="3" t="s">
         <v>47</v>
@@ -13199,12 +13232,12 @@
     </row>
     <row r="767" spans="1:5">
       <c r="A767" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>47</v>
@@ -13215,7 +13248,7 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>48</v>
@@ -13223,12 +13256,12 @@
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>47</v>
@@ -13236,7 +13269,7 @@
     </row>
     <row r="772" spans="1:5">
       <c r="A772" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>47</v>
@@ -13247,7 +13280,7 @@
     </row>
     <row r="773" spans="1:5">
       <c r="A773" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>47</v>
@@ -13255,7 +13288,7 @@
     </row>
     <row r="774" spans="1:5">
       <c r="A774" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>47</v>
@@ -13263,7 +13296,7 @@
     </row>
     <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>47</v>
@@ -13280,12 +13313,12 @@
     </row>
     <row r="776" spans="1:5">
       <c r="A776" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>59</v>
@@ -13293,7 +13326,7 @@
     </row>
     <row r="778" spans="1:5">
       <c r="A778" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>48</v>
@@ -13301,22 +13334,22 @@
     </row>
     <row r="779" spans="1:5">
       <c r="A779" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="780" spans="1:5">
       <c r="A780" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="781" spans="1:5">
       <c r="A781" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>47</v>
@@ -13333,12 +13366,12 @@
     </row>
     <row r="783" spans="1:5">
       <c r="A783" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>48</v>
@@ -13349,12 +13382,12 @@
     </row>
     <row r="785" spans="1:14">
       <c r="A785" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="786" spans="1:14">
       <c r="A786" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>53</v>
@@ -13389,7 +13422,7 @@
     </row>
     <row r="787" spans="1:14">
       <c r="A787" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>47</v>
@@ -13403,7 +13436,7 @@
     </row>
     <row r="788" spans="1:14">
       <c r="A788" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>49</v>
@@ -13414,7 +13447,7 @@
     </row>
     <row r="789" spans="1:14">
       <c r="A789" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>47</v>
@@ -13425,7 +13458,7 @@
     </row>
     <row r="790" spans="1:14">
       <c r="A790" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>47</v>
@@ -13433,7 +13466,7 @@
     </row>
     <row r="791" spans="1:14">
       <c r="A791" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>47</v>
@@ -13441,7 +13474,7 @@
     </row>
     <row r="792" spans="1:14">
       <c r="A792" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>47</v>
@@ -13449,7 +13482,7 @@
     </row>
     <row r="793" spans="1:14">
       <c r="A793" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>48</v>
@@ -13457,7 +13490,7 @@
     </row>
     <row r="794" spans="1:14">
       <c r="A794" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>49</v>
@@ -13468,7 +13501,7 @@
     </row>
     <row r="795" spans="1:14">
       <c r="A795" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>47</v>
@@ -13476,7 +13509,7 @@
     </row>
     <row r="796" spans="1:14">
       <c r="A796" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>49</v>
@@ -13487,12 +13520,12 @@
     </row>
     <row r="797" spans="1:14">
       <c r="A797" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="798" spans="1:14">
       <c r="A798" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>47</v>
@@ -13500,7 +13533,7 @@
     </row>
     <row r="799" spans="1:14">
       <c r="A799" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>52</v>
@@ -13511,7 +13544,7 @@
     </row>
     <row r="800" spans="1:14">
       <c r="A800" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>47</v>
@@ -13522,7 +13555,7 @@
     </row>
     <row r="801" spans="1:14">
       <c r="A801" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>47</v>
@@ -13533,7 +13566,7 @@
     </row>
     <row r="802" spans="1:14">
       <c r="A802" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>56</v>
@@ -13541,7 +13574,7 @@
     </row>
     <row r="803" spans="1:14">
       <c r="A803" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>47</v>
@@ -13552,7 +13585,7 @@
     </row>
     <row r="804" spans="1:14">
       <c r="A804" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>47</v>
@@ -13560,7 +13593,7 @@
     </row>
     <row r="805" spans="1:14">
       <c r="A805" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>48</v>
@@ -13568,12 +13601,12 @@
     </row>
     <row r="806" spans="1:14">
       <c r="A806" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="807" spans="1:14">
       <c r="A807" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>49</v>
@@ -13591,12 +13624,12 @@
         <v>49</v>
       </c>
       <c r="N807" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="808" spans="1:14">
       <c r="A808" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>47</v>
@@ -13604,22 +13637,22 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="810" spans="1:14">
       <c r="A810" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="811" spans="1:14">
       <c r="A811" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="812" spans="1:14">
       <c r="A812" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>47</v>
@@ -13627,7 +13660,7 @@
     </row>
     <row r="813" spans="1:14">
       <c r="A813" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>49</v>
@@ -13635,7 +13668,7 @@
     </row>
     <row r="814" spans="1:14">
       <c r="A814" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>49</v>
@@ -13643,7 +13676,7 @@
     </row>
     <row r="815" spans="1:14">
       <c r="A815" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>47</v>
@@ -13651,27 +13684,27 @@
     </row>
     <row r="816" spans="1:14">
       <c r="A816" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="817" spans="1:6">
       <c r="A817" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="818" spans="1:6">
       <c r="A818" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="819" spans="1:6">
       <c r="A819" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="820" spans="1:6">
       <c r="A820" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>48</v>
@@ -13679,17 +13712,17 @@
     </row>
     <row r="821" spans="1:6">
       <c r="A821" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="822" spans="1:6">
       <c r="A822" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="823" spans="1:6">
       <c r="A823" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>47</v>
@@ -13697,12 +13730,12 @@
     </row>
     <row r="824" spans="1:6">
       <c r="A824" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="825" spans="1:6">
       <c r="A825" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>47</v>
@@ -13710,7 +13743,7 @@
     </row>
     <row r="826" spans="1:6">
       <c r="A826" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>53</v>
@@ -13727,7 +13760,7 @@
     </row>
     <row r="827" spans="1:6">
       <c r="A827" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>47</v>
@@ -13741,7 +13774,7 @@
     </row>
     <row r="828" spans="1:6">
       <c r="A828" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>53</v>
@@ -13758,12 +13791,12 @@
     </row>
     <row r="829" spans="1:6">
       <c r="A829" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="830" spans="1:6">
       <c r="A830" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>47</v>
@@ -13771,16 +13804,16 @@
     </row>
     <row r="831" spans="1:6">
       <c r="A831" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E831" s="3" t="s">
         <v>49</v>
@@ -13788,7 +13821,7 @@
     </row>
     <row r="832" spans="1:6">
       <c r="A832" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>47</v>
@@ -13796,42 +13829,42 @@
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>47</v>
@@ -13839,7 +13872,7 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>49</v>
@@ -13847,7 +13880,7 @@
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>47</v>
@@ -13855,7 +13888,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>53</v>
@@ -13863,7 +13896,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>48</v>
@@ -13871,7 +13904,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>47</v>
@@ -13879,15 +13912,15 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>56</v>
@@ -13895,7 +13928,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>47</v>
@@ -13909,7 +13942,7 @@
     </row>
     <row r="849" spans="1:10">
       <c r="A849" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>48</v>
@@ -13917,7 +13950,7 @@
     </row>
     <row r="850" spans="1:10">
       <c r="A850" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>49</v>
@@ -13925,7 +13958,7 @@
     </row>
     <row r="851" spans="1:10">
       <c r="A851" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>49</v>
@@ -13933,7 +13966,7 @@
     </row>
     <row r="852" spans="1:10">
       <c r="A852" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>47</v>
@@ -13944,7 +13977,7 @@
     </row>
     <row r="853" spans="1:10">
       <c r="A853" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>49</v>
@@ -13958,7 +13991,7 @@
     </row>
     <row r="854" spans="1:10">
       <c r="A854" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>48</v>
@@ -13966,7 +13999,7 @@
     </row>
     <row r="855" spans="1:10">
       <c r="A855" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>48</v>
@@ -13974,7 +14007,7 @@
     </row>
     <row r="856" spans="1:10">
       <c r="A856" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>47</v>
@@ -13982,17 +14015,17 @@
     </row>
     <row r="857" spans="1:10">
       <c r="A857" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="858" spans="1:10">
       <c r="A858" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="859" spans="1:10">
       <c r="A859" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>48</v>
@@ -14021,7 +14054,7 @@
     </row>
     <row r="860" spans="1:10">
       <c r="A860" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>66</v>
@@ -14029,17 +14062,17 @@
     </row>
     <row r="861" spans="1:10">
       <c r="A861" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="862" spans="1:10">
       <c r="A862" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="863" spans="1:10">
       <c r="A863" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>47</v>
@@ -14053,7 +14086,7 @@
     </row>
     <row r="864" spans="1:10">
       <c r="A864" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B864" s="3" t="s">
         <v>47</v>
@@ -14061,17 +14094,17 @@
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>47</v>
@@ -14079,7 +14112,7 @@
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>56</v>
@@ -14087,42 +14120,42 @@
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>49</v>
@@ -14130,7 +14163,7 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B877" s="3" t="s">
         <v>48</v>
@@ -14138,7 +14171,7 @@
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>47</v>
@@ -14146,12 +14179,12 @@
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>47</v>
@@ -14159,7 +14192,7 @@
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B881" s="3" t="s">
         <v>47</v>
@@ -14167,12 +14200,12 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B883" s="3" t="s">
         <v>47</v>
@@ -14180,7 +14213,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B884" s="3" t="s">
         <v>47</v>
@@ -14188,7 +14221,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B885" s="3" t="s">
         <v>47</v>
@@ -14196,7 +14229,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B886" s="3" t="s">
         <v>47</v>
@@ -14204,7 +14237,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>47</v>
@@ -14215,17 +14248,17 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="889" spans="1:3">
       <c r="A889" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="890" spans="1:3">
       <c r="A890" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B890" s="3" t="s">
         <v>47</v>
@@ -14233,12 +14266,12 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="892" spans="1:3">
       <c r="A892" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>103</v>
@@ -14246,22 +14279,22 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="896" spans="1:3">
       <c r="A896" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>47</v>
@@ -14269,7 +14302,7 @@
     </row>
     <row r="897" spans="1:17">
       <c r="A897" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>49</v>
@@ -14280,7 +14313,7 @@
     </row>
     <row r="898" spans="1:17">
       <c r="A898" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B898" s="3" t="s">
         <v>49</v>
@@ -14288,7 +14321,7 @@
     </row>
     <row r="899" spans="1:17">
       <c r="A899" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B899" s="3" t="s">
         <v>49</v>
@@ -14296,12 +14329,12 @@
     </row>
     <row r="900" spans="1:17">
       <c r="A900" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="901" spans="1:17">
       <c r="A901" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>47</v>
@@ -14310,7 +14343,7 @@
         <v>47</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>47</v>
@@ -14318,7 +14351,7 @@
     </row>
     <row r="902" spans="1:17">
       <c r="A902" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>47</v>
@@ -14332,7 +14365,7 @@
     </row>
     <row r="903" spans="1:17">
       <c r="A903" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>56</v>
@@ -14346,7 +14379,7 @@
     </row>
     <row r="904" spans="1:17">
       <c r="A904" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>47</v>
@@ -14357,7 +14390,7 @@
     </row>
     <row r="905" spans="1:17">
       <c r="A905" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B905" s="3" t="s">
         <v>56</v>
@@ -14365,20 +14398,20 @@
     </row>
     <row r="906" spans="1:17">
       <c r="A906" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="907" spans="1:17">
       <c r="A907" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="908" spans="1:17">
       <c r="A908" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>47</v>
@@ -14389,7 +14422,7 @@
     </row>
     <row r="909" spans="1:17">
       <c r="A909" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>47</v>
@@ -14403,17 +14436,17 @@
     </row>
     <row r="910" spans="1:17">
       <c r="A910" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="911" spans="1:17">
       <c r="A911" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="912" spans="1:17">
       <c r="A912" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>56</v>
@@ -14463,15 +14496,15 @@
     </row>
     <row r="913" spans="1:5">
       <c r="A913" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="914" spans="1:5">
       <c r="A914" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B914" s="3" t="s">
         <v>48</v>
@@ -14479,7 +14512,7 @@
     </row>
     <row r="915" spans="1:5">
       <c r="A915" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>47</v>
@@ -14487,7 +14520,7 @@
     </row>
     <row r="916" spans="1:5">
       <c r="A916" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>47</v>
@@ -14504,7 +14537,7 @@
     </row>
     <row r="917" spans="1:5">
       <c r="A917" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>47</v>
@@ -14512,7 +14545,7 @@
     </row>
     <row r="918" spans="1:5">
       <c r="A918" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>49</v>
@@ -14520,7 +14553,7 @@
     </row>
     <row r="919" spans="1:5">
       <c r="A919" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B919" s="3" t="s">
         <v>49</v>
@@ -14528,7 +14561,7 @@
     </row>
     <row r="920" spans="1:5">
       <c r="A920" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B920" s="3" t="s">
         <v>49</v>
@@ -14536,7 +14569,7 @@
     </row>
     <row r="921" spans="1:5">
       <c r="A921" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B921" s="3" t="s">
         <v>47</v>
@@ -14547,7 +14580,7 @@
     </row>
     <row r="922" spans="1:5">
       <c r="A922" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B922" s="3" t="s">
         <v>49</v>
@@ -14555,17 +14588,17 @@
     </row>
     <row r="923" spans="1:5">
       <c r="A923" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="924" spans="1:5">
       <c r="A924" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="925" spans="1:5">
       <c r="A925" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B925" s="3" t="s">
         <v>48</v>
@@ -14573,32 +14606,32 @@
     </row>
     <row r="926" spans="1:5">
       <c r="A926" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="927" spans="1:5">
       <c r="A927" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="928" spans="1:5">
       <c r="A928" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="929" spans="1:4">
       <c r="A929" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="930" spans="1:4">
       <c r="A930" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B931" s="3" t="s">
         <v>49</v>
@@ -14606,7 +14639,7 @@
     </row>
     <row r="932" spans="1:4">
       <c r="A932" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B932" s="3" t="s">
         <v>47</v>
@@ -14614,7 +14647,7 @@
     </row>
     <row r="933" spans="1:4">
       <c r="A933" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B933" s="3" t="s">
         <v>47</v>
@@ -14625,7 +14658,7 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B934" s="3" t="s">
         <v>47</v>
@@ -14636,7 +14669,7 @@
     </row>
     <row r="935" spans="1:4">
       <c r="A935" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B935" s="3" t="s">
         <v>47</v>
@@ -14647,17 +14680,17 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B938" s="3" t="s">
         <v>48</v>
@@ -14671,7 +14704,7 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B939" s="3" t="s">
         <v>47</v>
@@ -14679,17 +14712,17 @@
     </row>
     <row r="940" spans="1:4">
       <c r="A940" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>47</v>
@@ -14703,12 +14736,12 @@
     </row>
     <row r="943" spans="1:4">
       <c r="A943" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="944" spans="1:4">
       <c r="A944" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>47</v>
@@ -14719,7 +14752,7 @@
     </row>
     <row r="945" spans="1:15">
       <c r="A945" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>47</v>
@@ -14727,12 +14760,12 @@
     </row>
     <row r="946" spans="1:15">
       <c r="A946" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="947" spans="1:15">
       <c r="A947" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>49</v>
@@ -14740,12 +14773,12 @@
     </row>
     <row r="948" spans="1:15">
       <c r="A948" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="949" spans="1:15">
       <c r="A949" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>47</v>
@@ -14775,7 +14808,7 @@
         <v>47</v>
       </c>
       <c r="L949" s="4" t="s">
-        <v>1024</v>
+        <v>148</v>
       </c>
       <c r="O949" s="3" t="s">
         <v>47</v>
@@ -14925,7 +14958,7 @@
         <v>48</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -16431,7 +16464,7 @@
         <v>1265</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -18127,7 +18160,7 @@
         <v>1564</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C1488" s="4" t="s">
         <v>1565</v>
@@ -19615,7 +19648,7 @@
         <v>1838</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="1762" spans="1:2">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1913">
   <si>
     <t>№</t>
   </si>
@@ -31,12 +31,12 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Медведев Александр</t>
+  </si>
+  <si>
     <t>Леонтьев Дмитрий</t>
   </si>
   <si>
-    <t>Медведев Александр</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>321426</t>
   </si>
   <si>
+    <t>369107</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369107</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -244,6 +244,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -569,9 +572,6 @@
   </si>
   <si>
     <t>112</t>
-  </si>
-  <si>
-    <t>2+, 2-</t>
   </si>
   <si>
     <t>113</t>
@@ -6253,52 +6253,52 @@
         <v>83</v>
       </c>
       <c r="C3">
-        <v>4532</v>
+        <v>4535</v>
       </c>
       <c r="D3">
-        <v>15309</v>
+        <v>14150</v>
       </c>
       <c r="E3">
-        <v>33410</v>
+        <v>32306</v>
       </c>
       <c r="F3">
-        <v>35017</v>
+        <v>33431</v>
       </c>
       <c r="G3">
-        <v>53232</v>
+        <v>53300</v>
       </c>
       <c r="H3">
-        <v>58461</v>
+        <v>58553</v>
       </c>
       <c r="I3">
-        <v>72228</v>
+        <v>59608</v>
       </c>
       <c r="J3">
-        <v>87426</v>
+        <v>87627</v>
       </c>
       <c r="K3">
-        <v>96867</v>
+        <v>97066</v>
       </c>
       <c r="L3">
-        <v>99479</v>
+        <v>99681</v>
       </c>
       <c r="M3">
-        <v>106944</v>
+        <v>107145</v>
       </c>
       <c r="N3">
-        <v>108661</v>
+        <v>108871</v>
       </c>
       <c r="O3">
-        <v>109678</v>
+        <v>109895</v>
       </c>
       <c r="P3">
-        <v>116274</v>
+        <v>116491</v>
       </c>
       <c r="Q3">
-        <v>117300</v>
+        <v>117525</v>
       </c>
       <c r="R3">
-        <v>208394</v>
+        <v>208706</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6312,13 +6312,13 @@
         <v>3534</v>
       </c>
       <c r="D4">
-        <v>1164</v>
+        <v>1266</v>
       </c>
       <c r="E4">
+        <v>474</v>
+      </c>
+      <c r="F4">
         <v>452</v>
-      </c>
-      <c r="F4">
-        <v>423</v>
       </c>
       <c r="G4">
         <v>213</v>
@@ -6327,7 +6327,7 @@
         <v>179</v>
       </c>
       <c r="I4">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="J4">
         <v>75</v>
@@ -6368,22 +6368,22 @@
         <v>605</v>
       </c>
       <c r="D5">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5">
         <v>129</v>
-      </c>
-      <c r="F5">
-        <v>77</v>
       </c>
       <c r="G5">
         <v>27</v>
       </c>
       <c r="H5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>20</v>
@@ -6424,13 +6424,13 @@
         <v>190</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
         <v>44</v>
-      </c>
-      <c r="F6">
-        <v>28</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -6439,7 +6439,7 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>9</v>
@@ -6483,10 +6483,10 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
         <v>4</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6495,7 +6495,7 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -6536,13 +6536,13 @@
         <v>215</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -6551,7 +6551,7 @@
         <v>16</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>9</v>
@@ -6595,10 +6595,10 @@
         <v>4</v>
       </c>
       <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>4</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6607,7 +6607,7 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -6703,7 +6703,7 @@
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6721,10 +6721,10 @@
         <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>49</v>
@@ -6773,7 +6773,7 @@
       <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6821,11 +6821,11 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -6838,14 +6838,14 @@
       <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -6875,14 +6875,14 @@
       <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>71</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>74</v>
       </c>
@@ -6920,18 +6920,21 @@
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -6942,21 +6945,21 @@
       <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>49</v>
@@ -6965,12 +6968,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>47</v>
@@ -6979,25 +6982,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>47</v>
@@ -7008,13 +7011,13 @@
       <c r="D30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -7023,18 +7026,21 @@
         <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>47</v>
@@ -7051,7 +7057,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>47</v>
@@ -7059,7 +7065,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7070,16 +7076,16 @@
       <c r="D34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>48</v>
@@ -7087,7 +7093,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>47</v>
@@ -7095,7 +7101,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>57</v>
@@ -7106,7 +7112,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>47</v>
@@ -7114,7 +7120,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>47</v>
@@ -7122,7 +7128,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>47</v>
@@ -7130,7 +7136,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>47</v>
@@ -7138,7 +7144,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>47</v>
@@ -7149,13 +7155,13 @@
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>47</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>47</v>
@@ -7183,7 +7189,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>47</v>
@@ -7191,7 +7197,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>59</v>
@@ -7199,7 +7205,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -7207,7 +7213,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>56</v>
@@ -7215,10 +7221,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>47</v>
@@ -7229,18 +7235,18 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>105</v>
+      <c r="F50" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>49</v>
@@ -7248,7 +7254,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>49</v>
@@ -7262,7 +7268,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>48</v>
@@ -7271,12 +7277,12 @@
         <v>47</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>49</v>
@@ -7287,7 +7293,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>48</v>
@@ -7298,7 +7304,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>49</v>
@@ -7306,18 +7312,21 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>48</v>
@@ -7325,7 +7334,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>49</v>
@@ -7333,15 +7342,18 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>47</v>
@@ -7358,7 +7370,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>47</v>
@@ -7366,13 +7378,13 @@
       <c r="C62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>47</v>
@@ -7380,7 +7392,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>53</v>
@@ -7388,7 +7400,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>47</v>
@@ -7399,7 +7411,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>47</v>
@@ -7407,7 +7419,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>47</v>
@@ -7415,7 +7427,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>47</v>
@@ -7423,13 +7435,16 @@
       <c r="C68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="D68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>47</v>
@@ -7437,7 +7452,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>47</v>
@@ -7490,7 +7505,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>47</v>
@@ -7501,13 +7516,13 @@
       <c r="D71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>47</v>
@@ -7518,7 +7533,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>49</v>
@@ -7526,7 +7541,7 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>49</v>
@@ -7534,7 +7549,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>47</v>
@@ -7548,7 +7563,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>47</v>
@@ -7556,18 +7571,18 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>49</v>
@@ -7575,82 +7590,82 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>47</v>
@@ -7659,29 +7674,32 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>47</v>
@@ -7693,9 +7711,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>64</v>
@@ -7707,22 +7725,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>47</v>
@@ -7731,9 +7749,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>47</v>
@@ -7742,52 +7760,52 @@
         <v>47</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>47</v>
@@ -7798,32 +7816,32 @@
       <c r="D101" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>47</v>
@@ -7832,25 +7850,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>47</v>
@@ -7859,38 +7877,38 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>47</v>
@@ -7898,17 +7916,17 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>47</v>
@@ -7919,13 +7937,13 @@
       <c r="D115" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>47</v>
@@ -7933,7 +7951,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>56</v>
@@ -7942,7 +7960,7 @@
         <v>47</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>47</v>
@@ -7986,7 +8004,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>47</v>
@@ -7994,12 +8012,12 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>47</v>
@@ -8007,10 +8025,10 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -8264,7 +8282,7 @@
         <v>215</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -8272,7 +8290,7 @@
         <v>216</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -8302,10 +8320,10 @@
         <v>66</v>
       </c>
       <c r="E156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>220</v>
@@ -8334,9 +8352,9 @@
         <v>59</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F157" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H157" s="3" t="s">
@@ -8475,10 +8493,10 @@
         <v>47</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -8489,7 +8507,7 @@
         <v>238</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -8516,7 +8534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
         <v>242</v>
       </c>
@@ -8524,7 +8542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
         <v>243</v>
       </c>
@@ -8532,7 +8550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>244</v>
       </c>
@@ -8540,7 +8558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
         <v>245</v>
       </c>
@@ -8548,7 +8566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
         <v>246</v>
       </c>
@@ -8556,7 +8574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
         <v>247</v>
       </c>
@@ -8566,8 +8584,11 @@
       <c r="C182" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="E182" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
         <v>248</v>
       </c>
@@ -8575,7 +8596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
         <v>249</v>
       </c>
@@ -8583,17 +8604,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
         <v>252</v>
       </c>
@@ -8601,7 +8622,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
         <v>253</v>
       </c>
@@ -8609,7 +8630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
         <v>254</v>
       </c>
@@ -8617,7 +8638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
         <v>255</v>
       </c>
@@ -8625,7 +8646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
         <v>256</v>
       </c>
@@ -8633,7 +8654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
         <v>257</v>
       </c>
@@ -8641,7 +8662,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>258</v>
       </c>
@@ -8649,7 +8670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>259</v>
       </c>
@@ -8657,7 +8678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>260</v>
       </c>
@@ -8665,17 +8686,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>263</v>
       </c>
@@ -8683,17 +8704,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>266</v>
       </c>
@@ -8701,7 +8722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>267</v>
       </c>
@@ -8709,12 +8730,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>269</v>
       </c>
@@ -8727,11 +8748,11 @@
       <c r="D204" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>270</v>
       </c>
@@ -8739,7 +8760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>271</v>
       </c>
@@ -8747,12 +8768,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>273</v>
       </c>
@@ -8781,13 +8802,13 @@
         <v>50</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E211" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -9121,7 +9142,7 @@
         <v>324</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -9270,7 +9291,7 @@
       <c r="B276" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E276" s="4" t="s">
+      <c r="F276" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9379,7 +9400,7 @@
       <c r="C287" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="F287" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9531,7 +9552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
         <v>372</v>
       </c>
@@ -9541,11 +9562,11 @@
       <c r="C305" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F305" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="E305" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
         <v>373</v>
       </c>
@@ -9556,7 +9577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
         <v>374</v>
       </c>
@@ -9564,7 +9585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
         <v>375</v>
       </c>
@@ -9572,7 +9593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
         <v>376</v>
       </c>
@@ -9580,7 +9601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
         <v>377</v>
       </c>
@@ -9588,7 +9609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
         <v>378</v>
       </c>
@@ -9596,7 +9617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
         <v>379</v>
       </c>
@@ -9604,17 +9625,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
         <v>382</v>
       </c>
@@ -9622,12 +9643,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
         <v>384</v>
       </c>
@@ -9635,7 +9656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
         <v>385</v>
       </c>
@@ -9643,7 +9664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
         <v>386</v>
       </c>
@@ -9651,7 +9672,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
         <v>387</v>
       </c>
@@ -9699,8 +9720,8 @@
       <c r="C324" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F324" s="4" t="s">
-        <v>145</v>
+      <c r="E324" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -9758,7 +9779,7 @@
       <c r="B331" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="E331" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H331" s="4" t="s">
@@ -9819,7 +9840,7 @@
       <c r="D336" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F336" s="3" t="s">
+      <c r="E336" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -9966,7 +9987,7 @@
         <v>419</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10081,9 +10102,9 @@
         <v>49</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F366" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E366" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H366" s="3" t="s">
@@ -10793,7 +10814,7 @@
         <v>529</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -10817,7 +10838,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
         <v>533</v>
       </c>
@@ -10825,7 +10846,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:5">
       <c r="A466" s="2" t="s">
         <v>535</v>
       </c>
@@ -10835,11 +10856,11 @@
       <c r="C466" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F466" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6">
+      <c r="E466" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
         <v>536</v>
       </c>
@@ -10847,7 +10868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
         <v>537</v>
       </c>
@@ -10855,12 +10876,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:5">
       <c r="A469" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:5">
       <c r="A470" s="2" t="s">
         <v>539</v>
       </c>
@@ -10871,7 +10892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
         <v>540</v>
       </c>
@@ -10879,7 +10900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:5">
       <c r="A472" s="2" t="s">
         <v>541</v>
       </c>
@@ -10887,7 +10908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
         <v>542</v>
       </c>
@@ -10895,7 +10916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
         <v>543</v>
       </c>
@@ -10903,7 +10924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
         <v>544</v>
       </c>
@@ -10911,17 +10932,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
         <v>547</v>
       </c>
@@ -10929,7 +10950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
         <v>548</v>
       </c>
@@ -10937,7 +10958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
         <v>549</v>
       </c>
@@ -11202,7 +11223,7 @@
       <c r="D513" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E513" s="3" t="s">
+      <c r="F513" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11356,7 +11377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:6">
       <c r="A529" s="2" t="s">
         <v>599</v>
       </c>
@@ -11364,7 +11385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:6">
       <c r="A530" s="2" t="s">
         <v>600</v>
       </c>
@@ -11372,7 +11393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:6">
       <c r="A531" s="2" t="s">
         <v>601</v>
       </c>
@@ -11380,10 +11401,10 @@
         <v>49</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
       <c r="A532" s="2" t="s">
         <v>602</v>
       </c>
@@ -11391,7 +11412,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:6">
       <c r="A533" s="2" t="s">
         <v>603</v>
       </c>
@@ -11399,7 +11420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:6">
       <c r="A534" s="2" t="s">
         <v>604</v>
       </c>
@@ -11407,7 +11428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:6">
       <c r="A535" s="2" t="s">
         <v>605</v>
       </c>
@@ -11415,7 +11436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:6">
       <c r="A536" s="2" t="s">
         <v>606</v>
       </c>
@@ -11423,7 +11444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:6">
       <c r="A537" s="2" t="s">
         <v>607</v>
       </c>
@@ -11434,7 +11455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:6">
       <c r="A538" s="2" t="s">
         <v>608</v>
       </c>
@@ -11447,11 +11468,11 @@
       <c r="D538" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E538" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
+      <c r="F538" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
       <c r="A539" s="2" t="s">
         <v>609</v>
       </c>
@@ -11459,7 +11480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:6">
       <c r="A540" s="2" t="s">
         <v>610</v>
       </c>
@@ -11467,17 +11488,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:6">
       <c r="A541" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:6">
       <c r="A542" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:6">
       <c r="A543" s="2" t="s">
         <v>613</v>
       </c>
@@ -11488,7 +11509,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:6">
       <c r="A544" s="2" t="s">
         <v>614</v>
       </c>
@@ -11496,7 +11517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:6">
       <c r="A545" s="2" t="s">
         <v>615</v>
       </c>
@@ -11504,17 +11525,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:6">
       <c r="A546" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:6">
       <c r="A547" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:6">
       <c r="A548" s="2" t="s">
         <v>618</v>
       </c>
@@ -11527,11 +11548,11 @@
       <c r="D548" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E548" s="3" t="s">
+      <c r="F548" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:6">
       <c r="A549" s="2" t="s">
         <v>619</v>
       </c>
@@ -11539,7 +11560,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:6">
       <c r="A550" s="2" t="s">
         <v>620</v>
       </c>
@@ -11547,7 +11568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:6">
       <c r="A551" s="2" t="s">
         <v>621</v>
       </c>
@@ -11557,8 +11578,14 @@
       <c r="C551" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="552" spans="1:5">
+      <c r="D551" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
       <c r="A552" s="2" t="s">
         <v>622</v>
       </c>
@@ -11569,7 +11596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:6">
       <c r="A553" s="2" t="s">
         <v>623</v>
       </c>
@@ -11577,12 +11604,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:6">
       <c r="A554" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:6">
       <c r="A555" s="2" t="s">
         <v>625</v>
       </c>
@@ -11590,7 +11617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:6">
       <c r="A556" s="2" t="s">
         <v>626</v>
       </c>
@@ -11598,7 +11625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:6">
       <c r="A557" s="2" t="s">
         <v>627</v>
       </c>
@@ -11606,12 +11633,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:6">
       <c r="A558" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:6">
       <c r="A559" s="2" t="s">
         <v>629</v>
       </c>
@@ -11625,12 +11652,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:6">
       <c r="A560" s="2" t="s">
         <v>630</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11862,7 +11889,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:6">
       <c r="A593" s="2" t="s">
         <v>663</v>
       </c>
@@ -11870,22 +11897,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:6">
       <c r="A594" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:6">
       <c r="A595" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:6">
       <c r="A596" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:6">
       <c r="A597" s="2" t="s">
         <v>667</v>
       </c>
@@ -11893,12 +11920,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:6">
       <c r="A598" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:6">
       <c r="A599" s="2" t="s">
         <v>669</v>
       </c>
@@ -11906,17 +11933,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:6">
       <c r="A600" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:6">
       <c r="A601" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:6">
       <c r="A602" s="2" t="s">
         <v>672</v>
       </c>
@@ -11924,7 +11951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:6">
       <c r="A603" s="2" t="s">
         <v>673</v>
       </c>
@@ -11932,7 +11959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:6">
       <c r="A604" s="2" t="s">
         <v>674</v>
       </c>
@@ -11940,7 +11967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:6">
       <c r="A605" s="2" t="s">
         <v>675</v>
       </c>
@@ -11948,7 +11975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:6">
       <c r="A606" s="2" t="s">
         <v>676</v>
       </c>
@@ -11961,16 +11988,16 @@
       <c r="D606" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E606" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="607" spans="1:5">
+      <c r="F606" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6">
       <c r="A607" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:6">
       <c r="A608" s="2" t="s">
         <v>678</v>
       </c>
@@ -12034,19 +12061,19 @@
         <v>47</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F615" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G615" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H615" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I615" s="3" t="s">
         <v>48</v>
@@ -12112,22 +12139,22 @@
         <v>694</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:9">
       <c r="A625" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:9">
       <c r="A626" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:9">
       <c r="A627" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:9">
       <c r="A628" s="2" t="s">
         <v>698</v>
       </c>
@@ -12135,22 +12162,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:9">
       <c r="A629" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:9">
       <c r="A630" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:9">
       <c r="A631" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:9">
       <c r="A632" s="2" t="s">
         <v>702</v>
       </c>
@@ -12160,34 +12187,37 @@
       <c r="C632" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F632" s="4" t="s">
-        <v>145</v>
+      <c r="E632" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="H632" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I632" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9">
       <c r="A633" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:9">
       <c r="A634" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:9">
       <c r="A635" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:9">
       <c r="A636" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:9">
       <c r="A637" s="2" t="s">
         <v>707</v>
       </c>
@@ -12195,12 +12225,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:9">
       <c r="A638" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:9">
       <c r="A639" s="2" t="s">
         <v>709</v>
       </c>
@@ -12208,7 +12238,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:9">
       <c r="A640" s="2" t="s">
         <v>710</v>
       </c>
@@ -12471,7 +12501,7 @@
         <v>49</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -12574,10 +12604,10 @@
         <v>47</v>
       </c>
       <c r="E687" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F687" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H687" s="3" t="s">
         <v>47</v>
@@ -12650,7 +12680,7 @@
       <c r="D694" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E694" s="3" t="s">
+      <c r="F694" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12707,7 +12737,7 @@
       <c r="D700" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F700" s="3" t="s">
+      <c r="E700" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12724,7 +12754,7 @@
       <c r="D701" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E701" s="3" t="s">
+      <c r="F701" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13109,7 +13139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:6">
       <c r="A753" s="2" t="s">
         <v>823</v>
       </c>
@@ -13117,7 +13147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:6">
       <c r="A754" s="2" t="s">
         <v>824</v>
       </c>
@@ -13125,32 +13155,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:6">
       <c r="A755" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:6">
       <c r="A756" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:6">
       <c r="A757" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:6">
       <c r="A758" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:6">
       <c r="A759" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:6">
       <c r="A760" s="2" t="s">
         <v>830</v>
       </c>
@@ -13158,17 +13188,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:6">
       <c r="A761" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:6">
       <c r="A762" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:6">
       <c r="A763" s="2" t="s">
         <v>833</v>
       </c>
@@ -13181,11 +13211,11 @@
       <c r="D763" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E763" s="3" t="s">
+      <c r="F763" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:6">
       <c r="A764" s="2" t="s">
         <v>834</v>
       </c>
@@ -13198,11 +13228,11 @@
       <c r="D764" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E764" s="3" t="s">
+      <c r="F764" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:6">
       <c r="A765" s="2" t="s">
         <v>835</v>
       </c>
@@ -13216,7 +13246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:6">
       <c r="A766" s="2" t="s">
         <v>836</v>
       </c>
@@ -13230,12 +13260,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:6">
       <c r="A767" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:6">
       <c r="A768" s="2" t="s">
         <v>839</v>
       </c>
@@ -13246,7 +13276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:6">
       <c r="A769" s="2" t="s">
         <v>840</v>
       </c>
@@ -13254,12 +13284,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:6">
       <c r="A770" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:6">
       <c r="A771" s="2" t="s">
         <v>842</v>
       </c>
@@ -13267,7 +13297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:6">
       <c r="A772" s="2" t="s">
         <v>843</v>
       </c>
@@ -13278,7 +13308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:6">
       <c r="A773" s="2" t="s">
         <v>844</v>
       </c>
@@ -13286,7 +13316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:6">
       <c r="A774" s="2" t="s">
         <v>845</v>
       </c>
@@ -13294,7 +13324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:6">
       <c r="A775" s="2" t="s">
         <v>846</v>
       </c>
@@ -13307,16 +13337,16 @@
       <c r="D775" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E775" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="776" spans="1:5">
+      <c r="F775" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6">
       <c r="A776" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:6">
       <c r="A777" s="2" t="s">
         <v>848</v>
       </c>
@@ -13324,7 +13354,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:6">
       <c r="A778" s="2" t="s">
         <v>849</v>
       </c>
@@ -13332,22 +13362,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:6">
       <c r="A779" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:6">
       <c r="A780" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:6">
       <c r="A781" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:6">
       <c r="A782" s="2" t="s">
         <v>853</v>
       </c>
@@ -13360,16 +13390,16 @@
       <c r="D782" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E782" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="783" spans="1:5">
+      <c r="F782" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6">
       <c r="A783" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:6">
       <c r="A784" s="2" t="s">
         <v>855</v>
       </c>
@@ -13399,10 +13429,10 @@
         <v>46</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F786" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G786" s="3" t="s">
         <v>52</v>
@@ -13614,8 +13644,8 @@
       <c r="C807" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E807" s="4" t="s">
-        <v>137</v>
+      <c r="F807" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="I807" s="3" t="s">
         <v>47</v>
@@ -13754,7 +13784,7 @@
       <c r="D826" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F826" s="3" t="s">
+      <c r="E826" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -13785,7 +13815,7 @@
       <c r="D828" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E828" s="3" t="s">
+      <c r="F828" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -13815,7 +13845,7 @@
       <c r="D831" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E831" s="3" t="s">
+      <c r="F831" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13915,7 +13945,7 @@
         <v>919</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -14037,10 +14067,10 @@
         <v>56</v>
       </c>
       <c r="E859" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H859" s="3" t="s">
         <v>48</v>
@@ -14049,7 +14079,7 @@
         <v>53</v>
       </c>
       <c r="J859" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="860" spans="1:10">
@@ -14274,7 +14304,7 @@
         <v>965</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -14345,7 +14375,7 @@
       <c r="D901" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="E901" s="3" t="s">
+      <c r="F901" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14373,7 +14403,7 @@
       <c r="C903" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E903" s="3" t="s">
+      <c r="F903" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14494,7 +14524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="913" spans="1:5">
+    <row r="913" spans="1:6">
       <c r="A913" s="2" t="s">
         <v>988</v>
       </c>
@@ -14502,7 +14532,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="914" spans="1:5">
+    <row r="914" spans="1:6">
       <c r="A914" s="2" t="s">
         <v>989</v>
       </c>
@@ -14510,7 +14540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="915" spans="1:5">
+    <row r="915" spans="1:6">
       <c r="A915" s="2" t="s">
         <v>990</v>
       </c>
@@ -14518,7 +14548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="916" spans="1:5">
+    <row r="916" spans="1:6">
       <c r="A916" s="2" t="s">
         <v>991</v>
       </c>
@@ -14531,11 +14561,11 @@
       <c r="D916" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E916" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="917" spans="1:5">
+      <c r="F916" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6">
       <c r="A917" s="2" t="s">
         <v>992</v>
       </c>
@@ -14543,7 +14573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="918" spans="1:5">
+    <row r="918" spans="1:6">
       <c r="A918" s="2" t="s">
         <v>993</v>
       </c>
@@ -14551,7 +14581,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="919" spans="1:5">
+    <row r="919" spans="1:6">
       <c r="A919" s="2" t="s">
         <v>994</v>
       </c>
@@ -14559,7 +14589,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="920" spans="1:5">
+    <row r="920" spans="1:6">
       <c r="A920" s="2" t="s">
         <v>995</v>
       </c>
@@ -14567,7 +14597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="921" spans="1:5">
+    <row r="921" spans="1:6">
       <c r="A921" s="2" t="s">
         <v>996</v>
       </c>
@@ -14578,7 +14608,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="922" spans="1:5">
+    <row r="922" spans="1:6">
       <c r="A922" s="2" t="s">
         <v>997</v>
       </c>
@@ -14586,17 +14616,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="923" spans="1:5">
+    <row r="923" spans="1:6">
       <c r="A923" s="2" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="924" spans="1:5">
+    <row r="924" spans="1:6">
       <c r="A924" s="2" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="925" spans="1:5">
+    <row r="925" spans="1:6">
       <c r="A925" s="2" t="s">
         <v>1000</v>
       </c>
@@ -14604,17 +14634,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="926" spans="1:5">
+    <row r="926" spans="1:6">
       <c r="A926" s="2" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="927" spans="1:5">
+    <row r="927" spans="1:6">
       <c r="A927" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="928" spans="1:5">
+    <row r="928" spans="1:6">
       <c r="A928" s="2" t="s">
         <v>1003</v>
       </c>
@@ -14808,7 +14838,7 @@
         <v>47</v>
       </c>
       <c r="L949" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O949" s="3" t="s">
         <v>47</v>
@@ -14821,6 +14851,9 @@
       <c r="B950" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D950" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="951" spans="1:15">
       <c r="A951" s="2" t="s">
@@ -14835,7 +14868,7 @@
       <c r="D951" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E951" s="3" t="s">
+      <c r="F951" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14852,7 +14885,7 @@
       <c r="D952" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F952" s="4" t="s">
+      <c r="E952" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -15066,12 +15099,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="977" spans="1:5">
+    <row r="977" spans="1:6">
       <c r="A977" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" spans="1:6">
       <c r="A978" s="2" t="s">
         <v>1054</v>
       </c>
@@ -15079,7 +15112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" spans="1:6">
       <c r="A979" s="2" t="s">
         <v>1055</v>
       </c>
@@ -15092,11 +15125,11 @@
       <c r="D979" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E979" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="980" spans="1:5">
+      <c r="F979" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6">
       <c r="A980" s="2" t="s">
         <v>1056</v>
       </c>
@@ -15104,62 +15137,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="981" spans="1:5">
+    <row r="981" spans="1:6">
       <c r="A981" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="982" spans="1:5">
+    <row r="982" spans="1:6">
       <c r="A982" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="983" spans="1:5">
+    <row r="983" spans="1:6">
       <c r="A983" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="984" spans="1:5">
+    <row r="984" spans="1:6">
       <c r="A984" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="985" spans="1:5">
+    <row r="985" spans="1:6">
       <c r="A985" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="986" spans="1:5">
+    <row r="986" spans="1:6">
       <c r="A986" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="987" spans="1:5">
+    <row r="987" spans="1:6">
       <c r="A987" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="988" spans="1:5">
+    <row r="988" spans="1:6">
       <c r="A988" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="989" spans="1:5">
+    <row r="989" spans="1:6">
       <c r="A989" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="990" spans="1:5">
+    <row r="990" spans="1:6">
       <c r="A990" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="991" spans="1:5">
+    <row r="991" spans="1:6">
       <c r="A991" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="992" spans="1:5">
+    <row r="992" spans="1:6">
       <c r="A992" s="2" t="s">
         <v>1068</v>
       </c>
@@ -15773,7 +15806,7 @@
         <v>53</v>
       </c>
       <c r="C1097" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
@@ -15986,7 +16019,7 @@
         <v>49</v>
       </c>
       <c r="C1127" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -16030,7 +16063,7 @@
         <v>47</v>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -16052,7 +16085,7 @@
         <v>47</v>
       </c>
       <c r="C1133" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -16275,7 +16308,7 @@
         <v>47</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -16433,7 +16466,7 @@
         <v>48</v>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -16464,7 +16497,7 @@
         <v>1265</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -19389,7 +19422,7 @@
         <v>1791</v>
       </c>
       <c r="D1714" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1715" spans="1:7">
@@ -19693,7 +19726,7 @@
         <v>1844</v>
       </c>
       <c r="B1767" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -19830,7 +19863,7 @@
         <v>1863</v>
       </c>
       <c r="B1786" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1787" spans="1:6">
@@ -19924,7 +19957,7 @@
       <c r="B1796" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1796" s="3" t="s">
+      <c r="F1796" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -19943,7 +19976,7 @@
       <c r="B1798" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1798" s="3" t="s">
+      <c r="E1798" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -20138,7 +20171,7 @@
         <v>1912</v>
       </c>
       <c r="B1835" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1913">
   <si>
     <t>№</t>
   </si>
@@ -6256,49 +6256,49 @@
         <v>4535</v>
       </c>
       <c r="D3">
-        <v>14150</v>
+        <v>14158</v>
       </c>
       <c r="E3">
-        <v>32306</v>
+        <v>32322</v>
       </c>
       <c r="F3">
-        <v>33431</v>
+        <v>33446</v>
       </c>
       <c r="G3">
-        <v>53300</v>
+        <v>53336</v>
       </c>
       <c r="H3">
-        <v>58553</v>
+        <v>58591</v>
       </c>
       <c r="I3">
-        <v>59608</v>
+        <v>59643</v>
       </c>
       <c r="J3">
-        <v>87627</v>
+        <v>87674</v>
       </c>
       <c r="K3">
-        <v>97066</v>
+        <v>97121</v>
       </c>
       <c r="L3">
-        <v>99681</v>
+        <v>99741</v>
       </c>
       <c r="M3">
-        <v>107145</v>
+        <v>107219</v>
       </c>
       <c r="N3">
-        <v>108871</v>
+        <v>108950</v>
       </c>
       <c r="O3">
-        <v>109895</v>
+        <v>109968</v>
       </c>
       <c r="P3">
-        <v>116491</v>
+        <v>116565</v>
       </c>
       <c r="Q3">
-        <v>117525</v>
+        <v>117600</v>
       </c>
       <c r="R3">
-        <v>208706</v>
+        <v>208852</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6380,7 +6380,7 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <v>38</v>
@@ -6548,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -6604,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -19219,60 +19219,63 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1681" spans="1:2">
+    <row r="1681" spans="1:8">
       <c r="A1681" s="2" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="1682" spans="1:2">
+    <row r="1682" spans="1:8">
       <c r="A1682" s="2" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="1683" spans="1:2">
+    <row r="1683" spans="1:8">
       <c r="A1683" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="1684" spans="1:2">
+    <row r="1684" spans="1:8">
       <c r="A1684" s="2" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="1685" spans="1:2">
+    <row r="1685" spans="1:8">
       <c r="A1685" s="2" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="1686" spans="1:2">
+    <row r="1686" spans="1:8">
       <c r="A1686" s="2" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="1687" spans="1:2">
+    <row r="1687" spans="1:8">
       <c r="A1687" s="2" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="1688" spans="1:2">
+    <row r="1688" spans="1:8">
       <c r="A1688" s="2" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="1689" spans="1:2">
+    <row r="1689" spans="1:8">
       <c r="A1689" s="2" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="1690" spans="1:2">
+    <row r="1690" spans="1:8">
       <c r="A1690" s="2" t="s">
         <v>1767</v>
       </c>
       <c r="B1690" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1691" spans="1:2">
+      <c r="H1690" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:8">
       <c r="A1691" s="2" t="s">
         <v>1768</v>
       </c>
@@ -19280,7 +19283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1692" spans="1:2">
+    <row r="1692" spans="1:8">
       <c r="A1692" s="2" t="s">
         <v>1769</v>
       </c>
@@ -19288,15 +19291,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1693" spans="1:2">
+    <row r="1693" spans="1:8">
       <c r="A1693" s="2" t="s">
         <v>1770</v>
       </c>
       <c r="B1693" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1694" spans="1:2">
+      <c r="H1693" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:8">
       <c r="A1694" s="2" t="s">
         <v>1771</v>
       </c>
@@ -19304,7 +19310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1695" spans="1:2">
+    <row r="1695" spans="1:8">
       <c r="A1695" s="2" t="s">
         <v>1772</v>
       </c>
@@ -19312,23 +19318,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1696" spans="1:2">
+    <row r="1696" spans="1:8">
       <c r="A1696" s="2" t="s">
         <v>1773</v>
       </c>
       <c r="B1696" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1697" spans="1:2">
+      <c r="H1696" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:8">
       <c r="A1697" s="2" t="s">
         <v>1774</v>
       </c>
       <c r="B1697" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1698" spans="1:2">
+      <c r="H1697" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:8">
       <c r="A1698" s="2" t="s">
         <v>1775</v>
       </c>
@@ -19336,7 +19348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1699" spans="1:2">
+    <row r="1699" spans="1:8">
       <c r="A1699" s="2" t="s">
         <v>1776</v>
       </c>
@@ -19344,62 +19356,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1700" spans="1:2">
+    <row r="1700" spans="1:8">
       <c r="A1700" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1701" spans="1:2">
+    <row r="1701" spans="1:8">
       <c r="A1701" s="2" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="1702" spans="1:2">
+    <row r="1702" spans="1:8">
       <c r="A1702" s="2" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="1703" spans="1:2">
+    <row r="1703" spans="1:8">
       <c r="A1703" s="2" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="1704" spans="1:2">
+    <row r="1704" spans="1:8">
       <c r="A1704" s="2" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="1705" spans="1:2">
+    <row r="1705" spans="1:8">
       <c r="A1705" s="2" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1706" spans="1:2">
+    <row r="1706" spans="1:8">
       <c r="A1706" s="2" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="1707" spans="1:2">
+    <row r="1707" spans="1:8">
       <c r="A1707" s="2" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="1708" spans="1:2">
+    <row r="1708" spans="1:8">
       <c r="A1708" s="2" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="1709" spans="1:2">
+    <row r="1709" spans="1:8">
       <c r="A1709" s="2" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="1710" spans="1:2">
+    <row r="1710" spans="1:8">
       <c r="A1710" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="1711" spans="1:2">
+    <row r="1711" spans="1:8">
       <c r="A1711" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19407,7 +19419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1712" spans="1:2">
+    <row r="1712" spans="1:8">
       <c r="A1712" s="2" t="s">
         <v>1789</v>
       </c>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3342" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1913">
   <si>
     <t>№</t>
   </si>
@@ -1543,6 +1543,9 @@
     <t>430</t>
   </si>
   <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
     <t>431</t>
   </si>
   <si>
@@ -2960,9 +2963,6 @@
   </si>
   <si>
     <t>897</t>
-  </si>
-  <si>
-    <t>1+, 7-</t>
   </si>
   <si>
     <t>898</t>
@@ -6250,55 +6250,55 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>4535</v>
+        <v>4539</v>
       </c>
       <c r="D3">
-        <v>14158</v>
+        <v>14178</v>
       </c>
       <c r="E3">
-        <v>32322</v>
+        <v>32350</v>
       </c>
       <c r="F3">
-        <v>33446</v>
+        <v>33474</v>
       </c>
       <c r="G3">
-        <v>53336</v>
+        <v>53407</v>
       </c>
       <c r="H3">
-        <v>58591</v>
+        <v>58683</v>
       </c>
       <c r="I3">
-        <v>59643</v>
+        <v>59744</v>
       </c>
       <c r="J3">
-        <v>87674</v>
+        <v>87840</v>
       </c>
       <c r="K3">
-        <v>97121</v>
+        <v>97290</v>
       </c>
       <c r="L3">
-        <v>99741</v>
+        <v>99917</v>
       </c>
       <c r="M3">
-        <v>107219</v>
+        <v>107416</v>
       </c>
       <c r="N3">
-        <v>108950</v>
+        <v>109160</v>
       </c>
       <c r="O3">
-        <v>109968</v>
+        <v>110187</v>
       </c>
       <c r="P3">
-        <v>116565</v>
+        <v>116793</v>
       </c>
       <c r="Q3">
-        <v>117600</v>
+        <v>117834</v>
       </c>
       <c r="R3">
-        <v>208852</v>
+        <v>209218</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6306,7 +6306,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>23967</v>
+        <v>24238</v>
       </c>
       <c r="C4">
         <v>3534</v>
@@ -6362,7 +6362,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1675</v>
+        <v>1702</v>
       </c>
       <c r="C5">
         <v>605</v>
@@ -6380,7 +6380,7 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I5">
         <v>38</v>
@@ -6418,7 +6418,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C6">
         <v>190</v>
@@ -6474,7 +6474,7 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -6530,7 +6530,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="C8">
         <v>215</v>
@@ -6548,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -6586,7 +6586,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -6604,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7889,6 +7889,9 @@
       <c r="A109" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="B109" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
@@ -10661,10 +10664,13 @@
       <c r="A439" s="2" t="s">
         <v>507</v>
       </c>
+      <c r="B439" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>47</v>
@@ -10672,7 +10678,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>59</v>
@@ -10680,37 +10686,37 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>47</v>
@@ -10721,7 +10727,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>47</v>
@@ -10732,12 +10738,12 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>47</v>
@@ -10745,7 +10751,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>53</v>
@@ -10753,7 +10759,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>59</v>
@@ -10761,12 +10767,12 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>47</v>
@@ -10777,7 +10783,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>48</v>
@@ -10785,12 +10791,12 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>47</v>
@@ -10798,7 +10804,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>48</v>
@@ -10806,12 +10812,12 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>75</v>
@@ -10819,7 +10825,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>47</v>
@@ -10827,7 +10833,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>47</v>
@@ -10835,20 +10841,20 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>47</v>
@@ -10862,7 +10868,7 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>53</v>
@@ -10870,7 +10876,7 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>47</v>
@@ -10878,12 +10884,12 @@
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>47</v>
@@ -10894,7 +10900,7 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>47</v>
@@ -10902,7 +10908,7 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>49</v>
@@ -10910,7 +10916,7 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>49</v>
@@ -10918,7 +10924,7 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>47</v>
@@ -10926,7 +10932,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>47</v>
@@ -10934,17 +10940,17 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>47</v>
@@ -10952,7 +10958,7 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>47</v>
@@ -10960,7 +10966,7 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>49</v>
@@ -10968,7 +10974,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>47</v>
@@ -10976,7 +10982,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>66</v>
@@ -10984,12 +10990,12 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>47</v>
@@ -10997,7 +11003,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>48</v>
@@ -11005,7 +11011,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>47</v>
@@ -11013,17 +11019,17 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>57</v>
@@ -11031,12 +11037,12 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>47</v>
@@ -11044,7 +11050,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>47</v>
@@ -11052,12 +11058,12 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>48</v>
@@ -11065,12 +11071,12 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>47</v>
@@ -11078,12 +11084,12 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>48</v>
@@ -11091,7 +11097,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>47</v>
@@ -11102,7 +11108,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>47</v>
@@ -11113,7 +11119,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>52</v>
@@ -11121,7 +11127,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>49</v>
@@ -11132,7 +11138,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>48</v>
@@ -11140,7 +11146,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>47</v>
@@ -11148,7 +11154,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>47</v>
@@ -11159,12 +11165,12 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>47</v>
@@ -11172,7 +11178,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>47</v>
@@ -11183,7 +11189,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>47</v>
@@ -11191,7 +11197,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>48</v>
@@ -11199,7 +11205,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>47</v>
@@ -11207,12 +11213,12 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="513" spans="1:17">
       <c r="A513" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>47</v>
@@ -11229,7 +11235,7 @@
     </row>
     <row r="514" spans="1:17">
       <c r="A514" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>49</v>
@@ -11237,17 +11243,17 @@
     </row>
     <row r="515" spans="1:17">
       <c r="A515" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="516" spans="1:17">
       <c r="A516" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="517" spans="1:17">
       <c r="A517" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>49</v>
@@ -11255,7 +11261,7 @@
     </row>
     <row r="518" spans="1:17">
       <c r="A518" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>47</v>
@@ -11263,7 +11269,7 @@
     </row>
     <row r="519" spans="1:17">
       <c r="A519" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>47</v>
@@ -11271,7 +11277,7 @@
     </row>
     <row r="520" spans="1:17">
       <c r="A520" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>47</v>
@@ -11282,12 +11288,12 @@
     </row>
     <row r="521" spans="1:17">
       <c r="A521" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="522" spans="1:17">
       <c r="A522" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>57</v>
@@ -11301,7 +11307,7 @@
     </row>
     <row r="523" spans="1:17">
       <c r="A523" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>47</v>
@@ -11319,7 +11325,7 @@
         <v>47</v>
       </c>
       <c r="H523" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I523" s="3" t="s">
         <v>47</v>
@@ -11336,7 +11342,7 @@
     </row>
     <row r="524" spans="1:17">
       <c r="A524" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>47</v>
@@ -11344,7 +11350,7 @@
     </row>
     <row r="525" spans="1:17">
       <c r="A525" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>49</v>
@@ -11352,7 +11358,7 @@
     </row>
     <row r="526" spans="1:17">
       <c r="A526" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>48</v>
@@ -11360,7 +11366,7 @@
     </row>
     <row r="527" spans="1:17">
       <c r="A527" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>47</v>
@@ -11368,7 +11374,7 @@
     </row>
     <row r="528" spans="1:17">
       <c r="A528" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>47</v>
@@ -11379,7 +11385,7 @@
     </row>
     <row r="529" spans="1:6">
       <c r="A529" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>48</v>
@@ -11387,7 +11393,7 @@
     </row>
     <row r="530" spans="1:6">
       <c r="A530" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>49</v>
@@ -11395,7 +11401,7 @@
     </row>
     <row r="531" spans="1:6">
       <c r="A531" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>49</v>
@@ -11406,7 +11412,7 @@
     </row>
     <row r="532" spans="1:6">
       <c r="A532" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>59</v>
@@ -11414,7 +11420,7 @@
     </row>
     <row r="533" spans="1:6">
       <c r="A533" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>47</v>
@@ -11422,7 +11428,7 @@
     </row>
     <row r="534" spans="1:6">
       <c r="A534" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>47</v>
@@ -11430,7 +11436,7 @@
     </row>
     <row r="535" spans="1:6">
       <c r="A535" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>47</v>
@@ -11438,7 +11444,7 @@
     </row>
     <row r="536" spans="1:6">
       <c r="A536" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>47</v>
@@ -11446,7 +11452,7 @@
     </row>
     <row r="537" spans="1:6">
       <c r="A537" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>48</v>
@@ -11457,7 +11463,7 @@
     </row>
     <row r="538" spans="1:6">
       <c r="A538" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>57</v>
@@ -11474,7 +11480,7 @@
     </row>
     <row r="539" spans="1:6">
       <c r="A539" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>47</v>
@@ -11482,7 +11488,7 @@
     </row>
     <row r="540" spans="1:6">
       <c r="A540" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>47</v>
@@ -11490,17 +11496,17 @@
     </row>
     <row r="541" spans="1:6">
       <c r="A541" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="542" spans="1:6">
       <c r="A542" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="543" spans="1:6">
       <c r="A543" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>47</v>
@@ -11511,7 +11517,7 @@
     </row>
     <row r="544" spans="1:6">
       <c r="A544" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>53</v>
@@ -11519,7 +11525,7 @@
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>47</v>
@@ -11527,17 +11533,17 @@
     </row>
     <row r="546" spans="1:6">
       <c r="A546" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="547" spans="1:6">
       <c r="A547" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="548" spans="1:6">
       <c r="A548" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>49</v>
@@ -11554,7 +11560,7 @@
     </row>
     <row r="549" spans="1:6">
       <c r="A549" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B549" s="3" t="s">
         <v>47</v>
@@ -11562,7 +11568,7 @@
     </row>
     <row r="550" spans="1:6">
       <c r="A550" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>48</v>
@@ -11570,7 +11576,7 @@
     </row>
     <row r="551" spans="1:6">
       <c r="A551" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>47</v>
@@ -11587,7 +11593,7 @@
     </row>
     <row r="552" spans="1:6">
       <c r="A552" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>47</v>
@@ -11598,7 +11604,7 @@
     </row>
     <row r="553" spans="1:6">
       <c r="A553" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>47</v>
@@ -11606,12 +11612,12 @@
     </row>
     <row r="554" spans="1:6">
       <c r="A554" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="555" spans="1:6">
       <c r="A555" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B555" s="3" t="s">
         <v>49</v>
@@ -11619,7 +11625,7 @@
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>49</v>
@@ -11627,7 +11633,7 @@
     </row>
     <row r="557" spans="1:6">
       <c r="A557" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>49</v>
@@ -11635,12 +11641,12 @@
     </row>
     <row r="558" spans="1:6">
       <c r="A558" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="559" spans="1:6">
       <c r="A559" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>48</v>
@@ -11654,7 +11660,7 @@
     </row>
     <row r="560" spans="1:6">
       <c r="A560" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>75</v>
@@ -11662,7 +11668,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>47</v>
@@ -11670,7 +11676,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>49</v>
@@ -11678,7 +11684,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>47</v>
@@ -11692,12 +11698,12 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>47</v>
@@ -11705,7 +11711,7 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B566" s="3" t="s">
         <v>47</v>
@@ -11713,12 +11719,12 @@
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>49</v>
@@ -11726,17 +11732,17 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>47</v>
@@ -11744,12 +11750,12 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>49</v>
@@ -11757,22 +11763,22 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>56</v>
@@ -11780,7 +11786,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B578" s="3" t="s">
         <v>47</v>
@@ -11788,7 +11794,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>49</v>
@@ -11796,22 +11802,22 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>47</v>
@@ -11822,7 +11828,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>47</v>
@@ -11830,7 +11836,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>47</v>
@@ -11838,7 +11844,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>47</v>
@@ -11846,7 +11852,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>49</v>
@@ -11854,7 +11860,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>49</v>
@@ -11862,7 +11868,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>47</v>
@@ -11870,7 +11876,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>48</v>
@@ -11878,7 +11884,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>47</v>
@@ -11886,12 +11892,12 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="593" spans="1:6">
       <c r="A593" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>47</v>
@@ -11899,22 +11905,22 @@
     </row>
     <row r="594" spans="1:6">
       <c r="A594" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="595" spans="1:6">
       <c r="A595" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="596" spans="1:6">
       <c r="A596" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="597" spans="1:6">
       <c r="A597" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>47</v>
@@ -11922,12 +11928,12 @@
     </row>
     <row r="598" spans="1:6">
       <c r="A598" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="599" spans="1:6">
       <c r="A599" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>47</v>
@@ -11935,17 +11941,17 @@
     </row>
     <row r="600" spans="1:6">
       <c r="A600" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="601" spans="1:6">
       <c r="A601" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="602" spans="1:6">
       <c r="A602" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>48</v>
@@ -11953,7 +11959,7 @@
     </row>
     <row r="603" spans="1:6">
       <c r="A603" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>62</v>
@@ -11961,7 +11967,7 @@
     </row>
     <row r="604" spans="1:6">
       <c r="A604" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>48</v>
@@ -11969,7 +11975,7 @@
     </row>
     <row r="605" spans="1:6">
       <c r="A605" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>48</v>
@@ -11977,7 +11983,7 @@
     </row>
     <row r="606" spans="1:6">
       <c r="A606" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>47</v>
@@ -11994,17 +12000,17 @@
     </row>
     <row r="607" spans="1:6">
       <c r="A607" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="608" spans="1:6">
       <c r="A608" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="609" spans="1:16">
       <c r="A609" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>49</v>
@@ -12015,7 +12021,7 @@
     </row>
     <row r="610" spans="1:16">
       <c r="A610" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>47</v>
@@ -12023,7 +12029,7 @@
     </row>
     <row r="611" spans="1:16">
       <c r="A611" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>47</v>
@@ -12031,7 +12037,7 @@
     </row>
     <row r="612" spans="1:16">
       <c r="A612" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>47</v>
@@ -12039,12 +12045,12 @@
     </row>
     <row r="613" spans="1:16">
       <c r="A613" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="614" spans="1:16">
       <c r="A614" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>47</v>
@@ -12052,7 +12058,7 @@
     </row>
     <row r="615" spans="1:16">
       <c r="A615" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>47</v>
@@ -12096,67 +12102,67 @@
     </row>
     <row r="616" spans="1:16">
       <c r="A616" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="617" spans="1:16">
       <c r="A617" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="618" spans="1:16">
       <c r="A618" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="619" spans="1:16">
       <c r="A619" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="620" spans="1:16">
       <c r="A620" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="621" spans="1:16">
       <c r="A621" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="622" spans="1:16">
       <c r="A622" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="623" spans="1:16">
       <c r="A623" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="624" spans="1:16">
       <c r="A624" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="625" spans="1:9">
       <c r="A625" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="626" spans="1:9">
       <c r="A626" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="627" spans="1:9">
       <c r="A627" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="628" spans="1:9">
       <c r="A628" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>47</v>
@@ -12164,22 +12170,22 @@
     </row>
     <row r="629" spans="1:9">
       <c r="A629" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="630" spans="1:9">
       <c r="A630" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="631" spans="1:9">
       <c r="A631" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="632" spans="1:9">
       <c r="A632" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>53</v>
@@ -12199,27 +12205,30 @@
     </row>
     <row r="633" spans="1:9">
       <c r="A633" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="634" spans="1:9">
       <c r="A634" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="635" spans="1:9">
       <c r="A635" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="636" spans="1:9">
       <c r="A636" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="637" spans="1:9">
       <c r="A637" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>47</v>
@@ -12227,12 +12236,12 @@
     </row>
     <row r="638" spans="1:9">
       <c r="A638" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="639" spans="1:9">
       <c r="A639" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>48</v>
@@ -12240,17 +12249,17 @@
     </row>
     <row r="640" spans="1:9">
       <c r="A640" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="641" spans="1:4">
       <c r="A641" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="642" spans="1:4">
       <c r="A642" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>47</v>
@@ -12261,12 +12270,12 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="644" spans="1:4">
       <c r="A644" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>53</v>
@@ -12274,12 +12283,12 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>47</v>
@@ -12290,7 +12299,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>49</v>
@@ -12298,7 +12307,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>47</v>
@@ -12309,7 +12318,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>47</v>
@@ -12317,7 +12326,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>49</v>
@@ -12328,7 +12337,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>47</v>
@@ -12339,7 +12348,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>47</v>
@@ -12353,12 +12362,12 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="654" spans="1:4">
       <c r="A654" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>49</v>
@@ -12366,17 +12375,17 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>47</v>
@@ -12387,7 +12396,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>47</v>
@@ -12395,12 +12404,12 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>48</v>
@@ -12408,17 +12417,17 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>47</v>
@@ -12426,52 +12435,52 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="673" spans="1:8">
       <c r="A673" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>47</v>
@@ -12479,7 +12488,7 @@
     </row>
     <row r="674" spans="1:8">
       <c r="A674" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>47</v>
@@ -12487,7 +12496,7 @@
     </row>
     <row r="675" spans="1:8">
       <c r="A675" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>47</v>
@@ -12495,7 +12504,7 @@
     </row>
     <row r="676" spans="1:8">
       <c r="A676" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>49</v>
@@ -12506,7 +12515,7 @@
     </row>
     <row r="677" spans="1:8">
       <c r="A677" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>47</v>
@@ -12514,7 +12523,7 @@
     </row>
     <row r="678" spans="1:8">
       <c r="A678" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>47</v>
@@ -12522,7 +12531,7 @@
     </row>
     <row r="679" spans="1:8">
       <c r="A679" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>47</v>
@@ -12533,7 +12542,7 @@
     </row>
     <row r="680" spans="1:8">
       <c r="A680" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>47</v>
@@ -12541,7 +12550,7 @@
     </row>
     <row r="681" spans="1:8">
       <c r="A681" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>47</v>
@@ -12549,7 +12558,7 @@
     </row>
     <row r="682" spans="1:8">
       <c r="A682" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>47</v>
@@ -12557,7 +12566,7 @@
     </row>
     <row r="683" spans="1:8">
       <c r="A683" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>47</v>
@@ -12565,7 +12574,7 @@
     </row>
     <row r="684" spans="1:8">
       <c r="A684" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>48</v>
@@ -12576,7 +12585,7 @@
     </row>
     <row r="685" spans="1:8">
       <c r="A685" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>47</v>
@@ -12584,7 +12593,7 @@
     </row>
     <row r="686" spans="1:8">
       <c r="A686" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>48</v>
@@ -12592,7 +12601,7 @@
     </row>
     <row r="687" spans="1:8">
       <c r="A687" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>47</v>
@@ -12615,7 +12624,7 @@
     </row>
     <row r="688" spans="1:8">
       <c r="A688" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>47</v>
@@ -12623,7 +12632,7 @@
     </row>
     <row r="689" spans="1:6">
       <c r="A689" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>47</v>
@@ -12634,7 +12643,7 @@
     </row>
     <row r="690" spans="1:6">
       <c r="A690" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>47</v>
@@ -12642,7 +12651,7 @@
     </row>
     <row r="691" spans="1:6">
       <c r="A691" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>56</v>
@@ -12653,7 +12662,7 @@
     </row>
     <row r="692" spans="1:6">
       <c r="A692" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>47</v>
@@ -12661,7 +12670,7 @@
     </row>
     <row r="693" spans="1:6">
       <c r="A693" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>47</v>
@@ -12669,7 +12678,7 @@
     </row>
     <row r="694" spans="1:6">
       <c r="A694" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>47</v>
@@ -12686,7 +12695,7 @@
     </row>
     <row r="695" spans="1:6">
       <c r="A695" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>47</v>
@@ -12694,7 +12703,7 @@
     </row>
     <row r="696" spans="1:6">
       <c r="A696" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>49</v>
@@ -12702,7 +12711,7 @@
     </row>
     <row r="697" spans="1:6">
       <c r="A697" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>46</v>
@@ -12713,7 +12722,7 @@
     </row>
     <row r="698" spans="1:6">
       <c r="A698" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>48</v>
@@ -12721,12 +12730,12 @@
     </row>
     <row r="699" spans="1:6">
       <c r="A699" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="700" spans="1:6">
       <c r="A700" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>47</v>
@@ -12743,7 +12752,7 @@
     </row>
     <row r="701" spans="1:6">
       <c r="A701" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>49</v>
@@ -12760,7 +12769,7 @@
     </row>
     <row r="702" spans="1:6">
       <c r="A702" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>47</v>
@@ -12771,7 +12780,7 @@
     </row>
     <row r="703" spans="1:6">
       <c r="A703" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>47</v>
@@ -12782,7 +12791,7 @@
     </row>
     <row r="704" spans="1:6">
       <c r="A704" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>47</v>
@@ -12790,7 +12799,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>47</v>
@@ -12798,7 +12807,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>47</v>
@@ -12812,7 +12821,7 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>49</v>
@@ -12820,7 +12829,7 @@
     </row>
     <row r="708" spans="1:4">
       <c r="A708" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>47</v>
@@ -12828,7 +12837,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>49</v>
@@ -12839,7 +12848,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>49</v>
@@ -12850,7 +12859,7 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>47</v>
@@ -12858,7 +12867,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>47</v>
@@ -12866,7 +12875,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>49</v>
@@ -12874,12 +12883,12 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="715" spans="1:4">
       <c r="A715" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>47</v>
@@ -12890,17 +12899,17 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="717" spans="1:4">
       <c r="A717" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>47</v>
@@ -12908,12 +12917,12 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="720" spans="1:4">
       <c r="A720" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>48</v>
@@ -12924,7 +12933,7 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>46</v>
@@ -12932,7 +12941,7 @@
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>49</v>
@@ -12940,12 +12949,12 @@
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>47</v>
@@ -12956,7 +12965,7 @@
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>53</v>
@@ -12964,7 +12973,7 @@
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>47</v>
@@ -12972,12 +12981,12 @@
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>62</v>
@@ -12985,7 +12994,7 @@
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>66</v>
@@ -12993,22 +13002,22 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>59</v>
@@ -13016,22 +13025,22 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>47</v>
@@ -13039,7 +13048,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>53</v>
@@ -13047,7 +13056,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>48</v>
@@ -13055,7 +13064,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>53</v>
@@ -13063,7 +13072,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>47</v>
@@ -13071,7 +13080,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>47</v>
@@ -13079,32 +13088,32 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>47</v>
@@ -13112,17 +13121,17 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>238</v>
@@ -13133,7 +13142,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>47</v>
@@ -13141,7 +13150,7 @@
     </row>
     <row r="753" spans="1:6">
       <c r="A753" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>47</v>
@@ -13149,7 +13158,7 @@
     </row>
     <row r="754" spans="1:6">
       <c r="A754" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>47</v>
@@ -13157,32 +13166,32 @@
     </row>
     <row r="755" spans="1:6">
       <c r="A755" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="756" spans="1:6">
       <c r="A756" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="757" spans="1:6">
       <c r="A757" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="758" spans="1:6">
       <c r="A758" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="759" spans="1:6">
       <c r="A759" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="760" spans="1:6">
       <c r="A760" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B760" s="3" t="s">
         <v>48</v>
@@ -13190,17 +13199,17 @@
     </row>
     <row r="761" spans="1:6">
       <c r="A761" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="762" spans="1:6">
       <c r="A762" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="763" spans="1:6">
       <c r="A763" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B763" s="3" t="s">
         <v>47</v>
@@ -13217,7 +13226,7 @@
     </row>
     <row r="764" spans="1:6">
       <c r="A764" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B764" s="3" t="s">
         <v>47</v>
@@ -13234,7 +13243,7 @@
     </row>
     <row r="765" spans="1:6">
       <c r="A765" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B765" s="3" t="s">
         <v>49</v>
@@ -13248,13 +13257,13 @@
     </row>
     <row r="766" spans="1:6">
       <c r="A766" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B766" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D766" s="3" t="s">
         <v>47</v>
@@ -13262,12 +13271,12 @@
     </row>
     <row r="767" spans="1:6">
       <c r="A767" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="768" spans="1:6">
       <c r="A768" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B768" s="3" t="s">
         <v>47</v>
@@ -13278,7 +13287,7 @@
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B769" s="3" t="s">
         <v>48</v>
@@ -13286,12 +13295,12 @@
     </row>
     <row r="770" spans="1:6">
       <c r="A770" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="771" spans="1:6">
       <c r="A771" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B771" s="3" t="s">
         <v>47</v>
@@ -13299,7 +13308,7 @@
     </row>
     <row r="772" spans="1:6">
       <c r="A772" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B772" s="3" t="s">
         <v>47</v>
@@ -13310,7 +13319,7 @@
     </row>
     <row r="773" spans="1:6">
       <c r="A773" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B773" s="3" t="s">
         <v>47</v>
@@ -13318,7 +13327,7 @@
     </row>
     <row r="774" spans="1:6">
       <c r="A774" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B774" s="3" t="s">
         <v>47</v>
@@ -13326,7 +13335,7 @@
     </row>
     <row r="775" spans="1:6">
       <c r="A775" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>47</v>
@@ -13343,12 +13352,12 @@
     </row>
     <row r="776" spans="1:6">
       <c r="A776" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="777" spans="1:6">
       <c r="A777" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B777" s="3" t="s">
         <v>59</v>
@@ -13356,7 +13365,7 @@
     </row>
     <row r="778" spans="1:6">
       <c r="A778" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B778" s="3" t="s">
         <v>48</v>
@@ -13364,22 +13373,22 @@
     </row>
     <row r="779" spans="1:6">
       <c r="A779" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="780" spans="1:6">
       <c r="A780" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="781" spans="1:6">
       <c r="A781" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="782" spans="1:6">
       <c r="A782" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B782" s="3" t="s">
         <v>47</v>
@@ -13396,12 +13405,12 @@
     </row>
     <row r="783" spans="1:6">
       <c r="A783" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="784" spans="1:6">
       <c r="A784" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B784" s="3" t="s">
         <v>48</v>
@@ -13412,12 +13421,12 @@
     </row>
     <row r="785" spans="1:14">
       <c r="A785" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="786" spans="1:14">
       <c r="A786" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B786" s="3" t="s">
         <v>53</v>
@@ -13452,7 +13461,7 @@
     </row>
     <row r="787" spans="1:14">
       <c r="A787" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B787" s="3" t="s">
         <v>47</v>
@@ -13466,7 +13475,7 @@
     </row>
     <row r="788" spans="1:14">
       <c r="A788" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B788" s="3" t="s">
         <v>49</v>
@@ -13477,7 +13486,7 @@
     </row>
     <row r="789" spans="1:14">
       <c r="A789" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B789" s="3" t="s">
         <v>47</v>
@@ -13488,7 +13497,7 @@
     </row>
     <row r="790" spans="1:14">
       <c r="A790" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B790" s="3" t="s">
         <v>47</v>
@@ -13496,7 +13505,7 @@
     </row>
     <row r="791" spans="1:14">
       <c r="A791" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B791" s="3" t="s">
         <v>47</v>
@@ -13504,7 +13513,7 @@
     </row>
     <row r="792" spans="1:14">
       <c r="A792" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B792" s="3" t="s">
         <v>47</v>
@@ -13512,7 +13521,7 @@
     </row>
     <row r="793" spans="1:14">
       <c r="A793" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>48</v>
@@ -13520,7 +13529,7 @@
     </row>
     <row r="794" spans="1:14">
       <c r="A794" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B794" s="3" t="s">
         <v>49</v>
@@ -13531,7 +13540,7 @@
     </row>
     <row r="795" spans="1:14">
       <c r="A795" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B795" s="3" t="s">
         <v>47</v>
@@ -13539,7 +13548,7 @@
     </row>
     <row r="796" spans="1:14">
       <c r="A796" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>49</v>
@@ -13550,12 +13559,12 @@
     </row>
     <row r="797" spans="1:14">
       <c r="A797" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="798" spans="1:14">
       <c r="A798" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B798" s="3" t="s">
         <v>47</v>
@@ -13563,7 +13572,7 @@
     </row>
     <row r="799" spans="1:14">
       <c r="A799" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B799" s="3" t="s">
         <v>52</v>
@@ -13574,7 +13583,7 @@
     </row>
     <row r="800" spans="1:14">
       <c r="A800" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B800" s="3" t="s">
         <v>47</v>
@@ -13585,7 +13594,7 @@
     </row>
     <row r="801" spans="1:14">
       <c r="A801" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B801" s="3" t="s">
         <v>47</v>
@@ -13596,7 +13605,7 @@
     </row>
     <row r="802" spans="1:14">
       <c r="A802" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B802" s="3" t="s">
         <v>56</v>
@@ -13604,7 +13613,7 @@
     </row>
     <row r="803" spans="1:14">
       <c r="A803" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B803" s="3" t="s">
         <v>47</v>
@@ -13615,7 +13624,7 @@
     </row>
     <row r="804" spans="1:14">
       <c r="A804" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B804" s="3" t="s">
         <v>47</v>
@@ -13623,7 +13632,7 @@
     </row>
     <row r="805" spans="1:14">
       <c r="A805" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B805" s="3" t="s">
         <v>48</v>
@@ -13631,12 +13640,12 @@
     </row>
     <row r="806" spans="1:14">
       <c r="A806" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="807" spans="1:14">
       <c r="A807" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B807" s="3" t="s">
         <v>49</v>
@@ -13654,12 +13663,12 @@
         <v>49</v>
       </c>
       <c r="N807" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="808" spans="1:14">
       <c r="A808" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>47</v>
@@ -13667,22 +13676,22 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="810" spans="1:14">
       <c r="A810" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="811" spans="1:14">
       <c r="A811" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="812" spans="1:14">
       <c r="A812" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>47</v>
@@ -13690,7 +13699,7 @@
     </row>
     <row r="813" spans="1:14">
       <c r="A813" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>49</v>
@@ -13698,7 +13707,7 @@
     </row>
     <row r="814" spans="1:14">
       <c r="A814" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>49</v>
@@ -13706,7 +13715,7 @@
     </row>
     <row r="815" spans="1:14">
       <c r="A815" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>47</v>
@@ -13714,27 +13723,27 @@
     </row>
     <row r="816" spans="1:14">
       <c r="A816" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="817" spans="1:6">
       <c r="A817" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="818" spans="1:6">
       <c r="A818" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="819" spans="1:6">
       <c r="A819" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="820" spans="1:6">
       <c r="A820" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>48</v>
@@ -13742,17 +13751,17 @@
     </row>
     <row r="821" spans="1:6">
       <c r="A821" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="822" spans="1:6">
       <c r="A822" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="823" spans="1:6">
       <c r="A823" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>47</v>
@@ -13760,12 +13769,12 @@
     </row>
     <row r="824" spans="1:6">
       <c r="A824" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="825" spans="1:6">
       <c r="A825" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>47</v>
@@ -13773,7 +13782,7 @@
     </row>
     <row r="826" spans="1:6">
       <c r="A826" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>53</v>
@@ -13790,7 +13799,7 @@
     </row>
     <row r="827" spans="1:6">
       <c r="A827" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>47</v>
@@ -13804,7 +13813,7 @@
     </row>
     <row r="828" spans="1:6">
       <c r="A828" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>53</v>
@@ -13821,12 +13830,12 @@
     </row>
     <row r="829" spans="1:6">
       <c r="A829" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="830" spans="1:6">
       <c r="A830" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>47</v>
@@ -13834,10 +13843,10 @@
     </row>
     <row r="831" spans="1:6">
       <c r="A831" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>47</v>
@@ -13851,7 +13860,7 @@
     </row>
     <row r="832" spans="1:6">
       <c r="A832" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>47</v>
@@ -13859,42 +13868,42 @@
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>47</v>
@@ -13902,7 +13911,7 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>49</v>
@@ -13910,7 +13919,7 @@
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>47</v>
@@ -13918,7 +13927,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>53</v>
@@ -13926,7 +13935,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>48</v>
@@ -13934,7 +13943,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>47</v>
@@ -13942,7 +13951,7 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>75</v>
@@ -13950,7 +13959,7 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>56</v>
@@ -13958,7 +13967,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>47</v>
@@ -13972,7 +13981,7 @@
     </row>
     <row r="849" spans="1:10">
       <c r="A849" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>48</v>
@@ -13980,7 +13989,7 @@
     </row>
     <row r="850" spans="1:10">
       <c r="A850" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>49</v>
@@ -13988,7 +13997,7 @@
     </row>
     <row r="851" spans="1:10">
       <c r="A851" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>49</v>
@@ -13996,7 +14005,7 @@
     </row>
     <row r="852" spans="1:10">
       <c r="A852" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>47</v>
@@ -14007,7 +14016,7 @@
     </row>
     <row r="853" spans="1:10">
       <c r="A853" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>49</v>
@@ -14021,7 +14030,7 @@
     </row>
     <row r="854" spans="1:10">
       <c r="A854" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>48</v>
@@ -14029,7 +14038,7 @@
     </row>
     <row r="855" spans="1:10">
       <c r="A855" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>48</v>
@@ -14037,7 +14046,7 @@
     </row>
     <row r="856" spans="1:10">
       <c r="A856" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>47</v>
@@ -14045,17 +14054,17 @@
     </row>
     <row r="857" spans="1:10">
       <c r="A857" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="858" spans="1:10">
       <c r="A858" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="859" spans="1:10">
       <c r="A859" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>48</v>
@@ -14084,7 +14093,7 @@
     </row>
     <row r="860" spans="1:10">
       <c r="A860" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>66</v>
@@ -14092,17 +14101,17 @@
     </row>
     <row r="861" spans="1:10">
       <c r="A861" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="862" spans="1:10">
       <c r="A862" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="863" spans="1:10">
       <c r="A863" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>47</v>
@@ -14116,7 +14125,7 @@
     </row>
     <row r="864" spans="1:10">
       <c r="A864" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B864" s="3" t="s">
         <v>47</v>
@@ -14124,17 +14133,17 @@
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>47</v>
@@ -14142,7 +14151,7 @@
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>56</v>
@@ -14150,42 +14159,42 @@
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>49</v>
@@ -14193,7 +14202,7 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B877" s="3" t="s">
         <v>48</v>
@@ -14201,7 +14210,7 @@
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>47</v>
@@ -14209,12 +14218,12 @@
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>47</v>
@@ -14222,7 +14231,7 @@
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B881" s="3" t="s">
         <v>47</v>
@@ -14230,12 +14239,12 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B883" s="3" t="s">
         <v>47</v>
@@ -14243,7 +14252,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B884" s="3" t="s">
         <v>47</v>
@@ -14251,7 +14260,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B885" s="3" t="s">
         <v>47</v>
@@ -14259,7 +14268,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B886" s="3" t="s">
         <v>47</v>
@@ -14267,7 +14276,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>47</v>
@@ -14278,17 +14287,17 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="889" spans="1:3">
       <c r="A889" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="890" spans="1:3">
       <c r="A890" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B890" s="3" t="s">
         <v>47</v>
@@ -14296,12 +14305,12 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="892" spans="1:3">
       <c r="A892" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>104</v>
@@ -14309,22 +14318,22 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="896" spans="1:3">
       <c r="A896" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>47</v>
@@ -14332,7 +14341,7 @@
     </row>
     <row r="897" spans="1:17">
       <c r="A897" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>49</v>
@@ -14343,7 +14352,7 @@
     </row>
     <row r="898" spans="1:17">
       <c r="A898" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B898" s="3" t="s">
         <v>49</v>
@@ -14351,7 +14360,7 @@
     </row>
     <row r="899" spans="1:17">
       <c r="A899" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B899" s="3" t="s">
         <v>49</v>
@@ -14359,12 +14368,12 @@
     </row>
     <row r="900" spans="1:17">
       <c r="A900" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="901" spans="1:17">
       <c r="A901" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>47</v>
@@ -14373,7 +14382,7 @@
         <v>47</v>
       </c>
       <c r="D901" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F901" s="3" t="s">
         <v>47</v>
@@ -14381,7 +14390,7 @@
     </row>
     <row r="902" spans="1:17">
       <c r="A902" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>47</v>
@@ -14395,7 +14404,7 @@
     </row>
     <row r="903" spans="1:17">
       <c r="A903" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>56</v>
@@ -14409,7 +14418,7 @@
     </row>
     <row r="904" spans="1:17">
       <c r="A904" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>47</v>
@@ -14420,7 +14429,7 @@
     </row>
     <row r="905" spans="1:17">
       <c r="A905" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B905" s="3" t="s">
         <v>56</v>
@@ -14428,10 +14437,10 @@
     </row>
     <row r="906" spans="1:17">
       <c r="A906" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>981</v>
+        <v>508</v>
       </c>
     </row>
     <row r="907" spans="1:17">
@@ -14528,8 +14537,8 @@
       <c r="A913" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="B913" s="4" t="s">
-        <v>593</v>
+      <c r="B913" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -14991,7 +15000,7 @@
         <v>48</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -15103,6 +15112,9 @@
       <c r="A977" s="2" t="s">
         <v>1053</v>
       </c>
+      <c r="B977" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="978" spans="1:6">
       <c r="A978" s="2" t="s">
@@ -18270,26 +18282,41 @@
       <c r="A1500" s="2" t="s">
         <v>1577</v>
       </c>
+      <c r="B1500" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="2" t="s">
         <v>1578</v>
       </c>
+      <c r="B1501" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="2" t="s">
         <v>1579</v>
       </c>
+      <c r="B1502" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="2" t="s">
         <v>1580</v>
       </c>
+      <c r="B1503" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="2" t="s">
         <v>1581</v>
       </c>
+      <c r="B1504" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="2" t="s">
@@ -18305,6 +18332,9 @@
       <c r="A1507" s="2" t="s">
         <v>1584</v>
       </c>
+      <c r="B1507" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="2" t="s">
@@ -18318,6 +18348,9 @@
       <c r="A1509" s="2" t="s">
         <v>1586</v>
       </c>
+      <c r="B1509" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="2" t="s">
@@ -19309,6 +19342,9 @@
       <c r="B1694" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="H1694" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="1695" spans="1:8">
       <c r="A1695" s="2" t="s">
@@ -19317,6 +19353,9 @@
       <c r="B1695" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="H1695" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1696" spans="1:8">
       <c r="A1696" s="2" t="s">
@@ -19347,6 +19386,9 @@
       <c r="B1698" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="H1698" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1699" spans="1:8">
       <c r="A1699" s="2" t="s">
@@ -19693,7 +19735,7 @@
         <v>1838</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -20183,7 +20225,7 @@
         <v>1912</v>
       </c>
       <c r="B1835" s="4" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="1913">
   <si>
     <t>№</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>417223</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>321540</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>417133</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>1+, 1-</t>
   </si>
   <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
     <t>1-</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>2+, 3-</t>
   </si>
   <si>
     <t>2+, 10-</t>
@@ -6253,52 +6253,52 @@
         <v>79</v>
       </c>
       <c r="C3">
-        <v>4539</v>
+        <v>4543</v>
       </c>
       <c r="D3">
-        <v>14178</v>
+        <v>14184</v>
       </c>
       <c r="E3">
-        <v>32350</v>
+        <v>32406</v>
       </c>
       <c r="F3">
-        <v>33474</v>
+        <v>33528</v>
       </c>
       <c r="G3">
-        <v>53407</v>
+        <v>53572</v>
       </c>
       <c r="H3">
-        <v>58683</v>
+        <v>58856</v>
       </c>
       <c r="I3">
-        <v>59744</v>
+        <v>59912</v>
       </c>
       <c r="J3">
-        <v>87840</v>
+        <v>88028</v>
       </c>
       <c r="K3">
-        <v>97290</v>
+        <v>97482</v>
       </c>
       <c r="L3">
-        <v>99917</v>
+        <v>100109</v>
       </c>
       <c r="M3">
-        <v>107416</v>
+        <v>107640</v>
       </c>
       <c r="N3">
-        <v>109160</v>
+        <v>107640</v>
       </c>
       <c r="O3">
-        <v>110187</v>
+        <v>109391</v>
       </c>
       <c r="P3">
-        <v>116793</v>
+        <v>110423</v>
       </c>
       <c r="Q3">
-        <v>117834</v>
+        <v>118079</v>
       </c>
       <c r="R3">
-        <v>209218</v>
+        <v>209661</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6342,13 +6342,13 @@
         <v>44</v>
       </c>
       <c r="N4">
+        <v>44</v>
+      </c>
+      <c r="O4">
         <v>42</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>41</v>
-      </c>
-      <c r="P4">
-        <v>34</v>
       </c>
       <c r="Q4">
         <v>33</v>
@@ -6371,7 +6371,7 @@
         <v>259</v>
       </c>
       <c r="E5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <v>129</v>
@@ -6380,13 +6380,13 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I5">
         <v>38</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -6395,16 +6395,16 @@
         <v>18</v>
       </c>
       <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>32</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -6451,13 +6451,13 @@
         <v>6</v>
       </c>
       <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -6507,13 +6507,13 @@
         <v>2</v>
       </c>
       <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -6548,13 +6548,13 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -6563,13 +6563,13 @@
         <v>6</v>
       </c>
       <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>7</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -6619,13 +6619,13 @@
         <v>2</v>
       </c>
       <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -6675,16 +6675,16 @@
         <v>49</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>48</v>
+      <c r="O10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>47</v>
@@ -6692,66 +6692,66 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>47</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
@@ -6771,7 +6771,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>47</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -6791,18 +6791,18 @@
         <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -6842,7 +6842,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6856,10 +6856,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6867,16 +6867,16 @@
         <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>48</v>
@@ -6923,7 +6923,7 @@
         <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>49</v>
@@ -6965,7 +6965,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7009,7 +7009,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>47</v>
@@ -7026,7 +7026,7 @@
         <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>47</v>
@@ -7052,7 +7052,7 @@
         <v>47</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7104,7 +7104,7 @@
         <v>91</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>48</v>
@@ -7200,7 +7200,7 @@
         <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7216,10 +7216,10 @@
         <v>102</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
@@ -7232,19 +7232,22 @@
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="M49" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
         <v>107</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
         <v>108</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
         <v>109</v>
       </c>
@@ -7280,7 +7283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
         <v>111</v>
       </c>
@@ -7288,10 +7291,10 @@
         <v>49</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
         <v>112</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -7324,7 +7327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
         <v>119</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -7390,12 +7393,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -7458,10 +7461,10 @@
         <v>47</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>47</v>
@@ -7476,28 +7479,28 @@
         <v>48</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>47</v>
@@ -7517,7 +7520,7 @@
         <v>49</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -7558,7 +7561,7 @@
         <v>47</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -7674,7 +7677,7 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>47</v>
@@ -7686,7 +7689,7 @@
         <v>149</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7694,7 +7697,7 @@
         <v>150</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7716,7 +7719,7 @@
         <v>152</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>47</v>
@@ -7746,7 +7749,7 @@
         <v>47</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7768,7 +7771,7 @@
         <v>157</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7957,7 +7960,7 @@
         <v>179</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>47</v>
@@ -7987,13 +7990,13 @@
         <v>47</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N117" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>47</v>
@@ -8154,7 +8157,7 @@
         <v>199</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -8320,13 +8323,13 @@
         <v>47</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>220</v>
@@ -8335,13 +8338,13 @@
         <v>48</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N156" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P156" s="3" t="s">
-        <v>47</v>
+        <v>47</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O156" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -8349,16 +8352,16 @@
         <v>221</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H157" s="3" t="s">
         <v>47</v>
@@ -8496,7 +8499,7 @@
         <v>47</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>49</v>
@@ -8526,7 +8529,7 @@
         <v>240</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -8574,7 +8577,7 @@
         <v>246</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -8588,7 +8591,7 @@
         <v>47</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -8768,7 +8771,7 @@
         <v>271</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8802,7 +8805,7 @@
         <v>47</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>110</v>
@@ -8872,7 +8875,7 @@
         <v>285</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -9069,7 +9072,7 @@
         <v>313</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -9105,7 +9108,7 @@
         <v>319</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -9132,7 +9135,7 @@
         <v>322</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -9174,7 +9177,7 @@
         <v>328</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -9217,7 +9220,7 @@
         <v>334</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -9254,7 +9257,7 @@
         <v>47</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -9292,10 +9295,10 @@
         <v>343</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -9338,7 +9341,7 @@
         <v>348</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>47</v>
@@ -9382,7 +9385,7 @@
         <v>47</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -9514,7 +9517,7 @@
         <v>47</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -9563,7 +9566,7 @@
         <v>47</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>47</v>
@@ -9577,7 +9580,7 @@
         <v>47</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -9721,7 +9724,7 @@
         <v>48</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E324" s="4" t="s">
         <v>146</v>
@@ -9786,7 +9789,7 @@
         <v>48</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L331" s="3" t="s">
         <v>47</v>
@@ -9838,10 +9841,10 @@
         <v>47</v>
       </c>
       <c r="C336" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D336" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>47</v>
@@ -9882,10 +9885,10 @@
         <v>47</v>
       </c>
       <c r="C340" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D340" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -9969,7 +9972,7 @@
         <v>47</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -10030,7 +10033,7 @@
         <v>424</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10038,7 +10041,7 @@
         <v>425</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10078,7 +10081,7 @@
         <v>430</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10111,7 +10114,7 @@
         <v>48</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10156,7 +10159,7 @@
         <v>439</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -10180,7 +10183,7 @@
         <v>442</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -10188,7 +10191,7 @@
         <v>443</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -10411,7 +10414,7 @@
         <v>472</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -10492,7 +10495,7 @@
         <v>484</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -10524,7 +10527,7 @@
         <v>488</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -10548,7 +10551,7 @@
         <v>491</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -10681,7 +10684,7 @@
         <v>510</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -10754,7 +10757,7 @@
         <v>521</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -10762,7 +10765,7 @@
         <v>522</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -10860,7 +10863,7 @@
         <v>47</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E466" s="3" t="s">
         <v>47</v>
@@ -10871,7 +10874,7 @@
         <v>537</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10985,7 +10988,7 @@
         <v>552</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -11032,7 +11035,7 @@
         <v>559</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -11122,7 +11125,7 @@
         <v>571</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -11133,7 +11136,7 @@
         <v>49</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -11184,7 +11187,7 @@
         <v>47</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -11296,7 +11299,7 @@
         <v>592</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C522" s="3" t="s">
         <v>47</v>
@@ -11316,7 +11319,7 @@
         <v>49</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E523" s="3" t="s">
         <v>47</v>
@@ -11331,13 +11334,13 @@
         <v>47</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K523" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Q523" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="524" spans="1:17">
@@ -11415,7 +11418,7 @@
         <v>603</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -11466,10 +11469,10 @@
         <v>609</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>46</v>
@@ -11520,7 +11523,7 @@
         <v>615</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -11652,7 +11655,7 @@
         <v>48</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>49</v>
@@ -11693,7 +11696,7 @@
         <v>49</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11781,7 +11784,7 @@
         <v>648</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -11962,7 +11965,7 @@
         <v>674</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -12076,7 +12079,7 @@
         <v>49</v>
       </c>
       <c r="G615" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H615" s="4" t="s">
         <v>138</v>
@@ -12090,14 +12093,14 @@
       <c r="K615" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N615" s="3" t="s">
-        <v>47</v>
+      <c r="M615" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="O615" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P615" s="4" t="s">
-        <v>50</v>
+      <c r="P615" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -12188,10 +12191,10 @@
         <v>703</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E632" s="4" t="s">
         <v>146</v>
@@ -12278,7 +12281,7 @@
         <v>715</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12332,7 +12335,7 @@
         <v>49</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12654,10 +12657,10 @@
         <v>762</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -12761,7 +12764,7 @@
         <v>49</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F701" s="3" t="s">
         <v>49</v>
@@ -12854,7 +12857,7 @@
         <v>49</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -12968,7 +12971,7 @@
         <v>796</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -12989,7 +12992,7 @@
         <v>799</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -12997,7 +13000,7 @@
         <v>800</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -13020,7 +13023,7 @@
         <v>804</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -13051,7 +13054,7 @@
         <v>809</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -13067,7 +13070,7 @@
         <v>811</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -13221,7 +13224,7 @@
         <v>47</v>
       </c>
       <c r="F763" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="764" spans="1:6">
@@ -13238,7 +13241,7 @@
         <v>49</v>
       </c>
       <c r="F764" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -13314,7 +13317,7 @@
         <v>47</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -13360,7 +13363,7 @@
         <v>849</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="778" spans="1:6">
@@ -13394,7 +13397,7 @@
         <v>47</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>47</v>
@@ -13419,17 +13422,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="785" spans="1:14">
+    <row r="785" spans="1:15">
       <c r="A785" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="786" spans="1:14">
+    <row r="786" spans="1:15">
       <c r="A786" s="2" t="s">
         <v>858</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C786" s="3" t="s">
         <v>47</v>
@@ -13444,7 +13447,7 @@
         <v>49</v>
       </c>
       <c r="G786" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H786" s="3" t="s">
         <v>49</v>
@@ -13452,14 +13455,14 @@
       <c r="I786" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M786" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N786" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="787" spans="1:14">
+        <v>47</v>
+      </c>
+      <c r="O786" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="787" spans="1:15">
       <c r="A787" s="2" t="s">
         <v>859</v>
       </c>
@@ -13470,10 +13473,10 @@
         <v>49</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="788" spans="1:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="788" spans="1:15">
       <c r="A788" s="2" t="s">
         <v>860</v>
       </c>
@@ -13484,7 +13487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="789" spans="1:14">
+    <row r="789" spans="1:15">
       <c r="A789" s="2" t="s">
         <v>861</v>
       </c>
@@ -13495,7 +13498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="790" spans="1:14">
+    <row r="790" spans="1:15">
       <c r="A790" s="2" t="s">
         <v>862</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="791" spans="1:14">
+    <row r="791" spans="1:15">
       <c r="A791" s="2" t="s">
         <v>863</v>
       </c>
@@ -13511,7 +13514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="792" spans="1:14">
+    <row r="792" spans="1:15">
       <c r="A792" s="2" t="s">
         <v>864</v>
       </c>
@@ -13519,7 +13522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="793" spans="1:14">
+    <row r="793" spans="1:15">
       <c r="A793" s="2" t="s">
         <v>865</v>
       </c>
@@ -13527,7 +13530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="794" spans="1:14">
+    <row r="794" spans="1:15">
       <c r="A794" s="2" t="s">
         <v>866</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="795" spans="1:14">
+    <row r="795" spans="1:15">
       <c r="A795" s="2" t="s">
         <v>867</v>
       </c>
@@ -13546,7 +13549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="796" spans="1:14">
+    <row r="796" spans="1:15">
       <c r="A796" s="2" t="s">
         <v>868</v>
       </c>
@@ -13554,15 +13557,15 @@
         <v>49</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="797" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="797" spans="1:15">
       <c r="A797" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="798" spans="1:14">
+    <row r="798" spans="1:15">
       <c r="A798" s="2" t="s">
         <v>870</v>
       </c>
@@ -13570,18 +13573,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="799" spans="1:14">
+    <row r="799" spans="1:15">
       <c r="A799" s="2" t="s">
         <v>871</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C799" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="800" spans="1:14">
+    <row r="800" spans="1:15">
       <c r="A800" s="2" t="s">
         <v>872</v>
       </c>
@@ -13592,7 +13595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="801" spans="1:14">
+    <row r="801" spans="1:15">
       <c r="A801" s="2" t="s">
         <v>873</v>
       </c>
@@ -13603,15 +13606,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="802" spans="1:14">
+    <row r="802" spans="1:15">
       <c r="A802" s="2" t="s">
         <v>874</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="803" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="803" spans="1:15">
       <c r="A803" s="2" t="s">
         <v>875</v>
       </c>
@@ -13619,10 +13622,10 @@
         <v>47</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="804" spans="1:14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="804" spans="1:15">
       <c r="A804" s="2" t="s">
         <v>876</v>
       </c>
@@ -13630,7 +13633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="805" spans="1:14">
+    <row r="805" spans="1:15">
       <c r="A805" s="2" t="s">
         <v>877</v>
       </c>
@@ -13638,12 +13641,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="806" spans="1:14">
+    <row r="806" spans="1:15">
       <c r="A806" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="807" spans="1:14">
+    <row r="807" spans="1:15">
       <c r="A807" s="2" t="s">
         <v>879</v>
       </c>
@@ -13662,11 +13665,11 @@
       <c r="J807" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N807" s="4" t="s">
+      <c r="O807" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="808" spans="1:14">
+    <row r="808" spans="1:15">
       <c r="A808" s="2" t="s">
         <v>881</v>
       </c>
@@ -13674,22 +13677,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="809" spans="1:14">
+    <row r="809" spans="1:15">
       <c r="A809" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="810" spans="1:14">
+    <row r="810" spans="1:15">
       <c r="A810" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="811" spans="1:14">
+    <row r="811" spans="1:15">
       <c r="A811" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="812" spans="1:14">
+    <row r="812" spans="1:15">
       <c r="A812" s="2" t="s">
         <v>885</v>
       </c>
@@ -13697,7 +13700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="813" spans="1:14">
+    <row r="813" spans="1:15">
       <c r="A813" s="2" t="s">
         <v>886</v>
       </c>
@@ -13705,7 +13708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="814" spans="1:14">
+    <row r="814" spans="1:15">
       <c r="A814" s="2" t="s">
         <v>887</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="815" spans="1:14">
+    <row r="815" spans="1:15">
       <c r="A815" s="2" t="s">
         <v>888</v>
       </c>
@@ -13721,7 +13724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="816" spans="1:14">
+    <row r="816" spans="1:15">
       <c r="A816" s="2" t="s">
         <v>889</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>899</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C826" s="3" t="s">
         <v>47</v>
@@ -13816,7 +13819,7 @@
         <v>901</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C828" s="3" t="s">
         <v>47</v>
@@ -13930,7 +13933,7 @@
         <v>917</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13962,7 +13965,7 @@
         <v>921</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -14022,7 +14025,7 @@
         <v>49</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>49</v>
@@ -14073,10 +14076,10 @@
         <v>48</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E859" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F859" s="3" t="s">
         <v>47</v>
@@ -14085,7 +14088,7 @@
         <v>48</v>
       </c>
       <c r="I859" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J859" s="4" t="s">
         <v>110</v>
@@ -14096,7 +14099,7 @@
         <v>934</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="861" spans="1:10">
@@ -14117,7 +14120,7 @@
         <v>47</v>
       </c>
       <c r="C863" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D863" s="3" t="s">
         <v>47</v>
@@ -14154,7 +14157,7 @@
         <v>942</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -14282,7 +14285,7 @@
         <v>47</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -14347,7 +14350,7 @@
         <v>49</v>
       </c>
       <c r="C897" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="898" spans="1:17">
@@ -14387,6 +14390,9 @@
       <c r="F901" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="M901" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="902" spans="1:17">
       <c r="A902" s="2" t="s">
@@ -14399,7 +14405,7 @@
         <v>48</v>
       </c>
       <c r="D902" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="903" spans="1:17">
@@ -14407,7 +14413,7 @@
         <v>978</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C903" s="3" t="s">
         <v>49</v>
@@ -14432,7 +14438,7 @@
         <v>980</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="906" spans="1:17">
@@ -14456,7 +14462,7 @@
         <v>47</v>
       </c>
       <c r="C908" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="909" spans="1:17">
@@ -14488,39 +14494,39 @@
         <v>987</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C912" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D912" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E912" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F912" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G912" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H912" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I912" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J912" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E912" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F912" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G912" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H912" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I912" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J912" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="K912" s="3" t="s">
         <v>47</v>
       </c>
       <c r="L912" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N912" s="3" t="s">
+      <c r="M912" s="3" t="s">
         <v>47</v>
       </c>
       <c r="O912" s="3" t="s">
@@ -14538,7 +14544,7 @@
         <v>988</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -14568,7 +14574,7 @@
         <v>47</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F916" s="3" t="s">
         <v>47</v>
@@ -14614,7 +14620,7 @@
         <v>47</v>
       </c>
       <c r="C921" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -14703,7 +14709,7 @@
         <v>47</v>
       </c>
       <c r="C934" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="935" spans="1:4">
@@ -14735,7 +14741,7 @@
         <v>48</v>
       </c>
       <c r="C938" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D938" s="3" t="s">
         <v>49</v>
@@ -14770,7 +14776,7 @@
         <v>47</v>
       </c>
       <c r="D942" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="943" spans="1:4">
@@ -14789,7 +14795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="945" spans="1:15">
+    <row r="945" spans="1:16">
       <c r="A945" s="2" t="s">
         <v>1020</v>
       </c>
@@ -14797,12 +14803,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="946" spans="1:15">
+    <row r="946" spans="1:16">
       <c r="A946" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="947" spans="1:15">
+    <row r="947" spans="1:16">
       <c r="A947" s="2" t="s">
         <v>1022</v>
       </c>
@@ -14810,12 +14816,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="948" spans="1:15">
+    <row r="948" spans="1:16">
       <c r="A948" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="949" spans="1:15">
+    <row r="949" spans="1:16">
       <c r="A949" s="2" t="s">
         <v>1024</v>
       </c>
@@ -14826,7 +14832,7 @@
         <v>47</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>47</v>
@@ -14849,11 +14855,11 @@
       <c r="L949" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O949" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="950" spans="1:15">
+      <c r="P949" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="950" spans="1:16">
       <c r="A950" s="2" t="s">
         <v>1025</v>
       </c>
@@ -14864,7 +14870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="951" spans="1:15">
+    <row r="951" spans="1:16">
       <c r="A951" s="2" t="s">
         <v>1026</v>
       </c>
@@ -14881,7 +14887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="952" spans="1:15">
+    <row r="952" spans="1:16">
       <c r="A952" s="2" t="s">
         <v>1027</v>
       </c>
@@ -14898,7 +14904,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="953" spans="1:15">
+    <row r="953" spans="1:16">
       <c r="A953" s="2" t="s">
         <v>1029</v>
       </c>
@@ -14906,7 +14912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="954" spans="1:15">
+    <row r="954" spans="1:16">
       <c r="A954" s="2" t="s">
         <v>1030</v>
       </c>
@@ -14914,10 +14920,10 @@
         <v>49</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="955" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="955" spans="1:16">
       <c r="A955" s="2" t="s">
         <v>1031</v>
       </c>
@@ -14928,7 +14934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="956" spans="1:15">
+    <row r="956" spans="1:16">
       <c r="A956" s="2" t="s">
         <v>1032</v>
       </c>
@@ -14939,7 +14945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="957" spans="1:15">
+    <row r="957" spans="1:16">
       <c r="A957" s="2" t="s">
         <v>1033</v>
       </c>
@@ -14950,10 +14956,10 @@
         <v>48</v>
       </c>
       <c r="D957" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="958" spans="1:15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="958" spans="1:16">
       <c r="A958" s="2" t="s">
         <v>1034</v>
       </c>
@@ -14973,7 +14979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="959" spans="1:15">
+    <row r="959" spans="1:16">
       <c r="A959" s="2" t="s">
         <v>1035</v>
       </c>
@@ -14984,12 +14990,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="960" spans="1:15">
+    <row r="960" spans="1:16">
       <c r="A960" s="2" t="s">
         <v>1036</v>
       </c>
       <c r="B960" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -15113,7 +15119,7 @@
         <v>1053</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -15121,7 +15127,7 @@
         <v>1054</v>
       </c>
       <c r="B978" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -15292,7 +15298,7 @@
         <v>1081</v>
       </c>
       <c r="B1005" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -15762,10 +15768,10 @@
         <v>1166</v>
       </c>
       <c r="B1090" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1090" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -15781,7 +15787,7 @@
         <v>1168</v>
       </c>
       <c r="B1092" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -15815,7 +15821,7 @@
         <v>1173</v>
       </c>
       <c r="B1097" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1097" s="4" t="s">
         <v>110</v>
@@ -15973,7 +15979,7 @@
         <v>1198</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1122" s="3" t="s">
         <v>48</v>
@@ -15987,7 +15993,7 @@
         <v>47</v>
       </c>
       <c r="C1123" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -16020,7 +16026,7 @@
         <v>47</v>
       </c>
       <c r="C1126" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -16145,7 +16151,7 @@
         <v>1215</v>
       </c>
       <c r="B1139" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -16358,10 +16364,10 @@
         <v>1239</v>
       </c>
       <c r="B1163" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1163" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C1163" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
@@ -16517,7 +16523,7 @@
         <v>1266</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -18851,7 +18857,7 @@
         <v>1681</v>
       </c>
       <c r="B1604" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -18915,7 +18921,7 @@
         <v>1692</v>
       </c>
       <c r="B1615" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -18936,7 +18942,7 @@
         <v>1695</v>
       </c>
       <c r="B1618" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -19252,52 +19258,52 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1681" spans="1:8">
+    <row r="1681" spans="1:10">
       <c r="A1681" s="2" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="1682" spans="1:8">
+    <row r="1682" spans="1:10">
       <c r="A1682" s="2" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="1683" spans="1:8">
+    <row r="1683" spans="1:10">
       <c r="A1683" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="1684" spans="1:8">
+    <row r="1684" spans="1:10">
       <c r="A1684" s="2" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="1685" spans="1:8">
+    <row r="1685" spans="1:10">
       <c r="A1685" s="2" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="1686" spans="1:8">
+    <row r="1686" spans="1:10">
       <c r="A1686" s="2" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="1687" spans="1:8">
+    <row r="1687" spans="1:10">
       <c r="A1687" s="2" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="1688" spans="1:8">
+    <row r="1688" spans="1:10">
       <c r="A1688" s="2" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="1689" spans="1:8">
+    <row r="1689" spans="1:10">
       <c r="A1689" s="2" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="1690" spans="1:8">
+    <row r="1690" spans="1:10">
       <c r="A1690" s="2" t="s">
         <v>1767</v>
       </c>
@@ -19307,16 +19313,22 @@
       <c r="H1690" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="1691" spans="1:8">
+      <c r="J1690" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:10">
       <c r="A1691" s="2" t="s">
         <v>1768</v>
       </c>
       <c r="B1691" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1692" spans="1:8">
+      <c r="H1691" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:10">
       <c r="A1692" s="2" t="s">
         <v>1769</v>
       </c>
@@ -19324,7 +19336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1693" spans="1:8">
+    <row r="1693" spans="1:10">
       <c r="A1693" s="2" t="s">
         <v>1770</v>
       </c>
@@ -19335,7 +19347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="1694" spans="1:8">
+    <row r="1694" spans="1:10">
       <c r="A1694" s="2" t="s">
         <v>1771</v>
       </c>
@@ -19346,7 +19358,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1695" spans="1:8">
+    <row r="1695" spans="1:10">
       <c r="A1695" s="2" t="s">
         <v>1772</v>
       </c>
@@ -19354,10 +19366,10 @@
         <v>47</v>
       </c>
       <c r="H1695" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:10">
       <c r="A1696" s="2" t="s">
         <v>1773</v>
       </c>
@@ -19366,6 +19378,9 @@
       </c>
       <c r="H1696" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="J1696" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1697" spans="1:8">
@@ -19376,7 +19391,7 @@
         <v>47</v>
       </c>
       <c r="H1697" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1698" spans="1:8">
@@ -19535,7 +19550,7 @@
         <v>47</v>
       </c>
       <c r="G1724" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1725" spans="1:7">
@@ -19727,7 +19742,7 @@
         <v>1837</v>
       </c>
       <c r="B1760" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -19809,7 +19824,7 @@
         <v>1848</v>
       </c>
       <c r="B1771" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -19838,7 +19853,7 @@
         <v>1852</v>
       </c>
       <c r="B1775" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -19867,7 +19882,7 @@
         <v>1856</v>
       </c>
       <c r="B1779" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1780" spans="1:6">
@@ -20039,7 +20054,7 @@
         <v>1876</v>
       </c>
       <c r="B1799" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1800" spans="1:6">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="1913">
   <si>
     <t>№</t>
   </si>
@@ -31,21 +31,24 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Провалинский Владимир</t>
+  </si>
+  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Провалинский Владимир</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -85,21 +85,24 @@
     <t>321426</t>
   </si>
   <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
-    <t>328905</t>
+    <t>369588</t>
   </si>
   <si>
     <t>321423</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415632</t>
   </si>
   <si>
+    <t>371742</t>
+  </si>
+  <si>
     <t>415486</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>416762</t>
   </si>
   <si>
-    <t>371742</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
@@ -187,6 +187,9 @@
     <t>1+, 12-</t>
   </si>
   <si>
+    <t>5-</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -685,6 +688,9 @@
     <t>148</t>
   </si>
   <si>
+    <t>2+, 5-</t>
+  </si>
+  <si>
     <t>149</t>
   </si>
   <si>
@@ -733,9 +739,6 @@
     <t>164</t>
   </si>
   <si>
-    <t>2+, 5-</t>
-  </si>
-  <si>
     <t>165</t>
   </si>
   <si>
@@ -1799,9 +1802,6 @@
   </si>
   <si>
     <t>514</t>
-  </si>
-  <si>
-    <t>5-</t>
   </si>
   <si>
     <t>515</t>
@@ -6253,52 +6253,52 @@
         <v>79</v>
       </c>
       <c r="C3">
-        <v>4543</v>
+        <v>4554</v>
       </c>
       <c r="D3">
-        <v>14184</v>
+        <v>14231</v>
       </c>
       <c r="E3">
-        <v>32406</v>
+        <v>24693</v>
       </c>
       <c r="F3">
-        <v>33528</v>
+        <v>32535</v>
       </c>
       <c r="G3">
-        <v>53572</v>
+        <v>52382</v>
       </c>
       <c r="H3">
-        <v>58856</v>
+        <v>53905</v>
       </c>
       <c r="I3">
-        <v>59912</v>
+        <v>60294</v>
       </c>
       <c r="J3">
-        <v>88028</v>
+        <v>64174</v>
       </c>
       <c r="K3">
-        <v>97482</v>
+        <v>88440</v>
       </c>
       <c r="L3">
-        <v>100109</v>
+        <v>97952</v>
       </c>
       <c r="M3">
-        <v>107640</v>
+        <v>100593</v>
       </c>
       <c r="N3">
-        <v>107640</v>
+        <v>108143</v>
       </c>
       <c r="O3">
-        <v>109391</v>
+        <v>109894</v>
       </c>
       <c r="P3">
-        <v>110423</v>
+        <v>110922</v>
       </c>
       <c r="Q3">
-        <v>118079</v>
+        <v>118621</v>
       </c>
       <c r="R3">
-        <v>209661</v>
+        <v>210518</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6315,31 +6315,31 @@
         <v>1266</v>
       </c>
       <c r="E4">
+        <v>675</v>
+      </c>
+      <c r="F4">
         <v>474</v>
       </c>
-      <c r="F4">
-        <v>452</v>
-      </c>
       <c r="G4">
+        <v>225</v>
+      </c>
+      <c r="H4">
         <v>213</v>
-      </c>
-      <c r="H4">
-        <v>179</v>
       </c>
       <c r="I4">
         <v>173</v>
       </c>
       <c r="J4">
+        <v>153</v>
+      </c>
+      <c r="K4">
         <v>75</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>57</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>53</v>
-      </c>
-      <c r="M4">
-        <v>44</v>
       </c>
       <c r="N4">
         <v>44</v>
@@ -6371,37 +6371,37 @@
         <v>259</v>
       </c>
       <c r="E5">
+        <v>169</v>
+      </c>
+      <c r="F5">
         <v>82</v>
       </c>
-      <c r="F5">
-        <v>129</v>
-      </c>
       <c r="G5">
+        <v>109</v>
+      </c>
+      <c r="H5">
         <v>27</v>
-      </c>
-      <c r="H5">
-        <v>99</v>
       </c>
       <c r="I5">
         <v>38</v>
       </c>
       <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
         <v>23</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>18</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>14</v>
       </c>
-      <c r="N5">
-        <v>16</v>
-      </c>
       <c r="O5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P5">
         <v>8</v>
@@ -6427,34 +6427,34 @@
         <v>92</v>
       </c>
       <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
       <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
         <v>12</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
       </c>
       <c r="O6">
         <v>7</v>
@@ -6483,16 +6483,16 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
       <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
         <v>2</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6501,16 +6501,16 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -6539,37 +6539,37 @@
         <v>95</v>
       </c>
       <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
         <v>33</v>
       </c>
-      <c r="F8">
-        <v>47</v>
-      </c>
       <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
         <v>12</v>
-      </c>
-      <c r="H8">
-        <v>21</v>
       </c>
       <c r="I8">
         <v>15</v>
       </c>
       <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
         <v>11</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
       <c r="O8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -6595,34 +6595,34 @@
         <v>4</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
       <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
         <v>3</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -6666,19 +6666,19 @@
         <v>47</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>47</v>
@@ -6703,13 +6703,16 @@
       <c r="D11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>49</v>
@@ -6718,40 +6721,40 @@
         <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>47</v>
@@ -6762,7 +6765,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>47</v>
@@ -6773,13 +6776,16 @@
       <c r="D13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>47</v>
@@ -6790,27 +6796,33 @@
       <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>63</v>
+      <c r="E14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>50</v>
@@ -6821,13 +6833,13 @@
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>67</v>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>47</v>
@@ -6838,16 +6850,16 @@
       <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>47</v>
@@ -6858,33 +6870,33 @@
       <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>49</v>
@@ -6892,7 +6904,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>47</v>
@@ -6900,7 +6912,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -6911,7 +6923,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>47</v>
@@ -6920,12 +6932,15 @@
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -6934,7 +6949,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>47</v>
@@ -6945,13 +6960,13 @@
       <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>47</v>
@@ -6959,7 +6974,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>49</v>
@@ -6970,21 +6985,21 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>47</v>
@@ -6992,7 +7007,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>49</v>
@@ -7000,7 +7015,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>47</v>
@@ -7011,13 +7026,16 @@
       <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>47</v>
@@ -7026,13 +7044,16 @@
         <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>75</v>
+      <c r="F31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>47</v>
@@ -7040,7 +7061,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>47</v>
@@ -7051,21 +7072,21 @@
       <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -7076,75 +7097,75 @@
       <c r="D34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="E34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>47</v>
@@ -7155,13 +7176,13 @@
       <c r="D42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="E42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>47</v>
@@ -7169,13 +7190,13 @@
       <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>47</v>
@@ -7187,44 +7208,44 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>47</v>
@@ -7232,32 +7253,32 @@
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="E50" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>49</v>
@@ -7269,9 +7290,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>48</v>
@@ -7280,23 +7301,23 @@
         <v>47</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>48</v>
@@ -7305,17 +7326,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>47</v>
@@ -7326,26 +7347,29 @@
       <c r="D57" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="E57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>49</v>
@@ -7353,10 +7377,13 @@
       <c r="E60" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="F60" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>47</v>
@@ -7367,13 +7394,13 @@
       <c r="D61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="G61" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>47</v>
@@ -7381,21 +7408,21 @@
       <c r="C62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="F62" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>54</v>
@@ -7403,7 +7430,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>47</v>
@@ -7414,7 +7441,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>47</v>
@@ -7422,7 +7449,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>47</v>
@@ -7430,7 +7457,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>47</v>
@@ -7442,12 +7469,15 @@
         <v>47</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>47</v>
@@ -7455,16 +7485,16 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>47</v>
@@ -7473,34 +7503,34 @@
         <v>47</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="M70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>47</v>
@@ -7508,7 +7538,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>47</v>
@@ -7519,13 +7549,13 @@
       <c r="D71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>47</v>
@@ -7536,7 +7566,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>49</v>
@@ -7544,7 +7574,7 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>49</v>
@@ -7552,7 +7582,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>47</v>
@@ -7566,7 +7596,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>47</v>
@@ -7574,18 +7604,18 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>49</v>
@@ -7593,18 +7623,18 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>47</v>
@@ -7612,7 +7642,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>47</v>
@@ -7620,7 +7650,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>47</v>
@@ -7628,7 +7658,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>47</v>
@@ -7636,7 +7666,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>47</v>
@@ -7644,7 +7674,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>47</v>
@@ -7652,15 +7682,15 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>47</v>
@@ -7668,7 +7698,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>47</v>
@@ -7680,29 +7710,29 @@
         <v>50</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>149</v>
+        <v>47</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>47</v>
@@ -7716,26 +7746,26 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>47</v>
@@ -7743,7 +7773,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>47</v>
@@ -7754,7 +7784,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>47</v>
@@ -7763,52 +7793,52 @@
         <v>47</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>47</v>
@@ -7819,32 +7849,32 @@
       <c r="D101" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="E101" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>47</v>
@@ -7853,25 +7883,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>47</v>
@@ -7880,41 +7910,41 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>47</v>
@@ -7922,17 +7952,17 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>47</v>
@@ -7943,13 +7973,13 @@
       <c r="D115" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>47</v>
@@ -7957,16 +7987,16 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>47</v>
@@ -7975,28 +8005,28 @@
         <v>47</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="K117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L117" s="4" t="s">
+      <c r="L117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M117" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M117" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N117" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>47</v>
@@ -8010,7 +8040,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>47</v>
@@ -8018,12 +8048,12 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>47</v>
@@ -8031,15 +8061,15 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>49</v>
@@ -8047,7 +8077,7 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>47</v>
@@ -8055,7 +8085,7 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>49</v>
@@ -8063,7 +8093,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>47</v>
@@ -8071,7 +8101,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>47</v>
@@ -8079,7 +8109,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>47</v>
@@ -8087,7 +8117,7 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>47</v>
@@ -8098,7 +8128,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>47</v>
@@ -8106,7 +8136,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>49</v>
@@ -8114,7 +8144,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>49</v>
@@ -8122,12 +8152,12 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>47</v>
@@ -8138,7 +8168,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>47</v>
@@ -8146,7 +8176,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>47</v>
@@ -8154,7 +8184,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>53</v>
@@ -8162,7 +8192,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>47</v>
@@ -8170,7 +8200,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>47</v>
@@ -8178,7 +8208,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>47</v>
@@ -8186,7 +8216,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>47</v>
@@ -8200,7 +8230,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>49</v>
@@ -8208,7 +8238,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>47</v>
@@ -8216,7 +8246,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>47</v>
@@ -8224,7 +8254,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>48</v>
@@ -8232,7 +8262,7 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>47</v>
@@ -8240,7 +8270,7 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>48</v>
@@ -8248,7 +8278,7 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>47</v>
@@ -8256,12 +8286,12 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>47</v>
@@ -8269,7 +8299,7 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>48</v>
@@ -8277,7 +8307,7 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>49</v>
@@ -8285,23 +8315,23 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>44</v>
@@ -8309,12 +8339,12 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>48</v>
@@ -8326,22 +8356,22 @@
         <v>50</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M156" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="N156" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O156" s="4" t="s">
         <v>51</v>
@@ -8349,21 +8379,24 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E157" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="G157" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I157" s="3" t="s">
@@ -8375,7 +8408,7 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>47</v>
@@ -8389,7 +8422,7 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>49</v>
@@ -8397,7 +8430,7 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>47</v>
@@ -8405,7 +8438,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>47</v>
@@ -8413,7 +8446,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>49</v>
@@ -8421,7 +8454,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>47</v>
@@ -8429,12 +8462,12 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>49</v>
@@ -8442,7 +8475,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>47</v>
@@ -8450,12 +8483,12 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>47</v>
@@ -8463,7 +8496,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>47</v>
@@ -8471,7 +8504,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>47</v>
@@ -8479,7 +8512,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>47</v>
@@ -8487,7 +8520,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>47</v>
@@ -8499,26 +8532,26 @@
         <v>47</v>
       </c>
       <c r="E172" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>47</v>
@@ -8526,7 +8559,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>50</v>
@@ -8534,55 +8567,55 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>47</v>
@@ -8590,160 +8623,163 @@
       <c r="C182" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="E182" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>47</v>
@@ -8754,34 +8790,34 @@
       <c r="D204" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="E204" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>48</v>
@@ -8789,17 +8825,17 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>47</v>
@@ -8808,18 +8844,18 @@
         <v>51</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>47</v>
@@ -8827,12 +8863,12 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>48</v>
@@ -8840,7 +8876,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>47</v>
@@ -8848,7 +8884,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>47</v>
@@ -8856,7 +8892,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>47</v>
@@ -8864,7 +8900,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>47</v>
@@ -8872,15 +8908,15 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>47</v>
@@ -8888,12 +8924,12 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>47</v>
@@ -8901,12 +8937,12 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>47</v>
@@ -8914,7 +8950,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>47</v>
@@ -8922,7 +8958,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>48</v>
@@ -8930,7 +8966,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>47</v>
@@ -8938,32 +8974,32 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>47</v>
@@ -8971,7 +9007,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>47</v>
@@ -8979,17 +9015,17 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>47</v>
@@ -8997,17 +9033,17 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>47</v>
@@ -9018,12 +9054,12 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>47</v>
@@ -9037,7 +9073,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>47</v>
@@ -9045,7 +9081,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>48</v>
@@ -9053,7 +9089,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>49</v>
@@ -9061,7 +9097,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>47</v>
@@ -9069,7 +9105,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>54</v>
@@ -9077,17 +9113,17 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>47</v>
@@ -9095,17 +9131,17 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>54</v>
@@ -9113,7 +9149,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>49</v>
@@ -9121,7 +9157,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>47</v>
@@ -9132,7 +9168,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>54</v>
@@ -9140,20 +9176,20 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>47</v>
@@ -9161,12 +9197,12 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>47</v>
@@ -9174,7 +9210,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>54</v>
@@ -9182,7 +9218,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>47</v>
@@ -9193,7 +9229,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>47</v>
@@ -9201,7 +9237,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>49</v>
@@ -9209,15 +9245,15 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>53</v>
@@ -9225,12 +9261,12 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>47</v>
@@ -9238,12 +9274,12 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>49</v>
@@ -9251,7 +9287,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>47</v>
@@ -9260,9 +9296,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:8">
       <c r="A273" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>48</v>
@@ -9274,60 +9310,60 @@
         <v>49</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:8">
       <c r="A274" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:8">
       <c r="A275" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:8">
       <c r="A276" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F276" s="4" t="s">
+      <c r="E276" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:8">
       <c r="A277" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:8">
       <c r="A280" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>47</v>
@@ -9336,9 +9372,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>50</v>
@@ -9347,17 +9383,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:8">
       <c r="A282" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>48</v>
@@ -9366,20 +9402,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:8">
       <c r="A284" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G284" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>47</v>
@@ -9388,17 +9424,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:8">
       <c r="A286" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:8">
       <c r="A287" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>47</v>
@@ -9406,13 +9442,13 @@
       <c r="C287" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F287" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="E287" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>47</v>
@@ -9420,7 +9456,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>47</v>
@@ -9428,7 +9464,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>47</v>
@@ -9436,7 +9472,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>48</v>
@@ -9444,7 +9480,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>48</v>
@@ -9452,7 +9488,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>48</v>
@@ -9463,7 +9499,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>49</v>
@@ -9471,7 +9507,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>48</v>
@@ -9479,7 +9515,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>47</v>
@@ -9490,7 +9526,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>48</v>
@@ -9498,12 +9534,12 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>47</v>
@@ -9511,7 +9547,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>47</v>
@@ -9522,7 +9558,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>48</v>
@@ -9530,7 +9566,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>48</v>
@@ -9541,7 +9577,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>47</v>
@@ -9552,15 +9588,15 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>47</v>
@@ -9568,127 +9604,127 @@
       <c r="C305" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E305" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:13">
       <c r="A321" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>47</v>
@@ -9700,112 +9736,115 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:13">
       <c r="A322" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:13">
       <c r="A323" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:13">
       <c r="A324" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12">
+        <v>66</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13">
       <c r="A325" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:13">
       <c r="A326" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:13">
       <c r="A327" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:13">
       <c r="A328" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:13">
       <c r="A329" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:13">
       <c r="A330" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:13">
       <c r="A331" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="F331" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H331" s="4" t="s">
+      <c r="G331" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L331" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12">
+      <c r="J331" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M331" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13">
       <c r="A332" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:13">
       <c r="A333" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>47</v>
@@ -9817,25 +9856,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:13">
       <c r="A334" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:13">
       <c r="A335" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:13">
       <c r="A336" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>47</v>
@@ -9846,13 +9885,13 @@
       <c r="D336" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E336" s="3" t="s">
+      <c r="F336" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>47</v>
@@ -9863,7 +9902,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>47</v>
@@ -9871,7 +9910,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>49</v>
@@ -9879,7 +9918,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>47</v>
@@ -9893,7 +9932,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>47</v>
@@ -9901,7 +9940,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>47</v>
@@ -9912,7 +9951,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>47</v>
@@ -9920,7 +9959,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>47</v>
@@ -9928,7 +9967,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>47</v>
@@ -9939,12 +9978,12 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>47</v>
@@ -9952,7 +9991,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>47</v>
@@ -9963,7 +10002,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>47</v>
@@ -9977,7 +10016,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>47</v>
@@ -9985,121 +10024,121 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:7">
       <c r="A354" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:7">
       <c r="A355" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:7">
       <c r="A356" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:7">
       <c r="A357" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:7">
       <c r="A358" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:7">
       <c r="A360" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:7">
       <c r="A361" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:7">
       <c r="A362" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:7">
       <c r="A363" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:7">
       <c r="A364" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:7">
       <c r="A365" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>47</v>
@@ -10108,26 +10147,29 @@
         <v>49</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F366" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H366" s="3" t="s">
+      <c r="G366" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:7">
       <c r="A367" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:7">
       <c r="A368" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>47</v>
@@ -10135,7 +10177,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>46</v>
@@ -10143,7 +10185,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>47</v>
@@ -10151,20 +10193,20 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>49</v>
@@ -10172,7 +10214,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>47</v>
@@ -10180,7 +10222,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>54</v>
@@ -10188,15 +10230,15 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>47</v>
@@ -10204,7 +10246,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>48</v>
@@ -10212,7 +10254,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>48</v>
@@ -10220,12 +10262,12 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>47</v>
@@ -10233,7 +10275,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>47</v>
@@ -10241,7 +10283,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>47</v>
@@ -10249,12 +10291,12 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>47</v>
@@ -10262,7 +10304,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>47</v>
@@ -10270,7 +10312,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>47</v>
@@ -10278,17 +10320,17 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>47</v>
@@ -10296,7 +10338,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>47</v>
@@ -10304,7 +10346,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>47</v>
@@ -10312,7 +10354,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>47</v>
@@ -10320,7 +10362,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>47</v>
@@ -10328,7 +10370,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>47</v>
@@ -10336,7 +10378,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>47</v>
@@ -10347,7 +10389,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>49</v>
@@ -10355,12 +10397,12 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>47</v>
@@ -10368,7 +10410,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>48</v>
@@ -10376,7 +10418,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>47</v>
@@ -10384,7 +10426,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>47</v>
@@ -10392,7 +10434,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>47</v>
@@ -10400,7 +10442,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>47</v>
@@ -10411,7 +10453,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>54</v>
@@ -10419,12 +10461,12 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>47</v>
@@ -10432,7 +10474,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>47</v>
@@ -10440,7 +10482,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>47</v>
@@ -10448,7 +10490,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>47</v>
@@ -10456,27 +10498,27 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>49</v>
@@ -10484,7 +10526,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>49</v>
@@ -10492,7 +10534,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>53</v>
@@ -10500,7 +10542,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>49</v>
@@ -10511,12 +10553,12 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>48</v>
@@ -10524,15 +10566,15 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>47</v>
@@ -10540,7 +10582,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>47</v>
@@ -10548,7 +10590,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>54</v>
@@ -10556,7 +10598,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>47</v>
@@ -10564,7 +10606,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>47</v>
@@ -10572,7 +10614,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>49</v>
@@ -10580,7 +10622,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>49</v>
@@ -10588,7 +10630,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>49</v>
@@ -10596,7 +10638,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>49</v>
@@ -10604,7 +10646,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>47</v>
@@ -10612,7 +10654,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>49</v>
@@ -10620,18 +10662,18 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>47</v>
@@ -10639,7 +10681,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>47</v>
@@ -10647,17 +10689,17 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>47</v>
@@ -10665,15 +10707,15 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>47</v>
@@ -10681,45 +10723,45 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>47</v>
@@ -10730,7 +10772,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>47</v>
@@ -10741,12 +10783,12 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>47</v>
@@ -10754,7 +10796,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>54</v>
@@ -10762,20 +10804,20 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>47</v>
@@ -10786,7 +10828,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>48</v>
@@ -10794,12 +10836,12 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>47</v>
@@ -10807,7 +10849,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>48</v>
@@ -10815,20 +10857,20 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>47</v>
@@ -10836,7 +10878,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>47</v>
@@ -10844,55 +10886,55 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
       <c r="A465" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
       <c r="A466" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E466" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
       <c r="A467" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:6">
       <c r="A468" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:6">
       <c r="A469" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
       <c r="A470" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>47</v>
@@ -10901,75 +10943,75 @@
         <v>49</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:6">
       <c r="A471" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:6">
       <c r="A472" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:6">
       <c r="A473" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:6">
       <c r="A474" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:6">
       <c r="A475" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:6">
       <c r="A476" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
       <c r="A477" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
       <c r="A478" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:6">
       <c r="A479" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:6">
       <c r="A480" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>49</v>
@@ -10977,7 +11019,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>47</v>
@@ -10985,7 +11027,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>50</v>
@@ -10993,12 +11035,12 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>47</v>
@@ -11006,7 +11048,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>48</v>
@@ -11014,7 +11056,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>47</v>
@@ -11022,30 +11064,30 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>47</v>
@@ -11053,7 +11095,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>47</v>
@@ -11061,12 +11103,12 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>48</v>
@@ -11074,12 +11116,12 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>47</v>
@@ -11087,12 +11129,12 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>48</v>
@@ -11100,7 +11142,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>47</v>
@@ -11111,7 +11153,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>47</v>
@@ -11122,7 +11164,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>53</v>
@@ -11130,18 +11172,18 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>48</v>
@@ -11149,7 +11191,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>47</v>
@@ -11157,7 +11199,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>47</v>
@@ -11168,12 +11210,12 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>47</v>
@@ -11181,7 +11223,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>47</v>
@@ -11192,7 +11234,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>47</v>
@@ -11200,7 +11242,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>48</v>
@@ -11208,7 +11250,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>47</v>
@@ -11216,12 +11258,12 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="513" spans="1:17">
       <c r="A513" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>47</v>
@@ -11232,13 +11274,13 @@
       <c r="D513" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F513" s="3" t="s">
+      <c r="E513" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="514" spans="1:17">
       <c r="A514" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>49</v>
@@ -11246,17 +11288,17 @@
     </row>
     <row r="515" spans="1:17">
       <c r="A515" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="516" spans="1:17">
       <c r="A516" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="517" spans="1:17">
       <c r="A517" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>49</v>
@@ -11264,7 +11306,7 @@
     </row>
     <row r="518" spans="1:17">
       <c r="A518" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>47</v>
@@ -11272,7 +11314,7 @@
     </row>
     <row r="519" spans="1:17">
       <c r="A519" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>47</v>
@@ -11280,7 +11322,7 @@
     </row>
     <row r="520" spans="1:17">
       <c r="A520" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>47</v>
@@ -11291,15 +11333,15 @@
     </row>
     <row r="521" spans="1:17">
       <c r="A521" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="522" spans="1:17">
       <c r="A522" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C522" s="3" t="s">
         <v>47</v>
@@ -11310,7 +11352,7 @@
     </row>
     <row r="523" spans="1:17">
       <c r="A523" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>47</v>
@@ -11319,7 +11361,7 @@
         <v>49</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E523" s="3" t="s">
         <v>47</v>
@@ -11327,16 +11369,19 @@
       <c r="F523" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H523" s="4" t="s">
-        <v>594</v>
+      <c r="G523" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="I523" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K523" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L523" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Q523" s="4" t="s">
@@ -11386,7 +11431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
         <v>600</v>
       </c>
@@ -11394,7 +11439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
         <v>601</v>
       </c>
@@ -11402,7 +11447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
         <v>602</v>
       </c>
@@ -11410,18 +11455,18 @@
         <v>49</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
         <v>603</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
         <v>604</v>
       </c>
@@ -11429,7 +11474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:5">
       <c r="A534" s="2" t="s">
         <v>605</v>
       </c>
@@ -11437,7 +11482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
         <v>606</v>
       </c>
@@ -11445,7 +11490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
         <v>607</v>
       </c>
@@ -11453,7 +11498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
         <v>608</v>
       </c>
@@ -11464,24 +11509,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:5">
       <c r="A538" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F538" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6">
+      <c r="E538" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
         <v>610</v>
       </c>
@@ -11489,7 +11534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:5">
       <c r="A540" s="2" t="s">
         <v>611</v>
       </c>
@@ -11497,17 +11542,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:5">
       <c r="A542" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:5">
       <c r="A543" s="2" t="s">
         <v>614</v>
       </c>
@@ -11518,7 +11563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:5">
       <c r="A544" s="2" t="s">
         <v>615</v>
       </c>
@@ -11557,7 +11602,7 @@
       <c r="D548" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F548" s="3" t="s">
+      <c r="E548" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11593,6 +11638,9 @@
       <c r="E551" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="F551" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="552" spans="1:6">
       <c r="A552" s="2" t="s">
@@ -11666,7 +11714,7 @@
         <v>631</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11784,7 +11832,7 @@
         <v>648</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -11898,7 +11946,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:5">
       <c r="A593" s="2" t="s">
         <v>664</v>
       </c>
@@ -11906,22 +11954,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:5">
       <c r="A594" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:5">
       <c r="A595" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:5">
       <c r="A596" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:5">
       <c r="A597" s="2" t="s">
         <v>668</v>
       </c>
@@ -11929,12 +11977,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:5">
       <c r="A598" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:5">
       <c r="A599" s="2" t="s">
         <v>670</v>
       </c>
@@ -11942,17 +11990,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:5">
       <c r="A600" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:5">
       <c r="A601" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:5">
       <c r="A602" s="2" t="s">
         <v>673</v>
       </c>
@@ -11960,15 +12008,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:5">
       <c r="A603" s="2" t="s">
         <v>674</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
       <c r="A604" s="2" t="s">
         <v>675</v>
       </c>
@@ -11976,7 +12024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:5">
       <c r="A605" s="2" t="s">
         <v>676</v>
       </c>
@@ -11984,7 +12032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:5">
       <c r="A606" s="2" t="s">
         <v>677</v>
       </c>
@@ -11997,16 +12045,16 @@
       <c r="D606" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F606" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6">
+      <c r="E606" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
       <c r="A607" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:5">
       <c r="A608" s="2" t="s">
         <v>679</v>
       </c>
@@ -12070,30 +12118,33 @@
         <v>47</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F615" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G615" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G615" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H615" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="H615" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I615" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J615" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K615" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M615" s="4" t="s">
+      <c r="L615" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N615" s="4" t="s">
         <v>51</v>
       </c>
       <c r="O615" s="3" t="s">
@@ -12194,16 +12245,19 @@
         <v>54</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E632" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H632" s="4" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F632" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G632" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="I632" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="633" spans="1:9">
@@ -12481,7 +12535,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:10">
       <c r="A673" s="2" t="s">
         <v>744</v>
       </c>
@@ -12489,7 +12543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:10">
       <c r="A674" s="2" t="s">
         <v>745</v>
       </c>
@@ -12497,7 +12551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:10">
       <c r="A675" s="2" t="s">
         <v>746</v>
       </c>
@@ -12505,7 +12559,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:10">
       <c r="A676" s="2" t="s">
         <v>747</v>
       </c>
@@ -12513,10 +12567,10 @@
         <v>49</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="677" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10">
       <c r="A677" s="2" t="s">
         <v>748</v>
       </c>
@@ -12524,7 +12578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:10">
       <c r="A678" s="2" t="s">
         <v>749</v>
       </c>
@@ -12532,7 +12586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:10">
       <c r="A679" s="2" t="s">
         <v>750</v>
       </c>
@@ -12543,7 +12597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:10">
       <c r="A680" s="2" t="s">
         <v>751</v>
       </c>
@@ -12551,7 +12605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:10">
       <c r="A681" s="2" t="s">
         <v>752</v>
       </c>
@@ -12559,7 +12613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:10">
       <c r="A682" s="2" t="s">
         <v>753</v>
       </c>
@@ -12567,7 +12621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:10">
       <c r="A683" s="2" t="s">
         <v>754</v>
       </c>
@@ -12575,7 +12629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:10">
       <c r="A684" s="2" t="s">
         <v>755</v>
       </c>
@@ -12586,7 +12640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:10">
       <c r="A685" s="2" t="s">
         <v>756</v>
       </c>
@@ -12594,7 +12648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:10">
       <c r="A686" s="2" t="s">
         <v>757</v>
       </c>
@@ -12602,7 +12656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:10">
       <c r="A687" s="2" t="s">
         <v>758</v>
       </c>
@@ -12616,16 +12670,19 @@
         <v>47</v>
       </c>
       <c r="E687" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F687" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F687" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H687" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="688" spans="1:8">
+      <c r="G687" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J687" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10">
       <c r="A688" s="2" t="s">
         <v>759</v>
       </c>
@@ -12657,7 +12714,7 @@
         <v>762</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C691" s="4" t="s">
         <v>51</v>
@@ -12692,7 +12749,7 @@
       <c r="D694" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F694" s="3" t="s">
+      <c r="E694" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12749,7 +12806,7 @@
       <c r="D700" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E700" s="3" t="s">
+      <c r="F700" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12766,7 +12823,7 @@
       <c r="D701" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F701" s="3" t="s">
+      <c r="E701" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12992,7 +13049,7 @@
         <v>799</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -13023,7 +13080,7 @@
         <v>804</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -13137,7 +13194,7 @@
         <v>822</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C751" s="3" t="s">
         <v>47</v>
@@ -13151,7 +13208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:5">
       <c r="A753" s="2" t="s">
         <v>824</v>
       </c>
@@ -13159,7 +13216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:5">
       <c r="A754" s="2" t="s">
         <v>825</v>
       </c>
@@ -13167,32 +13224,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:5">
       <c r="A755" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:5">
       <c r="A756" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:5">
       <c r="A757" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:5">
       <c r="A758" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:5">
       <c r="A759" s="2" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:5">
       <c r="A760" s="2" t="s">
         <v>831</v>
       </c>
@@ -13200,17 +13257,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" spans="1:5">
       <c r="A761" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" spans="1:5">
       <c r="A762" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" spans="1:5">
       <c r="A763" s="2" t="s">
         <v>834</v>
       </c>
@@ -13223,11 +13280,11 @@
       <c r="D763" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F763" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6">
+      <c r="E763" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
       <c r="A764" s="2" t="s">
         <v>835</v>
       </c>
@@ -13240,11 +13297,11 @@
       <c r="D764" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F764" s="3" t="s">
+      <c r="E764" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:5">
       <c r="A765" s="2" t="s">
         <v>836</v>
       </c>
@@ -13258,7 +13315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" spans="1:5">
       <c r="A766" s="2" t="s">
         <v>837</v>
       </c>
@@ -13272,12 +13329,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:5">
       <c r="A767" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:5">
       <c r="A768" s="2" t="s">
         <v>840</v>
       </c>
@@ -13288,7 +13345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" spans="1:5">
       <c r="A769" s="2" t="s">
         <v>841</v>
       </c>
@@ -13296,12 +13353,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:5">
       <c r="A770" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:5">
       <c r="A771" s="2" t="s">
         <v>843</v>
       </c>
@@ -13309,7 +13366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:5">
       <c r="A772" s="2" t="s">
         <v>844</v>
       </c>
@@ -13320,7 +13377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:5">
       <c r="A773" s="2" t="s">
         <v>845</v>
       </c>
@@ -13328,7 +13385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:5">
       <c r="A774" s="2" t="s">
         <v>846</v>
       </c>
@@ -13336,7 +13393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:5">
       <c r="A775" s="2" t="s">
         <v>847</v>
       </c>
@@ -13349,24 +13406,24 @@
       <c r="D775" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F775" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="776" spans="1:6">
+      <c r="E775" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
       <c r="A776" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:5">
       <c r="A777" s="2" t="s">
         <v>849</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
       <c r="A778" s="2" t="s">
         <v>850</v>
       </c>
@@ -13374,22 +13431,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:5">
       <c r="A779" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:5">
       <c r="A780" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:5">
       <c r="A781" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:5">
       <c r="A782" s="2" t="s">
         <v>854</v>
       </c>
@@ -13397,21 +13454,21 @@
         <v>47</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F782" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="783" spans="1:6">
+      <c r="E782" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
       <c r="A783" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" spans="1:5">
       <c r="A784" s="2" t="s">
         <v>856</v>
       </c>
@@ -13441,22 +13498,22 @@
         <v>46</v>
       </c>
       <c r="E786" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F786" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F786" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G786" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H786" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H786" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I786" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N786" s="3" t="s">
-        <v>47</v>
+      <c r="J786" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O786" s="3" t="s">
         <v>53</v>
@@ -13473,7 +13530,7 @@
         <v>49</v>
       </c>
       <c r="D787" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="788" spans="1:15">
@@ -13611,7 +13668,7 @@
         <v>874</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="803" spans="1:15">
@@ -13656,13 +13713,16 @@
       <c r="C807" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F807" s="4" t="s">
-        <v>138</v>
+      <c r="E807" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="I807" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J807" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K807" s="3" t="s">
         <v>49</v>
       </c>
       <c r="O807" s="4" t="s">
@@ -13796,7 +13856,7 @@
       <c r="D826" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E826" s="3" t="s">
+      <c r="F826" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -13827,7 +13887,7 @@
       <c r="D828" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F828" s="3" t="s">
+      <c r="E828" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -13855,9 +13915,9 @@
         <v>47</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F831" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E831" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -13957,7 +14017,7 @@
         <v>920</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -13965,7 +14025,7 @@
         <v>921</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -13982,7 +14042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="849" spans="1:10">
+    <row r="849" spans="1:11">
       <c r="A849" s="2" t="s">
         <v>923</v>
       </c>
@@ -13990,7 +14050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="850" spans="1:10">
+    <row r="850" spans="1:11">
       <c r="A850" s="2" t="s">
         <v>924</v>
       </c>
@@ -13998,7 +14058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="851" spans="1:10">
+    <row r="851" spans="1:11">
       <c r="A851" s="2" t="s">
         <v>925</v>
       </c>
@@ -14006,7 +14066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="852" spans="1:10">
+    <row r="852" spans="1:11">
       <c r="A852" s="2" t="s">
         <v>926</v>
       </c>
@@ -14017,7 +14077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="853" spans="1:10">
+    <row r="853" spans="1:11">
       <c r="A853" s="2" t="s">
         <v>927</v>
       </c>
@@ -14025,13 +14085,13 @@
         <v>49</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="854" spans="1:10">
+    <row r="854" spans="1:11">
       <c r="A854" s="2" t="s">
         <v>928</v>
       </c>
@@ -14039,7 +14099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="855" spans="1:10">
+    <row r="855" spans="1:11">
       <c r="A855" s="2" t="s">
         <v>929</v>
       </c>
@@ -14047,7 +14107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="856" spans="1:10">
+    <row r="856" spans="1:11">
       <c r="A856" s="2" t="s">
         <v>930</v>
       </c>
@@ -14055,17 +14115,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="857" spans="1:10">
+    <row r="857" spans="1:11">
       <c r="A857" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="858" spans="1:10">
+    <row r="858" spans="1:11">
       <c r="A858" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="859" spans="1:10">
+    <row r="859" spans="1:11">
       <c r="A859" s="2" t="s">
         <v>933</v>
       </c>
@@ -14076,25 +14136,28 @@
         <v>48</v>
       </c>
       <c r="D859" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E859" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F859" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F859" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H859" s="3" t="s">
+      <c r="G859" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I859" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J859" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="860" spans="1:10">
+      <c r="J859" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K859" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="860" spans="1:11">
       <c r="A860" s="2" t="s">
         <v>934</v>
       </c>
@@ -14102,17 +14165,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="861" spans="1:10">
+    <row r="861" spans="1:11">
       <c r="A861" s="2" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="862" spans="1:10">
+    <row r="862" spans="1:11">
       <c r="A862" s="2" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="863" spans="1:10">
+    <row r="863" spans="1:11">
       <c r="A863" s="2" t="s">
         <v>937</v>
       </c>
@@ -14126,7 +14189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="864" spans="1:10">
+    <row r="864" spans="1:11">
       <c r="A864" s="2" t="s">
         <v>938</v>
       </c>
@@ -14157,7 +14220,7 @@
         <v>942</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -14316,7 +14379,7 @@
         <v>966</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -14387,10 +14450,10 @@
       <c r="D901" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="F901" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M901" s="3" t="s">
+      <c r="E901" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N901" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14413,12 +14476,12 @@
         <v>978</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C903" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F903" s="3" t="s">
+      <c r="E903" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14438,7 +14501,7 @@
         <v>980</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="906" spans="1:17">
@@ -14446,7 +14509,7 @@
         <v>981</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="907" spans="1:17">
@@ -14462,7 +14525,7 @@
         <v>47</v>
       </c>
       <c r="C908" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="909" spans="1:17">
@@ -14494,41 +14557,44 @@
         <v>987</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C912" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D912" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E912" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F912" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G912" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H912" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I912" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J912" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K912" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E912" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F912" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G912" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H912" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I912" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J912" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K912" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="L912" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M912" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="N912" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="O912" s="3" t="s">
         <v>47</v>
       </c>
@@ -14539,15 +14605,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" spans="1:5">
       <c r="A913" s="2" t="s">
         <v>988</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="914" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5">
       <c r="A914" s="2" t="s">
         <v>989</v>
       </c>
@@ -14555,7 +14621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" spans="1:5">
       <c r="A915" s="2" t="s">
         <v>990</v>
       </c>
@@ -14563,7 +14629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" spans="1:5">
       <c r="A916" s="2" t="s">
         <v>991</v>
       </c>
@@ -14576,11 +14642,11 @@
       <c r="D916" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F916" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="917" spans="1:6">
+      <c r="E916" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5">
       <c r="A917" s="2" t="s">
         <v>992</v>
       </c>
@@ -14588,7 +14654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918" spans="1:5">
       <c r="A918" s="2" t="s">
         <v>993</v>
       </c>
@@ -14596,7 +14662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
+    <row r="919" spans="1:5">
       <c r="A919" s="2" t="s">
         <v>994</v>
       </c>
@@ -14604,7 +14670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920" spans="1:5">
       <c r="A920" s="2" t="s">
         <v>995</v>
       </c>
@@ -14612,7 +14678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921" spans="1:5">
       <c r="A921" s="2" t="s">
         <v>996</v>
       </c>
@@ -14623,7 +14689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922" spans="1:5">
       <c r="A922" s="2" t="s">
         <v>997</v>
       </c>
@@ -14631,17 +14697,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" spans="1:5">
       <c r="A923" s="2" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924" spans="1:5">
       <c r="A924" s="2" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" spans="1:5">
       <c r="A925" s="2" t="s">
         <v>1000</v>
       </c>
@@ -14649,17 +14715,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926" spans="1:5">
       <c r="A926" s="2" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927" spans="1:5">
       <c r="A927" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928" spans="1:5">
       <c r="A928" s="2" t="s">
         <v>1003</v>
       </c>
@@ -14832,7 +14898,7 @@
         <v>47</v>
       </c>
       <c r="D949" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E949" s="3" t="s">
         <v>47</v>
@@ -14840,7 +14906,7 @@
       <c r="F949" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H949" s="3" t="s">
+      <c r="G949" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I949" s="3" t="s">
@@ -14852,8 +14918,11 @@
       <c r="K949" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L949" s="4" t="s">
-        <v>149</v>
+      <c r="L949" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M949" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="P949" s="3" t="s">
         <v>47</v>
@@ -14883,7 +14952,7 @@
       <c r="D951" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F951" s="3" t="s">
+      <c r="E951" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14900,7 +14969,7 @@
       <c r="D952" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E952" s="4" t="s">
+      <c r="F952" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -14975,8 +15044,11 @@
       <c r="F958" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H958" s="3" t="s">
-        <v>47</v>
+      <c r="G958" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J958" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -15006,7 +15078,7 @@
         <v>48</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -15114,15 +15186,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="977" spans="1:6">
+    <row r="977" spans="1:5">
       <c r="A977" s="2" t="s">
         <v>1053</v>
       </c>
       <c r="B977" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="978" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
       <c r="A978" s="2" t="s">
         <v>1054</v>
       </c>
@@ -15130,7 +15202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="979" spans="1:6">
+    <row r="979" spans="1:5">
       <c r="A979" s="2" t="s">
         <v>1055</v>
       </c>
@@ -15143,11 +15215,11 @@
       <c r="D979" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F979" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="980" spans="1:6">
+      <c r="E979" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
       <c r="A980" s="2" t="s">
         <v>1056</v>
       </c>
@@ -15155,62 +15227,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="981" spans="1:6">
+    <row r="981" spans="1:5">
       <c r="A981" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="982" spans="1:6">
+    <row r="982" spans="1:5">
       <c r="A982" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="983" spans="1:6">
+    <row r="983" spans="1:5">
       <c r="A983" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="984" spans="1:6">
+    <row r="984" spans="1:5">
       <c r="A984" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="985" spans="1:6">
+    <row r="985" spans="1:5">
       <c r="A985" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="986" spans="1:6">
+    <row r="986" spans="1:5">
       <c r="A986" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="987" spans="1:6">
+    <row r="987" spans="1:5">
       <c r="A987" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="988" spans="1:6">
+    <row r="988" spans="1:5">
       <c r="A988" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="989" spans="1:6">
+    <row r="989" spans="1:5">
       <c r="A989" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="990" spans="1:6">
+    <row r="990" spans="1:5">
       <c r="A990" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="991" spans="1:6">
+    <row r="991" spans="1:5">
       <c r="A991" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="992" spans="1:6">
+    <row r="992" spans="1:5">
       <c r="A992" s="2" t="s">
         <v>1068</v>
       </c>
@@ -15768,7 +15840,7 @@
         <v>1166</v>
       </c>
       <c r="B1090" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1090" s="4" t="s">
         <v>51</v>
@@ -15824,7 +15896,7 @@
         <v>54</v>
       </c>
       <c r="C1097" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
@@ -15979,7 +16051,7 @@
         <v>1198</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1122" s="3" t="s">
         <v>48</v>
@@ -16037,7 +16109,7 @@
         <v>49</v>
       </c>
       <c r="C1127" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -16081,7 +16153,7 @@
         <v>47</v>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -16103,7 +16175,7 @@
         <v>47</v>
       </c>
       <c r="C1133" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -16326,7 +16398,7 @@
         <v>47</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -16484,7 +16556,7 @@
         <v>48</v>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -16515,7 +16587,7 @@
         <v>1265</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -16523,7 +16595,7 @@
         <v>1266</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -18211,7 +18283,7 @@
         <v>1564</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C1488" s="4" t="s">
         <v>1565</v>
@@ -18942,7 +19014,7 @@
         <v>1695</v>
       </c>
       <c r="B1618" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -19258,77 +19330,86 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1681" spans="1:10">
+    <row r="1681" spans="1:15">
       <c r="A1681" s="2" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="1682" spans="1:10">
+    <row r="1682" spans="1:15">
       <c r="A1682" s="2" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="1683" spans="1:10">
+    <row r="1683" spans="1:15">
       <c r="A1683" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="1684" spans="1:10">
+    <row r="1684" spans="1:15">
       <c r="A1684" s="2" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="1685" spans="1:10">
+    <row r="1685" spans="1:15">
       <c r="A1685" s="2" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="1686" spans="1:10">
+    <row r="1686" spans="1:15">
       <c r="A1686" s="2" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="1687" spans="1:10">
+    <row r="1687" spans="1:15">
       <c r="A1687" s="2" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="1688" spans="1:10">
+    <row r="1688" spans="1:15">
       <c r="A1688" s="2" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="1689" spans="1:10">
+    <row r="1689" spans="1:15">
       <c r="A1689" s="2" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="1690" spans="1:10">
+    <row r="1690" spans="1:15">
       <c r="A1690" s="2" t="s">
         <v>1767</v>
       </c>
       <c r="B1690" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1690" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1690" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:10">
+      <c r="E1690" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1690" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1690" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1690" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1690" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:15">
       <c r="A1691" s="2" t="s">
         <v>1768</v>
       </c>
       <c r="B1691" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1691" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:10">
+      <c r="G1691" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:15">
       <c r="A1692" s="2" t="s">
         <v>1769</v>
       </c>
@@ -19336,76 +19417,85 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1693" spans="1:10">
+    <row r="1693" spans="1:15">
       <c r="A1693" s="2" t="s">
         <v>1770</v>
       </c>
       <c r="B1693" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1693" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:10">
+      <c r="E1693" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1693" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:15">
       <c r="A1694" s="2" t="s">
         <v>1771</v>
       </c>
       <c r="B1694" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1694" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:10">
+      <c r="G1694" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:15">
       <c r="A1695" s="2" t="s">
         <v>1772</v>
       </c>
       <c r="B1695" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1695" s="4" t="s">
+      <c r="G1695" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1696" spans="1:10">
+    <row r="1696" spans="1:15">
       <c r="A1696" s="2" t="s">
         <v>1773</v>
       </c>
       <c r="B1696" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1696" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1696" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:8">
+      <c r="G1696" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1696" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1696" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:7">
       <c r="A1697" s="2" t="s">
         <v>1774</v>
       </c>
       <c r="B1697" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1697" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:8">
+      <c r="E1697" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1697" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:7">
       <c r="A1698" s="2" t="s">
         <v>1775</v>
       </c>
       <c r="B1698" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1698" s="3" t="s">
+      <c r="G1698" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="1699" spans="1:8">
+    <row r="1699" spans="1:7">
       <c r="A1699" s="2" t="s">
         <v>1776</v>
       </c>
@@ -19413,62 +19503,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1700" spans="1:8">
+    <row r="1700" spans="1:7">
       <c r="A1700" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1701" spans="1:8">
+    <row r="1701" spans="1:7">
       <c r="A1701" s="2" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="1702" spans="1:8">
+    <row r="1702" spans="1:7">
       <c r="A1702" s="2" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="1703" spans="1:8">
+    <row r="1703" spans="1:7">
       <c r="A1703" s="2" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="1704" spans="1:8">
+    <row r="1704" spans="1:7">
       <c r="A1704" s="2" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="1705" spans="1:8">
+    <row r="1705" spans="1:7">
       <c r="A1705" s="2" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1706" spans="1:8">
+    <row r="1706" spans="1:7">
       <c r="A1706" s="2" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="1707" spans="1:8">
+    <row r="1707" spans="1:7">
       <c r="A1707" s="2" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="1708" spans="1:8">
+    <row r="1708" spans="1:7">
       <c r="A1708" s="2" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="1709" spans="1:8">
+    <row r="1709" spans="1:7">
       <c r="A1709" s="2" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="1710" spans="1:8">
+    <row r="1710" spans="1:7">
       <c r="A1710" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="1711" spans="1:8">
+    <row r="1711" spans="1:7">
       <c r="A1711" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19476,50 +19566,50 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1712" spans="1:8">
+    <row r="1712" spans="1:7">
       <c r="A1712" s="2" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="1713" spans="1:7">
+    <row r="1713" spans="1:8">
       <c r="A1713" s="2" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="1714" spans="1:7">
+    <row r="1714" spans="1:8">
       <c r="A1714" s="2" t="s">
         <v>1791</v>
       </c>
       <c r="D1714" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:8">
       <c r="A1715" s="2" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1716" spans="1:7">
+    <row r="1716" spans="1:8">
       <c r="A1716" s="2" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1717" spans="1:7">
+    <row r="1717" spans="1:8">
       <c r="A1717" s="2" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1718" spans="1:7">
+    <row r="1718" spans="1:8">
       <c r="A1718" s="2" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1719" spans="1:7">
+    <row r="1719" spans="1:8">
       <c r="A1719" s="2" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1720" spans="1:7">
+    <row r="1720" spans="1:8">
       <c r="A1720" s="2" t="s">
         <v>1797</v>
       </c>
@@ -19527,48 +19617,48 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1721" spans="1:7">
+    <row r="1721" spans="1:8">
       <c r="A1721" s="2" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="1722" spans="1:7">
+    <row r="1722" spans="1:8">
       <c r="A1722" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1723" spans="1:7">
+    <row r="1723" spans="1:8">
       <c r="A1723" s="2" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1724" spans="1:7">
+    <row r="1724" spans="1:8">
       <c r="A1724" s="2" t="s">
         <v>1801</v>
       </c>
       <c r="D1724" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1724" s="4" t="s">
+      <c r="H1724" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="1725" spans="1:7">
+    <row r="1725" spans="1:8">
       <c r="A1725" s="2" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="1726" spans="1:7">
+    <row r="1726" spans="1:8">
       <c r="A1726" s="2" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="1727" spans="1:7">
+    <row r="1727" spans="1:8">
       <c r="A1727" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="1728" spans="1:7">
+    <row r="1728" spans="1:8">
       <c r="A1728" s="2" t="s">
         <v>1805</v>
       </c>
@@ -19750,7 +19840,7 @@
         <v>1838</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>594</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -19795,7 +19885,7 @@
         <v>1844</v>
       </c>
       <c r="B1767" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -19882,7 +19972,7 @@
         <v>1856</v>
       </c>
       <c r="B1779" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1780" spans="1:6">
@@ -19932,7 +20022,7 @@
         <v>1863</v>
       </c>
       <c r="B1786" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1787" spans="1:6">
@@ -20026,7 +20116,7 @@
       <c r="B1796" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1796" s="3" t="s">
+      <c r="E1796" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -20045,7 +20135,7 @@
       <c r="B1798" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1798" s="3" t="s">
+      <c r="F1798" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -20240,7 +20330,7 @@
         <v>1912</v>
       </c>
       <c r="B1835" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$1835</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$1868</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1946">
   <si>
     <t>№</t>
   </si>
@@ -5756,6 +5756,105 @@
   </si>
   <si>
     <t>1826</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>1828</t>
+  </si>
+  <si>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>1834</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>1838</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t>1841</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>1859</t>
   </si>
 </sst>
 </file>
@@ -6121,7 +6220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1835"/>
+  <dimension ref="A1:R1868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6253,52 +6352,52 @@
         <v>79</v>
       </c>
       <c r="C3">
-        <v>4554</v>
+        <v>4561</v>
       </c>
       <c r="D3">
-        <v>14231</v>
+        <v>14262</v>
       </c>
       <c r="E3">
-        <v>24693</v>
+        <v>24741</v>
       </c>
       <c r="F3">
-        <v>32535</v>
+        <v>32621</v>
       </c>
       <c r="G3">
-        <v>52382</v>
+        <v>49122</v>
       </c>
       <c r="H3">
-        <v>53905</v>
+        <v>54093</v>
       </c>
       <c r="I3">
-        <v>60294</v>
+        <v>60520</v>
       </c>
       <c r="J3">
-        <v>64174</v>
+        <v>64382</v>
       </c>
       <c r="K3">
-        <v>88440</v>
+        <v>88733</v>
       </c>
       <c r="L3">
-        <v>97952</v>
+        <v>98306</v>
       </c>
       <c r="M3">
-        <v>100593</v>
+        <v>100966</v>
       </c>
       <c r="N3">
-        <v>108143</v>
+        <v>108540</v>
       </c>
       <c r="O3">
-        <v>109894</v>
+        <v>110304</v>
       </c>
       <c r="P3">
-        <v>110922</v>
+        <v>111343</v>
       </c>
       <c r="Q3">
-        <v>118621</v>
+        <v>119075</v>
       </c>
       <c r="R3">
-        <v>210518</v>
+        <v>211265</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6321,7 +6420,7 @@
         <v>474</v>
       </c>
       <c r="G4">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H4">
         <v>213</v>
@@ -6362,7 +6461,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="C5">
         <v>605</v>
@@ -6371,13 +6470,13 @@
         <v>259</v>
       </c>
       <c r="E5">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F5">
         <v>82</v>
       </c>
       <c r="G5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -6433,7 +6532,7 @@
         <v>30</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>12</v>
@@ -6530,7 +6629,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C8">
         <v>215</v>
@@ -6539,13 +6638,13 @@
         <v>95</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>33</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -6595,7 +6694,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -12690,7 +12789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:7">
       <c r="A689" s="2" t="s">
         <v>760</v>
       </c>
@@ -12700,8 +12799,11 @@
       <c r="C689" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="690" spans="1:6">
+      <c r="G689" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
       <c r="A690" s="2" t="s">
         <v>761</v>
       </c>
@@ -12709,7 +12811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:7">
       <c r="A691" s="2" t="s">
         <v>762</v>
       </c>
@@ -12720,7 +12822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:7">
       <c r="A692" s="2" t="s">
         <v>763</v>
       </c>
@@ -12728,7 +12830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:7">
       <c r="A693" s="2" t="s">
         <v>764</v>
       </c>
@@ -12736,7 +12838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:7">
       <c r="A694" s="2" t="s">
         <v>765</v>
       </c>
@@ -12753,7 +12855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:7">
       <c r="A695" s="2" t="s">
         <v>766</v>
       </c>
@@ -12761,7 +12863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:7">
       <c r="A696" s="2" t="s">
         <v>767</v>
       </c>
@@ -12769,7 +12871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:7">
       <c r="A697" s="2" t="s">
         <v>768</v>
       </c>
@@ -12780,7 +12882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:7">
       <c r="A698" s="2" t="s">
         <v>769</v>
       </c>
@@ -12788,12 +12890,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:7">
       <c r="A699" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:7">
       <c r="A700" s="2" t="s">
         <v>771</v>
       </c>
@@ -12810,7 +12912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:7">
       <c r="A701" s="2" t="s">
         <v>772</v>
       </c>
@@ -12827,7 +12929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:7">
       <c r="A702" s="2" t="s">
         <v>773</v>
       </c>
@@ -12838,7 +12940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:7">
       <c r="A703" s="2" t="s">
         <v>774</v>
       </c>
@@ -12849,7 +12951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:7">
       <c r="A704" s="2" t="s">
         <v>775</v>
       </c>
@@ -19438,6 +19540,9 @@
       <c r="B1694" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E1694" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G1694" s="4" t="s">
         <v>111</v>
       </c>
@@ -19491,6 +19596,9 @@
       <c r="B1698" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E1698" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G1698" s="3" t="s">
         <v>48</v>
       </c>
@@ -20333,8 +20441,188 @@
         <v>111</v>
       </c>
     </row>
+    <row r="1836" spans="1:2">
+      <c r="A1836" s="2" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2">
+      <c r="A1837" s="2" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2">
+      <c r="A1838" s="2" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2">
+      <c r="A1839" s="2" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2">
+      <c r="A1840" s="2" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:1">
+      <c r="A1841" s="2" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:1">
+      <c r="A1842" s="2" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:1">
+      <c r="A1843" s="2" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:1">
+      <c r="A1844" s="2" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:1">
+      <c r="A1845" s="2" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:1">
+      <c r="A1846" s="2" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:1">
+      <c r="A1847" s="2" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:1">
+      <c r="A1848" s="2" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:1">
+      <c r="A1849" s="2" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:1">
+      <c r="A1850" s="2" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851" s="2" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:1">
+      <c r="A1852" s="2" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:1">
+      <c r="A1853" s="2" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:1">
+      <c r="A1854" s="2" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:1">
+      <c r="A1855" s="2" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:1">
+      <c r="A1856" s="2" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" s="2" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" s="2" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" s="2" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="A1860" s="2" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2">
+      <c r="A1861" s="2" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2">
+      <c r="A1862" s="2" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2">
+      <c r="A1863" s="2" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1864" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2">
+      <c r="A1865" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1865" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2">
+      <c r="A1866" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B1866" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2">
+      <c r="A1867" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1867" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2">
+      <c r="A1868" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1868" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R1835"/>
+  <autoFilter ref="A1:R1868"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -22179,6 +22467,39 @@
     <hyperlink ref="A1833" r:id="rId1841"/>
     <hyperlink ref="A1834" r:id="rId1842"/>
     <hyperlink ref="A1835" r:id="rId1843"/>
+    <hyperlink ref="A1836" r:id="rId1844"/>
+    <hyperlink ref="A1837" r:id="rId1845"/>
+    <hyperlink ref="A1838" r:id="rId1846"/>
+    <hyperlink ref="A1839" r:id="rId1847"/>
+    <hyperlink ref="A1840" r:id="rId1848"/>
+    <hyperlink ref="A1841" r:id="rId1849"/>
+    <hyperlink ref="A1842" r:id="rId1850"/>
+    <hyperlink ref="A1843" r:id="rId1851"/>
+    <hyperlink ref="A1844" r:id="rId1852"/>
+    <hyperlink ref="A1845" r:id="rId1853"/>
+    <hyperlink ref="A1846" r:id="rId1854"/>
+    <hyperlink ref="A1847" r:id="rId1855"/>
+    <hyperlink ref="A1848" r:id="rId1856"/>
+    <hyperlink ref="A1849" r:id="rId1857"/>
+    <hyperlink ref="A1850" r:id="rId1858"/>
+    <hyperlink ref="A1851" r:id="rId1859"/>
+    <hyperlink ref="A1852" r:id="rId1860"/>
+    <hyperlink ref="A1853" r:id="rId1861"/>
+    <hyperlink ref="A1854" r:id="rId1862"/>
+    <hyperlink ref="A1855" r:id="rId1863"/>
+    <hyperlink ref="A1856" r:id="rId1864"/>
+    <hyperlink ref="A1857" r:id="rId1865"/>
+    <hyperlink ref="A1858" r:id="rId1866"/>
+    <hyperlink ref="A1859" r:id="rId1867"/>
+    <hyperlink ref="A1860" r:id="rId1868"/>
+    <hyperlink ref="A1861" r:id="rId1869"/>
+    <hyperlink ref="A1862" r:id="rId1870"/>
+    <hyperlink ref="A1863" r:id="rId1871"/>
+    <hyperlink ref="A1864" r:id="rId1872"/>
+    <hyperlink ref="A1865" r:id="rId1873"/>
+    <hyperlink ref="A1866" r:id="rId1874"/>
+    <hyperlink ref="A1867" r:id="rId1875"/>
+    <hyperlink ref="A1868" r:id="rId1876"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$1868</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$1878</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1956">
   <si>
     <t>№</t>
   </si>
@@ -31,15 +31,21 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Леонтьв Дмитрий</t>
   </si>
   <si>
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Казаков Максим</t>
+  </si>
+  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +64,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Казаков Максим</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,9 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321540</t>
+  </si>
+  <si>
     <t>369588</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,15 +118,9 @@
     <t>417223</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
-    <t>321540</t>
-  </si>
-  <si>
     <t>417133</t>
   </si>
   <si>
@@ -166,72 +166,75 @@
     <t>1+, 2-</t>
   </si>
   <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
     <t>1+, 1-</t>
   </si>
   <si>
-    <t>2+, 3-</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 12-</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>1+, 16-</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2+, 10-</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>1-</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>1+, 12-</t>
-  </si>
-  <si>
-    <t>5-</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>2+, 1-</t>
-  </si>
-  <si>
-    <t>1+, 16-</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1+, 6-</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1+, 8-</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2+, 10-</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -247,9 +250,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>2+, 2-</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -517,6 +517,9 @@
     <t>94</t>
   </si>
   <si>
+    <t>1+, 9-</t>
+  </si>
+  <si>
     <t>95</t>
   </si>
   <si>
@@ -1627,9 +1630,6 @@
     <t>456</t>
   </si>
   <si>
-    <t>1+, 9-</t>
-  </si>
-  <si>
     <t>457</t>
   </si>
   <si>
@@ -5855,6 +5855,36 @@
   </si>
   <si>
     <t>1859</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>1864</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1869</t>
   </si>
 </sst>
 </file>
@@ -6220,7 +6250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1868"/>
+  <dimension ref="A1:R1878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6349,55 +6379,55 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>4561</v>
+        <v>4237</v>
       </c>
       <c r="D3">
-        <v>14262</v>
+        <v>14195</v>
       </c>
       <c r="E3">
-        <v>24741</v>
+        <v>21326</v>
       </c>
       <c r="F3">
-        <v>32621</v>
+        <v>31254</v>
       </c>
       <c r="G3">
-        <v>49122</v>
+        <v>45296</v>
       </c>
       <c r="H3">
-        <v>54093</v>
+        <v>46665</v>
       </c>
       <c r="I3">
-        <v>60520</v>
+        <v>52483</v>
       </c>
       <c r="J3">
-        <v>64382</v>
+        <v>55679</v>
       </c>
       <c r="K3">
-        <v>88733</v>
+        <v>58880</v>
       </c>
       <c r="L3">
-        <v>98306</v>
+        <v>66259</v>
       </c>
       <c r="M3">
-        <v>100966</v>
+        <v>79619</v>
       </c>
       <c r="N3">
-        <v>108540</v>
+        <v>101096</v>
       </c>
       <c r="O3">
-        <v>110304</v>
+        <v>103820</v>
       </c>
       <c r="P3">
-        <v>111343</v>
+        <v>113426</v>
       </c>
       <c r="Q3">
-        <v>119075</v>
+        <v>122486</v>
       </c>
       <c r="R3">
-        <v>211265</v>
+        <v>217563</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6405,49 +6435,49 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>24238</v>
+        <v>24233</v>
       </c>
       <c r="C4">
-        <v>3534</v>
+        <v>3791</v>
       </c>
       <c r="D4">
-        <v>1266</v>
+        <v>1303</v>
       </c>
       <c r="E4">
-        <v>675</v>
+        <v>829</v>
       </c>
       <c r="F4">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="G4">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="H4">
+        <v>290</v>
+      </c>
+      <c r="I4">
+        <v>238</v>
+      </c>
+      <c r="J4">
         <v>213</v>
       </c>
-      <c r="I4">
-        <v>173</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <v>193</v>
+      </c>
+      <c r="L4">
         <v>153</v>
       </c>
-      <c r="K4">
-        <v>75</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>104</v>
+      </c>
+      <c r="N4">
         <v>57</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>53</v>
       </c>
-      <c r="N4">
-        <v>44</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
         <v>42</v>
-      </c>
-      <c r="P4">
-        <v>41</v>
       </c>
       <c r="Q4">
         <v>33</v>
@@ -6461,49 +6491,49 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1707</v>
+        <v>1758</v>
       </c>
       <c r="C5">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="D5">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E5">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F5">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="I5">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J5">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>39</v>
+      </c>
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="K5">
-        <v>23</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>37</v>
+      </c>
+      <c r="N5">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>18</v>
       </c>
-      <c r="N5">
-        <v>14</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
         <v>34</v>
-      </c>
-      <c r="P5">
-        <v>8</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -6520,46 +6550,46 @@
         <v>725</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
         <v>14</v>
       </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
         <v>8</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>7</v>
-      </c>
-      <c r="O6">
-        <v>7</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -6576,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -6585,37 +6615,37 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
       <c r="I7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
       </c>
       <c r="O7">
         <v>2</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -6629,49 +6659,49 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="C8">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H8">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
         <v>12</v>
       </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
         <v>14</v>
       </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
         <v>8</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8">
+      <c r="P8">
         <v>9</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -6688,46 +6718,46 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>11</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
       <c r="I9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
       </c>
       <c r="O9">
         <v>2</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6756,34 +6786,34 @@
         <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>51</v>
+        <v>51</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>47</v>
@@ -6800,12 +6830,12 @@
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6814,7 +6844,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>54</v>
@@ -6826,37 +6856,37 @@
         <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="O12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>47</v>
@@ -6870,7 +6900,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>54</v>
@@ -6878,7 +6908,7 @@
       <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6890,16 +6920,16 @@
         <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -6913,9 +6943,9 @@
         <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6924,7 +6954,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -6935,8 +6965,11 @@
       <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
@@ -6952,11 +6985,11 @@
       <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -6964,18 +6997,18 @@
         <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="H18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>66</v>
@@ -6987,31 +7020,34 @@
         <v>59</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>47</v>
@@ -7020,9 +7056,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>47</v>
@@ -7031,22 +7067,22 @@
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -7063,7 +7099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -7071,18 +7107,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -7092,11 +7128,11 @@
       <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -7104,15 +7140,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -7128,11 +7164,11 @@
       <c r="E30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="H30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -7152,13 +7188,16 @@
         <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -7171,11 +7210,11 @@
       <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -7183,7 +7222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -7194,13 +7233,13 @@
         <v>47</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -7211,7 +7250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>91</v>
       </c>
@@ -7219,7 +7258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>92</v>
       </c>
@@ -7230,7 +7269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -7238,7 +7277,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>94</v>
       </c>
@@ -7246,7 +7285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>95</v>
       </c>
@@ -7254,7 +7293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -7262,7 +7301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -7273,13 +7312,13 @@
         <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -7289,11 +7328,11 @@
       <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="J43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>99</v>
       </c>
@@ -7301,13 +7340,13 @@
         <v>47</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>100</v>
       </c>
@@ -7315,7 +7354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>101</v>
       </c>
@@ -7323,23 +7362,26 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="G48" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -7352,35 +7394,35 @@
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="I49" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
@@ -7389,7 +7431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>110</v>
       </c>
@@ -7403,18 +7445,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>51</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
         <v>113</v>
       </c>
@@ -7422,18 +7464,18 @@
         <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
         <v>115</v>
       </c>
@@ -7441,7 +7483,7 @@
         <v>47</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>47</v>
@@ -7450,7 +7492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -7458,20 +7500,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>47</v>
@@ -7480,7 +7522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
         <v>119</v>
       </c>
@@ -7493,11 +7535,11 @@
       <c r="D61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="H61" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -7507,11 +7549,14 @@
       <c r="C62" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E62" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
         <v>121</v>
       </c>
@@ -7519,7 +7564,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -7535,7 +7580,7 @@
         <v>47</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -7602,34 +7647,34 @@
         <v>47</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="I70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="O70" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>47</v>
@@ -7646,10 +7691,10 @@
         <v>47</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -7660,7 +7705,7 @@
         <v>47</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -7668,7 +7713,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -7676,7 +7721,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -7717,7 +7762,7 @@
         <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -7725,7 +7770,7 @@
         <v>138</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>139</v>
@@ -7738,8 +7783,11 @@
       <c r="B80" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -7747,7 +7795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -7755,7 +7803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
         <v>143</v>
       </c>
@@ -7763,7 +7811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11">
       <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
@@ -7771,7 +7819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11">
       <c r="A85" s="2" t="s">
         <v>145</v>
       </c>
@@ -7779,7 +7827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11">
       <c r="A86" s="2" t="s">
         <v>146</v>
       </c>
@@ -7787,7 +7835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:11">
       <c r="A87" s="2" t="s">
         <v>148</v>
       </c>
@@ -7795,7 +7843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11">
       <c r="A88" s="2" t="s">
         <v>149</v>
       </c>
@@ -7806,22 +7854,22 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F88" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="K88" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:11">
       <c r="A89" s="2" t="s">
         <v>151</v>
       </c>
@@ -7829,7 +7877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11">
       <c r="A90" s="2" t="s">
         <v>152</v>
       </c>
@@ -7840,10 +7888,10 @@
         <v>47</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2" t="s">
         <v>153</v>
       </c>
@@ -7853,16 +7901,16 @@
       <c r="C91" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:11">
       <c r="A93" s="2" t="s">
         <v>155</v>
       </c>
@@ -7870,7 +7918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:11">
       <c r="A94" s="2" t="s">
         <v>156</v>
       </c>
@@ -7881,7 +7929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11">
       <c r="A95" s="2" t="s">
         <v>157</v>
       </c>
@@ -7895,7 +7943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11">
       <c r="A96" s="2" t="s">
         <v>158</v>
       </c>
@@ -7946,7 +7994,7 @@
         <v>47</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>47</v>
@@ -7965,34 +8013,34 @@
         <v>165</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>111</v>
+        <v>51</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>48</v>
@@ -8000,7 +8048,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>47</v>
@@ -8011,28 +8059,28 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>47</v>
@@ -8040,10 +8088,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>47</v>
@@ -8051,17 +8099,17 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>47</v>
@@ -8070,7 +8118,7 @@
         <v>47</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>48</v>
@@ -8078,7 +8126,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>47</v>
@@ -8086,7 +8134,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>58</v>
@@ -8095,7 +8143,7 @@
         <v>47</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>47</v>
@@ -8104,31 +8152,31 @@
         <v>47</v>
       </c>
       <c r="G117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="I117" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L117" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K117" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M117" s="4" t="s">
-        <v>51</v>
+      <c r="M117" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="N117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O117" s="3" t="s">
-        <v>47</v>
+      <c r="O117" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>47</v>
@@ -8139,7 +8187,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>47</v>
@@ -8147,12 +8195,12 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>47</v>
@@ -8160,39 +8208,45 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>47</v>
@@ -8200,7 +8254,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>47</v>
@@ -8208,7 +8262,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>47</v>
@@ -8216,7 +8270,7 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>47</v>
@@ -8225,38 +8279,41 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>47</v>
@@ -8265,95 +8322,95 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>48</v>
@@ -8361,7 +8418,7 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>47</v>
@@ -8369,7 +8426,7 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>48</v>
@@ -8377,7 +8434,7 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>47</v>
@@ -8385,12 +8442,12 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>47</v>
@@ -8398,7 +8455,7 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>48</v>
@@ -8406,15 +8463,15 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>105</v>
@@ -8422,7 +8479,7 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>81</v>
@@ -8430,7 +8487,7 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>44</v>
@@ -8438,12 +8495,18 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>48</v>
@@ -8452,7 +8515,7 @@
         <v>47</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>53</v>
@@ -8460,25 +8523,25 @@
       <c r="F156" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J156" s="3" t="s">
+      <c r="H156" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L156" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M156" s="3" t="s">
+      <c r="O156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N156" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O156" s="4" t="s">
-        <v>51</v>
+      <c r="P156" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>59</v>
@@ -8487,18 +8550,18 @@
         <v>61</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G157" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I157" s="3" t="s">
+      <c r="H157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K157" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Q157" s="3" t="s">
@@ -8507,7 +8570,7 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>47</v>
@@ -8521,105 +8584,111 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:9">
       <c r="A161" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:9">
       <c r="A164" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="C166" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:9">
       <c r="A169" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:9">
       <c r="A170" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:9">
       <c r="A171" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:9">
       <c r="A172" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>47</v>
@@ -8631,58 +8700,64 @@
         <v>47</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:9">
       <c r="A173" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:9">
       <c r="A174" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:9">
       <c r="A175" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>47</v>
@@ -8690,7 +8765,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>47</v>
@@ -8698,7 +8773,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>47</v>
@@ -8706,7 +8781,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>58</v>
@@ -8714,7 +8789,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>47</v>
@@ -8723,7 +8798,7 @@
         <v>47</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>147</v>
@@ -8731,15 +8806,15 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>47</v>
@@ -8747,17 +8822,17 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>47</v>
@@ -8765,7 +8840,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>47</v>
@@ -8773,7 +8848,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>47</v>
@@ -8781,7 +8856,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>47</v>
@@ -8789,7 +8864,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>47</v>
@@ -8797,94 +8872,97 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>47</v>
@@ -8893,30 +8971,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>48</v>
@@ -8924,29 +9002,29 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>139</v>
@@ -8954,7 +9032,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>47</v>
@@ -8962,12 +9040,12 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>48</v>
@@ -8975,7 +9053,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>47</v>
@@ -8983,7 +9061,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>47</v>
@@ -8991,7 +9069,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>47</v>
@@ -8999,7 +9077,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>47</v>
@@ -9007,7 +9085,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>61</v>
@@ -9015,7 +9093,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>47</v>
@@ -9023,12 +9101,12 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>47</v>
@@ -9036,12 +9114,12 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>47</v>
@@ -9049,7 +9127,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>47</v>
@@ -9057,7 +9135,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>48</v>
@@ -9065,7 +9143,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>47</v>
@@ -9073,32 +9151,32 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>47</v>
@@ -9106,7 +9184,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>47</v>
@@ -9114,17 +9192,17 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>47</v>
@@ -9132,17 +9210,17 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>47</v>
@@ -9153,12 +9231,12 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>47</v>
@@ -9172,7 +9250,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>47</v>
@@ -9180,7 +9258,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>48</v>
@@ -9188,15 +9266,15 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>47</v>
@@ -9204,7 +9282,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>54</v>
@@ -9212,17 +9290,17 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>47</v>
@@ -9230,17 +9308,17 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>54</v>
@@ -9248,15 +9326,15 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>47</v>
@@ -9267,7 +9345,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>54</v>
@@ -9275,12 +9353,12 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>147</v>
@@ -9288,7 +9366,7 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>47</v>
@@ -9296,12 +9374,12 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>47</v>
@@ -9309,7 +9387,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>54</v>
@@ -9317,7 +9395,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>47</v>
@@ -9328,7 +9406,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>47</v>
@@ -9336,23 +9414,23 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>53</v>
@@ -9360,12 +9438,12 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>47</v>
@@ -9373,20 +9451,20 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>47</v>
@@ -9395,9 +9473,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:10">
       <c r="A273" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>48</v>
@@ -9406,63 +9484,63 @@
         <v>47</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:10">
       <c r="A275" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:10">
       <c r="A279" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:10">
       <c r="A280" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>47</v>
@@ -9471,28 +9549,28 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:10">
       <c r="A281" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:10">
       <c r="A282" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:10">
       <c r="A283" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>48</v>
@@ -9501,20 +9579,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:10">
       <c r="A284" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H284" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>47</v>
@@ -9523,17 +9601,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:10">
       <c r="A286" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>47</v>
@@ -9542,20 +9623,23 @@
         <v>48</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>47</v>
@@ -9563,7 +9647,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>47</v>
@@ -9571,7 +9655,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>48</v>
@@ -9579,15 +9663,18 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="C292" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>48</v>
@@ -9598,15 +9685,15 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>48</v>
@@ -9614,7 +9701,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>47</v>
@@ -9625,7 +9712,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>48</v>
@@ -9633,12 +9720,12 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>47</v>
@@ -9646,18 +9733,18 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>48</v>
@@ -9665,18 +9752,18 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>47</v>
@@ -9687,7 +9774,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>48</v>
@@ -9695,7 +9782,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>47</v>
@@ -9709,7 +9796,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>47</v>
@@ -9720,7 +9807,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>47</v>
@@ -9728,7 +9815,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>48</v>
@@ -9736,7 +9823,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>48</v>
@@ -9744,7 +9831,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>47</v>
@@ -9752,46 +9839,46 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>47</v>
@@ -9799,7 +9886,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>47</v>
@@ -9807,7 +9894,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>47</v>
@@ -9815,15 +9902,15 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:15">
       <c r="A321" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>47</v>
@@ -9835,25 +9922,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:15">
       <c r="A322" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15">
       <c r="A323" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:15">
       <c r="A324" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>48</v>
@@ -9865,85 +9952,88 @@
         <v>147</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:15">
       <c r="A325" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:15">
       <c r="A326" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:15">
       <c r="A327" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15">
       <c r="A328" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:15">
       <c r="A329" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:15">
       <c r="A330" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:15">
       <c r="A331" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G331" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J331" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M331" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13">
+      <c r="H331" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O331" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15">
       <c r="A332" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:15">
       <c r="A333" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>47</v>
@@ -9955,25 +10045,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:15">
       <c r="A334" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:15">
       <c r="A335" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:15">
       <c r="A336" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>47</v>
@@ -9990,18 +10080,18 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>47</v>
@@ -10009,15 +10099,15 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>47</v>
@@ -10031,7 +10121,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>47</v>
@@ -10039,7 +10129,7 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>47</v>
@@ -10050,7 +10140,7 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>47</v>
@@ -10058,7 +10148,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>47</v>
@@ -10066,7 +10156,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>47</v>
@@ -10077,12 +10167,12 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>47</v>
@@ -10090,7 +10180,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>47</v>
@@ -10101,7 +10191,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>47</v>
@@ -10110,12 +10200,12 @@
         <v>47</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>47</v>
@@ -10123,130 +10213,133 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:9">
       <c r="A353" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
       <c r="A354" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:9">
       <c r="A355" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="A356" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:9">
       <c r="A357" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:9">
       <c r="A358" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:9">
       <c r="A359" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="I359" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
       <c r="A360" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:9">
       <c r="A361" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:9">
       <c r="A362" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
       <c r="A363" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:9">
       <c r="A364" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:9">
       <c r="A365" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
       <c r="A366" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E366" s="3" t="s">
         <v>53</v>
@@ -10254,148 +10347,151 @@
       <c r="F366" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G366" s="3" t="s">
+      <c r="H366" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:9">
       <c r="A367" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:9">
       <c r="A368" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:9">
       <c r="A369" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:9">
       <c r="A370" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:9">
       <c r="A371" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
       <c r="A372" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:9">
       <c r="A373" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="A374" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:9">
       <c r="A375" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="376" spans="1:2">
+      <c r="I375" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
       <c r="A376" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:9">
       <c r="A377" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:9">
       <c r="A378" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:9">
       <c r="A379" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:9">
       <c r="A380" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
       <c r="A381" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:9">
       <c r="A382" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:9">
       <c r="A383" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:9">
       <c r="A384" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>47</v>
@@ -10403,7 +10499,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>47</v>
@@ -10411,7 +10507,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>47</v>
@@ -10419,17 +10515,17 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>47</v>
@@ -10437,7 +10533,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>47</v>
@@ -10445,7 +10541,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>47</v>
@@ -10453,7 +10549,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>47</v>
@@ -10461,7 +10557,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>47</v>
@@ -10469,7 +10565,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>47</v>
@@ -10477,7 +10573,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>47</v>
@@ -10488,20 +10584,20 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>47</v>
@@ -10509,39 +10605,39 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:9">
       <c r="A401" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:9">
       <c r="A402" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:9">
       <c r="A403" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:9">
       <c r="A404" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>47</v>
@@ -10550,90 +10646,93 @@
         <v>47</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:9">
       <c r="A405" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:9">
       <c r="A406" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
       <c r="A407" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="408" spans="1:3">
+      <c r="I407" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
       <c r="A408" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:9">
       <c r="A409" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:9">
       <c r="A410" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:9">
       <c r="A411" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
       <c r="A412" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
       <c r="A413" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
       <c r="A414" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
       <c r="A415" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
       <c r="A416" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>53</v>
@@ -10641,10 +10740,10 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>47</v>
@@ -10652,12 +10751,12 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>48</v>
@@ -10665,7 +10764,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>64</v>
@@ -10673,7 +10772,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>47</v>
@@ -10681,7 +10780,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>47</v>
@@ -10689,7 +10788,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>54</v>
@@ -10697,7 +10796,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>47</v>
@@ -10705,7 +10804,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>47</v>
@@ -10713,39 +10812,39 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>47</v>
@@ -10753,26 +10852,26 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>47</v>
@@ -10780,7 +10879,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>47</v>
@@ -10788,17 +10887,17 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>47</v>
@@ -10806,15 +10905,15 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>47</v>
@@ -10822,7 +10921,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>61</v>
@@ -10830,37 +10929,37 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>47</v>
@@ -10871,7 +10970,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>47</v>
@@ -10882,12 +10981,12 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>47</v>
@@ -10895,7 +10994,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>54</v>
@@ -10903,7 +11002,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>61</v>
@@ -10911,12 +11010,12 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>47</v>
@@ -10927,7 +11026,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>48</v>
@@ -10935,12 +11034,12 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>47</v>
@@ -10948,7 +11047,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>48</v>
@@ -10956,20 +11055,20 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>47</v>
@@ -10977,7 +11076,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>47</v>
@@ -10985,15 +11084,15 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>536</v>
+        <v>166</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -11039,7 +11138,7 @@
         <v>47</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -11055,7 +11154,7 @@
         <v>543</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -11063,7 +11162,7 @@
         <v>544</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -11113,10 +11212,10 @@
         <v>551</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
       <c r="A481" s="2" t="s">
         <v>552</v>
       </c>
@@ -11124,20 +11223,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:3">
       <c r="A482" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:3">
       <c r="A484" s="2" t="s">
         <v>555</v>
       </c>
@@ -11145,7 +11244,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:3">
       <c r="A485" s="2" t="s">
         <v>556</v>
       </c>
@@ -11153,7 +11252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
         <v>557</v>
       </c>
@@ -11161,17 +11260,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:3">
       <c r="A488" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:3">
       <c r="A489" s="2" t="s">
         <v>560</v>
       </c>
@@ -11179,20 +11278,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:3">
       <c r="A490" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="492" spans="1:2">
+      <c r="C491" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" s="2" t="s">
         <v>563</v>
       </c>
@@ -11200,12 +11302,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:3">
       <c r="A493" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:3">
       <c r="A494" s="2" t="s">
         <v>565</v>
       </c>
@@ -11213,12 +11315,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:3">
       <c r="A495" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:3">
       <c r="A496" s="2" t="s">
         <v>567</v>
       </c>
@@ -11258,7 +11360,7 @@
         <v>47</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -11274,7 +11376,7 @@
         <v>573</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C502" s="3" t="s">
         <v>61</v>
@@ -11304,7 +11406,7 @@
         <v>47</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -11371,7 +11473,7 @@
         <v>47</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E513" s="3" t="s">
         <v>47</v>
@@ -11382,7 +11484,7 @@
         <v>585</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="515" spans="1:17">
@@ -11400,7 +11502,7 @@
         <v>588</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="518" spans="1:17">
@@ -11457,7 +11559,7 @@
         <v>47</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>58</v>
@@ -11468,23 +11570,23 @@
       <c r="F523" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G523" s="4" t="s">
+      <c r="H523" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I523" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J523" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="K523" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="L523" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="M523" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N523" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Q523" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="524" spans="1:17">
@@ -11500,7 +11602,7 @@
         <v>596</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="526" spans="1:17">
@@ -11527,7 +11629,7 @@
         <v>47</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11543,7 +11645,7 @@
         <v>601</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -11551,7 +11653,7 @@
         <v>602</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C531" s="4" t="s">
         <v>107</v>
@@ -11693,13 +11795,13 @@
         <v>619</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C548" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E548" s="3" t="s">
         <v>48</v>
@@ -11735,10 +11837,10 @@
         <v>47</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F551" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11770,7 +11872,7 @@
         <v>626</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11778,7 +11880,7 @@
         <v>627</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11786,7 +11888,7 @@
         <v>628</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11805,7 +11907,7 @@
         <v>54</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -11813,10 +11915,10 @@
         <v>631</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11">
       <c r="A561" s="2" t="s">
         <v>632</v>
       </c>
@@ -11824,15 +11926,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:11">
       <c r="A562" s="2" t="s">
         <v>633</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11">
       <c r="A563" s="2" t="s">
         <v>634</v>
       </c>
@@ -11840,18 +11942,30 @@
         <v>47</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="564" spans="1:4">
+      <c r="E563" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K563" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11">
       <c r="A564" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:11">
       <c r="A565" s="2" t="s">
         <v>636</v>
       </c>
@@ -11859,7 +11973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:11">
       <c r="A566" s="2" t="s">
         <v>637</v>
       </c>
@@ -11867,30 +11981,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:11">
       <c r="A567" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:11">
       <c r="A568" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11">
       <c r="A569" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:11">
       <c r="A570" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:11">
       <c r="A571" s="2" t="s">
         <v>642</v>
       </c>
@@ -11898,30 +12012,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:11">
       <c r="A572" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:11">
       <c r="A573" s="2" t="s">
         <v>644</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11">
       <c r="A574" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:11">
       <c r="A575" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:11">
       <c r="A576" s="2" t="s">
         <v>647</v>
       </c>
@@ -11947,7 +12061,7 @@
         <v>650</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -11991,6 +12105,9 @@
       <c r="B585" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C585" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="2" t="s">
@@ -11999,13 +12116,16 @@
       <c r="B586" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C586" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="2" t="s">
         <v>658</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -12013,7 +12133,7 @@
         <v>659</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -12142,7 +12262,7 @@
         <v>47</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>47</v>
@@ -12163,7 +12283,7 @@
         <v>680</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C609" s="3" t="s">
         <v>48</v>
@@ -12217,37 +12337,37 @@
         <v>47</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F615" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G615" s="4" t="s">
+      <c r="G615" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H615" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H615" s="3" t="s">
+      <c r="I615" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J615" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I615" s="3" t="s">
+      <c r="K615" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J615" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K615" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="L615" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N615" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O615" s="3" t="s">
-        <v>47</v>
+        <v>47</v>
+      </c>
+      <c r="M615" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N615" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="P615" s="3" t="s">
         <v>47</v>
@@ -12298,22 +12418,22 @@
         <v>695</v>
       </c>
     </row>
-    <row r="625" spans="1:9">
+    <row r="625" spans="1:11">
       <c r="A625" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="626" spans="1:9">
+    <row r="626" spans="1:11">
       <c r="A626" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="627" spans="1:9">
+    <row r="627" spans="1:11">
       <c r="A627" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="628" spans="1:9">
+    <row r="628" spans="1:11">
       <c r="A628" s="2" t="s">
         <v>699</v>
       </c>
@@ -12321,22 +12441,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="629" spans="1:9">
+    <row r="629" spans="1:11">
       <c r="A629" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="630" spans="1:9">
+    <row r="630" spans="1:11">
       <c r="A630" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="631" spans="1:9">
+    <row r="631" spans="1:11">
       <c r="A631" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="632" spans="1:9">
+    <row r="632" spans="1:11">
       <c r="A632" s="2" t="s">
         <v>703</v>
       </c>
@@ -12352,29 +12472,29 @@
       <c r="F632" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G632" s="4" t="s">
+      <c r="H632" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I632" s="4" t="s">
+      <c r="K632" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="633" spans="1:9">
+    <row r="633" spans="1:11">
       <c r="A633" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="634" spans="1:9">
+    <row r="634" spans="1:11">
       <c r="A634" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="635" spans="1:9">
+    <row r="635" spans="1:11">
       <c r="A635" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="636" spans="1:9">
+    <row r="636" spans="1:11">
       <c r="A636" s="2" t="s">
         <v>707</v>
       </c>
@@ -12382,7 +12502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:11">
       <c r="A637" s="2" t="s">
         <v>708</v>
       </c>
@@ -12390,12 +12510,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="638" spans="1:9">
+    <row r="638" spans="1:11">
       <c r="A638" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="639" spans="1:9">
+    <row r="639" spans="1:11">
       <c r="A639" s="2" t="s">
         <v>710</v>
       </c>
@@ -12403,7 +12523,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="640" spans="1:9">
+    <row r="640" spans="1:11">
       <c r="A640" s="2" t="s">
         <v>711</v>
       </c>
@@ -12458,7 +12578,7 @@
         <v>718</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12485,10 +12605,10 @@
         <v>721</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12499,7 +12619,7 @@
         <v>47</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12526,7 +12646,7 @@
         <v>725</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12634,7 +12754,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="673" spans="1:10">
+    <row r="673" spans="1:12">
       <c r="A673" s="2" t="s">
         <v>744</v>
       </c>
@@ -12642,7 +12762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="674" spans="1:10">
+    <row r="674" spans="1:12">
       <c r="A674" s="2" t="s">
         <v>745</v>
       </c>
@@ -12650,7 +12770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="675" spans="1:10">
+    <row r="675" spans="1:12">
       <c r="A675" s="2" t="s">
         <v>746</v>
       </c>
@@ -12658,18 +12778,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="676" spans="1:10">
+    <row r="676" spans="1:12">
       <c r="A676" s="2" t="s">
         <v>747</v>
       </c>
       <c r="B676" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C676" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="677" spans="1:10">
+    <row r="677" spans="1:12">
       <c r="A677" s="2" t="s">
         <v>748</v>
       </c>
@@ -12677,7 +12797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="678" spans="1:10">
+    <row r="678" spans="1:12">
       <c r="A678" s="2" t="s">
         <v>749</v>
       </c>
@@ -12685,7 +12805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="679" spans="1:10">
+    <row r="679" spans="1:12">
       <c r="A679" s="2" t="s">
         <v>750</v>
       </c>
@@ -12696,7 +12816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:12">
       <c r="A680" s="2" t="s">
         <v>751</v>
       </c>
@@ -12704,7 +12824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="681" spans="1:10">
+    <row r="681" spans="1:12">
       <c r="A681" s="2" t="s">
         <v>752</v>
       </c>
@@ -12712,7 +12832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="682" spans="1:10">
+    <row r="682" spans="1:12">
       <c r="A682" s="2" t="s">
         <v>753</v>
       </c>
@@ -12720,7 +12840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="683" spans="1:10">
+    <row r="683" spans="1:12">
       <c r="A683" s="2" t="s">
         <v>754</v>
       </c>
@@ -12728,7 +12848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="684" spans="1:10">
+    <row r="684" spans="1:12">
       <c r="A684" s="2" t="s">
         <v>755</v>
       </c>
@@ -12739,7 +12859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="685" spans="1:10">
+    <row r="685" spans="1:12">
       <c r="A685" s="2" t="s">
         <v>756</v>
       </c>
@@ -12747,7 +12867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="686" spans="1:10">
+    <row r="686" spans="1:12">
       <c r="A686" s="2" t="s">
         <v>757</v>
       </c>
@@ -12755,7 +12875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="687" spans="1:10">
+    <row r="687" spans="1:12">
       <c r="A687" s="2" t="s">
         <v>758</v>
       </c>
@@ -12769,19 +12889,19 @@
         <v>47</v>
       </c>
       <c r="E687" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F687" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G687" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J687" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="688" spans="1:10">
+      <c r="H687" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L687" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12">
       <c r="A688" s="2" t="s">
         <v>759</v>
       </c>
@@ -12789,7 +12909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:9">
       <c r="A689" s="2" t="s">
         <v>760</v>
       </c>
@@ -12799,11 +12919,20 @@
       <c r="C689" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G689" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="690" spans="1:7">
+      <c r="E689" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H689" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I689" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9">
       <c r="A690" s="2" t="s">
         <v>761</v>
       </c>
@@ -12811,7 +12940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:9">
       <c r="A691" s="2" t="s">
         <v>762</v>
       </c>
@@ -12819,10 +12948,10 @@
         <v>58</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="692" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9">
       <c r="A692" s="2" t="s">
         <v>763</v>
       </c>
@@ -12830,7 +12959,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:9">
       <c r="A693" s="2" t="s">
         <v>764</v>
       </c>
@@ -12838,7 +12967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:9">
       <c r="A694" s="2" t="s">
         <v>765</v>
       </c>
@@ -12849,13 +12978,13 @@
         <v>47</v>
       </c>
       <c r="D694" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E694" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:9">
       <c r="A695" s="2" t="s">
         <v>766</v>
       </c>
@@ -12863,15 +12992,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:9">
       <c r="A696" s="2" t="s">
         <v>767</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="697" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9">
       <c r="A697" s="2" t="s">
         <v>768</v>
       </c>
@@ -12879,10 +13008,10 @@
         <v>46</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="698" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9">
       <c r="A698" s="2" t="s">
         <v>769</v>
       </c>
@@ -12890,12 +13019,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:9">
       <c r="A699" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:9">
       <c r="A700" s="2" t="s">
         <v>771</v>
       </c>
@@ -12903,7 +13032,7 @@
         <v>47</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D700" s="3" t="s">
         <v>48</v>
@@ -12912,24 +13041,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:9">
       <c r="A701" s="2" t="s">
         <v>772</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E701" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="702" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9">
       <c r="A702" s="2" t="s">
         <v>773</v>
       </c>
@@ -12937,10 +13066,10 @@
         <v>47</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="703" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9">
       <c r="A703" s="2" t="s">
         <v>774</v>
       </c>
@@ -12951,7 +13080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:9">
       <c r="A704" s="2" t="s">
         <v>775</v>
       </c>
@@ -12986,7 +13115,7 @@
         <v>778</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13002,10 +13131,10 @@
         <v>780</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13013,10 +13142,10 @@
         <v>781</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13040,7 +13169,7 @@
         <v>784</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13056,7 +13185,7 @@
         <v>47</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13093,28 +13222,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:9">
       <c r="A721" s="2" t="s">
         <v>792</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="722" spans="1:3">
+      <c r="I721" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9">
       <c r="A722" s="2" t="s">
         <v>793</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9">
       <c r="A723" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:9">
       <c r="A724" s="2" t="s">
         <v>795</v>
       </c>
@@ -13125,7 +13257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:9">
       <c r="A725" s="2" t="s">
         <v>796</v>
       </c>
@@ -13133,7 +13265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:9">
       <c r="A726" s="2" t="s">
         <v>797</v>
       </c>
@@ -13141,12 +13273,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:9">
       <c r="A727" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:9">
       <c r="A728" s="2" t="s">
         <v>799</v>
       </c>
@@ -13154,30 +13286,30 @@
         <v>64</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:9">
       <c r="A729" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
       <c r="A730" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:9">
       <c r="A731" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:9">
       <c r="A732" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:9">
       <c r="A733" s="2" t="s">
         <v>804</v>
       </c>
@@ -13185,17 +13317,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:9">
       <c r="A734" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:9">
       <c r="A735" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:9">
       <c r="A736" s="2" t="s">
         <v>807</v>
       </c>
@@ -13296,7 +13428,7 @@
         <v>822</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C751" s="3" t="s">
         <v>47</v>
@@ -13394,10 +13526,10 @@
         <v>47</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D764" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E764" s="3" t="s">
         <v>54</v>
@@ -13408,7 +13540,7 @@
         <v>836</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C765" s="3" t="s">
         <v>48</v>
@@ -13444,7 +13576,7 @@
         <v>47</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -13454,6 +13586,12 @@
       <c r="B769" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="C769" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="770" spans="1:5">
       <c r="A770" s="2" t="s">
@@ -13503,7 +13641,7 @@
         <v>47</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D775" s="3" t="s">
         <v>47</v>
@@ -13581,12 +13719,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="785" spans="1:15">
+    <row r="785" spans="1:16">
       <c r="A785" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="786" spans="1:15">
+    <row r="786" spans="1:16">
       <c r="A786" s="2" t="s">
         <v>858</v>
       </c>
@@ -13600,28 +13738,31 @@
         <v>46</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F786" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G786" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H786" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J786" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I786" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J786" s="3" t="s">
+      <c r="K786" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L786" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O786" s="3" t="s">
+      <c r="M786" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P786" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="787" spans="1:15">
+    <row r="787" spans="1:16">
       <c r="A787" s="2" t="s">
         <v>859</v>
       </c>
@@ -13629,24 +13770,24 @@
         <v>47</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="788" spans="1:15">
+    <row r="788" spans="1:16">
       <c r="A788" s="2" t="s">
         <v>860</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C788" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="789" spans="1:15">
+    <row r="789" spans="1:16">
       <c r="A789" s="2" t="s">
         <v>861</v>
       </c>
@@ -13654,10 +13795,10 @@
         <v>47</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="790" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="790" spans="1:16">
       <c r="A790" s="2" t="s">
         <v>862</v>
       </c>
@@ -13665,7 +13806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="791" spans="1:15">
+    <row r="791" spans="1:16">
       <c r="A791" s="2" t="s">
         <v>863</v>
       </c>
@@ -13673,7 +13814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="792" spans="1:15">
+    <row r="792" spans="1:16">
       <c r="A792" s="2" t="s">
         <v>864</v>
       </c>
@@ -13681,7 +13822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="793" spans="1:15">
+    <row r="793" spans="1:16">
       <c r="A793" s="2" t="s">
         <v>865</v>
       </c>
@@ -13689,18 +13830,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="794" spans="1:15">
+    <row r="794" spans="1:16">
       <c r="A794" s="2" t="s">
         <v>866</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="795" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="795" spans="1:16">
       <c r="A795" s="2" t="s">
         <v>867</v>
       </c>
@@ -13708,23 +13849,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="796" spans="1:15">
+    <row r="796" spans="1:16">
       <c r="A796" s="2" t="s">
         <v>868</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="797" spans="1:15">
+        <v>71</v>
+      </c>
+      <c r="F796" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16">
       <c r="A797" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="798" spans="1:15">
+    <row r="798" spans="1:16">
       <c r="A798" s="2" t="s">
         <v>870</v>
       </c>
@@ -13732,7 +13876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="799" spans="1:15">
+    <row r="799" spans="1:16">
       <c r="A799" s="2" t="s">
         <v>871</v>
       </c>
@@ -13740,10 +13884,10 @@
         <v>53</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="800" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="800" spans="1:16">
       <c r="A800" s="2" t="s">
         <v>872</v>
       </c>
@@ -13754,7 +13898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="801" spans="1:15">
+    <row r="801" spans="1:16">
       <c r="A801" s="2" t="s">
         <v>873</v>
       </c>
@@ -13765,7 +13909,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="802" spans="1:15">
+    <row r="802" spans="1:16">
       <c r="A802" s="2" t="s">
         <v>874</v>
       </c>
@@ -13773,7 +13917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="803" spans="1:15">
+    <row r="803" spans="1:16">
       <c r="A803" s="2" t="s">
         <v>875</v>
       </c>
@@ -13784,7 +13928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="804" spans="1:15">
+    <row r="804" spans="1:16">
       <c r="A804" s="2" t="s">
         <v>876</v>
       </c>
@@ -13792,7 +13936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="805" spans="1:15">
+    <row r="805" spans="1:16">
       <c r="A805" s="2" t="s">
         <v>877</v>
       </c>
@@ -13800,17 +13944,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="806" spans="1:15">
+    <row r="806" spans="1:16">
       <c r="A806" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="807" spans="1:15">
+    <row r="807" spans="1:16">
       <c r="A807" s="2" t="s">
         <v>879</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C807" s="3" t="s">
         <v>47</v>
@@ -13818,20 +13962,20 @@
       <c r="E807" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I807" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J807" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="K807" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O807" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L807" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M807" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P807" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="808" spans="1:15">
+    <row r="808" spans="1:16">
       <c r="A808" s="2" t="s">
         <v>881</v>
       </c>
@@ -13839,22 +13983,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="809" spans="1:15">
+    <row r="809" spans="1:16">
       <c r="A809" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="810" spans="1:15">
+    <row r="810" spans="1:16">
       <c r="A810" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="811" spans="1:15">
+    <row r="811" spans="1:16">
       <c r="A811" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="812" spans="1:15">
+    <row r="812" spans="1:16">
       <c r="A812" s="2" t="s">
         <v>885</v>
       </c>
@@ -13862,23 +14006,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="813" spans="1:15">
+    <row r="813" spans="1:16">
       <c r="A813" s="2" t="s">
         <v>886</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="814" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="814" spans="1:16">
       <c r="A814" s="2" t="s">
         <v>887</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="815" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="815" spans="1:16">
       <c r="A815" s="2" t="s">
         <v>888</v>
       </c>
@@ -13886,7 +14030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="816" spans="1:15">
+    <row r="816" spans="1:16">
       <c r="A816" s="2" t="s">
         <v>889</v>
       </c>
@@ -13973,7 +14117,7 @@
         <v>47</v>
       </c>
       <c r="D827" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -14017,10 +14161,10 @@
         <v>47</v>
       </c>
       <c r="D831" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -14079,7 +14223,7 @@
         <v>915</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14119,7 +14263,7 @@
         <v>920</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -14144,7 +14288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="849" spans="1:11">
+    <row r="849" spans="1:13">
       <c r="A849" s="2" t="s">
         <v>923</v>
       </c>
@@ -14152,23 +14296,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="850" spans="1:11">
+    <row r="850" spans="1:13">
       <c r="A850" s="2" t="s">
         <v>924</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="851" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="851" spans="1:13">
       <c r="A851" s="2" t="s">
         <v>925</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="852" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="852" spans="1:13">
       <c r="A852" s="2" t="s">
         <v>926</v>
       </c>
@@ -14176,24 +14320,24 @@
         <v>47</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="853" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="853" spans="1:13">
       <c r="A853" s="2" t="s">
         <v>927</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C853" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D853" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="854" spans="1:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13">
       <c r="A854" s="2" t="s">
         <v>928</v>
       </c>
@@ -14201,7 +14345,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="855" spans="1:11">
+    <row r="855" spans="1:13">
       <c r="A855" s="2" t="s">
         <v>929</v>
       </c>
@@ -14209,25 +14353,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="856" spans="1:11">
+    <row r="856" spans="1:13">
       <c r="A856" s="2" t="s">
         <v>930</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="857" spans="1:11">
+      <c r="C856" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13">
       <c r="A857" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="858" spans="1:11">
+    <row r="858" spans="1:13">
       <c r="A858" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="859" spans="1:11">
+    <row r="859" spans="1:13">
       <c r="A859" s="2" t="s">
         <v>933</v>
       </c>
@@ -14246,38 +14393,38 @@
       <c r="F859" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G859" s="3" t="s">
+      <c r="H859" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I859" s="3" t="s">
+      <c r="K859" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J859" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K859" s="4" t="s">
+      <c r="L859" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M859" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="860" spans="1:11">
+    <row r="860" spans="1:13">
       <c r="A860" s="2" t="s">
         <v>934</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="861" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="861" spans="1:13">
       <c r="A861" s="2" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="862" spans="1:11">
+    <row r="862" spans="1:13">
       <c r="A862" s="2" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="863" spans="1:11">
+    <row r="863" spans="1:13">
       <c r="A863" s="2" t="s">
         <v>937</v>
       </c>
@@ -14291,7 +14438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="864" spans="1:11">
+    <row r="864" spans="1:13">
       <c r="A864" s="2" t="s">
         <v>938</v>
       </c>
@@ -14365,7 +14512,7 @@
         <v>950</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -14449,7 +14596,7 @@
       <c r="B887" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C887" s="4" t="s">
+      <c r="C887" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -14512,7 +14659,7 @@
         <v>971</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C897" s="3" t="s">
         <v>54</v>
@@ -14523,7 +14670,7 @@
         <v>972</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="899" spans="1:17">
@@ -14531,7 +14678,7 @@
         <v>973</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="900" spans="1:17">
@@ -14555,7 +14702,7 @@
       <c r="E901" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N901" s="3" t="s">
+      <c r="I901" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14581,7 +14728,7 @@
         <v>58</v>
       </c>
       <c r="C903" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E903" s="3" t="s">
         <v>47</v>
@@ -14595,7 +14742,7 @@
         <v>47</v>
       </c>
       <c r="C904" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="905" spans="1:17">
@@ -14611,7 +14758,7 @@
         <v>981</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="907" spans="1:17">
@@ -14638,10 +14785,10 @@
         <v>47</v>
       </c>
       <c r="C909" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D909" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="910" spans="1:17">
@@ -14674,25 +14821,25 @@
         <v>47</v>
       </c>
       <c r="G912" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H912" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I912" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J912" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K912" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="L912" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M912" s="3" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="N912" s="3" t="s">
         <v>47</v>
@@ -14742,7 +14889,7 @@
         <v>47</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E916" s="3" t="s">
         <v>47</v>
@@ -14761,7 +14908,7 @@
         <v>993</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="919" spans="1:5">
@@ -14769,7 +14916,7 @@
         <v>994</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="920" spans="1:5">
@@ -14777,7 +14924,7 @@
         <v>995</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="921" spans="1:5">
@@ -14796,7 +14943,7 @@
         <v>997</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="923" spans="1:5">
@@ -14832,25 +14979,25 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:5">
       <c r="A929" s="2" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="930" spans="1:4">
+    <row r="930" spans="1:5">
       <c r="A930" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" spans="1:5">
       <c r="A931" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="932" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5">
       <c r="A932" s="2" t="s">
         <v>1007</v>
       </c>
@@ -14858,7 +15005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:5">
       <c r="A933" s="2" t="s">
         <v>1008</v>
       </c>
@@ -14869,7 +15016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="934" spans="1:4">
+    <row r="934" spans="1:5">
       <c r="A934" s="2" t="s">
         <v>1009</v>
       </c>
@@ -14880,7 +15027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:5">
       <c r="A935" s="2" t="s">
         <v>1010</v>
       </c>
@@ -14888,20 +15035,23 @@
         <v>47</v>
       </c>
       <c r="C935" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="936" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5">
       <c r="A936" s="2" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" spans="1:5">
       <c r="A937" s="2" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="938" spans="1:4">
+    <row r="938" spans="1:5">
       <c r="A938" s="2" t="s">
         <v>1013</v>
       </c>
@@ -14912,10 +15062,10 @@
         <v>53</v>
       </c>
       <c r="D938" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="939" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5">
       <c r="A939" s="2" t="s">
         <v>1014</v>
       </c>
@@ -14923,17 +15073,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="940" spans="1:4">
+    <row r="940" spans="1:5">
       <c r="A940" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:5">
       <c r="A941" s="2" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:5">
       <c r="A942" s="2" t="s">
         <v>1017</v>
       </c>
@@ -14947,12 +15097,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:5">
       <c r="A943" s="2" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="944" spans="1:4">
+    <row r="944" spans="1:5">
       <c r="A944" s="2" t="s">
         <v>1019</v>
       </c>
@@ -14963,7 +15113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="945" spans="1:16">
+    <row r="945" spans="1:15">
       <c r="A945" s="2" t="s">
         <v>1020</v>
       </c>
@@ -14971,25 +15121,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="946" spans="1:16">
+    <row r="946" spans="1:15">
       <c r="A946" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="947" spans="1:16">
+    <row r="947" spans="1:15">
       <c r="A947" s="2" t="s">
         <v>1022</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="948" spans="1:16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="948" spans="1:15">
       <c r="A948" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="949" spans="1:16">
+    <row r="949" spans="1:15">
       <c r="A949" s="2" t="s">
         <v>1024</v>
       </c>
@@ -15011,10 +15161,7 @@
       <c r="G949" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I949" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J949" s="3" t="s">
+      <c r="H949" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K949" s="3" t="s">
@@ -15023,14 +15170,17 @@
       <c r="L949" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M949" s="4" t="s">
+      <c r="M949" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N949" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O949" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P949" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="950" spans="1:16">
+    </row>
+    <row r="950" spans="1:15">
       <c r="A950" s="2" t="s">
         <v>1025</v>
       </c>
@@ -15041,7 +15191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="951" spans="1:16">
+    <row r="951" spans="1:15">
       <c r="A951" s="2" t="s">
         <v>1026</v>
       </c>
@@ -15058,7 +15208,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="952" spans="1:16">
+    <row r="952" spans="1:15">
       <c r="A952" s="2" t="s">
         <v>1027</v>
       </c>
@@ -15075,7 +15225,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="953" spans="1:16">
+    <row r="953" spans="1:15">
       <c r="A953" s="2" t="s">
         <v>1029</v>
       </c>
@@ -15083,18 +15233,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="954" spans="1:16">
+    <row r="954" spans="1:15">
       <c r="A954" s="2" t="s">
         <v>1030</v>
       </c>
       <c r="B954" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="955" spans="1:16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="955" spans="1:15">
       <c r="A955" s="2" t="s">
         <v>1031</v>
       </c>
@@ -15105,7 +15255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="956" spans="1:16">
+    <row r="956" spans="1:15">
       <c r="A956" s="2" t="s">
         <v>1032</v>
       </c>
@@ -15116,12 +15266,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="957" spans="1:16">
+    <row r="957" spans="1:15">
       <c r="A957" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="B957" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C957" s="3" t="s">
         <v>48</v>
@@ -15130,12 +15280,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="958" spans="1:16">
+    <row r="958" spans="1:15">
       <c r="A958" s="2" t="s">
         <v>1034</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>47</v>
@@ -15146,14 +15296,17 @@
       <c r="F958" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G958" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J958" s="4" t="s">
+      <c r="H958" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L958" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="959" spans="1:16">
+      <c r="M958" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="959" spans="1:15">
       <c r="A959" s="2" t="s">
         <v>1035</v>
       </c>
@@ -15164,7 +15317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="960" spans="1:16">
+    <row r="960" spans="1:15">
       <c r="A960" s="2" t="s">
         <v>1036</v>
       </c>
@@ -15180,7 +15333,7 @@
         <v>48</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>536</v>
+        <v>166</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -15217,7 +15370,7 @@
         <v>1042</v>
       </c>
       <c r="B966" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -15261,7 +15414,7 @@
         <v>1049</v>
       </c>
       <c r="B973" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -15315,7 +15468,7 @@
         <v>47</v>
       </c>
       <c r="D979" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E979" s="3" t="s">
         <v>47</v>
@@ -15405,7 +15558,7 @@
         <v>1070</v>
       </c>
       <c r="B994" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -15513,10 +15666,10 @@
         <v>1088</v>
       </c>
       <c r="B1012" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1012" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -15537,7 +15690,7 @@
         <v>47</v>
       </c>
       <c r="C1015" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -15669,7 +15822,7 @@
         <v>1115</v>
       </c>
       <c r="B1039" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -15712,7 +15865,7 @@
         <v>1123</v>
       </c>
       <c r="B1047" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1047" s="3" t="s">
         <v>47</v>
@@ -15929,7 +16082,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="1089" spans="1:3">
+    <row r="1089" spans="1:6">
       <c r="A1089" s="2" t="s">
         <v>1165</v>
       </c>
@@ -15937,7 +16090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1090" spans="1:3">
+    <row r="1090" spans="1:6">
       <c r="A1090" s="2" t="s">
         <v>1166</v>
       </c>
@@ -15945,18 +16098,27 @@
         <v>59</v>
       </c>
       <c r="C1090" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="E1090" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1090" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
       <c r="A1091" s="2" t="s">
         <v>1167</v>
       </c>
       <c r="B1091" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="E1091" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
       <c r="A1092" s="2" t="s">
         <v>1168</v>
       </c>
@@ -15964,17 +16126,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="1093" spans="1:3">
+    <row r="1093" spans="1:6">
       <c r="A1093" s="2" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1094" spans="1:3">
+    <row r="1094" spans="1:6">
       <c r="A1094" s="2" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1095" spans="1:3">
+    <row r="1095" spans="1:6">
       <c r="A1095" s="2" t="s">
         <v>1171</v>
       </c>
@@ -15982,7 +16144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1096" spans="1:3">
+    <row r="1096" spans="1:6">
       <c r="A1096" s="2" t="s">
         <v>1172</v>
       </c>
@@ -15990,7 +16152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1097" spans="1:3">
+    <row r="1097" spans="1:6">
       <c r="A1097" s="2" t="s">
         <v>1173</v>
       </c>
@@ -16001,22 +16163,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1098" spans="1:3">
+    <row r="1098" spans="1:6">
       <c r="A1098" s="2" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1099" spans="1:3">
+    <row r="1099" spans="1:6">
       <c r="A1099" s="2" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1100" spans="1:3">
+    <row r="1100" spans="1:6">
       <c r="A1100" s="2" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1101" spans="1:3">
+    <row r="1101" spans="1:6">
       <c r="A1101" s="2" t="s">
         <v>1177</v>
       </c>
@@ -16024,17 +16186,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1102" spans="1:3">
+    <row r="1102" spans="1:6">
       <c r="A1102" s="2" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1103" spans="1:3">
+    <row r="1103" spans="1:6">
       <c r="A1103" s="2" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1104" spans="1:3">
+    <row r="1104" spans="1:6">
       <c r="A1104" s="2" t="s">
         <v>1180</v>
       </c>
@@ -16112,7 +16274,7 @@
         <v>47</v>
       </c>
       <c r="C1118" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -16175,7 +16337,7 @@
         <v>1200</v>
       </c>
       <c r="B1124" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1124" s="3" t="s">
         <v>48</v>
@@ -16208,7 +16370,7 @@
         <v>1203</v>
       </c>
       <c r="B1127" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1127" s="4" t="s">
         <v>147</v>
@@ -16233,7 +16395,7 @@
         <v>47</v>
       </c>
       <c r="C1129" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -16266,7 +16428,7 @@
         <v>47</v>
       </c>
       <c r="C1132" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -16309,7 +16471,7 @@
         <v>1213</v>
       </c>
       <c r="B1137" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -16357,7 +16519,7 @@
         <v>1219</v>
       </c>
       <c r="B1143" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -16405,7 +16567,7 @@
         <v>1225</v>
       </c>
       <c r="B1149" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -16511,7 +16673,7 @@
         <v>47</v>
       </c>
       <c r="C1160" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
@@ -16522,7 +16684,7 @@
         <v>47</v>
       </c>
       <c r="C1161" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
@@ -16689,7 +16851,7 @@
         <v>1265</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -16750,7 +16912,7 @@
         <v>1273</v>
       </c>
       <c r="B1197" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -16906,7 +17068,7 @@
         <v>1300</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -17031,7 +17193,7 @@
         <v>1316</v>
       </c>
       <c r="B1240" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -17328,7 +17490,7 @@
         <v>1367</v>
       </c>
       <c r="B1291" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -18306,7 +18468,7 @@
         <v>1550</v>
       </c>
       <c r="B1474" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -18385,7 +18547,7 @@
         <v>1564</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C1488" s="4" t="s">
         <v>1565</v>
@@ -18396,7 +18558,7 @@
         <v>1566</v>
       </c>
       <c r="B1489" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -18429,7 +18591,7 @@
         <v>1572</v>
       </c>
       <c r="B1495" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1496" spans="1:2">
@@ -18437,7 +18599,7 @@
         <v>1573</v>
       </c>
       <c r="B1496" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -18450,7 +18612,7 @@
         <v>1575</v>
       </c>
       <c r="B1498" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -18463,7 +18625,7 @@
         <v>1577</v>
       </c>
       <c r="B1500" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -18471,7 +18633,7 @@
         <v>1578</v>
       </c>
       <c r="B1501" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -18529,7 +18691,7 @@
         <v>1586</v>
       </c>
       <c r="B1509" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -18912,7 +19074,7 @@
         <v>1662</v>
       </c>
       <c r="B1585" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -18960,7 +19122,7 @@
         <v>1668</v>
       </c>
       <c r="B1591" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -19134,7 +19296,7 @@
         <v>1698</v>
       </c>
       <c r="B1621" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -19432,52 +19594,52 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1681" spans="1:15">
+    <row r="1681" spans="1:16">
       <c r="A1681" s="2" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="1682" spans="1:15">
+    <row r="1682" spans="1:16">
       <c r="A1682" s="2" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="1683" spans="1:15">
+    <row r="1683" spans="1:16">
       <c r="A1683" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="1684" spans="1:15">
+    <row r="1684" spans="1:16">
       <c r="A1684" s="2" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="1685" spans="1:15">
+    <row r="1685" spans="1:16">
       <c r="A1685" s="2" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="1686" spans="1:15">
+    <row r="1686" spans="1:16">
       <c r="A1686" s="2" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="1687" spans="1:15">
+    <row r="1687" spans="1:16">
       <c r="A1687" s="2" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="1688" spans="1:15">
+    <row r="1688" spans="1:16">
       <c r="A1688" s="2" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="1689" spans="1:15">
+    <row r="1689" spans="1:16">
       <c r="A1689" s="2" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="1690" spans="1:15">
+    <row r="1690" spans="1:16">
       <c r="A1690" s="2" t="s">
         <v>1767</v>
       </c>
@@ -19487,39 +19649,42 @@
       <c r="E1690" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1690" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1690" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1690" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1690" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:15">
+      <c r="H1690" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1690" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1690" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1690" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:16">
       <c r="A1691" s="2" t="s">
         <v>1768</v>
       </c>
       <c r="B1691" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1691" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:15">
+      <c r="E1691" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1691" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:16">
       <c r="A1692" s="2" t="s">
         <v>1769</v>
       </c>
       <c r="B1692" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:16">
       <c r="A1693" s="2" t="s">
         <v>1770</v>
       </c>
@@ -19529,11 +19694,11 @@
       <c r="E1693" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G1693" s="4" t="s">
+      <c r="H1693" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="1694" spans="1:15">
+    <row r="1694" spans="1:16">
       <c r="A1694" s="2" t="s">
         <v>1771</v>
       </c>
@@ -19543,39 +19708,39 @@
       <c r="E1694" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G1694" s="4" t="s">
+      <c r="H1694" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="1695" spans="1:15">
+    <row r="1695" spans="1:16">
       <c r="A1695" s="2" t="s">
         <v>1772</v>
       </c>
       <c r="B1695" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1695" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:15">
+      <c r="H1695" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:16">
       <c r="A1696" s="2" t="s">
         <v>1773</v>
       </c>
       <c r="B1696" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1696" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1696" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1696" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:7">
+      <c r="H1696" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1696" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1696" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:8">
       <c r="A1697" s="2" t="s">
         <v>1774</v>
       </c>
@@ -19585,11 +19750,11 @@
       <c r="E1697" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1697" s="3" t="s">
+      <c r="H1697" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="1698" spans="1:7">
+    <row r="1698" spans="1:8">
       <c r="A1698" s="2" t="s">
         <v>1775</v>
       </c>
@@ -19599,11 +19764,11 @@
       <c r="E1698" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G1698" s="3" t="s">
+      <c r="H1698" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="1699" spans="1:7">
+    <row r="1699" spans="1:8">
       <c r="A1699" s="2" t="s">
         <v>1776</v>
       </c>
@@ -19611,62 +19776,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1700" spans="1:7">
+    <row r="1700" spans="1:8">
       <c r="A1700" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1701" spans="1:7">
+    <row r="1701" spans="1:8">
       <c r="A1701" s="2" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="1702" spans="1:7">
+    <row r="1702" spans="1:8">
       <c r="A1702" s="2" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="1703" spans="1:7">
+    <row r="1703" spans="1:8">
       <c r="A1703" s="2" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="1704" spans="1:7">
+    <row r="1704" spans="1:8">
       <c r="A1704" s="2" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="1705" spans="1:7">
+    <row r="1705" spans="1:8">
       <c r="A1705" s="2" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1706" spans="1:7">
+    <row r="1706" spans="1:8">
       <c r="A1706" s="2" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="1707" spans="1:7">
+    <row r="1707" spans="1:8">
       <c r="A1707" s="2" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="1708" spans="1:7">
+    <row r="1708" spans="1:8">
       <c r="A1708" s="2" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="1709" spans="1:7">
+    <row r="1709" spans="1:8">
       <c r="A1709" s="2" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="1710" spans="1:7">
+    <row r="1710" spans="1:8">
       <c r="A1710" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="1711" spans="1:7">
+    <row r="1711" spans="1:8">
       <c r="A1711" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19674,17 +19839,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1712" spans="1:7">
+    <row r="1712" spans="1:8">
       <c r="A1712" s="2" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="1713" spans="1:8">
+    <row r="1713" spans="1:10">
       <c r="A1713" s="2" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="1714" spans="1:8">
+    <row r="1714" spans="1:10">
       <c r="A1714" s="2" t="s">
         <v>1791</v>
       </c>
@@ -19692,32 +19857,32 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1715" spans="1:8">
+    <row r="1715" spans="1:10">
       <c r="A1715" s="2" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1716" spans="1:8">
+    <row r="1716" spans="1:10">
       <c r="A1716" s="2" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1717" spans="1:8">
+    <row r="1717" spans="1:10">
       <c r="A1717" s="2" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1718" spans="1:8">
+    <row r="1718" spans="1:10">
       <c r="A1718" s="2" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1719" spans="1:8">
+    <row r="1719" spans="1:10">
       <c r="A1719" s="2" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1720" spans="1:8">
+    <row r="1720" spans="1:10">
       <c r="A1720" s="2" t="s">
         <v>1797</v>
       </c>
@@ -19725,48 +19890,48 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1721" spans="1:8">
+    <row r="1721" spans="1:10">
       <c r="A1721" s="2" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="1722" spans="1:8">
+    <row r="1722" spans="1:10">
       <c r="A1722" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1723" spans="1:8">
+    <row r="1723" spans="1:10">
       <c r="A1723" s="2" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1724" spans="1:8">
+    <row r="1724" spans="1:10">
       <c r="A1724" s="2" t="s">
         <v>1801</v>
       </c>
       <c r="D1724" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1724" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:8">
+      <c r="J1724" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:10">
       <c r="A1725" s="2" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="1726" spans="1:8">
+    <row r="1726" spans="1:10">
       <c r="A1726" s="2" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="1727" spans="1:8">
+    <row r="1727" spans="1:10">
       <c r="A1727" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="1728" spans="1:8">
+    <row r="1728" spans="1:10">
       <c r="A1728" s="2" t="s">
         <v>1805</v>
       </c>
@@ -19969,7 +20134,7 @@
         <v>1841</v>
       </c>
       <c r="B1764" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -20006,7 +20171,7 @@
         <v>1846</v>
       </c>
       <c r="B1769" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -20088,7 +20253,7 @@
         <v>1857</v>
       </c>
       <c r="B1780" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1781" spans="1:6">
@@ -20129,8 +20294,8 @@
       <c r="A1786" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="B1786" s="4" t="s">
-        <v>111</v>
+      <c r="B1786" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="1787" spans="1:6">
@@ -20175,10 +20340,10 @@
         <v>47</v>
       </c>
       <c r="E1792" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1792" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1793" spans="1:6">
@@ -20192,7 +20357,7 @@
         <v>47</v>
       </c>
       <c r="D1793" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1794" spans="1:6">
@@ -20233,7 +20398,7 @@
         <v>1874</v>
       </c>
       <c r="B1797" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1798" spans="1:6">
@@ -20425,20 +20590,23 @@
         <v>1910</v>
       </c>
       <c r="B1833" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
       <c r="A1834" s="2" t="s">
         <v>1911</v>
       </c>
+      <c r="B1834" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835" s="2" t="s">
         <v>1912</v>
       </c>
       <c r="B1835" s="4" t="s">
-        <v>111</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
@@ -20466,100 +20634,121 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="1841" spans="1:1">
+    <row r="1841" spans="1:2">
       <c r="A1841" s="2" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="1842" spans="1:1">
+    <row r="1842" spans="1:2">
       <c r="A1842" s="2" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="1843" spans="1:1">
+    <row r="1843" spans="1:2">
       <c r="A1843" s="2" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="1844" spans="1:1">
+    <row r="1844" spans="1:2">
       <c r="A1844" s="2" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="1845" spans="1:1">
+    <row r="1845" spans="1:2">
       <c r="A1845" s="2" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="1846" spans="1:1">
+    <row r="1846" spans="1:2">
       <c r="A1846" s="2" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="1847" spans="1:1">
+    <row r="1847" spans="1:2">
       <c r="A1847" s="2" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="1848" spans="1:1">
+    <row r="1848" spans="1:2">
       <c r="A1848" s="2" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="1849" spans="1:1">
+    <row r="1849" spans="1:2">
       <c r="A1849" s="2" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="1850" spans="1:1">
+    <row r="1850" spans="1:2">
       <c r="A1850" s="2" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="1851" spans="1:1">
+    <row r="1851" spans="1:2">
       <c r="A1851" s="2" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="1852" spans="1:1">
+    <row r="1852" spans="1:2">
       <c r="A1852" s="2" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="1853" spans="1:1">
+      <c r="B1852" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
       <c r="A1853" s="2" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="1854" spans="1:1">
+      <c r="B1853" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
       <c r="A1854" s="2" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="1855" spans="1:1">
+    <row r="1855" spans="1:2">
       <c r="A1855" s="2" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="1856" spans="1:1">
+      <c r="B1855" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
       <c r="A1856" s="2" t="s">
         <v>1933</v>
+      </c>
+      <c r="B1856" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
       <c r="A1857" s="2" t="s">
         <v>1934</v>
       </c>
+      <c r="B1857" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1858" spans="1:2">
       <c r="A1858" s="2" t="s">
         <v>1935</v>
       </c>
+      <c r="B1858" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1859" spans="1:2">
       <c r="A1859" s="2" t="s">
         <v>1936</v>
       </c>
+      <c r="B1859" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="1860" spans="1:2">
       <c r="A1860" s="2" t="s">
@@ -20570,16 +20759,25 @@
       <c r="A1861" s="2" t="s">
         <v>1938</v>
       </c>
+      <c r="B1861" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1862" spans="1:2">
       <c r="A1862" s="2" t="s">
         <v>1939</v>
       </c>
+      <c r="B1862" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="1863" spans="1:2">
       <c r="A1863" s="2" t="s">
         <v>1940</v>
       </c>
+      <c r="B1863" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="1864" spans="1:2">
       <c r="A1864" s="2" t="s">
@@ -20621,8 +20819,79 @@
         <v>47</v>
       </c>
     </row>
+    <row r="1869" spans="1:2">
+      <c r="A1869" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1869" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2">
+      <c r="A1870" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1870" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2">
+      <c r="A1871" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1871" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2">
+      <c r="A1872" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1872" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="A1873" s="2" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2">
+      <c r="A1874" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B1874" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2">
+      <c r="A1875" s="2" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2">
+      <c r="A1876" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1876" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="A1877" s="2" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2">
+      <c r="A1878" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1878" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R1868"/>
+  <autoFilter ref="A1:R1878"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -22500,6 +22769,16 @@
     <hyperlink ref="A1866" r:id="rId1874"/>
     <hyperlink ref="A1867" r:id="rId1875"/>
     <hyperlink ref="A1868" r:id="rId1876"/>
+    <hyperlink ref="A1869" r:id="rId1877"/>
+    <hyperlink ref="A1870" r:id="rId1878"/>
+    <hyperlink ref="A1871" r:id="rId1879"/>
+    <hyperlink ref="A1872" r:id="rId1880"/>
+    <hyperlink ref="A1873" r:id="rId1881"/>
+    <hyperlink ref="A1874" r:id="rId1882"/>
+    <hyperlink ref="A1875" r:id="rId1883"/>
+    <hyperlink ref="A1876" r:id="rId1884"/>
+    <hyperlink ref="A1877" r:id="rId1885"/>
+    <hyperlink ref="A1878" r:id="rId1886"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1957">
   <si>
     <t>№</t>
   </si>
@@ -37,15 +37,15 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
     <t>369588</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,15 +112,15 @@
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>352865</t>
   </si>
   <si>
     <t>417223</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>417133</t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t>1+</t>
   </si>
   <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
     <t>1+, 2-</t>
   </si>
   <si>
-    <t>2+, 3-</t>
-  </si>
-  <si>
     <t>2+, 2-</t>
   </si>
   <si>
@@ -5756,6 +5756,9 @@
   </si>
   <si>
     <t>1826</t>
+  </si>
+  <si>
+    <t>3+, 13-</t>
   </si>
   <si>
     <t>1827</t>
@@ -6382,52 +6385,52 @@
         <v>80</v>
       </c>
       <c r="C3">
-        <v>4237</v>
+        <v>4203</v>
       </c>
       <c r="D3">
-        <v>14195</v>
+        <v>14209</v>
       </c>
       <c r="E3">
-        <v>21326</v>
+        <v>21342</v>
       </c>
       <c r="F3">
-        <v>31254</v>
+        <v>31271</v>
       </c>
       <c r="G3">
-        <v>45296</v>
+        <v>34768</v>
       </c>
       <c r="H3">
-        <v>46665</v>
+        <v>45315</v>
       </c>
       <c r="I3">
-        <v>52483</v>
+        <v>46685</v>
       </c>
       <c r="J3">
-        <v>55679</v>
+        <v>55687</v>
       </c>
       <c r="K3">
-        <v>58880</v>
+        <v>58894</v>
       </c>
       <c r="L3">
-        <v>66259</v>
+        <v>66276</v>
       </c>
       <c r="M3">
-        <v>79619</v>
+        <v>79633</v>
       </c>
       <c r="N3">
-        <v>101096</v>
+        <v>86602</v>
       </c>
       <c r="O3">
-        <v>103820</v>
+        <v>101124</v>
       </c>
       <c r="P3">
-        <v>113426</v>
+        <v>103849</v>
       </c>
       <c r="Q3">
-        <v>122486</v>
+        <v>122526</v>
       </c>
       <c r="R3">
-        <v>217563</v>
+        <v>217637</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6438,7 +6441,7 @@
         <v>24233</v>
       </c>
       <c r="C4">
-        <v>3791</v>
+        <v>3816</v>
       </c>
       <c r="D4">
         <v>1303</v>
@@ -6450,13 +6453,13 @@
         <v>522</v>
       </c>
       <c r="G4">
+        <v>451</v>
+      </c>
+      <c r="H4">
         <v>304</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>290</v>
-      </c>
-      <c r="I4">
-        <v>238</v>
       </c>
       <c r="J4">
         <v>213</v>
@@ -6471,13 +6474,13 @@
         <v>104</v>
       </c>
       <c r="N4">
+        <v>85</v>
+      </c>
+      <c r="O4">
         <v>57</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>53</v>
-      </c>
-      <c r="P4">
-        <v>42</v>
       </c>
       <c r="Q4">
         <v>33</v>
@@ -6491,10 +6494,10 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1758</v>
+        <v>1777</v>
       </c>
       <c r="C5">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D5">
         <v>261</v>
@@ -6506,13 +6509,13 @@
         <v>96</v>
       </c>
       <c r="G5">
+        <v>35</v>
+      </c>
+      <c r="H5">
         <v>26</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>112</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
       </c>
       <c r="J5">
         <v>28</v>
@@ -6527,13 +6530,13 @@
         <v>37</v>
       </c>
       <c r="N5">
+        <v>39</v>
+      </c>
+      <c r="O5">
         <v>16</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>18</v>
-      </c>
-      <c r="P5">
-        <v>34</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -6550,7 +6553,7 @@
         <v>725</v>
       </c>
       <c r="C6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D6">
         <v>93</v>
@@ -6562,13 +6565,13 @@
         <v>32</v>
       </c>
       <c r="G6">
+        <v>22</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -6583,13 +6586,13 @@
         <v>11</v>
       </c>
       <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
         <v>8</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>6</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -6606,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -6618,13 +6621,13 @@
         <v>8</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -6639,10 +6642,10 @@
         <v>1</v>
       </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>0</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -6659,10 +6662,10 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="C8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D8">
         <v>96</v>
@@ -6674,13 +6677,13 @@
         <v>36</v>
       </c>
       <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
         <v>13</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>27</v>
-      </c>
-      <c r="I8">
-        <v>13</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -6695,13 +6698,13 @@
         <v>13</v>
       </c>
       <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>6</v>
-      </c>
-      <c r="P8">
-        <v>9</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -6715,10 +6718,10 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6730,13 +6733,13 @@
         <v>8</v>
       </c>
       <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>11</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -6751,10 +6754,10 @@
         <v>1</v>
       </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>0</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -6789,10 +6792,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>47</v>
@@ -6810,10 +6813,10 @@
         <v>47</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>47</v>
@@ -6835,7 +6838,7 @@
       <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6859,13 +6862,13 @@
         <v>51</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>51</v>
@@ -6880,13 +6883,13 @@
         <v>50</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P12" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>47</v>
@@ -6908,7 +6911,7 @@
       <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6928,7 +6931,7 @@
       <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6945,7 +6948,7 @@
       <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6954,7 +6957,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -6965,7 +6968,7 @@
       <c r="E16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6985,7 +6988,7 @@
       <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7002,7 +7005,7 @@
       <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7022,11 +7025,11 @@
       <c r="F19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -7064,7 +7067,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>50</v>
@@ -7075,7 +7078,10 @@
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -7093,7 +7099,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>47</v>
@@ -7164,7 +7170,7 @@
       <c r="E30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7191,6 +7197,9 @@
         <v>47</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K31" s="3" t="s">
@@ -7247,7 +7256,7 @@
         <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7266,7 +7275,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -7309,7 +7318,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>51</v>
@@ -7378,6 +7387,9 @@
         <v>58</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7394,7 +7406,7 @@
       <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7403,7 +7415,7 @@
         <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>107</v>
@@ -7436,7 +7448,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>47</v>
@@ -7461,7 +7473,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>51</v>
@@ -7491,13 +7503,16 @@
       <c r="E57" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G57" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7521,6 +7536,9 @@
       <c r="F60" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="G60" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
@@ -7535,7 +7553,7 @@
       <c r="D61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7547,7 +7565,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>47</v>
@@ -7647,13 +7665,13 @@
         <v>47</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I70" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>47</v>
@@ -7668,13 +7686,13 @@
         <v>50</v>
       </c>
       <c r="N70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P70" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>47</v>
@@ -7783,7 +7801,7 @@
       <c r="B80" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7854,7 +7872,7 @@
         <v>47</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>50</v>
@@ -7862,7 +7880,7 @@
       <c r="F88" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>150</v>
       </c>
       <c r="K88" s="3" t="s">
@@ -8043,7 +8061,7 @@
         <v>169</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -8121,7 +8139,7 @@
         <v>51</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -8155,10 +8173,10 @@
         <v>47</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>47</v>
@@ -8167,19 +8185,19 @@
         <v>51</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O117" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P117" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="Q117" s="3" t="s">
         <v>47</v>
@@ -8232,7 +8250,7 @@
       <c r="D123" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8279,7 +8297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>194</v>
       </c>
@@ -8287,18 +8305,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I130" s="4" t="s">
+      <c r="G130" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>196</v>
       </c>
@@ -8306,12 +8324,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>198</v>
       </c>
@@ -8322,7 +8340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>199</v>
       </c>
@@ -8330,7 +8348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>200</v>
       </c>
@@ -8338,7 +8356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>201</v>
       </c>
@@ -8346,7 +8364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>202</v>
       </c>
@@ -8354,7 +8372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>203</v>
       </c>
@@ -8362,7 +8380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>204</v>
       </c>
@@ -8370,7 +8388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>205</v>
       </c>
@@ -8384,7 +8402,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>206</v>
       </c>
@@ -8392,7 +8410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>207</v>
       </c>
@@ -8400,7 +8418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>208</v>
       </c>
@@ -8408,12 +8426,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8429,7 +8447,7 @@
         <v>211</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8458,7 +8476,7 @@
         <v>215</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -8497,8 +8515,8 @@
       <c r="A155" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G155" s="3" t="s">
-        <v>48</v>
+      <c r="H155" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>71</v>
@@ -8509,13 +8527,13 @@
         <v>221</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>53</v>
@@ -8523,20 +8541,20 @@
       <c r="F156" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H156" s="4" t="s">
+      <c r="G156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I156" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O156" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P156" s="4" t="s">
-        <v>71</v>
+      <c r="N156" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -8558,7 +8576,10 @@
       <c r="F157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="G157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K157" s="3" t="s">
@@ -8579,7 +8600,7 @@
         <v>47</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -8598,7 +8619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
         <v>228</v>
       </c>
@@ -8606,18 +8627,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I162" s="4" t="s">
+      <c r="G162" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
         <v>230</v>
       </c>
@@ -8625,12 +8646,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
         <v>232</v>
       </c>
@@ -8638,7 +8659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
         <v>233</v>
       </c>
@@ -8649,12 +8670,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
         <v>235</v>
       </c>
@@ -8662,7 +8683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
         <v>236</v>
       </c>
@@ -8670,7 +8691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
         <v>237</v>
       </c>
@@ -8678,7 +8699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
         <v>238</v>
       </c>
@@ -8686,7 +8707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
         <v>239</v>
       </c>
@@ -8694,7 +8715,7 @@
         <v>47</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>47</v>
@@ -8706,7 +8727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
         <v>240</v>
       </c>
@@ -8717,7 +8738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
         <v>241</v>
       </c>
@@ -8725,22 +8746,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="H176" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8878,7 +8899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
         <v>260</v>
       </c>
@@ -8886,7 +8907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
         <v>261</v>
       </c>
@@ -8894,7 +8915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
         <v>262</v>
       </c>
@@ -8902,20 +8923,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="H197" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
         <v>265</v>
       </c>
@@ -8923,17 +8944,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
         <v>268</v>
       </c>
@@ -8941,7 +8962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
         <v>269</v>
       </c>
@@ -8949,12 +8970,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
         <v>271</v>
       </c>
@@ -8971,7 +8992,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
         <v>272</v>
       </c>
@@ -8979,7 +9000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
         <v>273</v>
       </c>
@@ -8987,17 +9008,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -9048,7 +9069,7 @@
         <v>282</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -9138,7 +9159,7 @@
         <v>294</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -9226,7 +9247,7 @@
         <v>47</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -9261,7 +9282,7 @@
         <v>312</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -9478,7 +9499,7 @@
         <v>342</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>47</v>
@@ -9535,7 +9556,7 @@
         <v>348</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -9554,7 +9575,7 @@
         <v>350</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>47</v>
@@ -9573,7 +9594,7 @@
         <v>352</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>47</v>
@@ -9620,7 +9641,7 @@
         <v>47</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>51</v>
@@ -9658,7 +9679,7 @@
         <v>360</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -9666,7 +9687,7 @@
         <v>361</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>54</v>
@@ -9677,7 +9698,7 @@
         <v>362</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>47</v>
@@ -9696,7 +9717,7 @@
         <v>364</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -9715,7 +9736,7 @@
         <v>366</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -9747,7 +9768,7 @@
         <v>370</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -9755,7 +9776,7 @@
         <v>371</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>51</v>
@@ -9777,7 +9798,7 @@
         <v>373</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -9818,7 +9839,7 @@
         <v>377</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -9826,7 +9847,7 @@
         <v>378</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -9908,7 +9929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:16">
       <c r="A321" s="2" t="s">
         <v>390</v>
       </c>
@@ -9916,13 +9937,13 @@
         <v>47</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:16">
       <c r="A322" s="2" t="s">
         <v>391</v>
       </c>
@@ -9930,7 +9951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:16">
       <c r="A323" s="2" t="s">
         <v>392</v>
       </c>
@@ -9938,12 +9959,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:16">
       <c r="A324" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>66</v>
@@ -9952,7 +9973,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:16">
       <c r="A325" s="2" t="s">
         <v>394</v>
       </c>
@@ -9960,7 +9981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:16">
       <c r="A326" s="2" t="s">
         <v>395</v>
       </c>
@@ -9968,7 +9989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:16">
       <c r="A327" s="2" t="s">
         <v>396</v>
       </c>
@@ -9976,7 +9997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:16">
       <c r="A328" s="2" t="s">
         <v>397</v>
       </c>
@@ -9984,7 +10005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:16">
       <c r="A329" s="2" t="s">
         <v>398</v>
       </c>
@@ -9992,7 +10013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:16">
       <c r="A330" s="2" t="s">
         <v>399</v>
       </c>
@@ -10000,7 +10021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:16">
       <c r="A331" s="2" t="s">
         <v>400</v>
       </c>
@@ -10011,19 +10032,19 @@
         <v>47</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H331" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I331" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L331" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O331" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15">
+      <c r="P331" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16">
       <c r="A332" s="2" t="s">
         <v>401</v>
       </c>
@@ -10031,7 +10052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:16">
       <c r="A333" s="2" t="s">
         <v>402</v>
       </c>
@@ -10045,15 +10066,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:16">
       <c r="A334" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16">
       <c r="A335" s="2" t="s">
         <v>404</v>
       </c>
@@ -10061,7 +10082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:16">
       <c r="A336" s="2" t="s">
         <v>405</v>
       </c>
@@ -10078,7 +10099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:7">
       <c r="A337" s="2" t="s">
         <v>406</v>
       </c>
@@ -10089,7 +10110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:7">
       <c r="A338" s="2" t="s">
         <v>407</v>
       </c>
@@ -10097,7 +10118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:7">
       <c r="A339" s="2" t="s">
         <v>408</v>
       </c>
@@ -10105,7 +10126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:7">
       <c r="A340" s="2" t="s">
         <v>409</v>
       </c>
@@ -10118,8 +10139,11 @@
       <c r="D340" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="G340" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="2" t="s">
         <v>410</v>
       </c>
@@ -10127,7 +10151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:7">
       <c r="A342" s="2" t="s">
         <v>411</v>
       </c>
@@ -10138,7 +10162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:7">
       <c r="A343" s="2" t="s">
         <v>412</v>
       </c>
@@ -10146,7 +10170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:7">
       <c r="A344" s="2" t="s">
         <v>413</v>
       </c>
@@ -10154,7 +10178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:7">
       <c r="A345" s="2" t="s">
         <v>414</v>
       </c>
@@ -10162,15 +10186,15 @@
         <v>47</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:7">
       <c r="A347" s="2" t="s">
         <v>416</v>
       </c>
@@ -10178,7 +10202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:7">
       <c r="A348" s="2" t="s">
         <v>417</v>
       </c>
@@ -10189,7 +10213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:7">
       <c r="A349" s="2" t="s">
         <v>418</v>
       </c>
@@ -10203,7 +10227,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:7">
       <c r="A350" s="2" t="s">
         <v>419</v>
       </c>
@@ -10211,12 +10235,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:7">
       <c r="A351" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:7">
       <c r="A352" s="2" t="s">
         <v>421</v>
       </c>
@@ -10237,7 +10261,7 @@
         <v>423</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -10253,7 +10277,7 @@
         <v>425</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -10279,8 +10303,8 @@
       <c r="B359" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I359" s="4" t="s">
-        <v>71</v>
+      <c r="G359" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -10345,9 +10369,9 @@
         <v>53</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H366" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I366" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10367,7 +10391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:7">
       <c r="A369" s="2" t="s">
         <v>438</v>
       </c>
@@ -10375,7 +10399,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:7">
       <c r="A370" s="2" t="s">
         <v>439</v>
       </c>
@@ -10383,12 +10407,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:7">
       <c r="A371" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:7">
       <c r="A372" s="2" t="s">
         <v>441</v>
       </c>
@@ -10396,7 +10420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:7">
       <c r="A373" s="2" t="s">
         <v>442</v>
       </c>
@@ -10404,7 +10428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:7">
       <c r="A374" s="2" t="s">
         <v>443</v>
       </c>
@@ -10412,18 +10436,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:7">
       <c r="A375" s="2" t="s">
         <v>444</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I375" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9">
+      <c r="G375" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="2" t="s">
         <v>445</v>
       </c>
@@ -10431,7 +10455,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:7">
       <c r="A377" s="2" t="s">
         <v>446</v>
       </c>
@@ -10439,28 +10463,28 @@
         <v>47</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:7">
       <c r="A378" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:7">
       <c r="A381" s="2" t="s">
         <v>450</v>
       </c>
@@ -10468,7 +10492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:7">
       <c r="A382" s="2" t="s">
         <v>451</v>
       </c>
@@ -10476,7 +10500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:7">
       <c r="A383" s="2" t="s">
         <v>452</v>
       </c>
@@ -10484,7 +10508,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:7">
       <c r="A384" s="2" t="s">
         <v>453</v>
       </c>
@@ -10608,10 +10632,10 @@
         <v>469</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" s="2" t="s">
         <v>470</v>
       </c>
@@ -10619,7 +10643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:7">
       <c r="A402" s="2" t="s">
         <v>471</v>
       </c>
@@ -10627,7 +10651,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:7">
       <c r="A403" s="2" t="s">
         <v>472</v>
       </c>
@@ -10635,7 +10659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:7">
       <c r="A404" s="2" t="s">
         <v>473</v>
       </c>
@@ -10646,7 +10670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:7">
       <c r="A405" s="2" t="s">
         <v>474</v>
       </c>
@@ -10654,23 +10678,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:7">
       <c r="A406" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:7">
       <c r="A407" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I407" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9">
+      <c r="G407" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408" s="2" t="s">
         <v>477</v>
       </c>
@@ -10678,7 +10702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:7">
       <c r="A409" s="2" t="s">
         <v>478</v>
       </c>
@@ -10686,7 +10710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:7">
       <c r="A410" s="2" t="s">
         <v>479</v>
       </c>
@@ -10694,27 +10718,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:7">
       <c r="A411" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:7">
       <c r="A412" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:7">
       <c r="A413" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:7">
       <c r="A414" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:7">
       <c r="A415" s="2" t="s">
         <v>484</v>
       </c>
@@ -10722,7 +10746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:7">
       <c r="A416" s="2" t="s">
         <v>485</v>
       </c>
@@ -10759,7 +10783,7 @@
         <v>489</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -10965,7 +10989,7 @@
         <v>47</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -11029,7 +11053,7 @@
         <v>527</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -11050,7 +11074,7 @@
         <v>530</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -11228,7 +11252,7 @@
         <v>553</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -11249,7 +11273,7 @@
         <v>556</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -11312,7 +11336,7 @@
         <v>565</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -11338,7 +11362,7 @@
         <v>569</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -11387,7 +11411,7 @@
         <v>574</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -11446,7 +11470,7 @@
         <v>581</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -11529,7 +11553,7 @@
         <v>47</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="521" spans="1:17">
@@ -11570,7 +11594,7 @@
       <c r="F523" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H523" s="4" t="s">
+      <c r="I523" s="4" t="s">
         <v>56</v>
       </c>
       <c r="K523" s="3" t="s">
@@ -11583,6 +11607,9 @@
         <v>176</v>
       </c>
       <c r="N523" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O523" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Q523" s="4" t="s">
@@ -11610,7 +11637,7 @@
         <v>597</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="527" spans="1:17">
@@ -11631,13 +11658,16 @@
       <c r="C528" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G528" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
         <v>600</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11655,8 +11685,8 @@
       <c r="B531" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C531" s="4" t="s">
-        <v>107</v>
+      <c r="C531" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -11704,7 +11734,7 @@
         <v>608</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C537" s="3" t="s">
         <v>47</v>
@@ -11798,13 +11828,13 @@
         <v>51</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D548" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -11820,7 +11850,7 @@
         <v>621</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11901,7 +11931,7 @@
         <v>630</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C559" s="3" t="s">
         <v>54</v>
@@ -11953,7 +11983,7 @@
       <c r="F563" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I563" s="3" t="s">
+      <c r="G563" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K563" s="3" t="s">
@@ -12117,7 +12147,7 @@
         <v>47</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -12149,7 +12179,7 @@
         <v>661</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -12224,7 +12254,7 @@
         <v>673</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -12240,7 +12270,7 @@
         <v>675</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -12248,7 +12278,7 @@
         <v>676</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -12278,7 +12308,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="609" spans="1:16">
+    <row r="609" spans="1:15">
       <c r="A609" s="2" t="s">
         <v>680</v>
       </c>
@@ -12286,10 +12316,10 @@
         <v>51</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="610" spans="1:16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="610" spans="1:15">
       <c r="A610" s="2" t="s">
         <v>681</v>
       </c>
@@ -12297,7 +12327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="611" spans="1:16">
+    <row r="611" spans="1:15">
       <c r="A611" s="2" t="s">
         <v>682</v>
       </c>
@@ -12305,7 +12335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="612" spans="1:16">
+    <row r="612" spans="1:15">
       <c r="A612" s="2" t="s">
         <v>683</v>
       </c>
@@ -12313,12 +12343,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="613" spans="1:16">
+    <row r="613" spans="1:15">
       <c r="A613" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="614" spans="1:16">
+    <row r="614" spans="1:15">
       <c r="A614" s="2" t="s">
         <v>685</v>
       </c>
@@ -12326,7 +12356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="615" spans="1:16">
+    <row r="615" spans="1:15">
       <c r="A615" s="2" t="s">
         <v>686</v>
       </c>
@@ -12345,20 +12375,20 @@
       <c r="F615" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G615" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H615" s="4" t="s">
+      <c r="G615" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I615" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="I615" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="J615" s="3" t="s">
         <v>54</v>
       </c>
       <c r="K615" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L615" s="3" t="s">
         <v>47</v>
@@ -12367,53 +12397,53 @@
         <v>59</v>
       </c>
       <c r="N615" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P615" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="616" spans="1:16">
+        <v>47</v>
+      </c>
+      <c r="O615" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="616" spans="1:15">
       <c r="A616" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="617" spans="1:16">
+    <row r="617" spans="1:15">
       <c r="A617" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="618" spans="1:16">
+    <row r="618" spans="1:15">
       <c r="A618" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="619" spans="1:16">
+    <row r="619" spans="1:15">
       <c r="A619" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="620" spans="1:16">
+    <row r="620" spans="1:15">
       <c r="A620" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="621" spans="1:16">
+    <row r="621" spans="1:15">
       <c r="A621" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="622" spans="1:16">
+    <row r="622" spans="1:15">
       <c r="A622" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="623" spans="1:16">
+    <row r="623" spans="1:15">
       <c r="A623" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="624" spans="1:16">
+    <row r="624" spans="1:15">
       <c r="A624" s="2" t="s">
         <v>695</v>
       </c>
@@ -12472,7 +12502,7 @@
       <c r="F632" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H632" s="4" t="s">
+      <c r="I632" s="4" t="s">
         <v>111</v>
       </c>
       <c r="K632" s="4" t="s">
@@ -12520,7 +12550,7 @@
         <v>710</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="640" spans="1:11">
@@ -12688,7 +12718,7 @@
         <v>731</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -12853,7 +12883,7 @@
         <v>755</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C684" s="3" t="s">
         <v>47</v>
@@ -12872,7 +12902,7 @@
         <v>757</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="687" spans="1:12">
@@ -12892,9 +12922,9 @@
         <v>51</v>
       </c>
       <c r="F687" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H687" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I687" s="3" t="s">
         <v>47</v>
       </c>
       <c r="L687" s="3" t="s">
@@ -12925,7 +12955,7 @@
       <c r="F689" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H689" s="3" t="s">
+      <c r="G689" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I689" s="3" t="s">
@@ -13016,7 +13046,7 @@
         <v>769</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="699" spans="1:9">
@@ -13035,7 +13065,7 @@
         <v>51</v>
       </c>
       <c r="D700" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F700" s="3" t="s">
         <v>47</v>
@@ -13216,24 +13246,24 @@
         <v>791</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C720" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="721" spans="1:9">
+    <row r="721" spans="1:7">
       <c r="A721" s="2" t="s">
         <v>792</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I721" s="4" t="s">
+      <c r="G721" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="722" spans="1:9">
+    <row r="722" spans="1:7">
       <c r="A722" s="2" t="s">
         <v>793</v>
       </c>
@@ -13241,12 +13271,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="723" spans="1:9">
+    <row r="723" spans="1:7">
       <c r="A723" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="724" spans="1:9">
+    <row r="724" spans="1:7">
       <c r="A724" s="2" t="s">
         <v>795</v>
       </c>
@@ -13257,7 +13287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="725" spans="1:9">
+    <row r="725" spans="1:7">
       <c r="A725" s="2" t="s">
         <v>796</v>
       </c>
@@ -13265,7 +13295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="726" spans="1:9">
+    <row r="726" spans="1:7">
       <c r="A726" s="2" t="s">
         <v>797</v>
       </c>
@@ -13273,12 +13303,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="727" spans="1:9">
+    <row r="727" spans="1:7">
       <c r="A727" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="728" spans="1:9">
+    <row r="728" spans="1:7">
       <c r="A728" s="2" t="s">
         <v>799</v>
       </c>
@@ -13286,30 +13316,30 @@
         <v>64</v>
       </c>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:7">
       <c r="A729" s="2" t="s">
         <v>800</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="730" spans="1:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7">
       <c r="A730" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="731" spans="1:9">
+    <row r="731" spans="1:7">
       <c r="A731" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="732" spans="1:9">
+    <row r="732" spans="1:7">
       <c r="A732" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="733" spans="1:9">
+    <row r="733" spans="1:7">
       <c r="A733" s="2" t="s">
         <v>804</v>
       </c>
@@ -13317,17 +13347,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
+    <row r="734" spans="1:7">
       <c r="A734" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
+    <row r="735" spans="1:7">
       <c r="A735" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="736" spans="1:9">
+    <row r="736" spans="1:7">
       <c r="A736" s="2" t="s">
         <v>807</v>
       </c>
@@ -13353,7 +13383,7 @@
         <v>810</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -13488,7 +13518,7 @@
         <v>831</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -13543,7 +13573,7 @@
         <v>51</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D765" s="3" t="s">
         <v>47</v>
@@ -13584,7 +13614,7 @@
         <v>841</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C769" s="3" t="s">
         <v>51</v>
@@ -13668,7 +13698,7 @@
         <v>850</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -13713,18 +13743,18 @@
         <v>856</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C784" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="785" spans="1:16">
+    <row r="785" spans="1:14">
       <c r="A785" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="786" spans="1:16">
+    <row r="786" spans="1:14">
       <c r="A786" s="2" t="s">
         <v>858</v>
       </c>
@@ -13741,9 +13771,9 @@
         <v>51</v>
       </c>
       <c r="F786" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H786" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I786" s="3" t="s">
         <v>51</v>
       </c>
       <c r="J786" s="3" t="s">
@@ -13758,11 +13788,11 @@
       <c r="M786" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P786" s="3" t="s">
+      <c r="N786" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="787" spans="1:16">
+    <row r="787" spans="1:14">
       <c r="A787" s="2" t="s">
         <v>859</v>
       </c>
@@ -13776,7 +13806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="788" spans="1:16">
+    <row r="788" spans="1:14">
       <c r="A788" s="2" t="s">
         <v>860</v>
       </c>
@@ -13787,7 +13817,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="789" spans="1:16">
+    <row r="789" spans="1:14">
       <c r="A789" s="2" t="s">
         <v>861</v>
       </c>
@@ -13798,7 +13828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="790" spans="1:16">
+    <row r="790" spans="1:14">
       <c r="A790" s="2" t="s">
         <v>862</v>
       </c>
@@ -13806,7 +13836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="791" spans="1:16">
+    <row r="791" spans="1:14">
       <c r="A791" s="2" t="s">
         <v>863</v>
       </c>
@@ -13814,7 +13844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="792" spans="1:16">
+    <row r="792" spans="1:14">
       <c r="A792" s="2" t="s">
         <v>864</v>
       </c>
@@ -13822,15 +13852,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="793" spans="1:16">
+    <row r="793" spans="1:14">
       <c r="A793" s="2" t="s">
         <v>865</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="794" spans="1:16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14">
       <c r="A794" s="2" t="s">
         <v>866</v>
       </c>
@@ -13841,7 +13871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="795" spans="1:16">
+    <row r="795" spans="1:14">
       <c r="A795" s="2" t="s">
         <v>867</v>
       </c>
@@ -13849,7 +13879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="796" spans="1:16">
+    <row r="796" spans="1:14">
       <c r="A796" s="2" t="s">
         <v>868</v>
       </c>
@@ -13863,12 +13893,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="797" spans="1:16">
+    <row r="797" spans="1:14">
       <c r="A797" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="798" spans="1:16">
+    <row r="798" spans="1:14">
       <c r="A798" s="2" t="s">
         <v>870</v>
       </c>
@@ -13876,7 +13906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="799" spans="1:16">
+    <row r="799" spans="1:14">
       <c r="A799" s="2" t="s">
         <v>871</v>
       </c>
@@ -13887,7 +13917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="800" spans="1:16">
+    <row r="800" spans="1:14">
       <c r="A800" s="2" t="s">
         <v>872</v>
       </c>
@@ -13895,10 +13925,10 @@
         <v>47</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="801" spans="1:16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14">
       <c r="A801" s="2" t="s">
         <v>873</v>
       </c>
@@ -13909,7 +13939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="802" spans="1:16">
+    <row r="802" spans="1:14">
       <c r="A802" s="2" t="s">
         <v>874</v>
       </c>
@@ -13917,7 +13947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="803" spans="1:16">
+    <row r="803" spans="1:14">
       <c r="A803" s="2" t="s">
         <v>875</v>
       </c>
@@ -13928,7 +13958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="804" spans="1:16">
+    <row r="804" spans="1:14">
       <c r="A804" s="2" t="s">
         <v>876</v>
       </c>
@@ -13936,20 +13966,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="805" spans="1:16">
+    <row r="805" spans="1:14">
       <c r="A805" s="2" t="s">
         <v>877</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="806" spans="1:16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14">
       <c r="A806" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="807" spans="1:16">
+    <row r="807" spans="1:14">
       <c r="A807" s="2" t="s">
         <v>879</v>
       </c>
@@ -13971,11 +14001,11 @@
       <c r="M807" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P807" s="4" t="s">
+      <c r="N807" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="808" spans="1:16">
+    <row r="808" spans="1:14">
       <c r="A808" s="2" t="s">
         <v>881</v>
       </c>
@@ -13983,22 +14013,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="809" spans="1:16">
+    <row r="809" spans="1:14">
       <c r="A809" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="810" spans="1:16">
+    <row r="810" spans="1:14">
       <c r="A810" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="811" spans="1:16">
+    <row r="811" spans="1:14">
       <c r="A811" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="812" spans="1:16">
+    <row r="812" spans="1:14">
       <c r="A812" s="2" t="s">
         <v>885</v>
       </c>
@@ -14006,7 +14036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="813" spans="1:16">
+    <row r="813" spans="1:14">
       <c r="A813" s="2" t="s">
         <v>886</v>
       </c>
@@ -14014,7 +14044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="814" spans="1:16">
+    <row r="814" spans="1:14">
       <c r="A814" s="2" t="s">
         <v>887</v>
       </c>
@@ -14022,7 +14052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="815" spans="1:16">
+    <row r="815" spans="1:14">
       <c r="A815" s="2" t="s">
         <v>888</v>
       </c>
@@ -14030,7 +14060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="816" spans="1:16">
+    <row r="816" spans="1:14">
       <c r="A816" s="2" t="s">
         <v>889</v>
       </c>
@@ -14055,7 +14085,7 @@
         <v>893</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="821" spans="1:6">
@@ -14247,7 +14277,7 @@
         <v>918</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14293,7 +14323,7 @@
         <v>923</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="850" spans="1:13">
@@ -14342,7 +14372,7 @@
         <v>928</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="855" spans="1:13">
@@ -14350,7 +14380,7 @@
         <v>929</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="856" spans="1:13">
@@ -14379,10 +14409,10 @@
         <v>933</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>58</v>
@@ -14393,8 +14423,8 @@
       <c r="F859" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H859" s="3" t="s">
-        <v>48</v>
+      <c r="I859" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="K859" s="3" t="s">
         <v>54</v>
@@ -14411,7 +14441,7 @@
         <v>934</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="861" spans="1:13">
@@ -14520,7 +14550,7 @@
         <v>951</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -14702,7 +14732,7 @@
       <c r="E901" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I901" s="3" t="s">
+      <c r="G901" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -14714,7 +14744,7 @@
         <v>47</v>
       </c>
       <c r="C902" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D902" s="3" t="s">
         <v>53</v>
@@ -14824,10 +14854,10 @@
         <v>47</v>
       </c>
       <c r="H912" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I912" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J912" s="3" t="s">
         <v>51</v>
@@ -14867,7 +14897,7 @@
         <v>989</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -14889,7 +14919,7 @@
         <v>47</v>
       </c>
       <c r="D916" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E916" s="3" t="s">
         <v>47</v>
@@ -14961,7 +14991,7 @@
         <v>1000</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="926" spans="1:5">
@@ -15056,7 +15086,7 @@
         <v>1013</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C938" s="3" t="s">
         <v>53</v>
@@ -15113,7 +15143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="945" spans="1:15">
+    <row r="945" spans="1:16">
       <c r="A945" s="2" t="s">
         <v>1020</v>
       </c>
@@ -15121,12 +15151,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="946" spans="1:15">
+    <row r="946" spans="1:16">
       <c r="A946" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="947" spans="1:15">
+    <row r="947" spans="1:16">
       <c r="A947" s="2" t="s">
         <v>1022</v>
       </c>
@@ -15134,12 +15164,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="948" spans="1:15">
+    <row r="948" spans="1:16">
       <c r="A948" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="949" spans="1:15">
+    <row r="949" spans="1:16">
       <c r="A949" s="2" t="s">
         <v>1024</v>
       </c>
@@ -15158,10 +15188,10 @@
       <c r="F949" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G949" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H949" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I949" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K949" s="3" t="s">
@@ -15176,11 +15206,14 @@
       <c r="N949" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O949" s="4" t="s">
+      <c r="O949" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P949" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="950" spans="1:15">
+    <row r="950" spans="1:16">
       <c r="A950" s="2" t="s">
         <v>1025</v>
       </c>
@@ -15191,7 +15224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="951" spans="1:15">
+    <row r="951" spans="1:16">
       <c r="A951" s="2" t="s">
         <v>1026</v>
       </c>
@@ -15208,7 +15241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="952" spans="1:15">
+    <row r="952" spans="1:16">
       <c r="A952" s="2" t="s">
         <v>1027</v>
       </c>
@@ -15219,13 +15252,13 @@
         <v>47</v>
       </c>
       <c r="D952" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F952" s="4" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="953" spans="1:15">
+    <row r="953" spans="1:16">
       <c r="A953" s="2" t="s">
         <v>1029</v>
       </c>
@@ -15233,7 +15266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="954" spans="1:15">
+    <row r="954" spans="1:16">
       <c r="A954" s="2" t="s">
         <v>1030</v>
       </c>
@@ -15244,7 +15277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="955" spans="1:15">
+    <row r="955" spans="1:16">
       <c r="A955" s="2" t="s">
         <v>1031</v>
       </c>
@@ -15255,7 +15288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="956" spans="1:15">
+    <row r="956" spans="1:16">
       <c r="A956" s="2" t="s">
         <v>1032</v>
       </c>
@@ -15266,7 +15299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="957" spans="1:15">
+    <row r="957" spans="1:16">
       <c r="A957" s="2" t="s">
         <v>1033</v>
       </c>
@@ -15274,13 +15307,13 @@
         <v>51</v>
       </c>
       <c r="C957" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D957" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="958" spans="1:15">
+    <row r="958" spans="1:16">
       <c r="A958" s="2" t="s">
         <v>1034</v>
       </c>
@@ -15296,7 +15329,7 @@
       <c r="F958" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H958" s="3" t="s">
+      <c r="I958" s="3" t="s">
         <v>47</v>
       </c>
       <c r="L958" s="4" t="s">
@@ -15306,7 +15339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="959" spans="1:15">
+    <row r="959" spans="1:16">
       <c r="A959" s="2" t="s">
         <v>1035</v>
       </c>
@@ -15317,7 +15350,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="960" spans="1:15">
+    <row r="960" spans="1:16">
       <c r="A960" s="2" t="s">
         <v>1036</v>
       </c>
@@ -15330,7 +15363,7 @@
         <v>1037</v>
       </c>
       <c r="B961" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C961" s="3" t="s">
         <v>166</v>
@@ -16104,7 +16137,7 @@
         <v>54</v>
       </c>
       <c r="F1090" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -16318,7 +16351,7 @@
         <v>58</v>
       </c>
       <c r="C1122" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -16340,7 +16373,7 @@
         <v>51</v>
       </c>
       <c r="C1124" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -16479,7 +16512,7 @@
         <v>1214</v>
       </c>
       <c r="B1138" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -16692,7 +16725,7 @@
         <v>1238</v>
       </c>
       <c r="B1162" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
@@ -16817,7 +16850,7 @@
         <v>1260</v>
       </c>
       <c r="B1184" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1184" s="4" t="s">
         <v>147</v>
@@ -16896,7 +16929,7 @@
         <v>1271</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -16904,7 +16937,7 @@
         <v>1272</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
@@ -17042,7 +17075,7 @@
         <v>1296</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -17132,7 +17165,7 @@
         <v>1308</v>
       </c>
       <c r="B1232" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -17394,7 +17427,7 @@
         <v>1349</v>
       </c>
       <c r="B1273" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
@@ -17571,7 +17604,7 @@
         <v>1382</v>
       </c>
       <c r="B1306" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -17906,7 +17939,7 @@
         <v>1446</v>
       </c>
       <c r="B1370" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -18683,7 +18716,7 @@
         <v>1585</v>
       </c>
       <c r="B1508" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -19236,7 +19269,7 @@
         <v>1689</v>
       </c>
       <c r="B1612" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -19594,52 +19627,52 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="1681" spans="1:16">
+    <row r="1681" spans="1:14">
       <c r="A1681" s="2" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="1682" spans="1:16">
+    <row r="1682" spans="1:14">
       <c r="A1682" s="2" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="1683" spans="1:16">
+    <row r="1683" spans="1:14">
       <c r="A1683" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="1684" spans="1:16">
+    <row r="1684" spans="1:14">
       <c r="A1684" s="2" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="1685" spans="1:16">
+    <row r="1685" spans="1:14">
       <c r="A1685" s="2" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="1686" spans="1:16">
+    <row r="1686" spans="1:14">
       <c r="A1686" s="2" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="1687" spans="1:16">
+    <row r="1687" spans="1:14">
       <c r="A1687" s="2" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="1688" spans="1:16">
+    <row r="1688" spans="1:14">
       <c r="A1688" s="2" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="1689" spans="1:16">
+    <row r="1689" spans="1:14">
       <c r="A1689" s="2" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="1690" spans="1:16">
+    <row r="1690" spans="1:14">
       <c r="A1690" s="2" t="s">
         <v>1767</v>
       </c>
@@ -19649,7 +19682,7 @@
       <c r="E1690" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1690" s="3" t="s">
+      <c r="I1690" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L1690" s="4" t="s">
@@ -19658,11 +19691,11 @@
       <c r="M1690" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1690" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:16">
+      <c r="N1690" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:14">
       <c r="A1691" s="2" t="s">
         <v>1768</v>
       </c>
@@ -19672,11 +19705,11 @@
       <c r="E1691" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H1691" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:16">
+      <c r="I1691" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:14">
       <c r="A1692" s="2" t="s">
         <v>1769</v>
       </c>
@@ -19684,7 +19717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1693" spans="1:16">
+    <row r="1693" spans="1:14">
       <c r="A1693" s="2" t="s">
         <v>1770</v>
       </c>
@@ -19692,13 +19725,13 @@
         <v>47</v>
       </c>
       <c r="E1693" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1693" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1693" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="1694" spans="1:16">
+    <row r="1694" spans="1:14">
       <c r="A1694" s="2" t="s">
         <v>1771</v>
       </c>
@@ -19708,39 +19741,39 @@
       <c r="E1694" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H1694" s="4" t="s">
+      <c r="I1694" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="1695" spans="1:16">
+    <row r="1695" spans="1:14">
       <c r="A1695" s="2" t="s">
         <v>1772</v>
       </c>
       <c r="B1695" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1695" s="4" t="s">
+      <c r="I1695" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1696" spans="1:16">
+    <row r="1696" spans="1:14">
       <c r="A1696" s="2" t="s">
         <v>1773</v>
       </c>
       <c r="B1696" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1696" s="3" t="s">
+      <c r="I1696" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M1696" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P1696" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:8">
+      <c r="N1696" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:9">
       <c r="A1697" s="2" t="s">
         <v>1774</v>
       </c>
@@ -19750,11 +19783,11 @@
       <c r="E1697" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1697" s="3" t="s">
+      <c r="I1697" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="1698" spans="1:8">
+    <row r="1698" spans="1:9">
       <c r="A1698" s="2" t="s">
         <v>1775</v>
       </c>
@@ -19762,13 +19795,13 @@
         <v>47</v>
       </c>
       <c r="E1698" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1698" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I1698" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:9">
       <c r="A1699" s="2" t="s">
         <v>1776</v>
       </c>
@@ -19776,62 +19809,62 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1700" spans="1:8">
+    <row r="1700" spans="1:9">
       <c r="A1700" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1701" spans="1:8">
+    <row r="1701" spans="1:9">
       <c r="A1701" s="2" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="1702" spans="1:8">
+    <row r="1702" spans="1:9">
       <c r="A1702" s="2" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="1703" spans="1:8">
+    <row r="1703" spans="1:9">
       <c r="A1703" s="2" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="1704" spans="1:8">
+    <row r="1704" spans="1:9">
       <c r="A1704" s="2" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="1705" spans="1:8">
+    <row r="1705" spans="1:9">
       <c r="A1705" s="2" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1706" spans="1:8">
+    <row r="1706" spans="1:9">
       <c r="A1706" s="2" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="1707" spans="1:8">
+    <row r="1707" spans="1:9">
       <c r="A1707" s="2" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="1708" spans="1:8">
+    <row r="1708" spans="1:9">
       <c r="A1708" s="2" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="1709" spans="1:8">
+    <row r="1709" spans="1:9">
       <c r="A1709" s="2" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="1710" spans="1:8">
+    <row r="1710" spans="1:9">
       <c r="A1710" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="1711" spans="1:8">
+    <row r="1711" spans="1:9">
       <c r="A1711" s="2" t="s">
         <v>1788</v>
       </c>
@@ -19839,7 +19872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1712" spans="1:8">
+    <row r="1712" spans="1:9">
       <c r="A1712" s="2" t="s">
         <v>1789</v>
       </c>
@@ -20064,7 +20097,7 @@
         <v>1830</v>
       </c>
       <c r="B1753" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -20097,7 +20130,7 @@
         <v>1836</v>
       </c>
       <c r="B1759" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -20179,7 +20212,7 @@
         <v>1847</v>
       </c>
       <c r="B1770" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -20232,7 +20265,7 @@
         <v>1854</v>
       </c>
       <c r="B1777" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1778" spans="1:6">
@@ -20365,13 +20398,13 @@
         <v>1871</v>
       </c>
       <c r="B1794" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1794" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1794" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1795" spans="1:6">
@@ -20605,93 +20638,105 @@
       <c r="A1835" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="B1835" s="4" t="s">
-        <v>1028</v>
+      <c r="B1835" s="3" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
       <c r="A1836" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
+      </c>
+      <c r="B1836" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
       <c r="A1837" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
+      </c>
+      <c r="B1837" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
       <c r="A1838" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
+      </c>
+      <c r="B1838" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
       <c r="A1839" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
+      </c>
+      <c r="B1839" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1840" spans="1:2">
       <c r="A1840" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
       <c r="A1841" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
       <c r="A1843" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
       <c r="A1844" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1845" spans="1:2">
       <c r="A1845" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
       <c r="A1846" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
       <c r="A1847" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
       <c r="A1848" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
       <c r="A1849" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
       <c r="A1850" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
       <c r="A1851" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
       <c r="A1852" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1852" s="3" t="s">
         <v>59</v>
@@ -20699,7 +20744,7 @@
     </row>
     <row r="1853" spans="1:2">
       <c r="A1853" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1853" s="3" t="s">
         <v>47</v>
@@ -20707,12 +20752,12 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
       <c r="A1855" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1855" s="3" t="s">
         <v>59</v>
@@ -20720,7 +20765,7 @@
     </row>
     <row r="1856" spans="1:2">
       <c r="A1856" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B1856" s="3" t="s">
         <v>47</v>
@@ -20728,7 +20773,7 @@
     </row>
     <row r="1857" spans="1:2">
       <c r="A1857" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1857" s="3" t="s">
         <v>47</v>
@@ -20736,7 +20781,7 @@
     </row>
     <row r="1858" spans="1:2">
       <c r="A1858" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1858" s="3" t="s">
         <v>47</v>
@@ -20744,7 +20789,7 @@
     </row>
     <row r="1859" spans="1:2">
       <c r="A1859" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1859" s="3" t="s">
         <v>59</v>
@@ -20752,12 +20797,12 @@
     </row>
     <row r="1860" spans="1:2">
       <c r="A1860" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
       <c r="A1861" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B1861" s="3" t="s">
         <v>47</v>
@@ -20765,7 +20810,7 @@
     </row>
     <row r="1862" spans="1:2">
       <c r="A1862" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1862" s="3" t="s">
         <v>59</v>
@@ -20773,7 +20818,7 @@
     </row>
     <row r="1863" spans="1:2">
       <c r="A1863" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B1863" s="3" t="s">
         <v>224</v>
@@ -20781,7 +20826,7 @@
     </row>
     <row r="1864" spans="1:2">
       <c r="A1864" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1864" s="3" t="s">
         <v>47</v>
@@ -20789,7 +20834,7 @@
     </row>
     <row r="1865" spans="1:2">
       <c r="A1865" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B1865" s="3" t="s">
         <v>47</v>
@@ -20797,7 +20842,7 @@
     </row>
     <row r="1866" spans="1:2">
       <c r="A1866" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1866" s="3" t="s">
         <v>47</v>
@@ -20805,7 +20850,7 @@
     </row>
     <row r="1867" spans="1:2">
       <c r="A1867" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1867" s="3" t="s">
         <v>47</v>
@@ -20813,7 +20858,7 @@
     </row>
     <row r="1868" spans="1:2">
       <c r="A1868" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1868" s="3" t="s">
         <v>47</v>
@@ -20821,7 +20866,7 @@
     </row>
     <row r="1869" spans="1:2">
       <c r="A1869" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1869" s="3" t="s">
         <v>47</v>
@@ -20829,7 +20874,7 @@
     </row>
     <row r="1870" spans="1:2">
       <c r="A1870" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B1870" s="3" t="s">
         <v>51</v>
@@ -20837,7 +20882,7 @@
     </row>
     <row r="1871" spans="1:2">
       <c r="A1871" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1871" s="3" t="s">
         <v>47</v>
@@ -20845,7 +20890,7 @@
     </row>
     <row r="1872" spans="1:2">
       <c r="A1872" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B1872" s="4" t="s">
         <v>71</v>
@@ -20853,12 +20898,12 @@
     </row>
     <row r="1873" spans="1:2">
       <c r="A1873" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
       <c r="A1874" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1874" s="3" t="s">
         <v>51</v>
@@ -20866,12 +20911,12 @@
     </row>
     <row r="1875" spans="1:2">
       <c r="A1875" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
       <c r="A1876" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1876" s="3" t="s">
         <v>51</v>
@@ -20879,12 +20924,12 @@
     </row>
     <row r="1877" spans="1:2">
       <c r="A1877" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
       <c r="A1878" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1878" s="3" t="s">
         <v>47</v>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1958">
   <si>
     <t>№</t>
   </si>
@@ -1489,7 +1489,7 @@
     <t>411</t>
   </si>
   <si>
-    <t>18-</t>
+    <t>1+, 21-</t>
   </si>
   <si>
     <t>412</t>
@@ -6388,52 +6388,52 @@
         <v>80</v>
       </c>
       <c r="C3">
-        <v>4164</v>
+        <v>4128</v>
       </c>
       <c r="D3">
-        <v>14209</v>
+        <v>14215</v>
       </c>
       <c r="E3">
-        <v>21345</v>
+        <v>21356</v>
       </c>
       <c r="F3">
-        <v>31272</v>
+        <v>31285</v>
       </c>
       <c r="G3">
-        <v>34770</v>
+        <v>34780</v>
       </c>
       <c r="H3">
-        <v>45317</v>
+        <v>45328</v>
       </c>
       <c r="I3">
-        <v>46688</v>
+        <v>46696</v>
       </c>
       <c r="J3">
-        <v>55687</v>
+        <v>55706</v>
       </c>
       <c r="K3">
-        <v>58895</v>
+        <v>58917</v>
       </c>
       <c r="L3">
-        <v>66278</v>
+        <v>66315</v>
       </c>
       <c r="M3">
-        <v>79635</v>
+        <v>79663</v>
       </c>
       <c r="N3">
-        <v>86605</v>
+        <v>86635</v>
       </c>
       <c r="O3">
-        <v>101128</v>
+        <v>101153</v>
       </c>
       <c r="P3">
-        <v>103854</v>
+        <v>103876</v>
       </c>
       <c r="Q3">
-        <v>122534</v>
+        <v>122558</v>
       </c>
       <c r="R3">
-        <v>217644</v>
+        <v>217689</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6444,7 +6444,7 @@
         <v>24233</v>
       </c>
       <c r="C4">
-        <v>3841</v>
+        <v>3869</v>
       </c>
       <c r="D4">
         <v>1303</v>
@@ -6497,10 +6497,10 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1777</v>
+        <v>1788</v>
       </c>
       <c r="C5">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D5">
         <v>261</v>
@@ -6556,7 +6556,7 @@
         <v>725</v>
       </c>
       <c r="C6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6">
         <v>93</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -6665,10 +6665,10 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="C8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <v>96</v>
@@ -6724,7 +6724,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -10791,7 +10791,7 @@
       <c r="B420" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C420" s="4" t="s">
+      <c r="C420" s="3" t="s">
         <v>490</v>
       </c>
     </row>
@@ -20313,6 +20313,9 @@
       <c r="A1782" s="2" t="s">
         <v>1860</v>
       </c>
+      <c r="B1782" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="1783" spans="1:6">
       <c r="A1783" s="2" t="s">
@@ -20346,6 +20349,9 @@
     <row r="1787" spans="1:6">
       <c r="A1787" s="2" t="s">
         <v>1865</v>
+      </c>
+      <c r="B1787" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="1788" spans="1:6">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="1958">
   <si>
     <t>№</t>
   </si>
@@ -6388,52 +6388,52 @@
         <v>80</v>
       </c>
       <c r="C3">
-        <v>4128</v>
+        <v>3980</v>
       </c>
       <c r="D3">
-        <v>14215</v>
+        <v>14224</v>
       </c>
       <c r="E3">
-        <v>21356</v>
+        <v>21377</v>
       </c>
       <c r="F3">
-        <v>31285</v>
+        <v>31302</v>
       </c>
       <c r="G3">
-        <v>34780</v>
+        <v>34795</v>
       </c>
       <c r="H3">
-        <v>45328</v>
+        <v>45365</v>
       </c>
       <c r="I3">
-        <v>46696</v>
+        <v>46733</v>
       </c>
       <c r="J3">
-        <v>55706</v>
+        <v>55735</v>
       </c>
       <c r="K3">
-        <v>58917</v>
+        <v>58950</v>
       </c>
       <c r="L3">
-        <v>66315</v>
+        <v>66340</v>
       </c>
       <c r="M3">
-        <v>79663</v>
+        <v>79701</v>
       </c>
       <c r="N3">
-        <v>86635</v>
+        <v>86674</v>
       </c>
       <c r="O3">
-        <v>101153</v>
+        <v>101204</v>
       </c>
       <c r="P3">
-        <v>103876</v>
+        <v>103932</v>
       </c>
       <c r="Q3">
-        <v>122558</v>
+        <v>122613</v>
       </c>
       <c r="R3">
-        <v>217689</v>
+        <v>217823</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6444,7 +6444,7 @@
         <v>24233</v>
       </c>
       <c r="C4">
-        <v>3869</v>
+        <v>3973</v>
       </c>
       <c r="D4">
         <v>1303</v>
@@ -6500,7 +6500,7 @@
         <v>1788</v>
       </c>
       <c r="C5">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D5">
         <v>261</v>
@@ -6509,13 +6509,13 @@
         <v>208</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>35</v>
       </c>
       <c r="H5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>112</v>
@@ -6556,7 +6556,7 @@
         <v>725</v>
       </c>
       <c r="C6">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D6">
         <v>93</v>
@@ -6668,7 +6668,7 @@
         <v>960</v>
       </c>
       <c r="C8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D8">
         <v>96</v>
@@ -6733,13 +6733,13 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>11</v>
@@ -10026,6 +10026,9 @@
       <c r="B330" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C330" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="331" spans="1:16">
       <c r="A331" s="2" t="s">
@@ -10664,6 +10667,9 @@
       <c r="B403" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C403" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="2" t="s">
@@ -11295,6 +11301,9 @@
       <c r="B486" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C486" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
@@ -13186,8 +13195,8 @@
       <c r="B710" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C710" s="4" t="s">
-        <v>71</v>
+      <c r="C710" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -14299,6 +14308,9 @@
       <c r="B845" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C845" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="2" t="s">
@@ -16162,6 +16174,9 @@
       <c r="E1091" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="F1091" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="1092" spans="1:6">
       <c r="A1092" s="2" t="s">
@@ -17067,22 +17082,22 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="1217" spans="1:2">
+    <row r="1217" spans="1:8">
       <c r="A1217" s="2" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1218" spans="1:2">
+    <row r="1218" spans="1:8">
       <c r="A1218" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="1219" spans="1:2">
+    <row r="1219" spans="1:8">
       <c r="A1219" s="2" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="1220" spans="1:2">
+    <row r="1220" spans="1:8">
       <c r="A1220" s="2" t="s">
         <v>1297</v>
       </c>
@@ -17090,17 +17105,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1221" spans="1:2">
+    <row r="1221" spans="1:8">
       <c r="A1221" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="1222" spans="1:2">
+    <row r="1222" spans="1:8">
       <c r="A1222" s="2" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="1223" spans="1:2">
+    <row r="1223" spans="1:8">
       <c r="A1223" s="2" t="s">
         <v>1300</v>
       </c>
@@ -17108,7 +17123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1224" spans="1:2">
+    <row r="1224" spans="1:8">
       <c r="A1224" s="2" t="s">
         <v>1301</v>
       </c>
@@ -17116,7 +17131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1225" spans="1:2">
+    <row r="1225" spans="1:8">
       <c r="A1225" s="2" t="s">
         <v>1302</v>
       </c>
@@ -17124,7 +17139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1226" spans="1:2">
+    <row r="1226" spans="1:8">
       <c r="A1226" s="2" t="s">
         <v>1303</v>
       </c>
@@ -17132,15 +17147,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1227" spans="1:2">
+    <row r="1227" spans="1:8">
       <c r="A1227" s="2" t="s">
         <v>1304</v>
       </c>
       <c r="B1227" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="1228" spans="1:2">
+      <c r="H1227" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8">
       <c r="A1228" s="2" t="s">
         <v>1305</v>
       </c>
@@ -17148,7 +17166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1229" spans="1:2">
+    <row r="1229" spans="1:8">
       <c r="A1229" s="2" t="s">
         <v>1306</v>
       </c>
@@ -17156,7 +17174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1230" spans="1:2">
+    <row r="1230" spans="1:8">
       <c r="A1230" s="2" t="s">
         <v>1307</v>
       </c>
@@ -17164,7 +17182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1231" spans="1:2">
+    <row r="1231" spans="1:8">
       <c r="A1231" s="2" t="s">
         <v>1308</v>
       </c>
@@ -17172,7 +17190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1232" spans="1:2">
+    <row r="1232" spans="1:8">
       <c r="A1232" s="2" t="s">
         <v>1309</v>
       </c>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3579" uniqueCount="1963">
   <si>
     <t>№</t>
   </si>
@@ -187,7 +187,7 @@
     <t>1+, 12-</t>
   </si>
   <si>
-    <t>5-</t>
+    <t>14-</t>
   </si>
   <si>
     <t>3</t>
@@ -2675,9 +2675,6 @@
   </si>
   <si>
     <t>798</t>
-  </si>
-  <si>
-    <t>14-</t>
   </si>
   <si>
     <t>799</t>
@@ -6403,55 +6400,55 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>3986</v>
+        <v>3988</v>
       </c>
       <c r="D3">
-        <v>14270</v>
+        <v>14283</v>
       </c>
       <c r="E3">
-        <v>19777</v>
+        <v>18860</v>
       </c>
       <c r="F3">
-        <v>31363</v>
+        <v>31395</v>
       </c>
       <c r="G3">
-        <v>34870</v>
+        <v>34904</v>
       </c>
       <c r="H3">
-        <v>37918</v>
+        <v>37975</v>
       </c>
       <c r="I3">
-        <v>45466</v>
+        <v>42858</v>
       </c>
       <c r="J3">
-        <v>55862</v>
+        <v>55897</v>
       </c>
       <c r="K3">
-        <v>59075</v>
+        <v>59116</v>
       </c>
       <c r="L3">
-        <v>66075</v>
+        <v>66132</v>
       </c>
       <c r="M3">
-        <v>66473</v>
+        <v>66532</v>
       </c>
       <c r="N3">
-        <v>73762</v>
+        <v>73832</v>
       </c>
       <c r="O3">
-        <v>101372</v>
+        <v>101486</v>
       </c>
       <c r="P3">
-        <v>104110</v>
+        <v>104227</v>
       </c>
       <c r="Q3">
-        <v>122839</v>
+        <v>122966</v>
       </c>
       <c r="R3">
-        <v>218303</v>
+        <v>218584</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6459,7 +6456,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>24838</v>
+        <v>25046</v>
       </c>
       <c r="C4">
         <v>3973</v>
@@ -6468,7 +6465,7 @@
         <v>1303</v>
       </c>
       <c r="E4">
-        <v>914</v>
+        <v>964</v>
       </c>
       <c r="F4">
         <v>522</v>
@@ -6480,7 +6477,7 @@
         <v>401</v>
       </c>
       <c r="I4">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="J4">
         <v>213</v>
@@ -6515,16 +6512,16 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1823</v>
+        <v>1845</v>
       </c>
       <c r="C5">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D5">
         <v>261</v>
       </c>
       <c r="E5">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F5">
         <v>118</v>
@@ -6533,10 +6530,10 @@
         <v>35</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J5">
         <v>28</v>
@@ -6571,7 +6568,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C6">
         <v>208</v>
@@ -6580,7 +6577,7 @@
         <v>93</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>32</v>
@@ -6592,7 +6589,7 @@
         <v>17</v>
       </c>
       <c r="I6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>12</v>
@@ -6645,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>8</v>
@@ -6683,7 +6680,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="C8">
         <v>233</v>
@@ -6692,7 +6689,7 @@
         <v>96</v>
       </c>
       <c r="E8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>39</v>
@@ -6704,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="I8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8">
         <v>12</v>
@@ -6739,7 +6736,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -6757,7 +6754,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>12</v>
@@ -6969,6 +6966,9 @@
       <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I15" s="3" t="s">
         <v>47</v>
       </c>
@@ -7032,6 +7032,9 @@
       <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I18" s="4" t="s">
         <v>72</v>
       </c>
@@ -7439,6 +7442,9 @@
       <c r="G49" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="I49" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
@@ -8370,6 +8376,9 @@
       <c r="A132" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="B132" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
@@ -8969,6 +8978,9 @@
       <c r="A196" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="B196" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
@@ -9081,7 +9093,7 @@
         <v>47</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>113</v>
@@ -11027,6 +11039,9 @@
       <c r="A442" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="B442" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
@@ -11384,6 +11399,9 @@
       <c r="A490" s="2" t="s">
         <v>564</v>
       </c>
+      <c r="B490" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="2" t="s">
@@ -13375,6 +13393,9 @@
       <c r="B722" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="H722" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="723" spans="1:8">
       <c r="A723" s="2" t="s">
@@ -14101,7 +14122,7 @@
         <v>47</v>
       </c>
       <c r="L807" s="4" t="s">
-        <v>886</v>
+        <v>56</v>
       </c>
       <c r="M807" s="3" t="s">
         <v>47</v>
@@ -14112,7 +14133,7 @@
     </row>
     <row r="808" spans="1:14">
       <c r="A808" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B808" s="3" t="s">
         <v>47</v>
@@ -14120,22 +14141,22 @@
     </row>
     <row r="809" spans="1:14">
       <c r="A809" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="810" spans="1:14">
       <c r="A810" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="811" spans="1:14">
       <c r="A811" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="812" spans="1:14">
       <c r="A812" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B812" s="3" t="s">
         <v>47</v>
@@ -14143,7 +14164,7 @@
     </row>
     <row r="813" spans="1:14">
       <c r="A813" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B813" s="3" t="s">
         <v>51</v>
@@ -14151,7 +14172,7 @@
     </row>
     <row r="814" spans="1:14">
       <c r="A814" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B814" s="3" t="s">
         <v>51</v>
@@ -14159,7 +14180,7 @@
     </row>
     <row r="815" spans="1:14">
       <c r="A815" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B815" s="3" t="s">
         <v>47</v>
@@ -14167,27 +14188,27 @@
     </row>
     <row r="816" spans="1:14">
       <c r="A816" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="817" spans="1:6">
       <c r="A817" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="818" spans="1:6">
       <c r="A818" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="819" spans="1:6">
       <c r="A819" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="820" spans="1:6">
       <c r="A820" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B820" s="3" t="s">
         <v>49</v>
@@ -14195,17 +14216,17 @@
     </row>
     <row r="821" spans="1:6">
       <c r="A821" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="822" spans="1:6">
       <c r="A822" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="823" spans="1:6">
       <c r="A823" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B823" s="3" t="s">
         <v>47</v>
@@ -14213,12 +14234,12 @@
     </row>
     <row r="824" spans="1:6">
       <c r="A824" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="825" spans="1:6">
       <c r="A825" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>47</v>
@@ -14226,7 +14247,7 @@
     </row>
     <row r="826" spans="1:6">
       <c r="A826" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B826" s="3" t="s">
         <v>54</v>
@@ -14243,7 +14264,7 @@
     </row>
     <row r="827" spans="1:6">
       <c r="A827" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B827" s="3" t="s">
         <v>47</v>
@@ -14257,7 +14278,7 @@
     </row>
     <row r="828" spans="1:6">
       <c r="A828" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B828" s="3" t="s">
         <v>54</v>
@@ -14274,12 +14295,12 @@
     </row>
     <row r="829" spans="1:6">
       <c r="A829" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="830" spans="1:6">
       <c r="A830" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B830" s="3" t="s">
         <v>47</v>
@@ -14287,10 +14308,10 @@
     </row>
     <row r="831" spans="1:6">
       <c r="A831" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B831" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="B831" s="3" t="s">
-        <v>911</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>47</v>
@@ -14304,7 +14325,7 @@
     </row>
     <row r="832" spans="1:6">
       <c r="A832" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B832" s="3" t="s">
         <v>47</v>
@@ -14312,42 +14333,42 @@
     </row>
     <row r="833" spans="1:4">
       <c r="A833" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="834" spans="1:4">
       <c r="A834" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="839" spans="1:4">
       <c r="A839" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B840" s="3" t="s">
         <v>47</v>
@@ -14355,7 +14376,7 @@
     </row>
     <row r="841" spans="1:4">
       <c r="A841" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B841" s="3" t="s">
         <v>51</v>
@@ -14363,7 +14384,7 @@
     </row>
     <row r="842" spans="1:4">
       <c r="A842" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B842" s="3" t="s">
         <v>47</v>
@@ -14371,7 +14392,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B843" s="3" t="s">
         <v>54</v>
@@ -14379,7 +14400,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B844" s="3" t="s">
         <v>49</v>
@@ -14387,7 +14408,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B845" s="3" t="s">
         <v>47</v>
@@ -14398,7 +14419,7 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B846" s="3" t="s">
         <v>50</v>
@@ -14406,7 +14427,7 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B847" s="3" t="s">
         <v>58</v>
@@ -14414,7 +14435,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B848" s="3" t="s">
         <v>47</v>
@@ -14428,7 +14449,7 @@
     </row>
     <row r="849" spans="1:14">
       <c r="A849" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B849" s="3" t="s">
         <v>49</v>
@@ -14436,7 +14457,7 @@
     </row>
     <row r="850" spans="1:14">
       <c r="A850" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B850" s="3" t="s">
         <v>51</v>
@@ -14444,7 +14465,7 @@
     </row>
     <row r="851" spans="1:14">
       <c r="A851" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B851" s="3" t="s">
         <v>51</v>
@@ -14452,7 +14473,7 @@
     </row>
     <row r="852" spans="1:14">
       <c r="A852" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B852" s="3" t="s">
         <v>47</v>
@@ -14463,7 +14484,7 @@
     </row>
     <row r="853" spans="1:14">
       <c r="A853" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B853" s="3" t="s">
         <v>51</v>
@@ -14477,7 +14498,7 @@
     </row>
     <row r="854" spans="1:14">
       <c r="A854" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B854" s="3" t="s">
         <v>49</v>
@@ -14485,7 +14506,7 @@
     </row>
     <row r="855" spans="1:14">
       <c r="A855" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B855" s="3" t="s">
         <v>49</v>
@@ -14493,7 +14514,7 @@
     </row>
     <row r="856" spans="1:14">
       <c r="A856" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B856" s="3" t="s">
         <v>47</v>
@@ -14504,7 +14525,7 @@
     </row>
     <row r="857" spans="1:14">
       <c r="A857" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B857" s="3" t="s">
         <v>47</v>
@@ -14512,12 +14533,12 @@
     </row>
     <row r="858" spans="1:14">
       <c r="A858" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="859" spans="1:14">
       <c r="A859" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>49</v>
@@ -14549,7 +14570,7 @@
     </row>
     <row r="860" spans="1:14">
       <c r="A860" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B860" s="3" t="s">
         <v>48</v>
@@ -14557,17 +14578,17 @@
     </row>
     <row r="861" spans="1:14">
       <c r="A861" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="862" spans="1:14">
       <c r="A862" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="863" spans="1:14">
       <c r="A863" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B863" s="3" t="s">
         <v>47</v>
@@ -14581,7 +14602,7 @@
     </row>
     <row r="864" spans="1:14">
       <c r="A864" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B864" s="3" t="s">
         <v>47</v>
@@ -14589,17 +14610,17 @@
     </row>
     <row r="865" spans="1:2">
       <c r="A865" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B867" s="3" t="s">
         <v>47</v>
@@ -14607,7 +14628,7 @@
     </row>
     <row r="868" spans="1:2">
       <c r="A868" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B868" s="3" t="s">
         <v>58</v>
@@ -14615,42 +14636,42 @@
     </row>
     <row r="869" spans="1:2">
       <c r="A869" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B876" s="3" t="s">
         <v>51</v>
@@ -14658,7 +14679,7 @@
     </row>
     <row r="877" spans="1:2">
       <c r="A877" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B877" s="3" t="s">
         <v>49</v>
@@ -14666,7 +14687,7 @@
     </row>
     <row r="878" spans="1:2">
       <c r="A878" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B878" s="3" t="s">
         <v>47</v>
@@ -14674,12 +14695,12 @@
     </row>
     <row r="879" spans="1:2">
       <c r="A879" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>47</v>
@@ -14687,7 +14708,7 @@
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B881" s="3" t="s">
         <v>47</v>
@@ -14695,12 +14716,12 @@
     </row>
     <row r="882" spans="1:3">
       <c r="A882" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B883" s="3" t="s">
         <v>47</v>
@@ -14708,7 +14729,7 @@
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B884" s="3" t="s">
         <v>47</v>
@@ -14716,7 +14737,7 @@
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B885" s="3" t="s">
         <v>47</v>
@@ -14724,7 +14745,7 @@
     </row>
     <row r="886" spans="1:3">
       <c r="A886" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B886" s="3" t="s">
         <v>47</v>
@@ -14732,7 +14753,7 @@
     </row>
     <row r="887" spans="1:3">
       <c r="A887" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B887" s="3" t="s">
         <v>47</v>
@@ -14743,17 +14764,17 @@
     </row>
     <row r="888" spans="1:3">
       <c r="A888" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="889" spans="1:3">
       <c r="A889" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="890" spans="1:3">
       <c r="A890" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B890" s="3" t="s">
         <v>47</v>
@@ -14761,12 +14782,12 @@
     </row>
     <row r="891" spans="1:3">
       <c r="A891" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="892" spans="1:3">
       <c r="A892" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B892" s="3" t="s">
         <v>106</v>
@@ -14774,22 +14795,22 @@
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="896" spans="1:3">
       <c r="A896" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B896" s="3" t="s">
         <v>47</v>
@@ -14797,7 +14818,7 @@
     </row>
     <row r="897" spans="1:17">
       <c r="A897" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B897" s="3" t="s">
         <v>51</v>
@@ -14808,7 +14829,7 @@
     </row>
     <row r="898" spans="1:17">
       <c r="A898" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B898" s="3" t="s">
         <v>51</v>
@@ -14816,7 +14837,7 @@
     </row>
     <row r="899" spans="1:17">
       <c r="A899" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B899" s="3" t="s">
         <v>51</v>
@@ -14824,21 +14845,21 @@
     </row>
     <row r="900" spans="1:17">
       <c r="A900" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="901" spans="1:17">
       <c r="A901" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C901" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D901" s="3" t="s">
         <v>981</v>
-      </c>
-      <c r="B901" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C901" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D901" s="3" t="s">
-        <v>982</v>
       </c>
       <c r="E901" s="3" t="s">
         <v>47</v>
@@ -14849,7 +14870,7 @@
     </row>
     <row r="902" spans="1:17">
       <c r="A902" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B902" s="3" t="s">
         <v>47</v>
@@ -14863,7 +14884,7 @@
     </row>
     <row r="903" spans="1:17">
       <c r="A903" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B903" s="3" t="s">
         <v>58</v>
@@ -14877,7 +14898,7 @@
     </row>
     <row r="904" spans="1:17">
       <c r="A904" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B904" s="3" t="s">
         <v>47</v>
@@ -14888,7 +14909,7 @@
     </row>
     <row r="905" spans="1:17">
       <c r="A905" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B905" s="3" t="s">
         <v>58</v>
@@ -14896,7 +14917,7 @@
     </row>
     <row r="906" spans="1:17">
       <c r="A906" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B906" s="3" t="s">
         <v>513</v>
@@ -14904,12 +14925,12 @@
     </row>
     <row r="907" spans="1:17">
       <c r="A907" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="908" spans="1:17">
       <c r="A908" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B908" s="3" t="s">
         <v>47</v>
@@ -14920,7 +14941,7 @@
     </row>
     <row r="909" spans="1:17">
       <c r="A909" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B909" s="3" t="s">
         <v>47</v>
@@ -14934,17 +14955,17 @@
     </row>
     <row r="910" spans="1:17">
       <c r="A910" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="911" spans="1:17">
       <c r="A911" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="912" spans="1:17">
       <c r="A912" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B912" s="3" t="s">
         <v>58</v>
@@ -14997,7 +15018,7 @@
     </row>
     <row r="913" spans="1:5">
       <c r="A913" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B913" s="3" t="s">
         <v>61</v>
@@ -15005,7 +15026,7 @@
     </row>
     <row r="914" spans="1:5">
       <c r="A914" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B914" s="3" t="s">
         <v>49</v>
@@ -15013,7 +15034,7 @@
     </row>
     <row r="915" spans="1:5">
       <c r="A915" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B915" s="3" t="s">
         <v>47</v>
@@ -15021,7 +15042,7 @@
     </row>
     <row r="916" spans="1:5">
       <c r="A916" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B916" s="3" t="s">
         <v>47</v>
@@ -15038,7 +15059,7 @@
     </row>
     <row r="917" spans="1:5">
       <c r="A917" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B917" s="3" t="s">
         <v>47</v>
@@ -15046,7 +15067,7 @@
     </row>
     <row r="918" spans="1:5">
       <c r="A918" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B918" s="3" t="s">
         <v>51</v>
@@ -15054,7 +15075,7 @@
     </row>
     <row r="919" spans="1:5">
       <c r="A919" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B919" s="3" t="s">
         <v>51</v>
@@ -15062,7 +15083,7 @@
     </row>
     <row r="920" spans="1:5">
       <c r="A920" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B920" s="3" t="s">
         <v>51</v>
@@ -15070,7 +15091,7 @@
     </row>
     <row r="921" spans="1:5">
       <c r="A921" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B921" s="3" t="s">
         <v>47</v>
@@ -15081,7 +15102,7 @@
     </row>
     <row r="922" spans="1:5">
       <c r="A922" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B922" s="3" t="s">
         <v>51</v>
@@ -15089,17 +15110,17 @@
     </row>
     <row r="923" spans="1:5">
       <c r="A923" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="924" spans="1:5">
       <c r="A924" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="925" spans="1:5">
       <c r="A925" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B925" s="3" t="s">
         <v>49</v>
@@ -15107,32 +15128,32 @@
     </row>
     <row r="926" spans="1:5">
       <c r="A926" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="927" spans="1:5">
       <c r="A927" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="928" spans="1:5">
       <c r="A928" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="929" spans="1:5">
       <c r="A929" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="930" spans="1:5">
       <c r="A930" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="931" spans="1:5">
       <c r="A931" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B931" s="3" t="s">
         <v>51</v>
@@ -15140,7 +15161,7 @@
     </row>
     <row r="932" spans="1:5">
       <c r="A932" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B932" s="3" t="s">
         <v>47</v>
@@ -15148,7 +15169,7 @@
     </row>
     <row r="933" spans="1:5">
       <c r="A933" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B933" s="3" t="s">
         <v>47</v>
@@ -15159,7 +15180,7 @@
     </row>
     <row r="934" spans="1:5">
       <c r="A934" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B934" s="3" t="s">
         <v>47</v>
@@ -15170,7 +15191,7 @@
     </row>
     <row r="935" spans="1:5">
       <c r="A935" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B935" s="3" t="s">
         <v>47</v>
@@ -15184,7 +15205,7 @@
     </row>
     <row r="936" spans="1:5">
       <c r="A936" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B936" s="3" t="s">
         <v>47</v>
@@ -15192,12 +15213,12 @@
     </row>
     <row r="937" spans="1:5">
       <c r="A937" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="938" spans="1:5">
       <c r="A938" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B938" s="3" t="s">
         <v>49</v>
@@ -15211,7 +15232,7 @@
     </row>
     <row r="939" spans="1:5">
       <c r="A939" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B939" s="3" t="s">
         <v>47</v>
@@ -15219,17 +15240,17 @@
     </row>
     <row r="940" spans="1:5">
       <c r="A940" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="941" spans="1:5">
       <c r="A941" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="942" spans="1:5">
       <c r="A942" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B942" s="3" t="s">
         <v>47</v>
@@ -15243,12 +15264,12 @@
     </row>
     <row r="943" spans="1:5">
       <c r="A943" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="944" spans="1:5">
       <c r="A944" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B944" s="3" t="s">
         <v>47</v>
@@ -15259,7 +15280,7 @@
     </row>
     <row r="945" spans="1:16">
       <c r="A945" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B945" s="3" t="s">
         <v>47</v>
@@ -15267,12 +15288,12 @@
     </row>
     <row r="946" spans="1:16">
       <c r="A946" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="947" spans="1:16">
       <c r="A947" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B947" s="3" t="s">
         <v>51</v>
@@ -15280,12 +15301,12 @@
     </row>
     <row r="948" spans="1:16">
       <c r="A948" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="949" spans="1:16">
       <c r="A949" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B949" s="3" t="s">
         <v>47</v>
@@ -15329,7 +15350,7 @@
     </row>
     <row r="950" spans="1:16">
       <c r="A950" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B950" s="3" t="s">
         <v>47</v>
@@ -15340,7 +15361,7 @@
     </row>
     <row r="951" spans="1:16">
       <c r="A951" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B951" s="3" t="s">
         <v>47</v>
@@ -15357,7 +15378,7 @@
     </row>
     <row r="952" spans="1:16">
       <c r="A952" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B952" s="3" t="s">
         <v>47</v>
@@ -15369,12 +15390,12 @@
         <v>49</v>
       </c>
       <c r="F952" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="953" spans="1:16">
       <c r="A953" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B953" s="3" t="s">
         <v>47</v>
@@ -15382,7 +15403,7 @@
     </row>
     <row r="954" spans="1:16">
       <c r="A954" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B954" s="3" t="s">
         <v>51</v>
@@ -15393,7 +15414,7 @@
     </row>
     <row r="955" spans="1:16">
       <c r="A955" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B955" s="3" t="s">
         <v>47</v>
@@ -15404,7 +15425,7 @@
     </row>
     <row r="956" spans="1:16">
       <c r="A956" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B956" s="3" t="s">
         <v>47</v>
@@ -15415,7 +15436,7 @@
     </row>
     <row r="957" spans="1:16">
       <c r="A957" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B957" s="3" t="s">
         <v>51</v>
@@ -15429,7 +15450,7 @@
     </row>
     <row r="958" spans="1:16">
       <c r="A958" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B958" s="3" t="s">
         <v>51</v>
@@ -15455,7 +15476,7 @@
     </row>
     <row r="959" spans="1:16">
       <c r="A959" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B959" s="3" t="s">
         <v>47</v>
@@ -15466,7 +15487,7 @@
     </row>
     <row r="960" spans="1:16">
       <c r="A960" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B960" s="3" t="s">
         <v>53</v>
@@ -15474,7 +15495,7 @@
     </row>
     <row r="961" spans="1:3">
       <c r="A961" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B961" s="3" t="s">
         <v>49</v>
@@ -15485,7 +15506,7 @@
     </row>
     <row r="962" spans="1:3">
       <c r="A962" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B962" s="3" t="s">
         <v>47</v>
@@ -15493,7 +15514,7 @@
     </row>
     <row r="963" spans="1:3">
       <c r="A963" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B963" s="3" t="s">
         <v>47</v>
@@ -15501,7 +15522,7 @@
     </row>
     <row r="964" spans="1:3">
       <c r="A964" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>47</v>
@@ -15509,12 +15530,12 @@
     </row>
     <row r="965" spans="1:3">
       <c r="A965" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="966" spans="1:3">
       <c r="A966" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B966" s="3" t="s">
         <v>51</v>
@@ -15522,17 +15543,17 @@
     </row>
     <row r="967" spans="1:3">
       <c r="A967" s="2" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="968" spans="1:3">
       <c r="A968" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="969" spans="1:3">
       <c r="A969" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B969" s="3" t="s">
         <v>47</v>
@@ -15540,7 +15561,7 @@
     </row>
     <row r="970" spans="1:3">
       <c r="A970" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B970" s="3" t="s">
         <v>47</v>
@@ -15548,17 +15569,17 @@
     </row>
     <row r="971" spans="1:3">
       <c r="A971" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="A972" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="A973" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B973" s="3" t="s">
         <v>51</v>
@@ -15566,7 +15587,7 @@
     </row>
     <row r="974" spans="1:3">
       <c r="A974" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B974" s="3" t="s">
         <v>47</v>
@@ -15574,7 +15595,7 @@
     </row>
     <row r="975" spans="1:3">
       <c r="A975" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B975" s="3" t="s">
         <v>47</v>
@@ -15582,7 +15603,7 @@
     </row>
     <row r="976" spans="1:3">
       <c r="A976" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B976" s="3" t="s">
         <v>47</v>
@@ -15590,7 +15611,7 @@
     </row>
     <row r="977" spans="1:5">
       <c r="A977" s="2" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B977" s="3" t="s">
         <v>58</v>
@@ -15598,7 +15619,7 @@
     </row>
     <row r="978" spans="1:5">
       <c r="A978" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B978" s="3" t="s">
         <v>53</v>
@@ -15606,7 +15627,7 @@
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B979" s="3" t="s">
         <v>47</v>
@@ -15623,7 +15644,7 @@
     </row>
     <row r="980" spans="1:5">
       <c r="A980" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B980" s="3" t="s">
         <v>47</v>
@@ -15631,62 +15652,62 @@
     </row>
     <row r="981" spans="1:5">
       <c r="A981" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="982" spans="1:5">
       <c r="A982" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="983" spans="1:5">
       <c r="A983" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="984" spans="1:5">
       <c r="A984" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="985" spans="1:5">
       <c r="A985" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="986" spans="1:5">
       <c r="A986" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="987" spans="1:5">
       <c r="A987" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="988" spans="1:5">
       <c r="A988" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="989" spans="1:5">
       <c r="A989" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="990" spans="1:5">
       <c r="A990" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="991" spans="1:5">
       <c r="A991" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="992" spans="1:5">
       <c r="A992" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B992" s="3" t="s">
         <v>47</v>
@@ -15694,7 +15715,7 @@
     </row>
     <row r="993" spans="1:3">
       <c r="A993" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B993" s="3" t="s">
         <v>47</v>
@@ -15702,7 +15723,7 @@
     </row>
     <row r="994" spans="1:3">
       <c r="A994" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B994" s="3" t="s">
         <v>51</v>
@@ -15710,7 +15731,7 @@
     </row>
     <row r="995" spans="1:3">
       <c r="A995" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B995" s="3" t="s">
         <v>47</v>
@@ -15718,7 +15739,7 @@
     </row>
     <row r="996" spans="1:3">
       <c r="A996" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B996" s="3" t="s">
         <v>47</v>
@@ -15726,7 +15747,7 @@
     </row>
     <row r="997" spans="1:3">
       <c r="A997" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B997" s="3" t="s">
         <v>47</v>
@@ -15734,42 +15755,42 @@
     </row>
     <row r="998" spans="1:3">
       <c r="A998" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="999" spans="1:3">
       <c r="A999" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
       <c r="A1000" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1005" s="3" t="s">
         <v>54</v>
@@ -15780,7 +15801,7 @@
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>47</v>
@@ -15788,32 +15809,32 @@
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
       <c r="A1009" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
       <c r="A1010" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
       <c r="A1011" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
       <c r="A1012" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1012" s="3" t="s">
         <v>51</v>
@@ -15824,17 +15845,17 @@
     </row>
     <row r="1013" spans="1:3">
       <c r="A1013" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
       <c r="A1014" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
       <c r="A1015" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1015" s="3" t="s">
         <v>47</v>
@@ -15845,17 +15866,17 @@
     </row>
     <row r="1016" spans="1:3">
       <c r="A1016" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
       <c r="A1017" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
       <c r="A1018" s="2" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B1018" s="3" t="s">
         <v>47</v>
@@ -15863,37 +15884,37 @@
     </row>
     <row r="1019" spans="1:3">
       <c r="A1019" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
       <c r="A1020" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
       <c r="A1021" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
       <c r="A1022" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
       <c r="A1023" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
       <c r="A1024" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1025" s="3" t="s">
         <v>47</v>
@@ -15901,12 +15922,12 @@
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" s="2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1027" s="3" t="s">
         <v>47</v>
@@ -15914,62 +15935,62 @@
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1039" s="3" t="s">
         <v>51</v>
@@ -15977,42 +15998,42 @@
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
       <c r="A1041" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
       <c r="A1042" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
       <c r="A1043" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
       <c r="A1044" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
       <c r="A1045" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
       <c r="A1046" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
       <c r="A1047" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1047" s="3" t="s">
         <v>51</v>
@@ -16023,27 +16044,27 @@
     </row>
     <row r="1048" spans="1:3">
       <c r="A1048" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
       <c r="A1049" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
       <c r="A1050" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
       <c r="A1051" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
       <c r="A1052" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1052" s="3" t="s">
         <v>47</v>
@@ -16051,162 +16072,162 @@
     </row>
     <row r="1053" spans="1:3">
       <c r="A1053" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
       <c r="A1054" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
       <c r="A1055" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
       <c r="A1056" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1084" s="3" t="s">
         <v>47</v>
@@ -16214,27 +16235,27 @@
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1089" spans="1:6">
       <c r="A1089" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1089" s="3" t="s">
         <v>47</v>
@@ -16242,7 +16263,7 @@
     </row>
     <row r="1090" spans="1:6">
       <c r="A1090" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1090" s="3" t="s">
         <v>59</v>
@@ -16259,7 +16280,7 @@
     </row>
     <row r="1091" spans="1:6">
       <c r="A1091" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1091" s="3" t="s">
         <v>51</v>
@@ -16273,7 +16294,7 @@
     </row>
     <row r="1092" spans="1:6">
       <c r="A1092" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1092" s="3" t="s">
         <v>54</v>
@@ -16281,17 +16302,17 @@
     </row>
     <row r="1093" spans="1:6">
       <c r="A1093" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
       <c r="A1094" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1095" spans="1:6">
       <c r="A1095" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B1095" s="3" t="s">
         <v>47</v>
@@ -16299,7 +16320,7 @@
     </row>
     <row r="1096" spans="1:6">
       <c r="A1096" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1096" s="3" t="s">
         <v>47</v>
@@ -16307,7 +16328,7 @@
     </row>
     <row r="1097" spans="1:6">
       <c r="A1097" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1097" s="3" t="s">
         <v>54</v>
@@ -16318,22 +16339,31 @@
     </row>
     <row r="1098" spans="1:6">
       <c r="A1098" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="1099" spans="1:6">
       <c r="A1099" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="1100" spans="1:6">
       <c r="A1100" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
       <c r="A1101" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1101" s="3" t="s">
         <v>47</v>
@@ -16341,87 +16371,90 @@
     </row>
     <row r="1102" spans="1:6">
       <c r="A1102" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="1103" spans="1:6">
       <c r="A1103" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1104" spans="1:6">
       <c r="A1104" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
       <c r="A1105" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
       <c r="A1106" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
       <c r="A1107" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
       <c r="A1108" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
       <c r="A1109" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
       <c r="A1110" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
       <c r="A1111" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
       <c r="A1112" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
       <c r="A1113" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
       <c r="A1114" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
       <c r="A1115" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
       <c r="A1116" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
       <c r="A1117" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
       <c r="A1118" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1118" s="3" t="s">
         <v>47</v>
@@ -16432,7 +16465,7 @@
     </row>
     <row r="1119" spans="1:3">
       <c r="A1119" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1119" s="3" t="s">
         <v>47</v>
@@ -16443,7 +16476,7 @@
     </row>
     <row r="1120" spans="1:3">
       <c r="A1120" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1120" s="3" t="s">
         <v>47</v>
@@ -16454,7 +16487,7 @@
     </row>
     <row r="1121" spans="1:3">
       <c r="A1121" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1121" s="3" t="s">
         <v>47</v>
@@ -16465,7 +16498,7 @@
     </row>
     <row r="1122" spans="1:3">
       <c r="A1122" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1122" s="3" t="s">
         <v>58</v>
@@ -16476,7 +16509,7 @@
     </row>
     <row r="1123" spans="1:3">
       <c r="A1123" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1123" s="3" t="s">
         <v>47</v>
@@ -16487,7 +16520,7 @@
     </row>
     <row r="1124" spans="1:3">
       <c r="A1124" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1124" s="3" t="s">
         <v>51</v>
@@ -16498,7 +16531,7 @@
     </row>
     <row r="1125" spans="1:3">
       <c r="A1125" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1125" s="3" t="s">
         <v>47</v>
@@ -16509,7 +16542,7 @@
     </row>
     <row r="1126" spans="1:3">
       <c r="A1126" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1126" s="3" t="s">
         <v>47</v>
@@ -16520,7 +16553,7 @@
     </row>
     <row r="1127" spans="1:3">
       <c r="A1127" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1127" s="3" t="s">
         <v>51</v>
@@ -16531,7 +16564,7 @@
     </row>
     <row r="1128" spans="1:3">
       <c r="A1128" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1128" s="3" t="s">
         <v>47</v>
@@ -16542,7 +16575,7 @@
     </row>
     <row r="1129" spans="1:3">
       <c r="A1129" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1129" s="3" t="s">
         <v>47</v>
@@ -16553,7 +16586,7 @@
     </row>
     <row r="1130" spans="1:3">
       <c r="A1130" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1130" s="3" t="s">
         <v>47</v>
@@ -16564,7 +16597,7 @@
     </row>
     <row r="1131" spans="1:3">
       <c r="A1131" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1131" s="3" t="s">
         <v>47</v>
@@ -16575,7 +16608,7 @@
     </row>
     <row r="1132" spans="1:3">
       <c r="A1132" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1132" s="3" t="s">
         <v>47</v>
@@ -16586,7 +16619,7 @@
     </row>
     <row r="1133" spans="1:3">
       <c r="A1133" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1133" s="3" t="s">
         <v>47</v>
@@ -16597,7 +16630,7 @@
     </row>
     <row r="1134" spans="1:3">
       <c r="A1134" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1134" s="3" t="s">
         <v>47</v>
@@ -16605,7 +16638,7 @@
     </row>
     <row r="1135" spans="1:3">
       <c r="A1135" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1135" s="3" t="s">
         <v>47</v>
@@ -16613,7 +16646,7 @@
     </row>
     <row r="1136" spans="1:3">
       <c r="A1136" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1136" s="3" t="s">
         <v>47</v>
@@ -16621,7 +16654,7 @@
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1137" s="3" t="s">
         <v>51</v>
@@ -16629,7 +16662,7 @@
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B1138" s="3" t="s">
         <v>49</v>
@@ -16637,7 +16670,7 @@
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1139" s="3" t="s">
         <v>54</v>
@@ -16645,7 +16678,7 @@
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1140" s="3" t="s">
         <v>47</v>
@@ -16653,7 +16686,7 @@
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1141" s="3" t="s">
         <v>47</v>
@@ -16661,7 +16694,7 @@
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1142" s="3" t="s">
         <v>47</v>
@@ -16669,7 +16702,7 @@
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1143" s="3" t="s">
         <v>51</v>
@@ -16677,7 +16710,7 @@
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1144" s="3" t="s">
         <v>47</v>
@@ -16685,7 +16718,7 @@
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1145" s="3" t="s">
         <v>47</v>
@@ -16693,7 +16726,7 @@
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1146" s="3" t="s">
         <v>47</v>
@@ -16701,7 +16734,7 @@
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1147" s="3" t="s">
         <v>47</v>
@@ -16709,7 +16742,7 @@
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1148" s="3" t="s">
         <v>47</v>
@@ -16717,7 +16750,7 @@
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1149" s="3" t="s">
         <v>51</v>
@@ -16725,7 +16758,7 @@
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1150" s="3" t="s">
         <v>47</v>
@@ -16733,7 +16766,7 @@
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1151" s="3" t="s">
         <v>47</v>
@@ -16741,7 +16774,7 @@
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B1152" s="3" t="s">
         <v>47</v>
@@ -16749,7 +16782,7 @@
     </row>
     <row r="1153" spans="1:3">
       <c r="A1153" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1153" s="3" t="s">
         <v>47</v>
@@ -16757,7 +16790,7 @@
     </row>
     <row r="1154" spans="1:3">
       <c r="A1154" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1154" s="3" t="s">
         <v>47</v>
@@ -16765,7 +16798,7 @@
     </row>
     <row r="1155" spans="1:3">
       <c r="A1155" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1155" s="3" t="s">
         <v>47</v>
@@ -16776,7 +16809,7 @@
     </row>
     <row r="1156" spans="1:3">
       <c r="A1156" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1156" s="3" t="s">
         <v>47</v>
@@ -16787,7 +16820,7 @@
     </row>
     <row r="1157" spans="1:3">
       <c r="A1157" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1157" s="3" t="s">
         <v>47</v>
@@ -16798,7 +16831,7 @@
     </row>
     <row r="1158" spans="1:3">
       <c r="A1158" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1158" s="3" t="s">
         <v>47</v>
@@ -16809,7 +16842,7 @@
     </row>
     <row r="1159" spans="1:3">
       <c r="A1159" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1159" s="3" t="s">
         <v>47</v>
@@ -16820,7 +16853,7 @@
     </row>
     <row r="1160" spans="1:3">
       <c r="A1160" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1160" s="3" t="s">
         <v>47</v>
@@ -16831,7 +16864,7 @@
     </row>
     <row r="1161" spans="1:3">
       <c r="A1161" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1161" s="3" t="s">
         <v>47</v>
@@ -16842,7 +16875,7 @@
     </row>
     <row r="1162" spans="1:3">
       <c r="A1162" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1162" s="3" t="s">
         <v>49</v>
@@ -16850,7 +16883,7 @@
     </row>
     <row r="1163" spans="1:3">
       <c r="A1163" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1163" s="3" t="s">
         <v>54</v>
@@ -16861,67 +16894,67 @@
     </row>
     <row r="1164" spans="1:3">
       <c r="A1164" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
       <c r="A1165" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
       <c r="A1166" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
       <c r="A1167" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
       <c r="A1168" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
       <c r="A1169" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1170" spans="1:3">
       <c r="A1170" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
       <c r="A1171" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
       <c r="A1172" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
       <c r="A1173" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
       <c r="A1174" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
       <c r="A1175" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
       <c r="A1176" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1176" s="3" t="s">
         <v>47</v>
@@ -16929,7 +16962,7 @@
     </row>
     <row r="1177" spans="1:3">
       <c r="A1177" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1177" s="3" t="s">
         <v>47</v>
@@ -16937,37 +16970,37 @@
     </row>
     <row r="1178" spans="1:3">
       <c r="A1178" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
       <c r="A1179" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1180" spans="1:3">
       <c r="A1180" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
       <c r="A1181" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
       <c r="A1182" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
       <c r="A1183" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
       <c r="A1184" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1184" s="3" t="s">
         <v>49</v>
@@ -16978,22 +17011,22 @@
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1186" spans="1:9">
       <c r="A1186" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
       <c r="A1187" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1188" spans="1:9">
       <c r="A1188" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1188" s="3" t="s">
         <v>47</v>
@@ -17004,7 +17037,7 @@
     </row>
     <row r="1189" spans="1:9">
       <c r="A1189" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1189" s="3" t="s">
         <v>177</v>
@@ -17018,7 +17051,7 @@
     </row>
     <row r="1190" spans="1:9">
       <c r="A1190" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1190" s="3" t="s">
         <v>59</v>
@@ -17029,12 +17062,12 @@
     </row>
     <row r="1191" spans="1:9">
       <c r="A1191" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1192" spans="1:9">
       <c r="A1192" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1192" s="3" t="s">
         <v>47</v>
@@ -17042,7 +17075,7 @@
     </row>
     <row r="1193" spans="1:9">
       <c r="A1193" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1193" s="3" t="s">
         <v>47</v>
@@ -17050,7 +17083,7 @@
     </row>
     <row r="1194" spans="1:9">
       <c r="A1194" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1194" s="3" t="s">
         <v>47</v>
@@ -17058,7 +17091,7 @@
     </row>
     <row r="1195" spans="1:9">
       <c r="A1195" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1195" s="3" t="s">
         <v>49</v>
@@ -17066,7 +17099,7 @@
     </row>
     <row r="1196" spans="1:9">
       <c r="A1196" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1196" s="3" t="s">
         <v>49</v>
@@ -17074,7 +17107,7 @@
     </row>
     <row r="1197" spans="1:9">
       <c r="A1197" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1197" s="3" t="s">
         <v>51</v>
@@ -17082,32 +17115,32 @@
     </row>
     <row r="1198" spans="1:9">
       <c r="A1198" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
       <c r="A1199" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
       <c r="A1200" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1203" s="3" t="s">
         <v>47</v>
@@ -17115,22 +17148,22 @@
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1207" s="3" t="s">
         <v>47</v>
@@ -17138,12 +17171,12 @@
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1209" s="3" t="s">
         <v>47</v>
@@ -17151,7 +17184,7 @@
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1210" s="3" t="s">
         <v>47</v>
@@ -17159,52 +17192,52 @@
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
       <c r="A1217" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
       <c r="A1218" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
       <c r="A1219" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
       <c r="A1220" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1220" s="3" t="s">
         <v>49</v>
@@ -17212,17 +17245,17 @@
     </row>
     <row r="1221" spans="1:8">
       <c r="A1221" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
       <c r="A1222" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
       <c r="A1223" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1223" s="3" t="s">
         <v>47</v>
@@ -17230,7 +17263,7 @@
     </row>
     <row r="1224" spans="1:8">
       <c r="A1224" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1224" s="3" t="s">
         <v>51</v>
@@ -17238,7 +17271,7 @@
     </row>
     <row r="1225" spans="1:8">
       <c r="A1225" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1225" s="3" t="s">
         <v>47</v>
@@ -17246,7 +17279,7 @@
     </row>
     <row r="1226" spans="1:8">
       <c r="A1226" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1226" s="3" t="s">
         <v>47</v>
@@ -17254,7 +17287,7 @@
     </row>
     <row r="1227" spans="1:8">
       <c r="A1227" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1227" s="3" t="s">
         <v>47</v>
@@ -17265,7 +17298,7 @@
     </row>
     <row r="1228" spans="1:8">
       <c r="A1228" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1228" s="3" t="s">
         <v>47</v>
@@ -17273,7 +17306,7 @@
     </row>
     <row r="1229" spans="1:8">
       <c r="A1229" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1229" s="3" t="s">
         <v>47</v>
@@ -17281,7 +17314,7 @@
     </row>
     <row r="1230" spans="1:8">
       <c r="A1230" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1230" s="3" t="s">
         <v>47</v>
@@ -17289,7 +17322,7 @@
     </row>
     <row r="1231" spans="1:8">
       <c r="A1231" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1231" s="3" t="s">
         <v>47</v>
@@ -17297,7 +17330,7 @@
     </row>
     <row r="1232" spans="1:8">
       <c r="A1232" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1232" s="3" t="s">
         <v>49</v>
@@ -17305,7 +17338,7 @@
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1233" s="3" t="s">
         <v>47</v>
@@ -17313,7 +17346,7 @@
     </row>
     <row r="1234" spans="1:2">
       <c r="A1234" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1234" s="3" t="s">
         <v>47</v>
@@ -17321,7 +17354,7 @@
     </row>
     <row r="1235" spans="1:2">
       <c r="A1235" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1235" s="3" t="s">
         <v>47</v>
@@ -17329,7 +17362,7 @@
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1236" s="3" t="s">
         <v>47</v>
@@ -17337,7 +17370,7 @@
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1237" s="3" t="s">
         <v>47</v>
@@ -17345,7 +17378,7 @@
     </row>
     <row r="1238" spans="1:2">
       <c r="A1238" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1238" s="3" t="s">
         <v>47</v>
@@ -17353,12 +17386,12 @@
     </row>
     <row r="1239" spans="1:2">
       <c r="A1239" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1240" s="3" t="s">
         <v>51</v>
@@ -17366,7 +17399,7 @@
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1241" s="3" t="s">
         <v>47</v>
@@ -17374,7 +17407,7 @@
     </row>
     <row r="1242" spans="1:2">
       <c r="A1242" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1242" s="3" t="s">
         <v>47</v>
@@ -17382,7 +17415,7 @@
     </row>
     <row r="1243" spans="1:2">
       <c r="A1243" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1243" s="3" t="s">
         <v>47</v>
@@ -17390,7 +17423,7 @@
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1244" s="3" t="s">
         <v>47</v>
@@ -17398,7 +17431,7 @@
     </row>
     <row r="1245" spans="1:2">
       <c r="A1245" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1245" s="3" t="s">
         <v>47</v>
@@ -17406,7 +17439,7 @@
     </row>
     <row r="1246" spans="1:2">
       <c r="A1246" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1246" s="3" t="s">
         <v>47</v>
@@ -17414,7 +17447,7 @@
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1247" s="3" t="s">
         <v>47</v>
@@ -17422,72 +17455,72 @@
     </row>
     <row r="1248" spans="1:2">
       <c r="A1248" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
       <c r="A1250" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
       <c r="A1253" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
       <c r="A1255" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
       <c r="A1260" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1261" s="3" t="s">
         <v>47</v>
@@ -17495,47 +17528,47 @@
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
       <c r="A1263" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
       <c r="A1265" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
       <c r="A1266" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
       <c r="A1270" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1270" s="3" t="s">
         <v>47</v>
@@ -17543,7 +17576,7 @@
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1271" s="3" t="s">
         <v>47</v>
@@ -17551,7 +17584,7 @@
     </row>
     <row r="1272" spans="1:2">
       <c r="A1272" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1272" s="3" t="s">
         <v>47</v>
@@ -17559,7 +17592,7 @@
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1273" s="3" t="s">
         <v>49</v>
@@ -17567,7 +17600,7 @@
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1274" s="3" t="s">
         <v>47</v>
@@ -17575,87 +17608,87 @@
     </row>
     <row r="1275" spans="1:2">
       <c r="A1275" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
       <c r="A1276" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
       <c r="A1278" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
       <c r="A1281" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
       <c r="A1283" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
       <c r="A1284" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
       <c r="A1286" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
       <c r="A1287" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1291" s="3" t="s">
         <v>51</v>
@@ -17663,22 +17696,22 @@
     </row>
     <row r="1292" spans="1:2">
       <c r="A1292" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
       <c r="A1295" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B1295" s="3" t="s">
         <v>47</v>
@@ -17686,57 +17719,57 @@
     </row>
     <row r="1296" spans="1:2">
       <c r="A1296" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
       <c r="A1298" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
       <c r="A1299" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
       <c r="A1301" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
       <c r="A1302" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
       <c r="A1304" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
       <c r="A1306" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1306" s="3" t="s">
         <v>49</v>
@@ -17744,62 +17777,62 @@
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
       <c r="A1308" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
       <c r="A1309" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
       <c r="A1311" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
       <c r="A1313" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1314" spans="1:2">
       <c r="A1314" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
       <c r="A1316" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
       <c r="A1317" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1318" s="3" t="s">
         <v>47</v>
@@ -17807,27 +17840,27 @@
     </row>
     <row r="1319" spans="1:2">
       <c r="A1319" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
       <c r="A1321" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1322" spans="1:2">
       <c r="A1322" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1323" s="3" t="s">
         <v>47</v>
@@ -17835,17 +17868,17 @@
     </row>
     <row r="1324" spans="1:2">
       <c r="A1324" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1326" s="3" t="s">
         <v>47</v>
@@ -17853,217 +17886,217 @@
     </row>
     <row r="1327" spans="1:2">
       <c r="A1327" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
       <c r="A1328" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
       <c r="A1361" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
       <c r="A1362" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
       <c r="A1364" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
       <c r="A1365" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
       <c r="A1367" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
       <c r="A1368" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1369" s="3" t="s">
         <v>47</v>
@@ -18071,7 +18104,7 @@
     </row>
     <row r="1370" spans="1:2">
       <c r="A1370" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B1370" s="3" t="s">
         <v>49</v>
@@ -18079,12 +18112,12 @@
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1372" s="3" t="s">
         <v>47</v>
@@ -18092,7 +18125,7 @@
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B1373" s="3" t="s">
         <v>47</v>
@@ -18100,22 +18133,22 @@
     </row>
     <row r="1374" spans="1:2">
       <c r="A1374" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
       <c r="A1376" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B1377" s="3" t="s">
         <v>47</v>
@@ -18123,7 +18156,7 @@
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1378" s="3" t="s">
         <v>47</v>
@@ -18131,142 +18164,142 @@
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
       <c r="A1382" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
       <c r="A1383" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
       <c r="A1388" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
       <c r="A1390" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
       <c r="A1391" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
       <c r="A1393" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
       <c r="A1394" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
       <c r="A1400" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
       <c r="A1401" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
       <c r="A1403" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
       <c r="A1404" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
       <c r="A1406" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1406" s="3" t="s">
         <v>47</v>
@@ -18274,37 +18307,37 @@
     </row>
     <row r="1407" spans="1:2">
       <c r="A1407" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
       <c r="A1410" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
       <c r="A1412" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1413" s="3" t="s">
         <v>47</v>
@@ -18312,62 +18345,62 @@
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
       <c r="A1415" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
       <c r="A1416" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
       <c r="A1422" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
       <c r="A1425" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B1425" s="3" t="s">
         <v>47</v>
@@ -18375,7 +18408,7 @@
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1426" s="3" t="s">
         <v>47</v>
@@ -18383,7 +18416,7 @@
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1427" s="3" t="s">
         <v>47</v>
@@ -18391,7 +18424,7 @@
     </row>
     <row r="1428" spans="1:2">
       <c r="A1428" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1428" s="3" t="s">
         <v>47</v>
@@ -18399,67 +18432,67 @@
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
       <c r="A1431" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
       <c r="A1434" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
       <c r="A1437" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
       <c r="A1438" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
       <c r="A1440" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
       <c r="A1441" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B1441" s="3" t="s">
         <v>51</v>
@@ -18467,30 +18500,30 @@
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B1443" s="4" t="s">
-        <v>72</v>
+        <v>1524</v>
+      </c>
+      <c r="B1443" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
       <c r="A1444" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
       <c r="A1445" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B1446" s="3" t="s">
         <v>47</v>
@@ -18498,47 +18531,47 @@
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
       <c r="A1449" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
       <c r="A1452" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1455" s="3" t="s">
         <v>47</v>
@@ -18546,52 +18579,52 @@
     </row>
     <row r="1456" spans="1:2">
       <c r="A1456" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
       <c r="A1457" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
       <c r="A1460" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
       <c r="A1462" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
       <c r="A1463" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
       <c r="A1465" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B1465" s="3" t="s">
         <v>47</v>
@@ -18599,47 +18632,47 @@
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
       <c r="A1471" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
       <c r="A1473" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
       <c r="A1474" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B1474" s="3" t="s">
         <v>51</v>
@@ -18647,27 +18680,27 @@
     </row>
     <row r="1475" spans="1:3">
       <c r="A1475" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
       <c r="A1476" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
       <c r="A1477" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
       <c r="A1478" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
       <c r="A1479" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B1479" s="3" t="s">
         <v>47</v>
@@ -18675,32 +18708,32 @@
     </row>
     <row r="1480" spans="1:3">
       <c r="A1480" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
       <c r="A1481" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
       <c r="A1482" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
       <c r="A1483" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
       <c r="A1484" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
       <c r="A1485" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B1485" s="3" t="s">
         <v>47</v>
@@ -18708,28 +18741,28 @@
     </row>
     <row r="1486" spans="1:3">
       <c r="A1486" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
       <c r="A1487" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
       <c r="A1488" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B1488" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C1488" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B1489" s="3" t="s">
         <v>51</v>
@@ -18737,32 +18770,32 @@
     </row>
     <row r="1490" spans="1:2">
       <c r="A1490" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="2" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
       <c r="A1492" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
       <c r="A1493" s="2" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B1495" s="3" t="s">
         <v>51</v>
@@ -18770,7 +18803,7 @@
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B1496" s="3" t="s">
         <v>51</v>
@@ -18778,12 +18811,12 @@
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B1498" s="3" t="s">
         <v>51</v>
@@ -18791,12 +18824,12 @@
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B1500" s="3" t="s">
         <v>51</v>
@@ -18804,7 +18837,7 @@
     </row>
     <row r="1501" spans="1:2">
       <c r="A1501" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B1501" s="3" t="s">
         <v>51</v>
@@ -18812,7 +18845,7 @@
     </row>
     <row r="1502" spans="1:2">
       <c r="A1502" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B1502" s="3" t="s">
         <v>47</v>
@@ -18820,7 +18853,7 @@
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B1503" s="3" t="s">
         <v>47</v>
@@ -18828,7 +18861,7 @@
     </row>
     <row r="1504" spans="1:2">
       <c r="A1504" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B1504" s="3" t="s">
         <v>47</v>
@@ -18836,17 +18869,17 @@
     </row>
     <row r="1505" spans="1:5">
       <c r="A1505" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1506" spans="1:5">
       <c r="A1506" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
       <c r="A1507" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B1507" s="3" t="s">
         <v>47</v>
@@ -18854,18 +18887,18 @@
     </row>
     <row r="1508" spans="1:5">
       <c r="A1508" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B1508" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E1508" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1509" spans="1:5">
       <c r="A1509" s="2" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B1509" s="3" t="s">
         <v>51</v>
@@ -18873,382 +18906,382 @@
     </row>
     <row r="1510" spans="1:5">
       <c r="A1510" s="2" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1511" spans="1:5">
       <c r="A1511" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1512" spans="1:5">
       <c r="A1512" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1513" spans="1:5">
       <c r="A1513" s="2" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1514" spans="1:5">
       <c r="A1514" s="2" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1515" spans="1:5">
       <c r="A1515" s="2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1516" spans="1:5">
       <c r="A1516" s="2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1517" spans="1:5">
       <c r="A1517" s="2" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1518" spans="1:5">
       <c r="A1518" s="2" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1519" spans="1:5">
       <c r="A1519" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1520" spans="1:5">
       <c r="A1520" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524" s="2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525" s="2" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526" s="2" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527" s="2" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528" s="2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529" s="2" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530" s="2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531" s="2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532" s="2" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533" s="2" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534" s="2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535" s="2" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536" s="2" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537" s="2" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538" s="2" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539" s="2" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540" s="2" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541" s="2" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542" s="2" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1562" spans="1:1">
       <c r="A1562" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1563" spans="1:1">
       <c r="A1563" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1564" spans="1:1">
       <c r="A1564" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1565" spans="1:1">
       <c r="A1565" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1566" spans="1:1">
       <c r="A1566" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1567" spans="1:1">
       <c r="A1567" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1568" spans="1:1">
       <c r="A1568" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1569" spans="1:1">
       <c r="A1569" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1570" spans="1:1">
       <c r="A1570" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1571" spans="1:1">
       <c r="A1571" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1572" spans="1:1">
       <c r="A1572" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1573" spans="1:1">
       <c r="A1573" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1574" spans="1:1">
       <c r="A1574" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1575" spans="1:1">
       <c r="A1575" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1576" spans="1:1">
       <c r="A1576" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1577" spans="1:1">
       <c r="A1577" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1578" spans="1:1">
       <c r="A1578" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1579" spans="1:1">
       <c r="A1579" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1580" spans="1:1">
       <c r="A1580" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1581" spans="1:1">
       <c r="A1581" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1582" spans="1:1">
       <c r="A1582" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1583" spans="1:1">
       <c r="A1583" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1584" spans="1:1">
       <c r="A1584" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
       <c r="A1585" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B1585" s="3" t="s">
         <v>51</v>
@@ -19256,7 +19289,7 @@
     </row>
     <row r="1586" spans="1:2">
       <c r="A1586" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B1586" s="3" t="s">
         <v>47</v>
@@ -19264,7 +19297,7 @@
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B1587" s="3" t="s">
         <v>47</v>
@@ -19272,7 +19305,7 @@
     </row>
     <row r="1588" spans="1:2">
       <c r="A1588" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B1588" s="3" t="s">
         <v>47</v>
@@ -19280,7 +19313,7 @@
     </row>
     <row r="1589" spans="1:2">
       <c r="A1589" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B1589" s="3" t="s">
         <v>47</v>
@@ -19288,7 +19321,7 @@
     </row>
     <row r="1590" spans="1:2">
       <c r="A1590" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1590" s="3" t="s">
         <v>47</v>
@@ -19296,7 +19329,7 @@
     </row>
     <row r="1591" spans="1:2">
       <c r="A1591" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B1591" s="3" t="s">
         <v>51</v>
@@ -19304,27 +19337,27 @@
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
       <c r="A1593" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
       <c r="A1594" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
       <c r="A1595" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
       <c r="A1596" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B1596" s="3" t="s">
         <v>47</v>
@@ -19332,42 +19365,42 @@
     </row>
     <row r="1597" spans="1:2">
       <c r="A1597" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1598" spans="1:2">
       <c r="A1598" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
       <c r="A1599" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
       <c r="A1600" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
       <c r="A1601" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
       <c r="A1602" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
       <c r="A1603" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
       <c r="A1604" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1604" s="3" t="s">
         <v>53</v>
@@ -19375,42 +19408,42 @@
     </row>
     <row r="1605" spans="1:2">
       <c r="A1605" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
       <c r="A1606" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
       <c r="A1607" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
       <c r="A1608" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
       <c r="A1609" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
       <c r="A1610" s="2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
       <c r="A1611" s="2" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
       <c r="A1612" s="2" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1612" s="3" t="s">
         <v>49</v>
@@ -19418,12 +19451,12 @@
     </row>
     <row r="1613" spans="1:2">
       <c r="A1613" s="2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614" s="2" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B1614" s="3" t="s">
         <v>47</v>
@@ -19431,7 +19464,7 @@
     </row>
     <row r="1615" spans="1:2">
       <c r="A1615" s="2" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B1615" s="3" t="s">
         <v>54</v>
@@ -19439,12 +19472,12 @@
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" s="2" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
       <c r="A1617" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B1617" s="3" t="s">
         <v>47</v>
@@ -19452,7 +19485,7 @@
     </row>
     <row r="1618" spans="1:2">
       <c r="A1618" s="2" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B1618" s="3" t="s">
         <v>58</v>
@@ -19460,17 +19493,17 @@
     </row>
     <row r="1619" spans="1:2">
       <c r="A1619" s="2" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
       <c r="A1620" s="2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621" s="2" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B1621" s="3" t="s">
         <v>51</v>
@@ -19478,347 +19511,347 @@
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622" s="2" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
       <c r="A1623" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624" s="2" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
       <c r="A1625" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
       <c r="A1626" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
       <c r="A1627" s="2" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
       <c r="A1628" s="2" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
       <c r="A1629" s="2" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
       <c r="A1630" s="2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
       <c r="A1631" s="2" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
       <c r="A1632" s="2" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633" s="2" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634" s="2" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
       <c r="A1635" s="2" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636" s="2" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637" s="2" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
       <c r="A1638" s="2" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1639" spans="1:1">
       <c r="A1639" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1640" spans="1:1">
       <c r="A1640" s="2" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1641" spans="1:1">
       <c r="A1641" s="2" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642" s="2" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1643" spans="1:1">
       <c r="A1643" s="2" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1644" spans="1:1">
       <c r="A1644" s="2" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645" s="2" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1646" spans="1:1">
       <c r="A1646" s="2" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1649" spans="1:1">
       <c r="A1649" s="2" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1650" spans="1:1">
       <c r="A1650" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
       <c r="A1652" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1653" spans="1:1">
       <c r="A1653" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1654" spans="1:1">
       <c r="A1654" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1655" spans="1:1">
       <c r="A1655" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1656" spans="1:1">
       <c r="A1656" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
       <c r="A1658" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1659" spans="1:1">
       <c r="A1659" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1660" spans="1:1">
       <c r="A1660" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1661" spans="1:1">
       <c r="A1661" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1662" spans="1:1">
       <c r="A1662" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1663" spans="1:1">
       <c r="A1663" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1664" spans="1:1">
       <c r="A1664" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1665" spans="1:1">
       <c r="A1665" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="1666" spans="1:1">
       <c r="A1666" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1667" spans="1:1">
       <c r="A1667" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1668" spans="1:1">
       <c r="A1668" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1669" spans="1:1">
       <c r="A1669" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1670" spans="1:1">
       <c r="A1670" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1671" spans="1:1">
       <c r="A1671" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1672" spans="1:1">
       <c r="A1672" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="1673" spans="1:1">
       <c r="A1673" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1674" spans="1:1">
       <c r="A1674" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1675" spans="1:1">
       <c r="A1675" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1676" spans="1:1">
       <c r="A1676" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1677" spans="1:1">
       <c r="A1677" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1678" spans="1:1">
       <c r="A1678" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1679" spans="1:1">
       <c r="A1679" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1680" spans="1:1">
       <c r="A1680" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1681" spans="1:14">
       <c r="A1681" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1682" spans="1:14">
       <c r="A1682" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1683" spans="1:14">
       <c r="A1683" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1684" spans="1:14">
       <c r="A1684" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="1685" spans="1:14">
       <c r="A1685" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="1686" spans="1:14">
       <c r="A1686" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="1687" spans="1:14">
       <c r="A1687" s="2" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="1688" spans="1:14">
       <c r="A1688" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="1689" spans="1:14">
       <c r="A1689" s="2" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1690" spans="1:14">
       <c r="A1690" s="2" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B1690" s="3" t="s">
         <v>47</v>
@@ -19841,7 +19874,7 @@
     </row>
     <row r="1691" spans="1:14">
       <c r="A1691" s="2" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B1691" s="3" t="s">
         <v>47</v>
@@ -19855,7 +19888,7 @@
     </row>
     <row r="1692" spans="1:14">
       <c r="A1692" s="2" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B1692" s="3" t="s">
         <v>51</v>
@@ -19863,7 +19896,7 @@
     </row>
     <row r="1693" spans="1:14">
       <c r="A1693" s="2" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B1693" s="3" t="s">
         <v>47</v>
@@ -19877,7 +19910,7 @@
     </row>
     <row r="1694" spans="1:14">
       <c r="A1694" s="2" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1694" s="3" t="s">
         <v>47</v>
@@ -19891,7 +19924,7 @@
     </row>
     <row r="1695" spans="1:14">
       <c r="A1695" s="2" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B1695" s="3" t="s">
         <v>47</v>
@@ -19902,7 +19935,7 @@
     </row>
     <row r="1696" spans="1:14">
       <c r="A1696" s="2" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B1696" s="3" t="s">
         <v>47</v>
@@ -19919,7 +19952,7 @@
     </row>
     <row r="1697" spans="1:9">
       <c r="A1697" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B1697" s="3" t="s">
         <v>47</v>
@@ -19933,7 +19966,7 @@
     </row>
     <row r="1698" spans="1:9">
       <c r="A1698" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B1698" s="3" t="s">
         <v>47</v>
@@ -19947,7 +19980,7 @@
     </row>
     <row r="1699" spans="1:9">
       <c r="A1699" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B1699" s="3" t="s">
         <v>47</v>
@@ -19955,62 +19988,62 @@
     </row>
     <row r="1700" spans="1:9">
       <c r="A1700" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1701" spans="1:9">
       <c r="A1701" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1702" spans="1:9">
       <c r="A1702" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1703" spans="1:9">
       <c r="A1703" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1704" spans="1:9">
       <c r="A1704" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1705" spans="1:9">
       <c r="A1705" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1706" spans="1:9">
       <c r="A1706" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1707" spans="1:9">
       <c r="A1707" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1708" spans="1:9">
       <c r="A1708" s="2" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1709" spans="1:9">
       <c r="A1709" s="2" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1710" spans="1:9">
       <c r="A1710" s="2" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1711" spans="1:9">
       <c r="A1711" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1711" s="3" t="s">
         <v>47</v>
@@ -20018,17 +20051,17 @@
     </row>
     <row r="1712" spans="1:9">
       <c r="A1712" s="2" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1713" spans="1:10">
       <c r="A1713" s="2" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1714" spans="1:10">
       <c r="A1714" s="2" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D1714" s="4" t="s">
         <v>113</v>
@@ -20036,32 +20069,32 @@
     </row>
     <row r="1715" spans="1:10">
       <c r="A1715" s="2" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1716" spans="1:10">
       <c r="A1716" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1717" spans="1:10">
       <c r="A1717" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1718" spans="1:10">
       <c r="A1718" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1719" spans="1:10">
       <c r="A1719" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1720" spans="1:10">
       <c r="A1720" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1720" s="3" t="s">
         <v>47</v>
@@ -20069,22 +20102,22 @@
     </row>
     <row r="1721" spans="1:10">
       <c r="A1721" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1722" spans="1:10">
       <c r="A1722" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1723" spans="1:10">
       <c r="A1723" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1724" spans="1:10">
       <c r="A1724" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D1724" s="3" t="s">
         <v>47</v>
@@ -20095,112 +20128,112 @@
     </row>
     <row r="1725" spans="1:10">
       <c r="A1725" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1726" spans="1:10">
       <c r="A1726" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1727" spans="1:10">
       <c r="A1727" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1728" spans="1:10">
       <c r="A1728" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1729" spans="1:1">
       <c r="A1729" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1730" spans="1:1">
       <c r="A1730" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1731" spans="1:1">
       <c r="A1731" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1732" spans="1:1">
       <c r="A1732" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1733" spans="1:1">
       <c r="A1733" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1734" spans="1:1">
       <c r="A1734" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1735" spans="1:1">
       <c r="A1735" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1737" spans="1:1">
       <c r="A1737" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1738" spans="1:1">
       <c r="A1738" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1739" spans="1:1">
       <c r="A1739" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1740" spans="1:1">
       <c r="A1740" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1741" spans="1:1">
       <c r="A1741" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1742" spans="1:1">
       <c r="A1742" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1743" spans="1:1">
       <c r="A1743" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1744" spans="1:1">
       <c r="A1744" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
       <c r="A1745" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
       <c r="A1746" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B1746" s="3" t="s">
         <v>47</v>
@@ -20208,17 +20241,17 @@
     </row>
     <row r="1747" spans="1:2">
       <c r="A1747" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
       <c r="A1748" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B1749" s="3" t="s">
         <v>58</v>
@@ -20226,7 +20259,7 @@
     </row>
     <row r="1750" spans="1:2">
       <c r="A1750" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1750" s="3" t="s">
         <v>51</v>
@@ -20234,17 +20267,17 @@
     </row>
     <row r="1751" spans="1:2">
       <c r="A1751" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
       <c r="A1752" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
       <c r="A1753" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1753" s="3" t="s">
         <v>49</v>
@@ -20252,7 +20285,7 @@
     </row>
     <row r="1754" spans="1:2">
       <c r="A1754" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1754" s="3" t="s">
         <v>47</v>
@@ -20260,27 +20293,27 @@
     </row>
     <row r="1755" spans="1:2">
       <c r="A1755" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
       <c r="A1756" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
       <c r="A1757" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
       <c r="A1758" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1759" s="3" t="s">
         <v>49</v>
@@ -20288,7 +20321,7 @@
     </row>
     <row r="1760" spans="1:2">
       <c r="A1760" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1760" s="3" t="s">
         <v>54</v>
@@ -20296,20 +20329,20 @@
     </row>
     <row r="1761" spans="1:2">
       <c r="A1761" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
       <c r="A1762" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
       <c r="A1763" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1763" s="3" t="s">
         <v>47</v>
@@ -20317,7 +20350,7 @@
     </row>
     <row r="1764" spans="1:2">
       <c r="A1764" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B1764" s="3" t="s">
         <v>51</v>
@@ -20325,7 +20358,7 @@
     </row>
     <row r="1765" spans="1:2">
       <c r="A1765" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1765" s="3" t="s">
         <v>47</v>
@@ -20333,7 +20366,7 @@
     </row>
     <row r="1766" spans="1:2">
       <c r="A1766" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1766" s="3" t="s">
         <v>47</v>
@@ -20341,20 +20374,20 @@
     </row>
     <row r="1767" spans="1:2">
       <c r="A1767" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B1767" s="4" t="s">
-        <v>108</v>
+        <v>1850</v>
+      </c>
+      <c r="B1767" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
       <c r="A1768" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
       <c r="A1769" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1769" s="3" t="s">
         <v>51</v>
@@ -20362,7 +20395,7 @@
     </row>
     <row r="1770" spans="1:2">
       <c r="A1770" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1770" s="3" t="s">
         <v>49</v>
@@ -20370,7 +20403,7 @@
     </row>
     <row r="1771" spans="1:2">
       <c r="A1771" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1771" s="3" t="s">
         <v>54</v>
@@ -20378,7 +20411,7 @@
     </row>
     <row r="1772" spans="1:2">
       <c r="A1772" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1772" s="3" t="s">
         <v>47</v>
@@ -20386,12 +20419,12 @@
     </row>
     <row r="1773" spans="1:2">
       <c r="A1773" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
       <c r="A1774" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1774" s="3" t="s">
         <v>47</v>
@@ -20399,7 +20432,7 @@
     </row>
     <row r="1775" spans="1:2">
       <c r="A1775" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B1775" s="3" t="s">
         <v>53</v>
@@ -20407,7 +20440,7 @@
     </row>
     <row r="1776" spans="1:2">
       <c r="A1776" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B1776" s="3" t="s">
         <v>47</v>
@@ -20415,7 +20448,7 @@
     </row>
     <row r="1777" spans="1:6">
       <c r="A1777" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B1777" s="3" t="s">
         <v>49</v>
@@ -20423,12 +20456,12 @@
     </row>
     <row r="1778" spans="1:6">
       <c r="A1778" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1779" spans="1:6">
       <c r="A1779" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1779" s="3" t="s">
         <v>61</v>
@@ -20436,7 +20469,7 @@
     </row>
     <row r="1780" spans="1:6">
       <c r="A1780" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B1780" s="3" t="s">
         <v>51</v>
@@ -20444,7 +20477,7 @@
     </row>
     <row r="1781" spans="1:6">
       <c r="A1781" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B1781" s="3" t="s">
         <v>47</v>
@@ -20452,7 +20485,7 @@
     </row>
     <row r="1782" spans="1:6">
       <c r="A1782" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B1782" s="3" t="s">
         <v>61</v>
@@ -20460,12 +20493,12 @@
     </row>
     <row r="1783" spans="1:6">
       <c r="A1783" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
       <c r="A1784" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B1784" s="3" t="s">
         <v>47</v>
@@ -20473,7 +20506,7 @@
     </row>
     <row r="1785" spans="1:6">
       <c r="A1785" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B1785" s="3" t="s">
         <v>47</v>
@@ -20481,7 +20514,7 @@
     </row>
     <row r="1786" spans="1:6">
       <c r="A1786" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B1786" s="3" t="s">
         <v>61</v>
@@ -20489,7 +20522,7 @@
     </row>
     <row r="1787" spans="1:6">
       <c r="A1787" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1787" s="3" t="s">
         <v>48</v>
@@ -20497,22 +20530,22 @@
     </row>
     <row r="1788" spans="1:6">
       <c r="A1788" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1789" spans="1:6">
       <c r="A1789" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1790" spans="1:6">
       <c r="A1790" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1791" spans="1:6">
       <c r="A1791" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1791" s="3" t="s">
         <v>47</v>
@@ -20526,7 +20559,7 @@
     </row>
     <row r="1792" spans="1:6">
       <c r="A1792" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B1792" s="3" t="s">
         <v>47</v>
@@ -20540,7 +20573,7 @@
     </row>
     <row r="1793" spans="1:6">
       <c r="A1793" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B1793" s="3" t="s">
         <v>47</v>
@@ -20554,7 +20587,7 @@
     </row>
     <row r="1794" spans="1:6">
       <c r="A1794" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1794" s="3" t="s">
         <v>49</v>
@@ -20568,7 +20601,7 @@
     </row>
     <row r="1795" spans="1:6">
       <c r="A1795" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B1795" s="3" t="s">
         <v>47</v>
@@ -20576,7 +20609,7 @@
     </row>
     <row r="1796" spans="1:6">
       <c r="A1796" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B1796" s="3" t="s">
         <v>47</v>
@@ -20587,7 +20620,7 @@
     </row>
     <row r="1797" spans="1:6">
       <c r="A1797" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B1797" s="3" t="s">
         <v>51</v>
@@ -20595,7 +20628,7 @@
     </row>
     <row r="1798" spans="1:6">
       <c r="A1798" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B1798" s="3" t="s">
         <v>47</v>
@@ -20606,7 +20639,7 @@
     </row>
     <row r="1799" spans="1:6">
       <c r="A1799" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B1799" s="3" t="s">
         <v>53</v>
@@ -20614,172 +20647,172 @@
     </row>
     <row r="1800" spans="1:6">
       <c r="A1800" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1801" spans="1:6">
       <c r="A1801" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1802" spans="1:6">
       <c r="A1802" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1803" spans="1:6">
       <c r="A1803" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1804" spans="1:6">
       <c r="A1804" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1805" spans="1:6">
       <c r="A1805" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
       <c r="A1806" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1807" spans="1:6">
       <c r="A1807" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1808" spans="1:6">
       <c r="A1808" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1809" spans="1:1">
       <c r="A1809" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1810" spans="1:1">
       <c r="A1810" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1811" spans="1:1">
       <c r="A1811" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1812" spans="1:1">
       <c r="A1812" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1813" spans="1:1">
       <c r="A1813" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1814" spans="1:1">
       <c r="A1814" s="2" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1815" spans="1:1">
       <c r="A1815" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1816" spans="1:1">
       <c r="A1816" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1817" spans="1:1">
       <c r="A1817" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1818" spans="1:1">
       <c r="A1818" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1819" spans="1:1">
       <c r="A1819" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1820" spans="1:1">
       <c r="A1820" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1821" spans="1:1">
       <c r="A1821" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1822" spans="1:1">
       <c r="A1822" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1823" spans="1:1">
       <c r="A1823" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1824" spans="1:1">
       <c r="A1824" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1825" spans="1:8">
       <c r="A1825" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1826" spans="1:8">
       <c r="A1826" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1827" spans="1:8">
       <c r="A1827" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1828" spans="1:8">
       <c r="A1828" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1829" spans="1:8">
       <c r="A1829" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1830" spans="1:8">
       <c r="A1830" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1831" spans="1:8">
       <c r="A1831" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1832" spans="1:8">
       <c r="A1832" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1833" spans="1:8">
       <c r="A1833" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B1833" s="3" t="s">
         <v>58</v>
@@ -20790,7 +20823,7 @@
     </row>
     <row r="1834" spans="1:8">
       <c r="A1834" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B1834" s="3" t="s">
         <v>46</v>
@@ -20798,15 +20831,15 @@
     </row>
     <row r="1835" spans="1:8">
       <c r="A1835" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1835" s="3" t="s">
         <v>1919</v>
-      </c>
-      <c r="B1835" s="3" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="1836" spans="1:8">
       <c r="A1836" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B1836" s="3" t="s">
         <v>49</v>
@@ -20814,7 +20847,7 @@
     </row>
     <row r="1837" spans="1:8">
       <c r="A1837" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B1837" s="3" t="s">
         <v>51</v>
@@ -20822,7 +20855,7 @@
     </row>
     <row r="1838" spans="1:8">
       <c r="A1838" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B1838" s="3" t="s">
         <v>53</v>
@@ -20833,7 +20866,7 @@
     </row>
     <row r="1839" spans="1:8">
       <c r="A1839" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B1839" s="3" t="s">
         <v>49</v>
@@ -20841,67 +20874,67 @@
     </row>
     <row r="1840" spans="1:8">
       <c r="A1840" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
       <c r="A1841" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
       <c r="A1843" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
       <c r="A1844" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1845" spans="1:2">
       <c r="A1845" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
       <c r="A1846" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
       <c r="A1847" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
       <c r="A1848" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
       <c r="A1849" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
       <c r="A1850" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
       <c r="A1851" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
       <c r="A1852" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B1852" s="3" t="s">
         <v>59</v>
@@ -20909,7 +20942,7 @@
     </row>
     <row r="1853" spans="1:2">
       <c r="A1853" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B1853" s="3" t="s">
         <v>47</v>
@@ -20917,12 +20950,12 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
       <c r="A1855" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B1855" s="3" t="s">
         <v>59</v>
@@ -20930,7 +20963,7 @@
     </row>
     <row r="1856" spans="1:2">
       <c r="A1856" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B1856" s="3" t="s">
         <v>47</v>
@@ -20938,7 +20971,7 @@
     </row>
     <row r="1857" spans="1:2">
       <c r="A1857" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B1857" s="3" t="s">
         <v>47</v>
@@ -20946,7 +20979,7 @@
     </row>
     <row r="1858" spans="1:2">
       <c r="A1858" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B1858" s="3" t="s">
         <v>47</v>
@@ -20954,7 +20987,7 @@
     </row>
     <row r="1859" spans="1:2">
       <c r="A1859" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B1859" s="3" t="s">
         <v>59</v>
@@ -20962,12 +20995,12 @@
     </row>
     <row r="1860" spans="1:2">
       <c r="A1860" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
       <c r="A1861" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B1861" s="3" t="s">
         <v>47</v>
@@ -20975,7 +21008,7 @@
     </row>
     <row r="1862" spans="1:2">
       <c r="A1862" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B1862" s="3" t="s">
         <v>59</v>
@@ -20983,7 +21016,7 @@
     </row>
     <row r="1863" spans="1:2">
       <c r="A1863" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1863" s="3" t="s">
         <v>225</v>
@@ -20991,7 +21024,7 @@
     </row>
     <row r="1864" spans="1:2">
       <c r="A1864" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B1864" s="3" t="s">
         <v>47</v>
@@ -20999,7 +21032,7 @@
     </row>
     <row r="1865" spans="1:2">
       <c r="A1865" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B1865" s="3" t="s">
         <v>47</v>
@@ -21007,7 +21040,7 @@
     </row>
     <row r="1866" spans="1:2">
       <c r="A1866" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B1866" s="3" t="s">
         <v>47</v>
@@ -21015,7 +21048,7 @@
     </row>
     <row r="1867" spans="1:2">
       <c r="A1867" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B1867" s="3" t="s">
         <v>47</v>
@@ -21023,7 +21056,7 @@
     </row>
     <row r="1868" spans="1:2">
       <c r="A1868" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B1868" s="3" t="s">
         <v>47</v>
@@ -21031,7 +21064,7 @@
     </row>
     <row r="1869" spans="1:2">
       <c r="A1869" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B1869" s="3" t="s">
         <v>47</v>
@@ -21039,7 +21072,7 @@
     </row>
     <row r="1870" spans="1:2">
       <c r="A1870" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B1870" s="3" t="s">
         <v>51</v>
@@ -21047,7 +21080,7 @@
     </row>
     <row r="1871" spans="1:2">
       <c r="A1871" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B1871" s="3" t="s">
         <v>47</v>
@@ -21055,20 +21088,20 @@
     </row>
     <row r="1872" spans="1:2">
       <c r="A1872" s="2" t="s">
-        <v>1957</v>
-      </c>
-      <c r="B1872" s="4" t="s">
-        <v>72</v>
+        <v>1956</v>
+      </c>
+      <c r="B1872" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
       <c r="A1873" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
       <c r="A1874" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B1874" s="3" t="s">
         <v>51</v>
@@ -21076,12 +21109,12 @@
     </row>
     <row r="1875" spans="1:2">
       <c r="A1875" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
       <c r="A1876" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B1876" s="3" t="s">
         <v>51</v>
@@ -21089,12 +21122,12 @@
     </row>
     <row r="1877" spans="1:2">
       <c r="A1877" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
       <c r="A1878" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B1878" s="3" t="s">
         <v>47</v>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$1878</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$1881</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3778" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="1970">
   <si>
     <t>№</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>416762</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>371742</t>
   </si>
   <si>
-    <t>352865</t>
-  </si>
-  <si>
     <t>417223</t>
   </si>
   <si>
@@ -319,48 +319,51 @@
     <t>34</t>
   </si>
   <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4+, 4-</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>3-</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>8-</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>4+, 4-</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -688,7 +691,7 @@
     <t>147</t>
   </si>
   <si>
-    <t>5-</t>
+    <t>7-</t>
   </si>
   <si>
     <t>9-</t>
@@ -1840,9 +1843,6 @@
     <t>522</t>
   </si>
   <si>
-    <t>7-</t>
-  </si>
-  <si>
     <t>523</t>
   </si>
   <si>
@@ -5918,6 +5918,15 @@
   </si>
   <si>
     <t>1869</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1871</t>
+  </si>
+  <si>
+    <t>1872</t>
   </si>
 </sst>
 </file>
@@ -6283,7 +6292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R1878"/>
+  <dimension ref="A1:R1881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6415,52 +6424,52 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>3920</v>
+        <v>3867</v>
       </c>
       <c r="D3">
-        <v>10061</v>
+        <v>8708</v>
       </c>
       <c r="E3">
-        <v>14311</v>
+        <v>14323</v>
       </c>
       <c r="F3">
-        <v>16781</v>
+        <v>16795</v>
       </c>
       <c r="G3">
-        <v>26793</v>
+        <v>17862</v>
       </c>
       <c r="H3">
-        <v>28083</v>
+        <v>24212</v>
       </c>
       <c r="I3">
-        <v>29839</v>
+        <v>29861</v>
       </c>
       <c r="J3">
-        <v>34986</v>
+        <v>33903</v>
       </c>
       <c r="K3">
-        <v>36042</v>
+        <v>35020</v>
       </c>
       <c r="L3">
-        <v>56042</v>
+        <v>36075</v>
       </c>
       <c r="M3">
-        <v>66288</v>
+        <v>56105</v>
       </c>
       <c r="N3">
-        <v>66688</v>
+        <v>66348</v>
       </c>
       <c r="O3">
-        <v>101695</v>
+        <v>66749</v>
       </c>
       <c r="P3">
-        <v>104443</v>
+        <v>104550</v>
       </c>
       <c r="Q3">
-        <v>123227</v>
+        <v>123361</v>
       </c>
       <c r="R3">
-        <v>219194</v>
+        <v>219522</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6471,10 +6480,10 @@
         <v>25635</v>
       </c>
       <c r="C4">
-        <v>4009</v>
+        <v>4047</v>
       </c>
       <c r="D4">
-        <v>1853</v>
+        <v>2113</v>
       </c>
       <c r="E4">
         <v>1303</v>
@@ -6483,31 +6492,31 @@
         <v>1101</v>
       </c>
       <c r="G4">
-        <v>638</v>
+        <v>1030</v>
       </c>
       <c r="H4">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="I4">
         <v>560</v>
       </c>
       <c r="J4">
+        <v>472</v>
+      </c>
+      <c r="K4">
         <v>451</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>433</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>213</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>155</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>153</v>
-      </c>
-      <c r="O4">
-        <v>57</v>
       </c>
       <c r="P4">
         <v>53</v>
@@ -6524,13 +6533,13 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1861</v>
+        <v>1873</v>
       </c>
       <c r="C5">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D5">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="E5">
         <v>261</v>
@@ -6539,31 +6548,31 @@
         <v>249</v>
       </c>
       <c r="G5">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="H5">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I5">
         <v>122</v>
       </c>
       <c r="J5">
+        <v>63</v>
+      </c>
+      <c r="K5">
         <v>35</v>
       </c>
-      <c r="K5">
-        <v>71</v>
-      </c>
       <c r="L5">
+        <v>73</v>
+      </c>
+      <c r="M5">
         <v>28</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>42</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>30</v>
-      </c>
-      <c r="O5">
-        <v>16</v>
       </c>
       <c r="P5">
         <v>18</v>
@@ -6583,10 +6592,10 @@
         <v>750</v>
       </c>
       <c r="C6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>93</v>
@@ -6595,31 +6604,31 @@
         <v>69</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <v>34</v>
       </c>
       <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6">
         <v>22</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20</v>
-      </c>
-      <c r="L6">
-        <v>12</v>
       </c>
       <c r="M6">
         <v>12</v>
       </c>
       <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
         <v>14</v>
-      </c>
-      <c r="O6">
-        <v>8</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -6642,7 +6651,7 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -6651,7 +6660,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -6660,22 +6669,22 @@
         <v>9</v>
       </c>
       <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -6692,13 +6701,13 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E8">
         <v>96</v>
@@ -6707,31 +6716,31 @@
         <v>79</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>41</v>
       </c>
       <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8">
         <v>22</v>
       </c>
-      <c r="K8">
-        <v>25</v>
-      </c>
       <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
         <v>12</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
       </c>
       <c r="N8">
         <v>14</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -6754,7 +6763,7 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -6763,7 +6772,7 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -6772,22 +6781,22 @@
         <v>10</v>
       </c>
       <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
         <v>5</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
       <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -6827,14 +6836,11 @@
       <c r="I10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>48</v>
@@ -6906,23 +6912,20 @@
       <c r="I12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>48</v>
@@ -7028,14 +7031,17 @@
       <c r="G16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>69</v>
       </c>
@@ -7061,7 +7067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -7106,14 +7112,14 @@
       <c r="I19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -7123,8 +7129,11 @@
       <c r="F20" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -7132,7 +7141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -7152,7 +7161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -7180,11 +7189,11 @@
       <c r="I23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -7206,8 +7215,11 @@
       <c r="I24" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="J24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -7226,7 +7238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -7239,11 +7251,11 @@
       <c r="G27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -7251,7 +7263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -7259,7 +7271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -7285,7 +7297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -7310,14 +7322,14 @@
       <c r="I31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K31" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="L31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -7333,11 +7345,14 @@
       <c r="E32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="G32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -7345,7 +7360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -7356,7 +7371,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>51</v>
@@ -7371,7 +7386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -7388,7 +7403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -7396,7 +7411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -7407,7 +7422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7418,7 +7433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -7426,7 +7441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>96</v>
       </c>
@@ -7434,7 +7449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -7445,7 +7460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>98</v>
       </c>
@@ -7464,11 +7479,14 @@
       <c r="F42" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G42" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H42" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>99</v>
       </c>
@@ -7481,11 +7499,11 @@
       <c r="D43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -7501,8 +7519,11 @@
       <c r="E44" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="G44" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>102</v>
       </c>
@@ -7510,7 +7531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
         <v>103</v>
       </c>
@@ -7518,7 +7539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
         <v>104</v>
       </c>
@@ -7526,21 +7547,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K48" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>48</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
@@ -7562,11 +7583,11 @@
       <c r="H49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -7580,7 +7601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
         <v>110</v>
       </c>
@@ -7590,11 +7611,11 @@
       <c r="F51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="2" t="s">
         <v>112</v>
       </c>
@@ -7611,7 +7632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -7625,29 +7646,32 @@
         <v>48</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="J53" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>50</v>
@@ -7659,17 +7683,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>48</v>
@@ -7683,29 +7707,29 @@
       <c r="F57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="K57" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>51</v>
@@ -7719,13 +7743,13 @@
       <c r="I60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="K60" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>48</v>
@@ -7746,9 +7770,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>48</v>
@@ -7762,18 +7786,21 @@
       <c r="I62" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="J62" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>54</v>
@@ -7781,7 +7808,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>48</v>
@@ -7795,7 +7822,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>48</v>
@@ -7803,7 +7830,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>48</v>
@@ -7811,7 +7838,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>48</v>
@@ -7834,7 +7861,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>48</v>
@@ -7842,7 +7869,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>48</v>
@@ -7868,23 +7895,20 @@
       <c r="I70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="M70" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>48</v>
@@ -7895,7 +7919,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>48</v>
@@ -7915,7 +7939,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>48</v>
@@ -7929,7 +7953,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>51</v>
@@ -7937,15 +7961,18 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>48</v>
@@ -7959,10 +7986,13 @@
       <c r="E75" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="G75" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>48</v>
@@ -7970,13 +8000,13 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>71</v>
@@ -7984,7 +8014,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>51</v>
@@ -7992,93 +8022,96 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="K80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="A82" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:13">
       <c r="A83" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -8097,17 +8130,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>48</v>
@@ -8125,9 +8158,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>66</v>
@@ -8135,29 +8168,32 @@
       <c r="C91" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="D91" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>48</v>
@@ -8166,9 +8202,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>48</v>
@@ -8183,9 +8219,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>64</v>
@@ -8193,7 +8229,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>48</v>
@@ -8201,7 +8237,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>48</v>
@@ -8212,7 +8248,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>48</v>
@@ -8220,7 +8256,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>48</v>
@@ -8228,7 +8264,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>48</v>
@@ -8244,6 +8280,9 @@
       </c>
       <c r="F101" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>48</v>
@@ -8251,7 +8290,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>48</v>
@@ -8259,29 +8298,32 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>51</v>
@@ -8289,7 +8331,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>50</v>
@@ -8297,7 +8339,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>48</v>
@@ -8308,7 +8350,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>51</v>
@@ -8316,7 +8358,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>49</v>
@@ -8324,7 +8366,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>48</v>
@@ -8332,7 +8374,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>48</v>
@@ -8340,10 +8382,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>48</v>
@@ -8354,17 +8396,17 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>48</v>
@@ -8381,13 +8423,16 @@
       <c r="F115" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G115" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H115" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>48</v>
@@ -8395,7 +8440,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>58</v>
@@ -8404,10 +8449,10 @@
         <v>48</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>48</v>
@@ -8421,9 +8466,6 @@
       <c r="I117" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J117" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K117" s="3" t="s">
         <v>48</v>
       </c>
@@ -8431,13 +8473,13 @@
         <v>48</v>
       </c>
       <c r="M117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N117" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N117" s="3" t="s">
+      <c r="O117" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="O117" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P117" s="4" t="s">
         <v>71</v>
@@ -8448,7 +8490,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>48</v>
@@ -8462,12 +8504,12 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>48</v>
@@ -8475,7 +8517,7 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>49</v>
@@ -8483,7 +8525,7 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>51</v>
@@ -8491,7 +8533,7 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>48</v>
@@ -8505,7 +8547,7 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>51</v>
@@ -8513,7 +8555,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>48</v>
@@ -8521,7 +8563,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>48</v>
@@ -8529,7 +8571,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>48</v>
@@ -8537,7 +8579,7 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>48</v>
@@ -8546,44 +8588,47 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:11">
       <c r="A129" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:11">
       <c r="A130" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:11">
       <c r="A131" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:11">
       <c r="A132" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:11">
       <c r="A133" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>48</v>
@@ -8591,58 +8636,67 @@
       <c r="C133" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="J133" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="J134" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="J135" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:11">
       <c r="A137" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:11">
       <c r="A138" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:11">
       <c r="A139" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:11">
       <c r="A140" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>48</v>
@@ -8657,33 +8711,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:11">
       <c r="A141" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:11">
       <c r="A142" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:11">
       <c r="A143" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:11">
       <c r="A144" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>50</v>
@@ -8691,7 +8745,7 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>48</v>
@@ -8699,7 +8753,7 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>50</v>
@@ -8707,7 +8761,7 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>48</v>
@@ -8715,7 +8769,7 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>53</v>
@@ -8723,7 +8777,7 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>48</v>
@@ -8731,7 +8785,7 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>50</v>
@@ -8739,7 +8793,7 @@
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>51</v>
@@ -8747,7 +8801,7 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>82</v>
@@ -8761,7 +8815,7 @@
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>81</v>
@@ -8772,7 +8826,7 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>44</v>
@@ -8780,18 +8834,21 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K155" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L155" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L155" s="4" t="s">
+      <c r="M155" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>50</v>
@@ -8800,7 +8857,7 @@
         <v>48</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>46</v>
@@ -8809,7 +8866,7 @@
         <v>53</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>48</v>
@@ -8817,10 +8874,13 @@
       <c r="J156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M156" s="3" t="s">
-        <v>51</v>
+      <c r="K156" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="N156" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O156" s="3" t="s">
         <v>58</v>
       </c>
       <c r="P156" s="3" t="s">
@@ -8829,7 +8889,7 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>59</v>
@@ -8844,7 +8904,7 @@
         <v>49</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>48</v>
@@ -8852,7 +8912,7 @@
       <c r="I157" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="K157" s="3" t="s">
         <v>48</v>
       </c>
       <c r="Q157" s="3" t="s">
@@ -8861,7 +8921,7 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>48</v>
@@ -8875,13 +8935,16 @@
       <c r="E158" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G158" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H158" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>51</v>
@@ -8889,106 +8952,106 @@
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:12">
       <c r="A161" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:12">
       <c r="A162" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J162" s="4" t="s">
+      <c r="K162" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:12">
       <c r="A163" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:12">
       <c r="A164" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:12">
       <c r="A166" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:12">
       <c r="A168" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:12">
       <c r="A169" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:12">
       <c r="A170" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:12">
       <c r="A171" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:12">
       <c r="A172" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>48</v>
@@ -9006,50 +9069,53 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:12">
       <c r="A173" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="J174" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:12">
       <c r="A176" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K176" s="3" t="s">
+      <c r="L176" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>48</v>
@@ -9060,7 +9126,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>48</v>
@@ -9068,7 +9134,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>48</v>
@@ -9076,7 +9142,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>48</v>
@@ -9084,7 +9150,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>58</v>
@@ -9092,7 +9158,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>48</v>
@@ -9104,12 +9170,12 @@
         <v>51</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>51</v>
@@ -9117,7 +9183,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>48</v>
@@ -9125,17 +9191,17 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>48</v>
@@ -9143,7 +9209,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>48</v>
@@ -9151,7 +9217,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>48</v>
@@ -9159,7 +9225,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>48</v>
@@ -9167,7 +9233,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>48</v>
@@ -9175,103 +9241,103 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:12">
       <c r="A193" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:12">
       <c r="A194" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:12">
       <c r="A195" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:12">
       <c r="A196" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:12">
       <c r="A197" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K197" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="L197" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:12">
       <c r="A198" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:12">
       <c r="A199" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:12">
       <c r="A200" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:12">
       <c r="A201" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:12">
       <c r="A202" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:12">
       <c r="A203" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:12">
       <c r="A204" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>48</v>
@@ -9288,55 +9354,58 @@
       <c r="F204" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G204" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H204" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K204" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:12">
       <c r="A206" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:12">
       <c r="A207" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:10">
       <c r="A209" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>48</v>
@@ -9345,55 +9414,61 @@
         <v>109</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="D212" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:10">
       <c r="A215" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:10">
       <c r="A217" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>48</v>
@@ -9402,152 +9477,152 @@
         <v>109</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:10">
       <c r="A218" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10">
       <c r="A219" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:10">
       <c r="A220" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:10">
       <c r="A221" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>48</v>
@@ -9555,15 +9630,18 @@
       <c r="C240" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="D240" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>48</v>
@@ -9580,97 +9658,97 @@
       <c r="H242" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K242" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:12">
       <c r="A244" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:12">
       <c r="A245" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:12">
       <c r="A246" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:12">
       <c r="A247" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:12">
       <c r="A248" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:12">
       <c r="A251" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:12">
       <c r="A254" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:12">
       <c r="A255" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>48</v>
@@ -9679,59 +9757,59 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:12">
       <c r="A256" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:10">
       <c r="A257" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:10">
       <c r="A260" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:10">
       <c r="A262" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:10">
       <c r="A263" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>48</v>
@@ -9745,68 +9823,71 @@
       <c r="G263" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="J263" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:10">
       <c r="A265" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:10">
       <c r="A266" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:10">
       <c r="A268" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:10">
       <c r="A270" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:10">
       <c r="A272" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>48</v>
@@ -9815,12 +9896,12 @@
         <v>54</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
       <c r="A273" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>50</v>
@@ -9835,60 +9916,69 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:13">
       <c r="A274" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:13">
       <c r="A275" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:13">
       <c r="A276" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C276" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F276" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:13">
       <c r="A277" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:13">
       <c r="A278" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:13">
       <c r="A279" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="280" spans="1:12">
+      <c r="D279" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
       <c r="A280" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>48</v>
@@ -9900,9 +9990,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:13">
       <c r="A281" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>46</v>
@@ -9914,17 +10004,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:13">
       <c r="A282" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:13">
       <c r="A283" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>50</v>
@@ -9933,20 +10023,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:13">
       <c r="A284" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L284" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
+      <c r="M284" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13">
       <c r="A285" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>48</v>
@@ -9955,9 +10045,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:13">
       <c r="A286" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>51</v>
@@ -9966,12 +10056,12 @@
         <v>54</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13">
       <c r="A287" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>48</v>
@@ -9983,12 +10073,12 @@
         <v>48</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13">
       <c r="A288" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>48</v>
@@ -9999,7 +10089,7 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>48</v>
@@ -10007,7 +10097,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>48</v>
@@ -10015,7 +10105,7 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>50</v>
@@ -10023,7 +10113,7 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>50</v>
@@ -10031,10 +10121,13 @@
       <c r="C292" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="D292" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>50</v>
@@ -10048,7 +10141,7 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>51</v>
@@ -10059,7 +10152,7 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>50</v>
@@ -10067,7 +10160,7 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>48</v>
@@ -10078,7 +10171,7 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>50</v>
@@ -10086,12 +10179,12 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>48</v>
@@ -10099,7 +10192,7 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>48</v>
@@ -10107,10 +10200,13 @@
       <c r="C300" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="D300" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>50</v>
@@ -10118,7 +10214,7 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>50</v>
@@ -10135,7 +10231,7 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>48</v>
@@ -10146,18 +10242,18 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>48</v>
@@ -10171,7 +10267,7 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>48</v>
@@ -10185,7 +10281,7 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>48</v>
@@ -10193,7 +10289,7 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>50</v>
@@ -10201,7 +10297,7 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>50</v>
@@ -10209,7 +10305,7 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>48</v>
@@ -10217,7 +10313,7 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>51</v>
@@ -10225,7 +10321,7 @@
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>51</v>
@@ -10233,12 +10329,12 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>48</v>
@@ -10246,7 +10342,7 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>51</v>
@@ -10254,7 +10350,7 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>48</v>
@@ -10262,7 +10358,7 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>48</v>
@@ -10270,7 +10366,7 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>48</v>
@@ -10281,7 +10377,7 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>48</v>
@@ -10289,7 +10385,7 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>48</v>
@@ -10297,7 +10393,7 @@
     </row>
     <row r="321" spans="1:16">
       <c r="A321" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>48</v>
@@ -10323,7 +10419,7 @@
     </row>
     <row r="322" spans="1:16">
       <c r="A322" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>51</v>
@@ -10331,7 +10427,7 @@
     </row>
     <row r="323" spans="1:16">
       <c r="A323" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>48</v>
@@ -10339,7 +10435,7 @@
     </row>
     <row r="324" spans="1:16">
       <c r="A324" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>50</v>
@@ -10348,12 +10444,12 @@
         <v>66</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="325" spans="1:16">
       <c r="A325" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>48</v>
@@ -10361,7 +10457,7 @@
     </row>
     <row r="326" spans="1:16">
       <c r="A326" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>48</v>
@@ -10369,7 +10465,7 @@
     </row>
     <row r="327" spans="1:16">
       <c r="A327" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>51</v>
@@ -10377,7 +10473,7 @@
     </row>
     <row r="328" spans="1:16">
       <c r="A328" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>48</v>
@@ -10385,7 +10481,7 @@
     </row>
     <row r="329" spans="1:16">
       <c r="A329" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>48</v>
@@ -10393,7 +10489,7 @@
     </row>
     <row r="330" spans="1:16">
       <c r="A330" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>48</v>
@@ -10404,7 +10500,7 @@
     </row>
     <row r="331" spans="1:16">
       <c r="A331" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>48</v>
@@ -10413,7 +10509,7 @@
         <v>48</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G331" s="4" t="s">
         <v>71</v>
@@ -10421,7 +10517,7 @@
       <c r="I331" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N331" s="3" t="s">
+      <c r="O331" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P331" s="3" t="s">
@@ -10430,7 +10526,7 @@
     </row>
     <row r="332" spans="1:16">
       <c r="A332" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>48</v>
@@ -10438,7 +10534,7 @@
     </row>
     <row r="333" spans="1:16">
       <c r="A333" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>48</v>
@@ -10452,10 +10548,13 @@
       <c r="E333" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G333" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="334" spans="1:16">
       <c r="A334" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>50</v>
@@ -10463,7 +10562,7 @@
     </row>
     <row r="335" spans="1:16">
       <c r="A335" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>48</v>
@@ -10471,7 +10570,7 @@
     </row>
     <row r="336" spans="1:16">
       <c r="A336" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>48</v>
@@ -10486,9 +10585,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:11">
       <c r="A337" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>48</v>
@@ -10496,26 +10595,29 @@
       <c r="E337" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="338" spans="1:10">
+      <c r="J337" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11">
       <c r="A338" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:11">
       <c r="A339" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:11">
       <c r="A340" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>48</v>
@@ -10529,21 +10631,24 @@
       <c r="E340" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J340" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10">
+      <c r="G340" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11">
       <c r="A341" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:11">
       <c r="A342" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>48</v>
@@ -10555,25 +10660,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:11">
       <c r="A343" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:11">
       <c r="A344" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:11">
       <c r="A345" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>48</v>
@@ -10585,22 +10690,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:11">
       <c r="A346" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11">
       <c r="A347" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:11">
       <c r="A348" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>48</v>
@@ -10609,9 +10714,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:11">
       <c r="A349" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>48</v>
@@ -10623,57 +10728,57 @@
         <v>71</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:11">
       <c r="A350" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:11">
       <c r="A351" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:11">
       <c r="A352" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:11">
       <c r="A353" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:11">
       <c r="A354" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:11">
       <c r="A355" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:11">
       <c r="A356" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>50</v>
@@ -10681,18 +10786,21 @@
       <c r="D356" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="357" spans="1:10">
+      <c r="H356" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11">
       <c r="A357" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:11">
       <c r="A358" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>61</v>
@@ -10701,71 +10809,71 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:11">
       <c r="A359" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J359" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10">
+      <c r="K359" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11">
       <c r="A360" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:11">
       <c r="A361" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:11">
       <c r="A362" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:11">
       <c r="A363" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11">
       <c r="A364" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:11">
       <c r="A365" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:11">
       <c r="A366" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>48</v>
@@ -10786,147 +10894,147 @@
         <v>50</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:11">
       <c r="A367" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:11">
       <c r="A368" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:11">
       <c r="A369" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:11">
       <c r="A370" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:11">
       <c r="A371" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
       <c r="A372" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:11">
       <c r="A373" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:11">
       <c r="A374" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:11">
       <c r="A375" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J375" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10">
+      <c r="K375" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:11">
       <c r="A377" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:11">
       <c r="A378" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:11">
       <c r="A379" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:11">
       <c r="A380" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
       <c r="A381" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:11">
       <c r="A382" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:11">
       <c r="A383" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:11">
       <c r="A384" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>48</v>
@@ -10934,7 +11042,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>48</v>
@@ -10942,7 +11050,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>48</v>
@@ -10950,12 +11058,12 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>48</v>
@@ -10963,7 +11071,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>48</v>
@@ -10971,7 +11079,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>48</v>
@@ -10979,7 +11087,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>48</v>
@@ -10987,7 +11095,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>48</v>
@@ -10995,7 +11103,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>48</v>
@@ -11003,7 +11111,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>48</v>
@@ -11011,7 +11119,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>48</v>
@@ -11022,7 +11130,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>51</v>
@@ -11030,12 +11138,12 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>48</v>
@@ -11043,31 +11151,31 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:11">
       <c r="A401" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:11">
       <c r="A402" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:11">
       <c r="A403" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>48</v>
@@ -11076,9 +11184,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:11">
       <c r="A404" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>48</v>
@@ -11086,86 +11194,89 @@
       <c r="C404" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="405" spans="1:10">
+      <c r="D404" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
       <c r="A405" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:11">
       <c r="A406" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
       <c r="A407" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J407" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10">
+      <c r="K407" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
       <c r="A408" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:11">
       <c r="A409" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:11">
       <c r="A410" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:11">
       <c r="A411" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="412" spans="1:10">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
       <c r="A412" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
       <c r="A413" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="414" spans="1:10">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
       <c r="A414" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
       <c r="A415" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:11">
       <c r="A416" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>51</v>
@@ -11173,7 +11284,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>53</v>
@@ -11181,7 +11292,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>51</v>
@@ -11192,26 +11303,26 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>64</v>
@@ -11219,7 +11330,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>48</v>
@@ -11227,7 +11338,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>48</v>
@@ -11235,7 +11346,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>54</v>
@@ -11243,15 +11354,18 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>48</v>
@@ -11259,7 +11373,7 @@
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>51</v>
@@ -11267,7 +11381,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>51</v>
@@ -11275,7 +11389,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>51</v>
@@ -11283,7 +11397,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>51</v>
@@ -11291,7 +11405,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>48</v>
@@ -11299,7 +11413,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>51</v>
@@ -11307,18 +11421,18 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>48</v>
@@ -11326,7 +11440,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>48</v>
@@ -11334,17 +11448,17 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>48</v>
@@ -11352,15 +11466,15 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>48</v>
@@ -11368,7 +11482,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>61</v>
@@ -11376,7 +11490,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>51</v>
@@ -11384,32 +11498,32 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>48</v>
@@ -11420,7 +11534,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>48</v>
@@ -11431,12 +11545,12 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>48</v>
@@ -11444,7 +11558,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>54</v>
@@ -11452,7 +11566,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>61</v>
@@ -11460,12 +11574,12 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>48</v>
@@ -11476,7 +11590,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>50</v>
@@ -11484,12 +11598,12 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>48</v>
@@ -11497,7 +11611,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>50</v>
@@ -11505,12 +11619,12 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>49</v>
@@ -11518,7 +11632,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>48</v>
@@ -11526,7 +11640,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>48</v>
@@ -11534,20 +11648,20 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="465" spans="1:9">
       <c r="A465" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="466" spans="1:9">
       <c r="A466" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>48</v>
@@ -11561,7 +11675,7 @@
     </row>
     <row r="467" spans="1:9">
       <c r="A467" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>54</v>
@@ -11569,7 +11683,7 @@
     </row>
     <row r="468" spans="1:9">
       <c r="A468" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>48</v>
@@ -11577,12 +11691,12 @@
     </row>
     <row r="469" spans="1:9">
       <c r="A469" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="470" spans="1:9">
       <c r="A470" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>48</v>
@@ -11593,18 +11707,18 @@
     </row>
     <row r="471" spans="1:9">
       <c r="A471" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="472" spans="1:9">
       <c r="A472" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>51</v>
@@ -11612,7 +11726,7 @@
     </row>
     <row r="473" spans="1:9">
       <c r="A473" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>51</v>
@@ -11620,7 +11734,7 @@
     </row>
     <row r="474" spans="1:9">
       <c r="A474" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>48</v>
@@ -11628,7 +11742,7 @@
     </row>
     <row r="475" spans="1:9">
       <c r="A475" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>48</v>
@@ -11636,17 +11750,17 @@
     </row>
     <row r="476" spans="1:9">
       <c r="A476" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="477" spans="1:9">
       <c r="A477" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="478" spans="1:9">
       <c r="A478" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>48</v>
@@ -11654,7 +11768,7 @@
     </row>
     <row r="479" spans="1:9">
       <c r="A479" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>48</v>
@@ -11662,7 +11776,7 @@
     </row>
     <row r="480" spans="1:9">
       <c r="A480" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>51</v>
@@ -11670,7 +11784,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>48</v>
@@ -11678,7 +11792,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>46</v>
@@ -11686,12 +11800,12 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B484" s="3" t="s">
         <v>48</v>
@@ -11699,7 +11813,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>50</v>
@@ -11707,7 +11821,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>48</v>
@@ -11718,17 +11832,17 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>59</v>
@@ -11736,7 +11850,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>48</v>
@@ -11744,7 +11858,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>48</v>
@@ -11753,12 +11867,12 @@
         <v>48</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>48</v>
@@ -11766,12 +11880,12 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B494" s="3" t="s">
         <v>50</v>
@@ -11779,12 +11893,12 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>48</v>
@@ -11792,7 +11906,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>48</v>
@@ -11800,7 +11914,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>50</v>
@@ -11808,7 +11922,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>48</v>
@@ -11819,7 +11933,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>48</v>
@@ -11830,7 +11944,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>53</v>
@@ -11838,7 +11952,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>51</v>
@@ -11849,7 +11963,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>50</v>
@@ -11857,7 +11971,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>48</v>
@@ -11865,7 +11979,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B505" s="3" t="s">
         <v>48</v>
@@ -11876,12 +11990,12 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>48</v>
@@ -11889,7 +12003,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>48</v>
@@ -11900,7 +12014,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>48</v>
@@ -11908,7 +12022,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>50</v>
@@ -11916,7 +12030,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>48</v>
@@ -11924,12 +12038,12 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="513" spans="1:17">
       <c r="A513" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>48</v>
@@ -11944,12 +12058,15 @@
         <v>51</v>
       </c>
       <c r="F513" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G513" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="514" spans="1:17">
       <c r="A514" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>51</v>
@@ -11957,17 +12074,17 @@
     </row>
     <row r="515" spans="1:17">
       <c r="A515" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="516" spans="1:17">
       <c r="A516" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="517" spans="1:17">
       <c r="A517" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B517" s="3" t="s">
         <v>51</v>
@@ -11975,7 +12092,7 @@
     </row>
     <row r="518" spans="1:17">
       <c r="A518" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>48</v>
@@ -11983,7 +12100,7 @@
     </row>
     <row r="519" spans="1:17">
       <c r="A519" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>48</v>
@@ -11991,7 +12108,7 @@
     </row>
     <row r="520" spans="1:17">
       <c r="A520" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>48</v>
@@ -12005,12 +12122,12 @@
     </row>
     <row r="521" spans="1:17">
       <c r="A521" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="522" spans="1:17">
       <c r="A522" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>59</v>
@@ -12019,15 +12136,18 @@
         <v>48</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E522" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="523" spans="1:17">
       <c r="A523" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>48</v>
@@ -12045,15 +12165,12 @@
         <v>48</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I523" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M523" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N523" s="3" t="s">
@@ -12068,7 +12185,7 @@
     </row>
     <row r="524" spans="1:17">
       <c r="A524" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>48</v>
@@ -12076,7 +12193,7 @@
     </row>
     <row r="525" spans="1:17">
       <c r="A525" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>51</v>
@@ -12084,7 +12201,7 @@
     </row>
     <row r="526" spans="1:17">
       <c r="A526" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>50</v>
@@ -12092,7 +12209,7 @@
     </row>
     <row r="527" spans="1:17">
       <c r="A527" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>48</v>
@@ -12100,7 +12217,7 @@
     </row>
     <row r="528" spans="1:17">
       <c r="A528" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>48</v>
@@ -12108,29 +12225,32 @@
       <c r="C528" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J528" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="529" spans="1:11">
+      <c r="K528" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12">
       <c r="A529" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:12">
       <c r="A530" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="531" spans="1:11">
+      <c r="D530" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12">
       <c r="A531" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>51</v>
@@ -12139,10 +12259,10 @@
         <v>53</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="532" spans="1:11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
       <c r="A532" s="2" t="s">
         <v>608</v>
       </c>
@@ -12150,7 +12270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:12">
       <c r="A533" s="2" t="s">
         <v>609</v>
       </c>
@@ -12158,7 +12278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:12">
       <c r="A534" s="2" t="s">
         <v>610</v>
       </c>
@@ -12166,7 +12286,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:12">
       <c r="A535" s="2" t="s">
         <v>611</v>
       </c>
@@ -12174,7 +12294,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:12">
       <c r="A536" s="2" t="s">
         <v>612</v>
       </c>
@@ -12182,7 +12302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:12">
       <c r="A537" s="2" t="s">
         <v>613</v>
       </c>
@@ -12193,7 +12313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:12">
       <c r="A538" s="2" t="s">
         <v>614</v>
       </c>
@@ -12212,19 +12332,22 @@
       <c r="F538" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="539" spans="1:11">
+      <c r="G538" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
       <c r="A539" s="2" t="s">
         <v>615</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K539" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="540" spans="1:11">
+      <c r="L539" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
       <c r="A540" s="2" t="s">
         <v>616</v>
       </c>
@@ -12232,12 +12355,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:12">
       <c r="A541" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:12">
       <c r="A542" s="2" t="s">
         <v>618</v>
       </c>
@@ -12245,7 +12368,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:12">
       <c r="A543" s="2" t="s">
         <v>620</v>
       </c>
@@ -12258,11 +12381,14 @@
       <c r="D543" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K543" s="3" t="s">
+      <c r="G543" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L543" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:12">
       <c r="A544" s="2" t="s">
         <v>622</v>
       </c>
@@ -12307,6 +12433,9 @@
       <c r="F548" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G548" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H548" s="3" t="s">
         <v>51</v>
       </c>
@@ -12337,6 +12466,9 @@
       <c r="C551" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D551" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E551" s="3" t="s">
         <v>48</v>
       </c>
@@ -12416,6 +12548,12 @@
       <c r="E559" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G559" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="560" spans="1:9">
       <c r="A560" s="2" t="s">
@@ -12425,7 +12563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" spans="1:11">
       <c r="A561" s="2" t="s">
         <v>639</v>
       </c>
@@ -12433,7 +12571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="562" spans="1:10">
+    <row r="562" spans="1:11">
       <c r="A562" s="2" t="s">
         <v>640</v>
       </c>
@@ -12441,7 +12579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:11">
       <c r="A563" s="2" t="s">
         <v>641</v>
       </c>
@@ -12466,13 +12604,16 @@
       <c r="J563" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="564" spans="1:10">
+      <c r="K563" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11">
       <c r="A564" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" spans="1:11">
       <c r="A565" s="2" t="s">
         <v>643</v>
       </c>
@@ -12480,7 +12621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" spans="1:11">
       <c r="A566" s="2" t="s">
         <v>644</v>
       </c>
@@ -12488,12 +12629,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" spans="1:11">
       <c r="A567" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:11">
       <c r="A568" s="2" t="s">
         <v>646</v>
       </c>
@@ -12501,20 +12642,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" spans="1:11">
       <c r="A569" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" spans="1:11">
       <c r="A570" s="2" t="s">
         <v>648</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="571" spans="1:10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11">
       <c r="A571" s="2" t="s">
         <v>649</v>
       </c>
@@ -12522,12 +12663,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" spans="1:11">
       <c r="A572" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" spans="1:11">
       <c r="A573" s="2" t="s">
         <v>651</v>
       </c>
@@ -12535,17 +12676,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" spans="1:11">
       <c r="A574" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="575" spans="1:10">
+    <row r="575" spans="1:11">
       <c r="A575" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" spans="1:11">
       <c r="A576" s="2" t="s">
         <v>654</v>
       </c>
@@ -12786,6 +12927,9 @@
       <c r="F606" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G606" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H606" s="3" t="s">
         <v>50</v>
       </c>
@@ -12810,6 +12954,9 @@
       <c r="C609" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D609" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="610" spans="1:15">
       <c r="A610" s="2" t="s">
@@ -12867,8 +13014,8 @@
       <c r="F615" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G615" s="4" t="s">
-        <v>141</v>
+      <c r="G615" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="H615" s="3" t="s">
         <v>59</v>
@@ -12876,23 +13023,20 @@
       <c r="I615" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J615" s="4" t="s">
+      <c r="K615" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K615" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="L615" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M615" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M615" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="N615" s="3" t="s">
         <v>48</v>
       </c>
       <c r="O615" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="616" spans="1:15">
@@ -12995,10 +13139,10 @@
         <v>64</v>
       </c>
       <c r="G632" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I632" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="633" spans="1:9">
@@ -13103,6 +13247,9 @@
       <c r="C646" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D646" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="647" spans="1:8">
       <c r="A647" s="2" t="s">
@@ -13122,6 +13269,12 @@
       <c r="C648" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="D648" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="649" spans="1:8">
       <c r="A649" s="2" t="s">
@@ -13291,7 +13444,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="673" spans="1:14">
+    <row r="673" spans="1:15">
       <c r="A673" s="2" t="s">
         <v>752</v>
       </c>
@@ -13299,7 +13452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="674" spans="1:14">
+    <row r="674" spans="1:15">
       <c r="A674" s="2" t="s">
         <v>753</v>
       </c>
@@ -13307,7 +13460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="675" spans="1:14">
+    <row r="675" spans="1:15">
       <c r="A675" s="2" t="s">
         <v>754</v>
       </c>
@@ -13315,7 +13468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="676" spans="1:14">
+    <row r="676" spans="1:15">
       <c r="A676" s="2" t="s">
         <v>755</v>
       </c>
@@ -13323,10 +13476,10 @@
         <v>51</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="677" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="677" spans="1:15">
       <c r="A677" s="2" t="s">
         <v>756</v>
       </c>
@@ -13334,7 +13487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="678" spans="1:14">
+    <row r="678" spans="1:15">
       <c r="A678" s="2" t="s">
         <v>757</v>
       </c>
@@ -13342,7 +13495,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="679" spans="1:14">
+    <row r="679" spans="1:15">
       <c r="A679" s="2" t="s">
         <v>758</v>
       </c>
@@ -13356,7 +13509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="680" spans="1:14">
+    <row r="680" spans="1:15">
       <c r="A680" s="2" t="s">
         <v>759</v>
       </c>
@@ -13364,7 +13517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="681" spans="1:14">
+    <row r="681" spans="1:15">
       <c r="A681" s="2" t="s">
         <v>760</v>
       </c>
@@ -13372,7 +13525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="682" spans="1:14">
+    <row r="682" spans="1:15">
       <c r="A682" s="2" t="s">
         <v>761</v>
       </c>
@@ -13380,7 +13533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="683" spans="1:14">
+    <row r="683" spans="1:15">
       <c r="A683" s="2" t="s">
         <v>762</v>
       </c>
@@ -13388,7 +13541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="684" spans="1:14">
+    <row r="684" spans="1:15">
       <c r="A684" s="2" t="s">
         <v>763</v>
       </c>
@@ -13399,7 +13552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="685" spans="1:14">
+    <row r="685" spans="1:15">
       <c r="A685" s="2" t="s">
         <v>764</v>
       </c>
@@ -13407,7 +13560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="686" spans="1:14">
+    <row r="686" spans="1:15">
       <c r="A686" s="2" t="s">
         <v>765</v>
       </c>
@@ -13415,7 +13568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="687" spans="1:14">
+    <row r="687" spans="1:15">
       <c r="A687" s="2" t="s">
         <v>766</v>
       </c>
@@ -13440,11 +13593,11 @@
       <c r="I687" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N687" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="688" spans="1:14">
+      <c r="O687" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="688" spans="1:15">
       <c r="A688" s="2" t="s">
         <v>767</v>
       </c>
@@ -13452,7 +13605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="689" spans="1:10">
+    <row r="689" spans="1:11">
       <c r="A689" s="2" t="s">
         <v>768</v>
       </c>
@@ -13478,10 +13631,13 @@
         <v>54</v>
       </c>
       <c r="J689" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="690" spans="1:10">
+        <v>51</v>
+      </c>
+      <c r="K689" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11">
       <c r="A690" s="2" t="s">
         <v>769</v>
       </c>
@@ -13489,7 +13645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="691" spans="1:10">
+    <row r="691" spans="1:11">
       <c r="A691" s="2" t="s">
         <v>770</v>
       </c>
@@ -13500,7 +13656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="692" spans="1:10">
+    <row r="692" spans="1:11">
       <c r="A692" s="2" t="s">
         <v>771</v>
       </c>
@@ -13508,7 +13664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="693" spans="1:10">
+    <row r="693" spans="1:11">
       <c r="A693" s="2" t="s">
         <v>772</v>
       </c>
@@ -13516,7 +13672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="694" spans="1:10">
+    <row r="694" spans="1:11">
       <c r="A694" s="2" t="s">
         <v>773</v>
       </c>
@@ -13535,8 +13691,11 @@
       <c r="F694" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="695" spans="1:10">
+      <c r="G694" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11">
       <c r="A695" s="2" t="s">
         <v>774</v>
       </c>
@@ -13547,7 +13706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="696" spans="1:10">
+    <row r="696" spans="1:11">
       <c r="A696" s="2" t="s">
         <v>775</v>
       </c>
@@ -13555,7 +13714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="697" spans="1:10">
+    <row r="697" spans="1:11">
       <c r="A697" s="2" t="s">
         <v>776</v>
       </c>
@@ -13566,7 +13725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="698" spans="1:10">
+    <row r="698" spans="1:11">
       <c r="A698" s="2" t="s">
         <v>777</v>
       </c>
@@ -13574,12 +13733,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="699" spans="1:10">
+    <row r="699" spans="1:11">
       <c r="A699" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="700" spans="1:10">
+    <row r="700" spans="1:11">
       <c r="A700" s="2" t="s">
         <v>779</v>
       </c>
@@ -13596,7 +13755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="701" spans="1:10">
+    <row r="701" spans="1:11">
       <c r="A701" s="2" t="s">
         <v>780</v>
       </c>
@@ -13615,11 +13774,14 @@
       <c r="F701" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="G701" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H701" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="702" spans="1:10">
+    <row r="702" spans="1:11">
       <c r="A702" s="2" t="s">
         <v>782</v>
       </c>
@@ -13629,8 +13791,11 @@
       <c r="C702" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="703" spans="1:10">
+      <c r="D702" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11">
       <c r="A703" s="2" t="s">
         <v>783</v>
       </c>
@@ -13641,7 +13806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="704" spans="1:10">
+    <row r="704" spans="1:11">
       <c r="A704" s="2" t="s">
         <v>784</v>
       </c>
@@ -13649,7 +13814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:12">
       <c r="A705" s="2" t="s">
         <v>785</v>
       </c>
@@ -13657,7 +13822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:12">
       <c r="A706" s="2" t="s">
         <v>786</v>
       </c>
@@ -13673,8 +13838,11 @@
       <c r="E706" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="707" spans="1:11">
+      <c r="G706" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12">
       <c r="A707" s="2" t="s">
         <v>787</v>
       </c>
@@ -13682,7 +13850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:12">
       <c r="A708" s="2" t="s">
         <v>788</v>
       </c>
@@ -13690,7 +13858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:12">
       <c r="A709" s="2" t="s">
         <v>789</v>
       </c>
@@ -13701,7 +13869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:12">
       <c r="A710" s="2" t="s">
         <v>790</v>
       </c>
@@ -13712,7 +13880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:12">
       <c r="A711" s="2" t="s">
         <v>791</v>
       </c>
@@ -13720,7 +13888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:12">
       <c r="A712" s="2" t="s">
         <v>792</v>
       </c>
@@ -13728,7 +13896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:12">
       <c r="A713" s="2" t="s">
         <v>793</v>
       </c>
@@ -13736,12 +13904,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" spans="1:12">
       <c r="A714" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:12">
       <c r="A715" s="2" t="s">
         <v>795</v>
       </c>
@@ -13752,12 +13920,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" spans="1:12">
       <c r="A716" s="2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:12">
       <c r="A717" s="2" t="s">
         <v>797</v>
       </c>
@@ -13765,7 +13933,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:12">
       <c r="A718" s="2" t="s">
         <v>798</v>
       </c>
@@ -13773,12 +13941,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" spans="1:12">
       <c r="A719" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="720" spans="1:11">
+    <row r="720" spans="1:12">
       <c r="A720" s="2" t="s">
         <v>800</v>
       </c>
@@ -13788,11 +13956,14 @@
       <c r="C720" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K720" s="3" t="s">
+      <c r="D720" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L720" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:12">
       <c r="A721" s="2" t="s">
         <v>801</v>
       </c>
@@ -13802,30 +13973,33 @@
       <c r="F721" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J721" s="4" t="s">
+      <c r="J721" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K721" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K721" s="3" t="s">
+      <c r="L721" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:12">
       <c r="A722" s="2" t="s">
         <v>802</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K722" s="4" t="s">
+      <c r="L722" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="723" spans="1:11">
+    <row r="723" spans="1:12">
       <c r="A723" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:12">
       <c r="A724" s="2" t="s">
         <v>804</v>
       </c>
@@ -13836,7 +14010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" spans="1:12">
       <c r="A725" s="2" t="s">
         <v>805</v>
       </c>
@@ -13844,7 +14018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" spans="1:12">
       <c r="A726" s="2" t="s">
         <v>806</v>
       </c>
@@ -13852,12 +14026,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:12">
       <c r="A727" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:12">
       <c r="A728" s="2" t="s">
         <v>808</v>
       </c>
@@ -13865,7 +14039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:12">
       <c r="A729" s="2" t="s">
         <v>809</v>
       </c>
@@ -13873,22 +14047,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:12">
       <c r="A730" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" spans="1:12">
       <c r="A731" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="732" spans="1:11">
+    <row r="732" spans="1:12">
       <c r="A732" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" spans="1:12">
       <c r="A733" s="2" t="s">
         <v>813</v>
       </c>
@@ -13896,17 +14070,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="734" spans="1:11">
+    <row r="734" spans="1:12">
       <c r="A734" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="735" spans="1:11">
+    <row r="735" spans="1:12">
       <c r="A735" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:12">
       <c r="A736" s="2" t="s">
         <v>816</v>
       </c>
@@ -14007,7 +14181,7 @@
         <v>831</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C751" s="3" t="s">
         <v>48</v>
@@ -14099,6 +14273,9 @@
       <c r="F763" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="G763" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H763" s="3" t="s">
         <v>54</v>
       </c>
@@ -14122,6 +14299,9 @@
       <c r="F764" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G764" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H764" s="3" t="s">
         <v>48</v>
       </c>
@@ -14142,6 +14322,9 @@
       <c r="E765" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G765" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H765" s="3" t="s">
         <v>48</v>
       </c>
@@ -14162,6 +14345,9 @@
       <c r="E766" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G766" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="767" spans="1:8">
       <c r="A767" s="2" t="s">
@@ -14255,6 +14441,9 @@
       <c r="F775" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G775" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H775" s="3" t="s">
         <v>48</v>
       </c>
@@ -14279,6 +14468,9 @@
       <c r="B778" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D778" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="779" spans="1:8">
       <c r="A779" s="2" t="s">
@@ -14314,6 +14506,9 @@
       <c r="F782" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G782" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H782" s="3" t="s">
         <v>48</v>
       </c>
@@ -14334,12 +14529,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="785" spans="1:14">
+    <row r="785" spans="1:15">
       <c r="A785" s="2" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="786" spans="1:14">
+    <row r="786" spans="1:15">
       <c r="A786" s="2" t="s">
         <v>867</v>
       </c>
@@ -14367,17 +14562,20 @@
       <c r="I786" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L786" s="3" t="s">
-        <v>53</v>
+      <c r="J786" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="M786" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N786" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O786" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="787" spans="1:14">
+    <row r="787" spans="1:15">
       <c r="A787" s="2" t="s">
         <v>868</v>
       </c>
@@ -14391,7 +14589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="788" spans="1:14">
+    <row r="788" spans="1:15">
       <c r="A788" s="2" t="s">
         <v>869</v>
       </c>
@@ -14402,7 +14600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="789" spans="1:14">
+    <row r="789" spans="1:15">
       <c r="A789" s="2" t="s">
         <v>870</v>
       </c>
@@ -14413,7 +14611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="790" spans="1:14">
+    <row r="790" spans="1:15">
       <c r="A790" s="2" t="s">
         <v>871</v>
       </c>
@@ -14421,7 +14619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="791" spans="1:14">
+    <row r="791" spans="1:15">
       <c r="A791" s="2" t="s">
         <v>872</v>
       </c>
@@ -14429,7 +14627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="792" spans="1:14">
+    <row r="792" spans="1:15">
       <c r="A792" s="2" t="s">
         <v>873</v>
       </c>
@@ -14437,15 +14635,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="793" spans="1:14">
+    <row r="793" spans="1:15">
       <c r="A793" s="2" t="s">
         <v>874</v>
       </c>
       <c r="B793" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="794" spans="1:14">
+      <c r="J793" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="794" spans="1:15">
       <c r="A794" s="2" t="s">
         <v>875</v>
       </c>
@@ -14456,7 +14657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="795" spans="1:14">
+    <row r="795" spans="1:15">
       <c r="A795" s="2" t="s">
         <v>876</v>
       </c>
@@ -14464,7 +14665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="796" spans="1:14">
+    <row r="796" spans="1:15">
       <c r="A796" s="2" t="s">
         <v>877</v>
       </c>
@@ -14475,15 +14676,18 @@
         <v>71</v>
       </c>
       <c r="I796" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="797" spans="1:14">
+        <v>142</v>
+      </c>
+      <c r="J796" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="797" spans="1:15">
       <c r="A797" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="798" spans="1:14">
+    <row r="798" spans="1:15">
       <c r="A798" s="2" t="s">
         <v>879</v>
       </c>
@@ -14491,7 +14695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="799" spans="1:14">
+    <row r="799" spans="1:15">
       <c r="A799" s="2" t="s">
         <v>880</v>
       </c>
@@ -14505,7 +14709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="800" spans="1:14">
+    <row r="800" spans="1:15">
       <c r="A800" s="2" t="s">
         <v>881</v>
       </c>
@@ -14516,7 +14720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="801" spans="1:14">
+    <row r="801" spans="1:15">
       <c r="A801" s="2" t="s">
         <v>882</v>
       </c>
@@ -14527,7 +14731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="802" spans="1:14">
+    <row r="802" spans="1:15">
       <c r="A802" s="2" t="s">
         <v>883</v>
       </c>
@@ -14535,7 +14739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="803" spans="1:14">
+    <row r="803" spans="1:15">
       <c r="A803" s="2" t="s">
         <v>884</v>
       </c>
@@ -14546,7 +14750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="804" spans="1:14">
+    <row r="804" spans="1:15">
       <c r="A804" s="2" t="s">
         <v>885</v>
       </c>
@@ -14554,7 +14758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="805" spans="1:14">
+    <row r="805" spans="1:15">
       <c r="A805" s="2" t="s">
         <v>886</v>
       </c>
@@ -14562,12 +14766,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="806" spans="1:14">
+    <row r="806" spans="1:15">
       <c r="A806" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="807" spans="1:14">
+    <row r="807" spans="1:15">
       <c r="A807" s="2" t="s">
         <v>888</v>
       </c>
@@ -14578,19 +14782,19 @@
         <v>48</v>
       </c>
       <c r="F807" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H807" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M807" s="4" t="s">
+      <c r="N807" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N807" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="808" spans="1:14">
+      <c r="O807" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="808" spans="1:15">
       <c r="A808" s="2" t="s">
         <v>889</v>
       </c>
@@ -14598,22 +14802,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="809" spans="1:14">
+    <row r="809" spans="1:15">
       <c r="A809" s="2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="810" spans="1:14">
+    <row r="810" spans="1:15">
       <c r="A810" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="811" spans="1:14">
+    <row r="811" spans="1:15">
       <c r="A811" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="812" spans="1:14">
+    <row r="812" spans="1:15">
       <c r="A812" s="2" t="s">
         <v>893</v>
       </c>
@@ -14621,10 +14825,10 @@
         <v>48</v>
       </c>
       <c r="D812" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="813" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="813" spans="1:15">
       <c r="A813" s="2" t="s">
         <v>894</v>
       </c>
@@ -14632,7 +14836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="814" spans="1:14">
+    <row r="814" spans="1:15">
       <c r="A814" s="2" t="s">
         <v>895</v>
       </c>
@@ -14640,7 +14844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="815" spans="1:14">
+    <row r="815" spans="1:15">
       <c r="A815" s="2" t="s">
         <v>896</v>
       </c>
@@ -14648,27 +14852,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="816" spans="1:14">
+    <row r="816" spans="1:15">
       <c r="A816" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="817" spans="1:9">
+    <row r="817" spans="1:10">
       <c r="A817" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="818" spans="1:9">
+    <row r="818" spans="1:10">
       <c r="A818" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="819" spans="1:9">
+    <row r="819" spans="1:10">
       <c r="A819" s="2" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="820" spans="1:9">
+    <row r="820" spans="1:10">
       <c r="A820" s="2" t="s">
         <v>901</v>
       </c>
@@ -14676,17 +14880,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="821" spans="1:9">
+    <row r="821" spans="1:10">
       <c r="A821" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="822" spans="1:9">
+    <row r="822" spans="1:10">
       <c r="A822" s="2" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="823" spans="1:9">
+    <row r="823" spans="1:10">
       <c r="A823" s="2" t="s">
         <v>904</v>
       </c>
@@ -14694,20 +14898,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="824" spans="1:9">
+    <row r="824" spans="1:10">
       <c r="A824" s="2" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="825" spans="1:9">
+    <row r="825" spans="1:10">
       <c r="A825" s="2" t="s">
         <v>906</v>
       </c>
       <c r="B825" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="826" spans="1:9">
+      <c r="J825" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10">
       <c r="A826" s="2" t="s">
         <v>907</v>
       </c>
@@ -14724,7 +14931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="827" spans="1:9">
+    <row r="827" spans="1:10">
       <c r="A827" s="2" t="s">
         <v>908</v>
       </c>
@@ -14747,7 +14954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="828" spans="1:9">
+    <row r="828" spans="1:10">
       <c r="A828" s="2" t="s">
         <v>909</v>
       </c>
@@ -14766,13 +14973,16 @@
       <c r="F828" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="829" spans="1:9">
+      <c r="G828" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10">
       <c r="A829" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="830" spans="1:9">
+    <row r="830" spans="1:10">
       <c r="A830" s="2" t="s">
         <v>911</v>
       </c>
@@ -14780,7 +14990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="831" spans="1:9">
+    <row r="831" spans="1:10">
       <c r="A831" s="2" t="s">
         <v>912</v>
       </c>
@@ -14791,13 +15001,13 @@
         <v>48</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="832" spans="1:9">
+    <row r="832" spans="1:10">
       <c r="A832" s="2" t="s">
         <v>914</v>
       </c>
@@ -14894,7 +15104,7 @@
         <v>50</v>
       </c>
       <c r="G845" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -14936,7 +15146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="849" spans="1:14">
+    <row r="849" spans="1:15">
       <c r="A849" s="2" t="s">
         <v>931</v>
       </c>
@@ -14944,7 +15154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="850" spans="1:14">
+    <row r="850" spans="1:15">
       <c r="A850" s="2" t="s">
         <v>932</v>
       </c>
@@ -14952,7 +15162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="851" spans="1:14">
+    <row r="851" spans="1:15">
       <c r="A851" s="2" t="s">
         <v>933</v>
       </c>
@@ -14960,7 +15170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="852" spans="1:14">
+    <row r="852" spans="1:15">
       <c r="A852" s="2" t="s">
         <v>934</v>
       </c>
@@ -14971,7 +15181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="853" spans="1:14">
+    <row r="853" spans="1:15">
       <c r="A853" s="2" t="s">
         <v>935</v>
       </c>
@@ -14988,7 +15198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="854" spans="1:14">
+    <row r="854" spans="1:15">
       <c r="A854" s="2" t="s">
         <v>936</v>
       </c>
@@ -14996,7 +15206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="855" spans="1:14">
+    <row r="855" spans="1:15">
       <c r="A855" s="2" t="s">
         <v>937</v>
       </c>
@@ -15004,7 +15214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="856" spans="1:14">
+    <row r="856" spans="1:15">
       <c r="A856" s="2" t="s">
         <v>938</v>
       </c>
@@ -15021,7 +15231,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="857" spans="1:14">
+    <row r="857" spans="1:15">
       <c r="A857" s="2" t="s">
         <v>939</v>
       </c>
@@ -15029,12 +15239,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="858" spans="1:14">
+    <row r="858" spans="1:15">
       <c r="A858" s="2" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="859" spans="1:14">
+    <row r="859" spans="1:15">
       <c r="A859" s="2" t="s">
         <v>941</v>
       </c>
@@ -15062,14 +15272,14 @@
       <c r="I859" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K859" s="3" t="s">
+      <c r="L859" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N859" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="860" spans="1:14">
+      <c r="O859" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="860" spans="1:15">
       <c r="A860" s="2" t="s">
         <v>942</v>
       </c>
@@ -15077,17 +15287,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="861" spans="1:14">
+    <row r="861" spans="1:15">
       <c r="A861" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="862" spans="1:14">
+    <row r="862" spans="1:15">
       <c r="A862" s="2" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="863" spans="1:14">
+    <row r="863" spans="1:15">
       <c r="A863" s="2" t="s">
         <v>945</v>
       </c>
@@ -15103,11 +15313,14 @@
       <c r="E863" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G863" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H863" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="864" spans="1:14">
+    <row r="864" spans="1:15">
       <c r="A864" s="2" t="s">
         <v>946</v>
       </c>
@@ -15115,17 +15328,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="865" spans="1:2">
+    <row r="865" spans="1:10">
       <c r="A865" s="2" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="866" spans="1:2">
+    <row r="866" spans="1:10">
       <c r="A866" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="867" spans="1:2">
+    <row r="867" spans="1:10">
       <c r="A867" s="2" t="s">
         <v>949</v>
       </c>
@@ -15133,7 +15346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="868" spans="1:2">
+    <row r="868" spans="1:10">
       <c r="A868" s="2" t="s">
         <v>950</v>
       </c>
@@ -15141,17 +15354,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="869" spans="1:2">
+    <row r="869" spans="1:10">
       <c r="A869" s="2" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="870" spans="1:2">
+    <row r="870" spans="1:10">
       <c r="A870" s="2" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="871" spans="1:2">
+    <row r="871" spans="1:10">
       <c r="A871" s="2" t="s">
         <v>953</v>
       </c>
@@ -15159,27 +15372,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="872" spans="1:2">
+    <row r="872" spans="1:10">
       <c r="A872" s="2" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="873" spans="1:2">
+    <row r="873" spans="1:10">
       <c r="A873" s="2" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="874" spans="1:2">
+    <row r="874" spans="1:10">
       <c r="A874" s="2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="875" spans="1:2">
+    <row r="875" spans="1:10">
       <c r="A875" s="2" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="876" spans="1:2">
+    <row r="876" spans="1:10">
       <c r="A876" s="2" t="s">
         <v>958</v>
       </c>
@@ -15187,7 +15400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="877" spans="1:2">
+    <row r="877" spans="1:10">
       <c r="A877" s="2" t="s">
         <v>959</v>
       </c>
@@ -15195,7 +15408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="878" spans="1:2">
+    <row r="878" spans="1:10">
       <c r="A878" s="2" t="s">
         <v>960</v>
       </c>
@@ -15203,17 +15416,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="879" spans="1:2">
+    <row r="879" spans="1:10">
       <c r="A879" s="2" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="880" spans="1:2">
+    <row r="880" spans="1:10">
       <c r="A880" s="2" t="s">
         <v>962</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="J880" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -15386,7 +15602,13 @@
       <c r="F901" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J901" s="3" t="s">
+      <c r="G901" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H901" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K901" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -15403,6 +15625,9 @@
       <c r="E902" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="J902" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="903" spans="1:17">
       <c r="A903" s="2" t="s">
@@ -15431,6 +15656,9 @@
       <c r="C904" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D904" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="905" spans="1:17">
       <c r="A905" s="2" t="s">
@@ -15445,7 +15673,7 @@
         <v>989</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="907" spans="1:17">
@@ -15499,7 +15727,7 @@
         <v>48</v>
       </c>
       <c r="D912" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E912" s="3" t="s">
         <v>59</v>
@@ -15516,23 +15744,20 @@
       <c r="I912" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J912" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K912" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L912" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M912" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N912" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O912" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P912" s="3" t="s">
         <v>48</v>
@@ -15584,6 +15809,9 @@
       <c r="F916" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G916" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H916" s="3" t="s">
         <v>48</v>
       </c>
@@ -15798,6 +16026,9 @@
       <c r="E942" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G942" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H942" s="3" t="s">
         <v>50</v>
       </c>
@@ -15872,10 +16103,7 @@
       <c r="I949" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K949" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M949" s="3" t="s">
+      <c r="L949" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N949" s="3" t="s">
@@ -16022,8 +16250,8 @@
       <c r="I958" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N958" s="4" t="s">
-        <v>149</v>
+      <c r="O958" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -16056,7 +16284,7 @@
         <v>50</v>
       </c>
       <c r="C961" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -16179,6 +16407,9 @@
       <c r="B978" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D978" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="979" spans="1:8">
       <c r="A979" s="2" t="s">
@@ -16199,6 +16430,9 @@
       <c r="F979" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G979" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H979" s="3" t="s">
         <v>50</v>
       </c>
@@ -16476,7 +16710,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="1025" spans="1:11">
+    <row r="1025" spans="1:12">
       <c r="A1025" s="2" t="s">
         <v>1110</v>
       </c>
@@ -16484,12 +16718,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1026" spans="1:11">
+    <row r="1026" spans="1:12">
       <c r="A1026" s="2" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1027" spans="1:11">
+    <row r="1027" spans="1:12">
       <c r="A1027" s="2" t="s">
         <v>1112</v>
       </c>
@@ -16497,77 +16731,77 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1028" spans="1:11">
+    <row r="1028" spans="1:12">
       <c r="A1028" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1029" spans="1:11">
+    <row r="1029" spans="1:12">
       <c r="A1029" s="2" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1030" spans="1:11">
+    <row r="1030" spans="1:12">
       <c r="A1030" s="2" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="1031" spans="1:11">
+    <row r="1031" spans="1:12">
       <c r="A1031" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1032" spans="1:11">
+    <row r="1032" spans="1:12">
       <c r="A1032" s="2" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1033" spans="1:11">
+    <row r="1033" spans="1:12">
       <c r="A1033" s="2" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1034" spans="1:11">
+    <row r="1034" spans="1:12">
       <c r="A1034" s="2" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1035" spans="1:11">
+    <row r="1035" spans="1:12">
       <c r="A1035" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1036" spans="1:11">
+    <row r="1036" spans="1:12">
       <c r="A1036" s="2" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1037" spans="1:11">
+    <row r="1037" spans="1:12">
       <c r="A1037" s="2" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1038" spans="1:11">
+    <row r="1038" spans="1:12">
       <c r="A1038" s="2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1039" spans="1:11">
+    <row r="1039" spans="1:12">
       <c r="A1039" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="B1039" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1039" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:11">
+      <c r="L1039" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:12">
       <c r="A1040" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="K1040" s="3" t="s">
+      <c r="L1040" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16842,7 +17076,7 @@
         <v>71</v>
       </c>
       <c r="D1090" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F1090" s="3" t="s">
         <v>54</v>
@@ -16859,7 +17093,7 @@
         <v>51</v>
       </c>
       <c r="F1091" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I1091" s="3" t="s">
         <v>55</v>
@@ -16877,11 +17111,17 @@
       <c r="A1093" s="2" t="s">
         <v>1178</v>
       </c>
+      <c r="B1093" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="1094" spans="1:9">
       <c r="A1094" s="2" t="s">
         <v>1179</v>
       </c>
+      <c r="B1094" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1095" spans="1:9">
       <c r="A1095" s="2" t="s">
@@ -16907,7 +17147,7 @@
         <v>54</v>
       </c>
       <c r="C1097" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1098" spans="1:9">
@@ -17132,7 +17372,7 @@
         <v>51</v>
       </c>
       <c r="C1127" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -17176,7 +17416,7 @@
         <v>48</v>
       </c>
       <c r="C1131" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -17198,7 +17438,7 @@
         <v>48</v>
       </c>
       <c r="C1133" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -17233,7 +17473,7 @@
         <v>51</v>
       </c>
       <c r="D1137" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1138" spans="1:4">
@@ -17427,7 +17667,7 @@
         <v>48</v>
       </c>
       <c r="C1159" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -17585,25 +17825,28 @@
         <v>50</v>
       </c>
       <c r="C1184" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:10">
       <c r="A1185" s="2" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1186" spans="1:9">
+    <row r="1186" spans="1:10">
       <c r="A1186" s="2" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1187" spans="1:9">
+    <row r="1187" spans="1:10">
       <c r="A1187" s="2" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="1188" spans="1:9">
+      <c r="B1187" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:10">
       <c r="A1188" s="2" t="s">
         <v>1273</v>
       </c>
@@ -17613,13 +17856,16 @@
       <c r="I1188" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1189" spans="1:9">
+      <c r="J1188" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:10">
       <c r="A1189" s="2" t="s">
         <v>1274</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D1189" s="3" t="s">
         <v>48</v>
@@ -17630,8 +17876,11 @@
       <c r="I1189" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1190" spans="1:9">
+      <c r="J1189" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:10">
       <c r="A1190" s="2" t="s">
         <v>1275</v>
       </c>
@@ -17641,13 +17890,19 @@
       <c r="I1190" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="1191" spans="1:9">
+      <c r="J1190" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10">
       <c r="A1191" s="2" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="1192" spans="1:9">
+      <c r="B1191" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10">
       <c r="A1192" s="2" t="s">
         <v>1277</v>
       </c>
@@ -17658,7 +17913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1193" spans="1:9">
+    <row r="1193" spans="1:10">
       <c r="A1193" s="2" t="s">
         <v>1278</v>
       </c>
@@ -17666,7 +17921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1194" spans="1:9">
+    <row r="1194" spans="1:10">
       <c r="A1194" s="2" t="s">
         <v>1279</v>
       </c>
@@ -17674,7 +17929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1195" spans="1:9">
+    <row r="1195" spans="1:10">
       <c r="A1195" s="2" t="s">
         <v>1280</v>
       </c>
@@ -17682,7 +17937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1196" spans="1:9">
+    <row r="1196" spans="1:10">
       <c r="A1196" s="2" t="s">
         <v>1281</v>
       </c>
@@ -17690,7 +17945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1197" spans="1:9">
+    <row r="1197" spans="1:10">
       <c r="A1197" s="2" t="s">
         <v>1282</v>
       </c>
@@ -17698,17 +17953,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1198" spans="1:9">
+    <row r="1198" spans="1:10">
       <c r="A1198" s="2" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1199" spans="1:9">
+    <row r="1199" spans="1:10">
       <c r="A1199" s="2" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1200" spans="1:9">
+    <row r="1200" spans="1:10">
       <c r="A1200" s="2" t="s">
         <v>1285</v>
       </c>
@@ -17805,22 +18060,22 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="1217" spans="1:11">
+    <row r="1217" spans="1:12">
       <c r="A1217" s="2" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="1218" spans="1:11">
+    <row r="1218" spans="1:12">
       <c r="A1218" s="2" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="1219" spans="1:11">
+    <row r="1219" spans="1:12">
       <c r="A1219" s="2" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="1220" spans="1:11">
+    <row r="1220" spans="1:12">
       <c r="A1220" s="2" t="s">
         <v>1305</v>
       </c>
@@ -17828,17 +18083,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1221" spans="1:11">
+    <row r="1221" spans="1:12">
       <c r="A1221" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="1222" spans="1:11">
+    <row r="1222" spans="1:12">
       <c r="A1222" s="2" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="1223" spans="1:11">
+    <row r="1223" spans="1:12">
       <c r="A1223" s="2" t="s">
         <v>1308</v>
       </c>
@@ -17846,7 +18101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1224" spans="1:11">
+    <row r="1224" spans="1:12">
       <c r="A1224" s="2" t="s">
         <v>1309</v>
       </c>
@@ -17857,7 +18112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1225" spans="1:11">
+    <row r="1225" spans="1:12">
       <c r="A1225" s="2" t="s">
         <v>1310</v>
       </c>
@@ -17865,7 +18120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1226" spans="1:11">
+    <row r="1226" spans="1:12">
       <c r="A1226" s="2" t="s">
         <v>1311</v>
       </c>
@@ -17876,7 +18131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1227" spans="1:11">
+    <row r="1227" spans="1:12">
       <c r="A1227" s="2" t="s">
         <v>1312</v>
       </c>
@@ -17886,11 +18141,11 @@
       <c r="D1227" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1227" s="4" t="s">
+      <c r="L1227" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1228" spans="1:11">
+    <row r="1228" spans="1:12">
       <c r="A1228" s="2" t="s">
         <v>1313</v>
       </c>
@@ -17898,7 +18153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1229" spans="1:11">
+    <row r="1229" spans="1:12">
       <c r="A1229" s="2" t="s">
         <v>1314</v>
       </c>
@@ -17906,7 +18161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1230" spans="1:11">
+    <row r="1230" spans="1:12">
       <c r="A1230" s="2" t="s">
         <v>1315</v>
       </c>
@@ -17914,7 +18169,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1231" spans="1:11">
+    <row r="1231" spans="1:12">
       <c r="A1231" s="2" t="s">
         <v>1316</v>
       </c>
@@ -17922,7 +18177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1232" spans="1:11">
+    <row r="1232" spans="1:12">
       <c r="A1232" s="2" t="s">
         <v>1317</v>
       </c>
@@ -17930,7 +18185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1233" spans="1:2">
+    <row r="1233" spans="1:4">
       <c r="A1233" s="2" t="s">
         <v>1318</v>
       </c>
@@ -17938,7 +18193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1234" spans="1:2">
+    <row r="1234" spans="1:4">
       <c r="A1234" s="2" t="s">
         <v>1319</v>
       </c>
@@ -17946,7 +18201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1235" spans="1:2">
+    <row r="1235" spans="1:4">
       <c r="A1235" s="2" t="s">
         <v>1320</v>
       </c>
@@ -17954,7 +18209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1236" spans="1:2">
+    <row r="1236" spans="1:4">
       <c r="A1236" s="2" t="s">
         <v>1321</v>
       </c>
@@ -17962,7 +18217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1237" spans="1:2">
+    <row r="1237" spans="1:4">
       <c r="A1237" s="2" t="s">
         <v>1322</v>
       </c>
@@ -17970,7 +18225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1238" spans="1:2">
+    <row r="1238" spans="1:4">
       <c r="A1238" s="2" t="s">
         <v>1323</v>
       </c>
@@ -17978,12 +18233,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1239" spans="1:2">
+    <row r="1239" spans="1:4">
       <c r="A1239" s="2" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="1240" spans="1:2">
+    <row r="1240" spans="1:4">
       <c r="A1240" s="2" t="s">
         <v>1325</v>
       </c>
@@ -17991,15 +18246,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1241" spans="1:2">
+    <row r="1241" spans="1:4">
       <c r="A1241" s="2" t="s">
         <v>1326</v>
       </c>
       <c r="B1241" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="1242" spans="1:2">
+      <c r="D1241" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4">
       <c r="A1242" s="2" t="s">
         <v>1327</v>
       </c>
@@ -18007,7 +18265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1243" spans="1:2">
+    <row r="1243" spans="1:4">
       <c r="A1243" s="2" t="s">
         <v>1328</v>
       </c>
@@ -18015,7 +18273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1244" spans="1:2">
+    <row r="1244" spans="1:4">
       <c r="A1244" s="2" t="s">
         <v>1329</v>
       </c>
@@ -18023,7 +18281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1245" spans="1:2">
+    <row r="1245" spans="1:4">
       <c r="A1245" s="2" t="s">
         <v>1330</v>
       </c>
@@ -18031,7 +18289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1246" spans="1:2">
+    <row r="1246" spans="1:4">
       <c r="A1246" s="2" t="s">
         <v>1331</v>
       </c>
@@ -18039,7 +18297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1247" spans="1:2">
+    <row r="1247" spans="1:4">
       <c r="A1247" s="2" t="s">
         <v>1332</v>
       </c>
@@ -18047,7 +18305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1248" spans="1:2">
+    <row r="1248" spans="1:4">
       <c r="A1248" s="2" t="s">
         <v>1333</v>
       </c>
@@ -19348,46 +19606,52 @@
         <v>1573</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1488" s="4" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="1489" spans="1:2">
+    <row r="1489" spans="1:12">
       <c r="A1489" s="2" t="s">
         <v>1575</v>
       </c>
       <c r="B1489" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="1490" spans="1:2">
+      <c r="L1489" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12">
       <c r="A1490" s="2" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="1491" spans="1:2">
+    <row r="1491" spans="1:12">
       <c r="A1491" s="2" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="1492" spans="1:2">
+      <c r="L1491" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12">
       <c r="A1492" s="2" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="1493" spans="1:2">
+    <row r="1493" spans="1:12">
       <c r="A1493" s="2" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="1494" spans="1:2">
+    <row r="1494" spans="1:12">
       <c r="A1494" s="2" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="1495" spans="1:2">
+    <row r="1495" spans="1:12">
       <c r="A1495" s="2" t="s">
         <v>1581</v>
       </c>
@@ -19395,7 +19659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1496" spans="1:2">
+    <row r="1496" spans="1:12">
       <c r="A1496" s="2" t="s">
         <v>1582</v>
       </c>
@@ -19403,12 +19667,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1497" spans="1:2">
+    <row r="1497" spans="1:12">
       <c r="A1497" s="2" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="1498" spans="1:2">
+    <row r="1498" spans="1:12">
       <c r="A1498" s="2" t="s">
         <v>1584</v>
       </c>
@@ -19416,12 +19680,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1499" spans="1:2">
+    <row r="1499" spans="1:12">
       <c r="A1499" s="2" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="1500" spans="1:2">
+    <row r="1500" spans="1:12">
       <c r="A1500" s="2" t="s">
         <v>1586</v>
       </c>
@@ -19429,7 +19693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1501" spans="1:2">
+    <row r="1501" spans="1:12">
       <c r="A1501" s="2" t="s">
         <v>1587</v>
       </c>
@@ -19437,7 +19701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1502" spans="1:2">
+    <row r="1502" spans="1:12">
       <c r="A1502" s="2" t="s">
         <v>1588</v>
       </c>
@@ -19445,7 +19709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1503" spans="1:2">
+    <row r="1503" spans="1:12">
       <c r="A1503" s="2" t="s">
         <v>1589</v>
       </c>
@@ -19453,7 +19717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1504" spans="1:2">
+    <row r="1504" spans="1:12">
       <c r="A1504" s="2" t="s">
         <v>1590</v>
       </c>
@@ -19461,17 +19725,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1505" spans="1:11">
+    <row r="1505" spans="1:12">
       <c r="A1505" s="2" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="1506" spans="1:11">
+    <row r="1506" spans="1:12">
       <c r="A1506" s="2" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="1507" spans="1:11">
+    <row r="1507" spans="1:12">
       <c r="A1507" s="2" t="s">
         <v>1593</v>
       </c>
@@ -19479,7 +19743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1508" spans="1:11">
+    <row r="1508" spans="1:12">
       <c r="A1508" s="2" t="s">
         <v>1594</v>
       </c>
@@ -19490,7 +19754,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="1509" spans="1:11">
+    <row r="1509" spans="1:12">
       <c r="A1509" s="2" t="s">
         <v>1596</v>
       </c>
@@ -19498,143 +19762,143 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1510" spans="1:11">
+    <row r="1510" spans="1:12">
       <c r="A1510" s="2" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1511" spans="1:11">
+    <row r="1511" spans="1:12">
       <c r="A1511" s="2" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="1512" spans="1:11">
+    <row r="1512" spans="1:12">
       <c r="A1512" s="2" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="1513" spans="1:11">
+    <row r="1513" spans="1:12">
       <c r="A1513" s="2" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="1514" spans="1:11">
+    <row r="1514" spans="1:12">
       <c r="A1514" s="2" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="1515" spans="1:11">
+    <row r="1515" spans="1:12">
       <c r="A1515" s="2" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="1516" spans="1:11">
+    <row r="1516" spans="1:12">
       <c r="A1516" s="2" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="1517" spans="1:11">
+    <row r="1517" spans="1:12">
       <c r="A1517" s="2" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="1518" spans="1:11">
+    <row r="1518" spans="1:12">
       <c r="A1518" s="2" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="1519" spans="1:11">
+    <row r="1519" spans="1:12">
       <c r="A1519" s="2" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="1520" spans="1:11">
+    <row r="1520" spans="1:12">
       <c r="A1520" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="K1520" s="3" t="s">
+      <c r="L1520" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="1521" spans="1:11">
+    <row r="1521" spans="1:12">
       <c r="A1521" s="2" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="1522" spans="1:11">
+    <row r="1522" spans="1:12">
       <c r="A1522" s="2" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="1523" spans="1:11">
+    <row r="1523" spans="1:12">
       <c r="A1523" s="2" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="1524" spans="1:11">
+    <row r="1524" spans="1:12">
       <c r="A1524" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="K1524" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:11">
+      <c r="L1524" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12">
       <c r="A1525" s="2" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="1526" spans="1:11">
+    <row r="1526" spans="1:12">
       <c r="A1526" s="2" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="1527" spans="1:11">
+    <row r="1527" spans="1:12">
       <c r="A1527" s="2" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="1528" spans="1:11">
+    <row r="1528" spans="1:12">
       <c r="A1528" s="2" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="1529" spans="1:11">
+    <row r="1529" spans="1:12">
       <c r="A1529" s="2" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="1530" spans="1:11">
+    <row r="1530" spans="1:12">
       <c r="A1530" s="2" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="1531" spans="1:11">
+    <row r="1531" spans="1:12">
       <c r="A1531" s="2" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="1532" spans="1:11">
+    <row r="1532" spans="1:12">
       <c r="A1532" s="2" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="1533" spans="1:11">
+    <row r="1533" spans="1:12">
       <c r="A1533" s="2" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="1534" spans="1:11">
+    <row r="1534" spans="1:12">
       <c r="A1534" s="2" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="1535" spans="1:11">
+    <row r="1535" spans="1:12">
       <c r="A1535" s="2" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="1536" spans="1:11">
+    <row r="1536" spans="1:12">
       <c r="A1536" s="2" t="s">
         <v>1623</v>
       </c>
@@ -20404,52 +20668,52 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="1681" spans="1:14">
+    <row r="1681" spans="1:15">
       <c r="A1681" s="2" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="1682" spans="1:14">
+    <row r="1682" spans="1:15">
       <c r="A1682" s="2" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="1683" spans="1:14">
+    <row r="1683" spans="1:15">
       <c r="A1683" s="2" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="1684" spans="1:14">
+    <row r="1684" spans="1:15">
       <c r="A1684" s="2" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="1685" spans="1:14">
+    <row r="1685" spans="1:15">
       <c r="A1685" s="2" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="1686" spans="1:14">
+    <row r="1686" spans="1:15">
       <c r="A1686" s="2" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="1687" spans="1:14">
+    <row r="1687" spans="1:15">
       <c r="A1687" s="2" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="1688" spans="1:14">
+    <row r="1688" spans="1:15">
       <c r="A1688" s="2" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="1689" spans="1:14">
+    <row r="1689" spans="1:15">
       <c r="A1689" s="2" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="1690" spans="1:14">
+    <row r="1690" spans="1:15">
       <c r="A1690" s="2" t="s">
         <v>1777</v>
       </c>
@@ -20465,14 +20729,14 @@
       <c r="H1690" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1690" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1690" s="4" t="s">
+      <c r="N1690" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1690" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1691" spans="1:14">
+    <row r="1691" spans="1:15">
       <c r="A1691" s="2" t="s">
         <v>1778</v>
       </c>
@@ -20485,8 +20749,11 @@
       <c r="G1691" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="1692" spans="1:14">
+      <c r="J1691" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:15">
       <c r="A1692" s="2" t="s">
         <v>1779</v>
       </c>
@@ -20494,7 +20761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1693" spans="1:14">
+    <row r="1693" spans="1:15">
       <c r="A1693" s="2" t="s">
         <v>1780</v>
       </c>
@@ -20505,10 +20772,10 @@
         <v>50</v>
       </c>
       <c r="G1693" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:15">
       <c r="A1694" s="2" t="s">
         <v>1781</v>
       </c>
@@ -20519,10 +20786,13 @@
         <v>109</v>
       </c>
       <c r="G1694" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:14">
+        <v>114</v>
+      </c>
+      <c r="J1694" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:15">
       <c r="A1695" s="2" t="s">
         <v>1782</v>
       </c>
@@ -20532,8 +20802,11 @@
       <c r="G1695" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="1696" spans="1:14">
+      <c r="J1695" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:15">
       <c r="A1696" s="2" t="s">
         <v>1783</v>
       </c>
@@ -20546,11 +20819,11 @@
       <c r="H1696" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1696" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:7">
+      <c r="N1696" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:10">
       <c r="A1697" s="2" t="s">
         <v>1784</v>
       </c>
@@ -20564,7 +20837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1698" spans="1:7">
+    <row r="1698" spans="1:10">
       <c r="A1698" s="2" t="s">
         <v>1785</v>
       </c>
@@ -20577,8 +20850,11 @@
       <c r="G1698" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="1699" spans="1:7">
+      <c r="J1698" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:10">
       <c r="A1699" s="2" t="s">
         <v>1786</v>
       </c>
@@ -20586,62 +20862,62 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1700" spans="1:7">
+    <row r="1700" spans="1:10">
       <c r="A1700" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="1701" spans="1:7">
+    <row r="1701" spans="1:10">
       <c r="A1701" s="2" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="1702" spans="1:7">
+    <row r="1702" spans="1:10">
       <c r="A1702" s="2" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="1703" spans="1:7">
+    <row r="1703" spans="1:10">
       <c r="A1703" s="2" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="1704" spans="1:7">
+    <row r="1704" spans="1:10">
       <c r="A1704" s="2" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="1705" spans="1:7">
+    <row r="1705" spans="1:10">
       <c r="A1705" s="2" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="1706" spans="1:7">
+    <row r="1706" spans="1:10">
       <c r="A1706" s="2" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1707" spans="1:7">
+    <row r="1707" spans="1:10">
       <c r="A1707" s="2" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="1708" spans="1:7">
+    <row r="1708" spans="1:10">
       <c r="A1708" s="2" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="1709" spans="1:7">
+    <row r="1709" spans="1:10">
       <c r="A1709" s="2" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="1710" spans="1:7">
+    <row r="1710" spans="1:10">
       <c r="A1710" s="2" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="1711" spans="1:7">
+    <row r="1711" spans="1:10">
       <c r="A1711" s="2" t="s">
         <v>1798</v>
       </c>
@@ -20649,50 +20925,50 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1712" spans="1:7">
+    <row r="1712" spans="1:10">
       <c r="A1712" s="2" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="1713" spans="1:12">
+    <row r="1713" spans="1:13">
       <c r="A1713" s="2" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="1714" spans="1:12">
+    <row r="1714" spans="1:13">
       <c r="A1714" s="2" t="s">
         <v>1801</v>
       </c>
       <c r="E1714" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:13">
       <c r="A1715" s="2" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="1716" spans="1:12">
+    <row r="1716" spans="1:13">
       <c r="A1716" s="2" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="1717" spans="1:12">
+    <row r="1717" spans="1:13">
       <c r="A1717" s="2" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="1718" spans="1:12">
+    <row r="1718" spans="1:13">
       <c r="A1718" s="2" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="1719" spans="1:12">
+    <row r="1719" spans="1:13">
       <c r="A1719" s="2" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="1720" spans="1:12">
+    <row r="1720" spans="1:13">
       <c r="A1720" s="2" t="s">
         <v>1807</v>
       </c>
@@ -20700,48 +20976,48 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1721" spans="1:12">
+    <row r="1721" spans="1:13">
       <c r="A1721" s="2" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="1722" spans="1:12">
+    <row r="1722" spans="1:13">
       <c r="A1722" s="2" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="1723" spans="1:12">
+    <row r="1723" spans="1:13">
       <c r="A1723" s="2" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="1724" spans="1:12">
+    <row r="1724" spans="1:13">
       <c r="A1724" s="2" t="s">
         <v>1811</v>
       </c>
       <c r="E1724" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L1724" s="4" t="s">
+      <c r="M1724" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1725" spans="1:12">
+    <row r="1725" spans="1:13">
       <c r="A1725" s="2" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="1726" spans="1:12">
+    <row r="1726" spans="1:13">
       <c r="A1726" s="2" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="1727" spans="1:12">
+    <row r="1727" spans="1:13">
       <c r="A1727" s="2" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="1728" spans="1:12">
+    <row r="1728" spans="1:13">
       <c r="A1728" s="2" t="s">
         <v>1815</v>
       </c>
@@ -20826,12 +21102,12 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="1745" spans="1:11">
+    <row r="1745" spans="1:12">
       <c r="A1745" s="2" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="1746" spans="1:11">
+    <row r="1746" spans="1:12">
       <c r="A1746" s="2" t="s">
         <v>1833</v>
       </c>
@@ -20839,28 +21115,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1747" spans="1:11">
+    <row r="1747" spans="1:12">
       <c r="A1747" s="2" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="1748" spans="1:11">
+    <row r="1748" spans="1:12">
       <c r="A1748" s="2" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="1749" spans="1:11">
+    <row r="1749" spans="1:12">
       <c r="A1749" s="2" t="s">
         <v>1836</v>
       </c>
       <c r="B1749" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K1749" s="4" t="s">
+      <c r="L1749" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="1750" spans="1:11">
+    <row r="1750" spans="1:12">
       <c r="A1750" s="2" t="s">
         <v>1837</v>
       </c>
@@ -20868,17 +21144,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1751" spans="1:11">
+    <row r="1751" spans="1:12">
       <c r="A1751" s="2" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="1752" spans="1:11">
+    <row r="1752" spans="1:12">
       <c r="A1752" s="2" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="1753" spans="1:11">
+    <row r="1753" spans="1:12">
       <c r="A1753" s="2" t="s">
         <v>1840</v>
       </c>
@@ -20886,7 +21162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1754" spans="1:11">
+    <row r="1754" spans="1:12">
       <c r="A1754" s="2" t="s">
         <v>1841</v>
       </c>
@@ -20894,27 +21170,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1755" spans="1:11">
+    <row r="1755" spans="1:12">
       <c r="A1755" s="2" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="1756" spans="1:11">
+    <row r="1756" spans="1:12">
       <c r="A1756" s="2" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="1757" spans="1:11">
+    <row r="1757" spans="1:12">
       <c r="A1757" s="2" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="1758" spans="1:11">
+    <row r="1758" spans="1:12">
       <c r="A1758" s="2" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="1759" spans="1:11">
+    <row r="1759" spans="1:12">
       <c r="A1759" s="2" t="s">
         <v>1846</v>
       </c>
@@ -20922,7 +21198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1760" spans="1:11">
+    <row r="1760" spans="1:12">
       <c r="A1760" s="2" t="s">
         <v>1847</v>
       </c>
@@ -20935,7 +21211,7 @@
         <v>1848</v>
       </c>
       <c r="B1761" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -21373,58 +21649,58 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="1825" spans="1:11">
+    <row r="1825" spans="1:12">
       <c r="A1825" s="2" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="1826" spans="1:11">
+    <row r="1826" spans="1:12">
       <c r="A1826" s="2" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="1827" spans="1:11">
+    <row r="1827" spans="1:12">
       <c r="A1827" s="2" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="1828" spans="1:11">
+    <row r="1828" spans="1:12">
       <c r="A1828" s="2" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="1829" spans="1:11">
+    <row r="1829" spans="1:12">
       <c r="A1829" s="2" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1830" spans="1:11">
+    <row r="1830" spans="1:12">
       <c r="A1830" s="2" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="1831" spans="1:11">
+    <row r="1831" spans="1:12">
       <c r="A1831" s="2" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="1832" spans="1:11">
+    <row r="1832" spans="1:12">
       <c r="A1832" s="2" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="1833" spans="1:11">
+    <row r="1833" spans="1:12">
       <c r="A1833" s="2" t="s">
         <v>1920</v>
       </c>
       <c r="B1833" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K1833" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:11">
+      <c r="L1833" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:12">
       <c r="A1834" s="2" t="s">
         <v>1921</v>
       </c>
@@ -21432,7 +21708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="1835" spans="1:11">
+    <row r="1835" spans="1:12">
       <c r="A1835" s="2" t="s">
         <v>1922</v>
       </c>
@@ -21440,7 +21716,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="1836" spans="1:11">
+    <row r="1836" spans="1:12">
       <c r="A1836" s="2" t="s">
         <v>1924</v>
       </c>
@@ -21448,7 +21724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1837" spans="1:11">
+    <row r="1837" spans="1:12">
       <c r="A1837" s="2" t="s">
         <v>1925</v>
       </c>
@@ -21456,18 +21732,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1838" spans="1:11">
+    <row r="1838" spans="1:12">
       <c r="A1838" s="2" t="s">
         <v>1926</v>
       </c>
       <c r="B1838" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K1838" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:11">
+      <c r="L1838" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:12">
       <c r="A1839" s="2" t="s">
         <v>1927</v>
       </c>
@@ -21475,7 +21751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1840" spans="1:11">
+    <row r="1840" spans="1:12">
       <c r="A1840" s="2" t="s">
         <v>1928</v>
       </c>
@@ -21612,7 +21888,7 @@
         <v>48</v>
       </c>
       <c r="D1861" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1862" spans="1:4">
@@ -21628,7 +21904,7 @@
         <v>1951</v>
       </c>
       <c r="B1863" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -21703,12 +21979,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1873" spans="1:2">
+    <row r="1873" spans="1:10">
       <c r="A1873" s="2" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="1874" spans="1:2">
+    <row r="1874" spans="1:10">
       <c r="A1874" s="2" t="s">
         <v>1962</v>
       </c>
@@ -21716,12 +21992,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1875" spans="1:2">
+    <row r="1875" spans="1:10">
       <c r="A1875" s="2" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="1876" spans="1:2">
+    <row r="1876" spans="1:10">
       <c r="A1876" s="2" t="s">
         <v>1964</v>
       </c>
@@ -21729,12 +22005,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1877" spans="1:2">
+    <row r="1877" spans="1:10">
       <c r="A1877" s="2" t="s">
         <v>1965</v>
       </c>
     </row>
-    <row r="1878" spans="1:2">
+    <row r="1878" spans="1:10">
       <c r="A1878" s="2" t="s">
         <v>1966</v>
       </c>
@@ -21742,8 +22018,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="1879" spans="1:10">
+      <c r="A1879" s="2" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:10">
+      <c r="A1880" s="2" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:10">
+      <c r="A1881" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J1881" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R1878"/>
+  <autoFilter ref="A1:R1881"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -23631,6 +23925,9 @@
     <hyperlink ref="A1876" r:id="rId1884"/>
     <hyperlink ref="A1877" r:id="rId1885"/>
     <hyperlink ref="A1878" r:id="rId1886"/>
+    <hyperlink ref="A1879" r:id="rId1887"/>
+    <hyperlink ref="A1880" r:id="rId1888"/>
+    <hyperlink ref="A1881" r:id="rId1889"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -6631,52 +6631,52 @@
         <v>72</v>
       </c>
       <c r="C3">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="D3">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="E3">
-        <v>3704</v>
+        <v>3706</v>
       </c>
       <c r="F3">
-        <v>6588</v>
+        <v>6590</v>
       </c>
       <c r="G3">
-        <v>9776</v>
+        <v>9781</v>
       </c>
       <c r="H3">
-        <v>11716</v>
+        <v>11719</v>
       </c>
       <c r="I3">
-        <v>15640</v>
+        <v>15651</v>
       </c>
       <c r="J3">
-        <v>21589</v>
+        <v>21602</v>
       </c>
       <c r="K3">
-        <v>24362</v>
+        <v>24383</v>
       </c>
       <c r="L3">
-        <v>37756</v>
+        <v>37779</v>
       </c>
       <c r="M3">
-        <v>39744</v>
+        <v>39773</v>
       </c>
       <c r="N3">
-        <v>62087</v>
+        <v>62129</v>
       </c>
       <c r="O3">
-        <v>65168</v>
+        <v>65206</v>
       </c>
       <c r="P3">
-        <v>116419</v>
+        <v>116471</v>
       </c>
       <c r="Q3">
-        <v>137665</v>
+        <v>137726</v>
       </c>
       <c r="R3">
-        <v>245554</v>
+        <v>245638</v>
       </c>
     </row>
     <row r="4" spans="1:18">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4847" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="2040">
   <si>
     <t>№</t>
   </si>
@@ -6083,6 +6083,9 @@
   </si>
   <si>
     <t>1906</t>
+  </si>
+  <si>
+    <t>1+, 27-</t>
   </si>
   <si>
     <t>1907</t>
@@ -6631,52 +6634,52 @@
         <v>72</v>
       </c>
       <c r="C3">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="D3">
-        <v>3474</v>
+        <v>3479</v>
       </c>
       <c r="E3">
-        <v>3706</v>
+        <v>3708</v>
       </c>
       <c r="F3">
-        <v>6590</v>
+        <v>6600</v>
       </c>
       <c r="G3">
-        <v>9781</v>
+        <v>9788</v>
       </c>
       <c r="H3">
-        <v>11719</v>
+        <v>11732</v>
       </c>
       <c r="I3">
-        <v>15651</v>
+        <v>15680</v>
       </c>
       <c r="J3">
-        <v>21602</v>
+        <v>21635</v>
       </c>
       <c r="K3">
-        <v>24383</v>
+        <v>24435</v>
       </c>
       <c r="L3">
-        <v>37779</v>
+        <v>37889</v>
       </c>
       <c r="M3">
-        <v>39773</v>
+        <v>39873</v>
       </c>
       <c r="N3">
-        <v>62129</v>
+        <v>62265</v>
       </c>
       <c r="O3">
-        <v>65206</v>
+        <v>65332</v>
       </c>
       <c r="P3">
-        <v>116471</v>
+        <v>116666</v>
       </c>
       <c r="Q3">
-        <v>137726</v>
+        <v>137962</v>
       </c>
       <c r="R3">
-        <v>245638</v>
+        <v>245964</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6740,7 +6743,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>1969</v>
+        <v>2002</v>
       </c>
       <c r="C5">
         <v>1248</v>
@@ -6908,7 +6911,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C8">
         <v>368</v>
@@ -25141,23 +25144,32 @@
       <c r="A1913" s="2" t="s">
         <v>2019</v>
       </c>
+      <c r="B1913" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1914" spans="1:8">
       <c r="A1914" s="2" t="s">
         <v>2020</v>
       </c>
+      <c r="B1914" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1915" spans="1:8">
       <c r="A1915" s="2" t="s">
         <v>2021</v>
       </c>
+      <c r="B1915" s="3" t="s">
+        <v>2022</v>
+      </c>
       <c r="F1915" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="1916" spans="1:8">
       <c r="A1916" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B1916" s="4" t="s">
         <v>111</v>
@@ -25165,7 +25177,10 @@
     </row>
     <row r="1917" spans="1:8">
       <c r="A1917" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+      <c r="B1917" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G1917" s="3" t="s">
         <v>67</v>
@@ -25173,7 +25188,7 @@
     </row>
     <row r="1918" spans="1:8">
       <c r="A1918" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B1918" s="3" t="s">
         <v>54</v>
@@ -25184,12 +25199,15 @@
     </row>
     <row r="1919" spans="1:8">
       <c r="A1919" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
+      </c>
+      <c r="B1919" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="1920" spans="1:8">
       <c r="A1920" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B1920" s="3" t="s">
         <v>47</v>
@@ -25200,7 +25218,10 @@
     </row>
     <row r="1921" spans="1:7">
       <c r="A1921" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
+      </c>
+      <c r="B1921" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G1921" s="3" t="s">
         <v>54</v>
@@ -25208,42 +25229,42 @@
     </row>
     <row r="1922" spans="1:7">
       <c r="A1922" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1923" spans="1:7">
       <c r="A1923" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1924" spans="1:7">
       <c r="A1924" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1925" spans="1:7">
       <c r="A1925" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1926" spans="1:7">
       <c r="A1926" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1927" spans="1:7">
       <c r="A1927" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1928" spans="1:7">
       <c r="A1928" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1929" spans="1:7">
       <c r="A1929" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C1929" s="4" t="s">
         <v>76</v>
@@ -25251,7 +25272,7 @@
     </row>
     <row r="1930" spans="1:7">
       <c r="A1930" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C1930" s="3" t="s">
         <v>47</v>
@@ -25259,7 +25280,7 @@
     </row>
     <row r="1931" spans="1:7">
       <c r="A1931" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C1931" s="3" t="s">
         <v>54</v>
@@ -25267,7 +25288,7 @@
     </row>
     <row r="1932" spans="1:7">
       <c r="A1932" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C1932" s="3" t="s">
         <v>47</v>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="2040">
   <si>
     <t>№</t>
   </si>
@@ -6631,55 +6631,55 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1937</v>
       </c>
       <c r="D3">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="E3">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="F3">
-        <v>6600</v>
+        <v>6605</v>
       </c>
       <c r="G3">
-        <v>9788</v>
+        <v>9792</v>
       </c>
       <c r="H3">
-        <v>11732</v>
+        <v>11738</v>
       </c>
       <c r="I3">
-        <v>15680</v>
+        <v>15684</v>
       </c>
       <c r="J3">
-        <v>21635</v>
+        <v>21647</v>
       </c>
       <c r="K3">
-        <v>24435</v>
+        <v>24445</v>
       </c>
       <c r="L3">
-        <v>37889</v>
+        <v>37909</v>
       </c>
       <c r="M3">
-        <v>39873</v>
+        <v>39897</v>
       </c>
       <c r="N3">
-        <v>62265</v>
+        <v>62296</v>
       </c>
       <c r="O3">
-        <v>65332</v>
+        <v>65364</v>
       </c>
       <c r="P3">
-        <v>116666</v>
+        <v>116730</v>
       </c>
       <c r="Q3">
-        <v>137962</v>
+        <v>138033</v>
       </c>
       <c r="R3">
-        <v>245964</v>
+        <v>246064</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6687,7 +6687,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>25918</v>
+        <v>26090</v>
       </c>
       <c r="C4">
         <v>6677</v>
@@ -6743,7 +6743,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2002</v>
+        <v>2048</v>
       </c>
       <c r="C5">
         <v>1248</v>
@@ -6799,7 +6799,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C6">
         <v>282</v>
@@ -6911,7 +6911,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="C8">
         <v>368</v>
@@ -6967,7 +6967,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -10258,6 +10258,9 @@
       <c r="A209" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="B209" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="2" t="s">
@@ -10394,6 +10397,9 @@
       <c r="A223" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="B223" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="2" t="s">
@@ -12827,6 +12833,9 @@
       <c r="A457" s="2" t="s">
         <v>549</v>
       </c>
+      <c r="B457" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="2" t="s">
@@ -19022,8 +19031,8 @@
       <c r="A1063" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="B1063" s="4" t="s">
-        <v>79</v>
+      <c r="B1063" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -24335,6 +24344,9 @@
       <c r="A1804" s="2" t="s">
         <v>1908</v>
       </c>
+      <c r="B1804" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F1804" s="4" t="s">
         <v>111</v>
       </c>
@@ -24595,6 +24607,9 @@
       <c r="A1844" s="2" t="s">
         <v>1949</v>
       </c>
+      <c r="B1844" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C1844" s="3" t="s">
         <v>54</v>
       </c>
@@ -24603,6 +24618,9 @@
       <c r="A1845" s="2" t="s">
         <v>1950</v>
       </c>
+      <c r="B1845" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C1845" s="3" t="s">
         <v>54</v>
       </c>
@@ -24621,6 +24639,9 @@
       <c r="A1848" s="2" t="s">
         <v>1953</v>
       </c>
+      <c r="B1848" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1848" s="3" t="s">
         <v>54</v>
       </c>
@@ -24634,6 +24655,9 @@
       <c r="A1850" s="2" t="s">
         <v>1955</v>
       </c>
+      <c r="B1850" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1850" s="3" t="s">
         <v>47</v>
       </c>
@@ -24972,6 +24996,9 @@
       <c r="A1890" s="2" t="s">
         <v>1996</v>
       </c>
+      <c r="B1890" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1890" s="3" t="s">
         <v>47</v>
       </c>
@@ -24983,6 +25010,9 @@
       <c r="A1891" s="2" t="s">
         <v>1997</v>
       </c>
+      <c r="B1891" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1891" s="3" t="s">
         <v>75</v>
       </c>
@@ -24994,6 +25024,9 @@
       <c r="A1892" s="2" t="s">
         <v>1998</v>
       </c>
+      <c r="B1892" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1893" spans="1:11">
       <c r="A1893" s="2" t="s">
@@ -25004,6 +25037,9 @@
       <c r="A1894" s="2" t="s">
         <v>2000</v>
       </c>
+      <c r="B1894" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C1894" s="4" t="s">
         <v>260</v>
       </c>
@@ -25012,6 +25048,9 @@
       <c r="A1895" s="2" t="s">
         <v>2001</v>
       </c>
+      <c r="B1895" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1895" s="4" t="s">
         <v>76</v>
       </c>
@@ -25020,6 +25059,9 @@
       <c r="A1896" s="2" t="s">
         <v>2002</v>
       </c>
+      <c r="B1896" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1896" s="3" t="s">
         <v>48</v>
       </c>
@@ -25041,6 +25083,9 @@
       <c r="A1899" s="2" t="s">
         <v>2005</v>
       </c>
+      <c r="B1899" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1899" s="3" t="s">
         <v>49</v>
       </c>
@@ -25092,11 +25137,17 @@
       <c r="A1908" s="2" t="s">
         <v>2014</v>
       </c>
+      <c r="B1908" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1909" spans="1:8">
       <c r="A1909" s="2" t="s">
         <v>2015</v>
       </c>
+      <c r="B1909" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="1910" spans="1:8">
       <c r="A1910" s="2" t="s">
@@ -25171,8 +25222,8 @@
       <c r="A1916" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="B1916" s="4" t="s">
-        <v>111</v>
+      <c r="B1916" s="3" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="1917" spans="1:8">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -6640,49 +6640,49 @@
         <v>1937</v>
       </c>
       <c r="D3">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E3">
         <v>3709</v>
       </c>
       <c r="F3">
-        <v>6606</v>
+        <v>6607</v>
       </c>
       <c r="G3">
-        <v>9792</v>
+        <v>9794</v>
       </c>
       <c r="H3">
-        <v>11738</v>
+        <v>11740</v>
       </c>
       <c r="I3">
-        <v>15685</v>
+        <v>15689</v>
       </c>
       <c r="J3">
-        <v>21650</v>
+        <v>21659</v>
       </c>
       <c r="K3">
-        <v>24449</v>
+        <v>24457</v>
       </c>
       <c r="L3">
-        <v>37912</v>
+        <v>37924</v>
       </c>
       <c r="M3">
-        <v>39899</v>
+        <v>39906</v>
       </c>
       <c r="N3">
-        <v>62301</v>
+        <v>62320</v>
       </c>
       <c r="O3">
-        <v>65373</v>
+        <v>65394</v>
       </c>
       <c r="P3">
-        <v>116733</v>
+        <v>116763</v>
       </c>
       <c r="Q3">
-        <v>138036</v>
+        <v>138073</v>
       </c>
       <c r="R3">
-        <v>246074</v>
+        <v>246114</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6746,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="C5">
         <v>1248</v>
@@ -9802,7 +9802,7 @@
         <v>248</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>76</v>

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4883" uniqueCount="2041">
   <si>
     <t>№</t>
   </si>
@@ -6637,52 +6637,52 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="D3">
         <v>3482</v>
       </c>
       <c r="E3">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="F3">
-        <v>6607</v>
+        <v>6608</v>
       </c>
       <c r="G3">
-        <v>9794</v>
+        <v>9796</v>
       </c>
       <c r="H3">
-        <v>11740</v>
+        <v>11741</v>
       </c>
       <c r="I3">
-        <v>15689</v>
+        <v>15697</v>
       </c>
       <c r="J3">
-        <v>21659</v>
+        <v>21676</v>
       </c>
       <c r="K3">
-        <v>24457</v>
+        <v>24466</v>
       </c>
       <c r="L3">
-        <v>37924</v>
+        <v>37951</v>
       </c>
       <c r="M3">
-        <v>39906</v>
+        <v>39932</v>
       </c>
       <c r="N3">
-        <v>62320</v>
+        <v>62359</v>
       </c>
       <c r="O3">
-        <v>65394</v>
+        <v>65435</v>
       </c>
       <c r="P3">
-        <v>116763</v>
+        <v>116828</v>
       </c>
       <c r="Q3">
-        <v>138073</v>
+        <v>138151</v>
       </c>
       <c r="R3">
-        <v>246114</v>
+        <v>246258</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6690,7 +6690,7 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>26090</v>
+        <v>26205</v>
       </c>
       <c r="C4">
         <v>6677</v>
@@ -6746,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2058</v>
+        <v>2078</v>
       </c>
       <c r="C5">
         <v>1248</v>
@@ -6802,7 +6802,7 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C6">
         <v>282</v>
@@ -6914,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="C8">
         <v>368</v>
@@ -6970,7 +6970,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>80</v>
@@ -18536,6 +18536,9 @@
       <c r="A991" s="2" t="s">
         <v>1093</v>
       </c>
+      <c r="B991" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" s="2" t="s">
@@ -18615,6 +18618,9 @@
       <c r="A1002" s="2" t="s">
         <v>1104</v>
       </c>
+      <c r="B1002" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" s="2" t="s">
@@ -18723,6 +18729,9 @@
       <c r="A1017" s="2" t="s">
         <v>1119</v>
       </c>
+      <c r="B1017" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="1018" spans="1:7">
       <c r="A1018" s="2" t="s">
@@ -18746,6 +18755,9 @@
       <c r="A1021" s="2" t="s">
         <v>1123</v>
       </c>
+      <c r="B1021" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1021" s="3" t="s">
         <v>47</v>
       </c>
@@ -18754,6 +18766,9 @@
       <c r="A1022" s="2" t="s">
         <v>1124</v>
       </c>
+      <c r="B1022" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1022" s="3" t="s">
         <v>51</v>
       </c>
@@ -18798,6 +18813,9 @@
       <c r="A1029" s="2" t="s">
         <v>1131</v>
       </c>
+      <c r="B1029" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1029" s="3" t="s">
         <v>47</v>
       </c>
@@ -18900,6 +18918,9 @@
       <c r="A1044" s="2" t="s">
         <v>1146</v>
       </c>
+      <c r="B1044" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="1045" spans="1:11">
       <c r="A1045" s="2" t="s">
@@ -18941,6 +18962,9 @@
       <c r="A1048" s="2" t="s">
         <v>1150</v>
       </c>
+      <c r="B1048" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C1048" s="3" t="s">
         <v>68</v>
       </c>
@@ -18989,6 +19013,9 @@
       <c r="A1054" s="2" t="s">
         <v>1156</v>
       </c>
+      <c r="B1054" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1055" spans="1:11">
       <c r="A1055" s="2" t="s">
@@ -18999,6 +19026,9 @@
       <c r="A1056" s="2" t="s">
         <v>1158</v>
       </c>
+      <c r="B1056" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="2" t="s">
@@ -19122,6 +19152,9 @@
       <c r="A1080" s="2" t="s">
         <v>1182</v>
       </c>
+      <c r="B1080" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="1081" spans="1:11">
       <c r="A1081" s="2" t="s">
@@ -19327,6 +19360,9 @@
       <c r="A1103" s="2" t="s">
         <v>1206</v>
       </c>
+      <c r="B1103" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C1103" s="4" t="s">
         <v>116</v>
       </c>
@@ -19335,6 +19371,9 @@
       <c r="A1104" s="2" t="s">
         <v>1207</v>
       </c>
+      <c r="B1104" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="1105" spans="1:9">
       <c r="A1105" s="2" t="s">
@@ -19935,8 +19974,8 @@
       <c r="A1152" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="B1152" s="4" t="s">
-        <v>76</v>
+      <c r="B1152" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G1152" s="4" t="s">
         <v>76</v>
@@ -19946,8 +19985,8 @@
       <c r="A1153" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="B1153" s="4" t="s">
-        <v>76</v>
+      <c r="B1153" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="1154" spans="1:7">
@@ -21074,8 +21113,8 @@
       <c r="A1294" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="B1294" s="4" t="s">
-        <v>79</v>
+      <c r="B1294" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="1295" spans="1:2">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4883" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="2041">
   <si>
     <t>№</t>
   </si>
@@ -1123,7 +1123,7 @@
     <t>272</t>
   </si>
   <si>
-    <t>5+, 3-</t>
+    <t>6+, 3-</t>
   </si>
   <si>
     <t>273</t>
@@ -6637,52 +6637,52 @@
         <v>71</v>
       </c>
       <c r="C3">
-        <v>1938</v>
+        <v>1899</v>
       </c>
       <c r="D3">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E3">
-        <v>3710</v>
+        <v>3669</v>
       </c>
       <c r="F3">
-        <v>6608</v>
+        <v>6610</v>
       </c>
       <c r="G3">
-        <v>9796</v>
+        <v>9801</v>
       </c>
       <c r="H3">
-        <v>11741</v>
+        <v>11744</v>
       </c>
       <c r="I3">
-        <v>15697</v>
+        <v>15708</v>
       </c>
       <c r="J3">
-        <v>21676</v>
+        <v>21687</v>
       </c>
       <c r="K3">
-        <v>24466</v>
+        <v>24483</v>
       </c>
       <c r="L3">
-        <v>37951</v>
+        <v>37969</v>
       </c>
       <c r="M3">
-        <v>39932</v>
+        <v>39951</v>
       </c>
       <c r="N3">
-        <v>62359</v>
+        <v>62398</v>
       </c>
       <c r="O3">
-        <v>65435</v>
+        <v>65472</v>
       </c>
       <c r="P3">
-        <v>116828</v>
+        <v>116883</v>
       </c>
       <c r="Q3">
-        <v>138151</v>
+        <v>138207</v>
       </c>
       <c r="R3">
-        <v>246258</v>
+        <v>246391</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -6693,13 +6693,13 @@
         <v>26205</v>
       </c>
       <c r="C4">
-        <v>6677</v>
+        <v>6754</v>
       </c>
       <c r="D4">
         <v>4571</v>
       </c>
       <c r="E4">
-        <v>4361</v>
+        <v>4403</v>
       </c>
       <c r="F4">
         <v>2874</v>
@@ -6746,22 +6746,22 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C5">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D5">
         <v>748</v>
       </c>
       <c r="E5">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F5">
         <v>389</v>
       </c>
       <c r="G5">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H5">
         <v>363</v>
@@ -6805,13 +6805,13 @@
         <v>760</v>
       </c>
       <c r="C6">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D6">
         <v>226</v>
       </c>
       <c r="E6">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F6">
         <v>146</v>
@@ -6867,13 +6867,13 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>9</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -6917,13 +6917,13 @@
         <v>1067</v>
       </c>
       <c r="C8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D8">
         <v>251</v>
       </c>
       <c r="E8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8">
         <v>163</v>
@@ -6979,13 +6979,13 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -10651,8 +10651,11 @@
       <c r="B254" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E254" s="4" t="s">
-        <v>211</v>
+      <c r="C254" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -17239,11 +17242,17 @@
       <c r="B878" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C878" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D878" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E878" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="G878" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="879" spans="1:11">

--- a/groups/22-23/results.xlsx
+++ b/groups/22-23/results.xlsx
@@ -6667,10 +6667,10 @@
         <v>37969</v>
       </c>
       <c r="M3">
-        <v>39951</v>
+        <v>39952</v>
       </c>
       <c r="N3">
-        <v>62398</v>
+        <v>62399</v>
       </c>
       <c r="O3">
         <v>65472</v>
